--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC229"/>
+  <dimension ref="A1:AC228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9510,7 +9510,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5461531</v>
+        <v>5470380</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9522,76 +9522,76 @@
         <v>45073.625</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K102">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L102">
+        <v>3.6</v>
+      </c>
+      <c r="M102">
+        <v>3.6</v>
+      </c>
+      <c r="N102">
+        <v>1.75</v>
+      </c>
+      <c r="O102">
+        <v>3.8</v>
+      </c>
+      <c r="P102">
         <v>4.5</v>
       </c>
-      <c r="M102">
-        <v>1.4</v>
-      </c>
-      <c r="N102">
-        <v>5.75</v>
-      </c>
-      <c r="O102">
-        <v>4.75</v>
-      </c>
-      <c r="P102">
-        <v>1.5</v>
-      </c>
       <c r="Q102">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R102">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T102">
         <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V102">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X102">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC102">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9599,7 +9599,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5470380</v>
+        <v>5461530</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9611,58 +9611,58 @@
         <v>45073.625</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H103">
         <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>45</v>
       </c>
       <c r="K103">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N103">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O103">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q103">
         <v>-0.75</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S103">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T103">
         <v>2.75</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W103">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9671,16 +9671,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9688,7 +9688,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5461530</v>
+        <v>5461531</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9700,67 +9700,67 @@
         <v>45073.625</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K104">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M104">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="N104">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P104">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q104">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R104">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S104">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W104">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA104">
         <v>-1</v>
@@ -9769,7 +9769,7 @@
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -20546,7 +20546,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6818316</v>
+        <v>6818320</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20555,34 +20555,34 @@
         <v>28</v>
       </c>
       <c r="E226" s="2">
-        <v>45339.375</v>
+        <v>45339.47916666666</v>
       </c>
       <c r="F226" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G226" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K226">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L226">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M226">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="N226">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O226">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P226">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R226">
         <v>1.925</v>
@@ -20591,13 +20591,13 @@
         <v>1.925</v>
       </c>
       <c r="T226">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U226">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V226">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W226">
         <v>0</v>
@@ -20620,7 +20620,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6818320</v>
+        <v>6818318</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20629,28 +20629,28 @@
         <v>28</v>
       </c>
       <c r="E227" s="2">
-        <v>45339.47916666666</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="F227" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G227" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K227">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L227">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M227">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="N227">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O227">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P227">
         <v>2.6</v>
@@ -20659,19 +20659,19 @@
         <v>0</v>
       </c>
       <c r="R227">
+        <v>1.975</v>
+      </c>
+      <c r="S227">
+        <v>1.875</v>
+      </c>
+      <c r="T227">
+        <v>2.75</v>
+      </c>
+      <c r="U227">
         <v>2.025</v>
       </c>
-      <c r="S227">
+      <c r="V227">
         <v>1.825</v>
-      </c>
-      <c r="T227">
-        <v>2.25</v>
-      </c>
-      <c r="U227">
-        <v>1.8</v>
-      </c>
-      <c r="V227">
-        <v>2.05</v>
       </c>
       <c r="W227">
         <v>0</v>
@@ -20694,7 +20694,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6818318</v>
+        <v>6818319</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20703,40 +20703,40 @@
         <v>28</v>
       </c>
       <c r="E228" s="2">
-        <v>45340.45833333334</v>
+        <v>45340.5625</v>
       </c>
       <c r="F228" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G228" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K228">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="L228">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M228">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N228">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="O228">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P228">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R228">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S228">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T228">
         <v>2.75</v>
@@ -20760,80 +20760,6 @@
         <v>0</v>
       </c>
       <c r="AA228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:29">
-      <c r="A229" s="1">
-        <v>227</v>
-      </c>
-      <c r="B229">
-        <v>6818319</v>
-      </c>
-      <c r="C229" t="s">
-        <v>28</v>
-      </c>
-      <c r="D229" t="s">
-        <v>28</v>
-      </c>
-      <c r="E229" s="2">
-        <v>45340.5625</v>
-      </c>
-      <c r="F229" t="s">
-        <v>37</v>
-      </c>
-      <c r="G229" t="s">
-        <v>41</v>
-      </c>
-      <c r="K229">
-        <v>1.65</v>
-      </c>
-      <c r="L229">
-        <v>3.8</v>
-      </c>
-      <c r="M229">
-        <v>5</v>
-      </c>
-      <c r="N229">
-        <v>1.55</v>
-      </c>
-      <c r="O229">
-        <v>4</v>
-      </c>
-      <c r="P229">
-        <v>5.75</v>
-      </c>
-      <c r="Q229">
-        <v>-1</v>
-      </c>
-      <c r="R229">
-        <v>1.95</v>
-      </c>
-      <c r="S229">
-        <v>1.9</v>
-      </c>
-      <c r="T229">
-        <v>2.75</v>
-      </c>
-      <c r="U229">
-        <v>2</v>
-      </c>
-      <c r="V229">
-        <v>1.85</v>
-      </c>
-      <c r="W229">
-        <v>0</v>
-      </c>
-      <c r="X229">
-        <v>0</v>
-      </c>
-      <c r="Y229">
-        <v>0</v>
-      </c>
-      <c r="Z229">
-        <v>0</v>
-      </c>
-      <c r="AA229">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC228"/>
+  <dimension ref="A1:AC227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20546,7 +20546,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6818320</v>
+        <v>6818318</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20555,49 +20555,49 @@
         <v>28</v>
       </c>
       <c r="E226" s="2">
-        <v>45339.47916666666</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="F226" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G226" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K226">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L226">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M226">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="N226">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O226">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P226">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q226">
         <v>0</v>
       </c>
       <c r="R226">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S226">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T226">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U226">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V226">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W226">
         <v>0</v>
@@ -20620,7 +20620,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6818318</v>
+        <v>6818319</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20629,34 +20629,34 @@
         <v>28</v>
       </c>
       <c r="E227" s="2">
-        <v>45340.45833333334</v>
+        <v>45340.5625</v>
       </c>
       <c r="F227" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G227" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K227">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="L227">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M227">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N227">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="O227">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P227">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R227">
         <v>1.975</v>
@@ -20686,80 +20686,6 @@
         <v>0</v>
       </c>
       <c r="AA227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:29">
-      <c r="A228" s="1">
-        <v>226</v>
-      </c>
-      <c r="B228">
-        <v>6818319</v>
-      </c>
-      <c r="C228" t="s">
-        <v>28</v>
-      </c>
-      <c r="D228" t="s">
-        <v>28</v>
-      </c>
-      <c r="E228" s="2">
-        <v>45340.5625</v>
-      </c>
-      <c r="F228" t="s">
-        <v>37</v>
-      </c>
-      <c r="G228" t="s">
-        <v>41</v>
-      </c>
-      <c r="K228">
-        <v>1.65</v>
-      </c>
-      <c r="L228">
-        <v>3.8</v>
-      </c>
-      <c r="M228">
-        <v>5</v>
-      </c>
-      <c r="N228">
-        <v>1.533</v>
-      </c>
-      <c r="O228">
-        <v>4</v>
-      </c>
-      <c r="P228">
-        <v>6</v>
-      </c>
-      <c r="Q228">
-        <v>-1</v>
-      </c>
-      <c r="R228">
-        <v>1.925</v>
-      </c>
-      <c r="S228">
-        <v>1.925</v>
-      </c>
-      <c r="T228">
-        <v>2.75</v>
-      </c>
-      <c r="U228">
-        <v>2.025</v>
-      </c>
-      <c r="V228">
-        <v>1.825</v>
-      </c>
-      <c r="W228">
-        <v>0</v>
-      </c>
-      <c r="X228">
-        <v>0</v>
-      </c>
-      <c r="Y228">
-        <v>0</v>
-      </c>
-      <c r="Z228">
-        <v>0</v>
-      </c>
-      <c r="AA228">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC227"/>
+  <dimension ref="A1:AC235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9510,7 +9510,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5470380</v>
+        <v>5461530</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9522,58 +9522,58 @@
         <v>45073.625</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H102">
         <v>2</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>45</v>
       </c>
       <c r="K102">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L102">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N102">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O102">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q102">
         <v>-0.75</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
         <v>2.75</v>
       </c>
       <c r="U102">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W102">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9582,16 +9582,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9599,7 +9599,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5461530</v>
+        <v>5461531</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9611,67 +9611,67 @@
         <v>45073.625</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="L103">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="N103">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P103">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R103">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S103">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T103">
         <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W103">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA103">
         <v>-1</v>
@@ -9680,7 +9680,7 @@
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9688,7 +9688,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5461531</v>
+        <v>5470380</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9700,76 +9700,76 @@
         <v>45073.625</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K104">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L104">
+        <v>3.6</v>
+      </c>
+      <c r="M104">
+        <v>3.6</v>
+      </c>
+      <c r="N104">
+        <v>1.75</v>
+      </c>
+      <c r="O104">
+        <v>3.8</v>
+      </c>
+      <c r="P104">
         <v>4.5</v>
       </c>
-      <c r="M104">
-        <v>1.4</v>
-      </c>
-      <c r="N104">
-        <v>5.75</v>
-      </c>
-      <c r="O104">
-        <v>4.75</v>
-      </c>
-      <c r="P104">
-        <v>1.5</v>
-      </c>
       <c r="Q104">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R104">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S104">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V104">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X104">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC104">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -20546,7 +20546,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6818318</v>
+        <v>6818316</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20555,64 +20555,79 @@
         <v>28</v>
       </c>
       <c r="E226" s="2">
-        <v>45340.45833333334</v>
+        <v>45339.375</v>
       </c>
       <c r="F226" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G226" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226" t="s">
+        <v>45</v>
       </c>
       <c r="K226">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L226">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M226">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="N226">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O226">
         <v>3.4</v>
       </c>
       <c r="P226">
+        <v>3.2</v>
+      </c>
+      <c r="Q226">
+        <v>-0.25</v>
+      </c>
+      <c r="R226">
+        <v>1.875</v>
+      </c>
+      <c r="S226">
+        <v>1.975</v>
+      </c>
+      <c r="T226">
         <v>2.5</v>
       </c>
-      <c r="Q226">
-        <v>0</v>
-      </c>
-      <c r="R226">
-        <v>2.05</v>
-      </c>
-      <c r="S226">
-        <v>1.8</v>
-      </c>
-      <c r="T226">
-        <v>2.75</v>
-      </c>
       <c r="U226">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V226">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W226">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA226">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB226">
+        <v>-1</v>
+      </c>
+      <c r="AC226">
+        <v>0.95</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20620,7 +20635,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6818319</v>
+        <v>6818320</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20629,34 +20644,43 @@
         <v>28</v>
       </c>
       <c r="E227" s="2">
-        <v>45340.5625</v>
+        <v>45339.47916666666</v>
       </c>
       <c r="F227" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G227" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227" t="s">
+        <v>43</v>
       </c>
       <c r="K227">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="L227">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M227">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="N227">
-        <v>1.55</v>
+        <v>2.75</v>
       </c>
       <c r="O227">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P227">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q227">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R227">
         <v>1.975</v>
@@ -20665,27 +20689,655 @@
         <v>1.875</v>
       </c>
       <c r="T227">
+        <v>2.25</v>
+      </c>
+      <c r="U227">
+        <v>2</v>
+      </c>
+      <c r="V227">
+        <v>1.85</v>
+      </c>
+      <c r="W227">
+        <v>-1</v>
+      </c>
+      <c r="X227">
+        <v>-1</v>
+      </c>
+      <c r="Y227">
+        <v>1.625</v>
+      </c>
+      <c r="Z227">
+        <v>-1</v>
+      </c>
+      <c r="AA227">
+        <v>0.875</v>
+      </c>
+      <c r="AB227">
+        <v>1</v>
+      </c>
+      <c r="AC227">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>6818318</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45340.45833333334</v>
+      </c>
+      <c r="F228" t="s">
+        <v>39</v>
+      </c>
+      <c r="G228" t="s">
+        <v>31</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228" t="s">
+        <v>45</v>
+      </c>
+      <c r="K228">
+        <v>2.6</v>
+      </c>
+      <c r="L228">
+        <v>3.4</v>
+      </c>
+      <c r="M228">
+        <v>2.55</v>
+      </c>
+      <c r="N228">
         <v>2.75</v>
       </c>
-      <c r="U227">
+      <c r="O228">
+        <v>3.4</v>
+      </c>
+      <c r="P228">
+        <v>2.45</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>2.05</v>
+      </c>
+      <c r="S228">
+        <v>1.8</v>
+      </c>
+      <c r="T228">
+        <v>2.5</v>
+      </c>
+      <c r="U228">
+        <v>1.85</v>
+      </c>
+      <c r="V228">
+        <v>2</v>
+      </c>
+      <c r="W228">
+        <v>1.75</v>
+      </c>
+      <c r="X228">
+        <v>-1</v>
+      </c>
+      <c r="Y228">
+        <v>-1</v>
+      </c>
+      <c r="Z228">
+        <v>1.05</v>
+      </c>
+      <c r="AA228">
+        <v>-1</v>
+      </c>
+      <c r="AB228">
+        <v>-1</v>
+      </c>
+      <c r="AC228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>6818319</v>
+      </c>
+      <c r="C229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45340.5625</v>
+      </c>
+      <c r="F229" t="s">
+        <v>37</v>
+      </c>
+      <c r="G229" t="s">
+        <v>41</v>
+      </c>
+      <c r="H229">
+        <v>6</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229" t="s">
+        <v>45</v>
+      </c>
+      <c r="K229">
+        <v>1.65</v>
+      </c>
+      <c r="L229">
+        <v>3.8</v>
+      </c>
+      <c r="M229">
+        <v>5</v>
+      </c>
+      <c r="N229">
+        <v>1.571</v>
+      </c>
+      <c r="O229">
+        <v>3.8</v>
+      </c>
+      <c r="P229">
+        <v>5.5</v>
+      </c>
+      <c r="Q229">
+        <v>-0.75</v>
+      </c>
+      <c r="R229">
+        <v>1.85</v>
+      </c>
+      <c r="S229">
+        <v>2</v>
+      </c>
+      <c r="T229">
+        <v>2.5</v>
+      </c>
+      <c r="U229">
+        <v>1.825</v>
+      </c>
+      <c r="V229">
         <v>2.025</v>
       </c>
-      <c r="V227">
+      <c r="W229">
+        <v>0.571</v>
+      </c>
+      <c r="X229">
+        <v>-1</v>
+      </c>
+      <c r="Y229">
+        <v>-1</v>
+      </c>
+      <c r="Z229">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA229">
+        <v>-1</v>
+      </c>
+      <c r="AB229">
+        <v>0.825</v>
+      </c>
+      <c r="AC229">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>6818324</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45345.66666666666</v>
+      </c>
+      <c r="F230" t="s">
+        <v>41</v>
+      </c>
+      <c r="G230" t="s">
+        <v>33</v>
+      </c>
+      <c r="K230">
+        <v>1.8</v>
+      </c>
+      <c r="L230">
+        <v>3.6</v>
+      </c>
+      <c r="M230">
+        <v>3.9</v>
+      </c>
+      <c r="N230">
+        <v>1.85</v>
+      </c>
+      <c r="O230">
+        <v>3.4</v>
+      </c>
+      <c r="P230">
+        <v>3.8</v>
+      </c>
+      <c r="Q230">
+        <v>-0.5</v>
+      </c>
+      <c r="R230">
+        <v>1.925</v>
+      </c>
+      <c r="S230">
+        <v>1.925</v>
+      </c>
+      <c r="T230">
+        <v>2.5</v>
+      </c>
+      <c r="U230">
+        <v>2.025</v>
+      </c>
+      <c r="V230">
         <v>1.825</v>
       </c>
-      <c r="W227">
+      <c r="W230">
         <v>0</v>
       </c>
-      <c r="X227">
+      <c r="X230">
         <v>0</v>
       </c>
-      <c r="Y227">
+      <c r="Y230">
         <v>0</v>
       </c>
-      <c r="Z227">
+      <c r="Z230">
         <v>0</v>
       </c>
-      <c r="AA227">
+      <c r="AA230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>6818327</v>
+      </c>
+      <c r="C231" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45346.35416666666</v>
+      </c>
+      <c r="F231" t="s">
+        <v>29</v>
+      </c>
+      <c r="G231" t="s">
+        <v>35</v>
+      </c>
+      <c r="K231">
+        <v>2.4</v>
+      </c>
+      <c r="L231">
+        <v>3.2</v>
+      </c>
+      <c r="M231">
+        <v>2.8</v>
+      </c>
+      <c r="N231">
+        <v>2.4</v>
+      </c>
+      <c r="O231">
+        <v>3.1</v>
+      </c>
+      <c r="P231">
+        <v>2.8</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>1.775</v>
+      </c>
+      <c r="S231">
+        <v>2.1</v>
+      </c>
+      <c r="T231">
+        <v>2.5</v>
+      </c>
+      <c r="U231">
+        <v>2</v>
+      </c>
+      <c r="V231">
+        <v>1.85</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>6818326</v>
+      </c>
+      <c r="C232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45346.45833333334</v>
+      </c>
+      <c r="F232" t="s">
+        <v>42</v>
+      </c>
+      <c r="G232" t="s">
+        <v>39</v>
+      </c>
+      <c r="K232">
+        <v>2.25</v>
+      </c>
+      <c r="L232">
+        <v>3.6</v>
+      </c>
+      <c r="M232">
+        <v>2.75</v>
+      </c>
+      <c r="N232">
+        <v>2.1</v>
+      </c>
+      <c r="O232">
+        <v>3.6</v>
+      </c>
+      <c r="P232">
+        <v>3</v>
+      </c>
+      <c r="Q232">
+        <v>-0.25</v>
+      </c>
+      <c r="R232">
+        <v>1.85</v>
+      </c>
+      <c r="S232">
+        <v>2</v>
+      </c>
+      <c r="T232">
+        <v>2.75</v>
+      </c>
+      <c r="U232">
+        <v>1.875</v>
+      </c>
+      <c r="V232">
+        <v>1.975</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>6818325</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" t="s">
+        <v>28</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45346.5625</v>
+      </c>
+      <c r="F233" t="s">
+        <v>31</v>
+      </c>
+      <c r="G233" t="s">
+        <v>37</v>
+      </c>
+      <c r="K233">
+        <v>2.25</v>
+      </c>
+      <c r="L233">
+        <v>3.4</v>
+      </c>
+      <c r="M233">
+        <v>2.875</v>
+      </c>
+      <c r="N233">
+        <v>2.25</v>
+      </c>
+      <c r="O233">
+        <v>3.3</v>
+      </c>
+      <c r="P233">
+        <v>2.9</v>
+      </c>
+      <c r="Q233">
+        <v>-0.25</v>
+      </c>
+      <c r="R233">
+        <v>2.05</v>
+      </c>
+      <c r="S233">
+        <v>1.8</v>
+      </c>
+      <c r="T233">
+        <v>2.5</v>
+      </c>
+      <c r="U233">
+        <v>1.975</v>
+      </c>
+      <c r="V233">
+        <v>1.875</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>6818323</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45347.45833333334</v>
+      </c>
+      <c r="F234" t="s">
+        <v>30</v>
+      </c>
+      <c r="G234" t="s">
+        <v>36</v>
+      </c>
+      <c r="K234">
+        <v>3.5</v>
+      </c>
+      <c r="L234">
+        <v>3.7</v>
+      </c>
+      <c r="M234">
+        <v>1.9</v>
+      </c>
+      <c r="N234">
+        <v>3.5</v>
+      </c>
+      <c r="O234">
+        <v>3.6</v>
+      </c>
+      <c r="P234">
+        <v>1.909</v>
+      </c>
+      <c r="Q234">
+        <v>0.5</v>
+      </c>
+      <c r="R234">
+        <v>1.875</v>
+      </c>
+      <c r="S234">
+        <v>1.975</v>
+      </c>
+      <c r="T234">
+        <v>2.75</v>
+      </c>
+      <c r="U234">
+        <v>2</v>
+      </c>
+      <c r="V234">
+        <v>1.85</v>
+      </c>
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>6818322</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45347.5625</v>
+      </c>
+      <c r="F235" t="s">
+        <v>34</v>
+      </c>
+      <c r="G235" t="s">
+        <v>32</v>
+      </c>
+      <c r="K235">
+        <v>5.2</v>
+      </c>
+      <c r="L235">
+        <v>4</v>
+      </c>
+      <c r="M235">
+        <v>1.55</v>
+      </c>
+      <c r="N235">
+        <v>5.5</v>
+      </c>
+      <c r="O235">
+        <v>4</v>
+      </c>
+      <c r="P235">
+        <v>1.533</v>
+      </c>
+      <c r="Q235">
+        <v>1</v>
+      </c>
+      <c r="R235">
+        <v>1.975</v>
+      </c>
+      <c r="S235">
+        <v>1.875</v>
+      </c>
+      <c r="T235">
+        <v>2.75</v>
+      </c>
+      <c r="U235">
+        <v>1.8</v>
+      </c>
+      <c r="V235">
+        <v>2.05</v>
+      </c>
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235">
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AA235">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -20929,31 +20929,31 @@
         <v>3.9</v>
       </c>
       <c r="N230">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O230">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P230">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q230">
         <v>-0.5</v>
       </c>
       <c r="R230">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S230">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T230">
         <v>2.5</v>
       </c>
       <c r="U230">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V230">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W230">
         <v>0</v>
@@ -21024,10 +21024,10 @@
         <v>2.5</v>
       </c>
       <c r="U231">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V231">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W231">
         <v>0</v>
@@ -21089,10 +21089,10 @@
         <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S232">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T232">
         <v>2.75</v>
@@ -21151,31 +21151,31 @@
         <v>2.875</v>
       </c>
       <c r="N233">
+        <v>2.5</v>
+      </c>
+      <c r="O233">
+        <v>3.2</v>
+      </c>
+      <c r="P233">
+        <v>2.7</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>1.85</v>
+      </c>
+      <c r="S233">
+        <v>2</v>
+      </c>
+      <c r="T233">
         <v>2.25</v>
       </c>
-      <c r="O233">
-        <v>3.3</v>
-      </c>
-      <c r="P233">
-        <v>2.9</v>
-      </c>
-      <c r="Q233">
-        <v>-0.25</v>
-      </c>
-      <c r="R233">
+      <c r="U233">
+        <v>1.8</v>
+      </c>
+      <c r="V233">
         <v>2.05</v>
-      </c>
-      <c r="S233">
-        <v>1.8</v>
-      </c>
-      <c r="T233">
-        <v>2.5</v>
-      </c>
-      <c r="U233">
-        <v>1.975</v>
-      </c>
-      <c r="V233">
-        <v>1.875</v>
       </c>
       <c r="W233">
         <v>0</v>
@@ -21225,31 +21225,31 @@
         <v>1.9</v>
       </c>
       <c r="N234">
+        <v>3.2</v>
+      </c>
+      <c r="O234">
         <v>3.5</v>
       </c>
-      <c r="O234">
-        <v>3.6</v>
-      </c>
       <c r="P234">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="Q234">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R234">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S234">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T234">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U234">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V234">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W234">
         <v>0</v>
@@ -21311,19 +21311,19 @@
         <v>1</v>
       </c>
       <c r="R235">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S235">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T235">
         <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V235">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W235">
         <v>0</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -21077,22 +21077,22 @@
         <v>2.75</v>
       </c>
       <c r="N232">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O232">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P232">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q232">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R232">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S232">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T232">
         <v>2.75</v>
@@ -21225,31 +21225,31 @@
         <v>1.9</v>
       </c>
       <c r="N234">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O234">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P234">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q234">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R234">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S234">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T234">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U234">
+        <v>2.025</v>
+      </c>
+      <c r="V234">
         <v>1.825</v>
-      </c>
-      <c r="V234">
-        <v>2.025</v>
       </c>
       <c r="W234">
         <v>0</v>
@@ -21299,31 +21299,31 @@
         <v>1.55</v>
       </c>
       <c r="N235">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O235">
         <v>4</v>
       </c>
       <c r="P235">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="Q235">
         <v>1</v>
       </c>
       <c r="R235">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S235">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T235">
         <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V235">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W235">
         <v>0</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -9510,7 +9510,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5461530</v>
+        <v>5461531</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9522,67 +9522,67 @@
         <v>45073.625</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K102">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M102">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="N102">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P102">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T102">
         <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W102">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA102">
         <v>-1</v>
@@ -9591,7 +9591,7 @@
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9599,7 +9599,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5461531</v>
+        <v>5470380</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9611,76 +9611,76 @@
         <v>45073.625</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K103">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L103">
+        <v>3.6</v>
+      </c>
+      <c r="M103">
+        <v>3.6</v>
+      </c>
+      <c r="N103">
+        <v>1.75</v>
+      </c>
+      <c r="O103">
+        <v>3.8</v>
+      </c>
+      <c r="P103">
         <v>4.5</v>
       </c>
-      <c r="M103">
-        <v>1.4</v>
-      </c>
-      <c r="N103">
-        <v>5.75</v>
-      </c>
-      <c r="O103">
-        <v>4.75</v>
-      </c>
-      <c r="P103">
-        <v>1.5</v>
-      </c>
       <c r="Q103">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R103">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T103">
         <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X103">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC103">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9688,7 +9688,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5470380</v>
+        <v>5461530</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9700,58 +9700,58 @@
         <v>45073.625</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H104">
         <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>45</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N104">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O104">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q104">
         <v>-0.75</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S104">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9760,16 +9760,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -21077,31 +21077,31 @@
         <v>2.75</v>
       </c>
       <c r="N232">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O232">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P232">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q232">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S232">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T232">
         <v>2.75</v>
       </c>
       <c r="U232">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V232">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W232">
         <v>0</v>
@@ -21311,19 +21311,19 @@
         <v>1</v>
       </c>
       <c r="R235">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S235">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T235">
         <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V235">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W235">
         <v>0</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -21003,31 +21003,31 @@
         <v>2.8</v>
       </c>
       <c r="N231">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O231">
         <v>3.1</v>
       </c>
       <c r="P231">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R231">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S231">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T231">
         <v>2.5</v>
       </c>
       <c r="U231">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V231">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W231">
         <v>0</v>
@@ -21077,31 +21077,31 @@
         <v>2.75</v>
       </c>
       <c r="N232">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O232">
         <v>3.6</v>
       </c>
       <c r="P232">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q232">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R232">
+        <v>2</v>
+      </c>
+      <c r="S232">
         <v>1.85</v>
-      </c>
-      <c r="S232">
-        <v>2</v>
       </c>
       <c r="T232">
         <v>2.75</v>
       </c>
       <c r="U232">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V232">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W232">
         <v>0</v>
@@ -21169,13 +21169,13 @@
         <v>2</v>
       </c>
       <c r="T233">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
+        <v>2.05</v>
+      </c>
+      <c r="V233">
         <v>1.8</v>
-      </c>
-      <c r="V233">
-        <v>2.05</v>
       </c>
       <c r="W233">
         <v>0</v>
@@ -21228,28 +21228,28 @@
         <v>3.3</v>
       </c>
       <c r="O234">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P234">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="Q234">
         <v>0.5</v>
       </c>
       <c r="R234">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S234">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T234">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U234">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V234">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W234">
         <v>0</v>
@@ -21299,22 +21299,22 @@
         <v>1.55</v>
       </c>
       <c r="N235">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="O235">
         <v>4</v>
       </c>
       <c r="P235">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="Q235">
         <v>1</v>
       </c>
       <c r="R235">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S235">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T235">
         <v>2.75</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -9510,7 +9510,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5461531</v>
+        <v>5461530</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9522,67 +9522,67 @@
         <v>45073.625</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K102">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="L102">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="N102">
-        <v>5.75</v>
+        <v>1.7</v>
       </c>
       <c r="O102">
+        <v>4</v>
+      </c>
+      <c r="P102">
         <v>4.75</v>
       </c>
-      <c r="P102">
-        <v>1.5</v>
-      </c>
       <c r="Q102">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R102">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
         <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X102">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA102">
         <v>-1</v>
@@ -9591,7 +9591,7 @@
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9599,7 +9599,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5470380</v>
+        <v>5461531</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9611,76 +9611,76 @@
         <v>45073.625</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103" t="s">
+        <v>44</v>
+      </c>
+      <c r="K103">
+        <v>6</v>
+      </c>
+      <c r="L103">
+        <v>4.5</v>
+      </c>
+      <c r="M103">
+        <v>1.4</v>
+      </c>
+      <c r="N103">
+        <v>5.75</v>
+      </c>
+      <c r="O103">
+        <v>4.75</v>
+      </c>
+      <c r="P103">
+        <v>1.5</v>
+      </c>
+      <c r="Q103">
         <v>1</v>
       </c>
-      <c r="J103" t="s">
-        <v>45</v>
-      </c>
-      <c r="K103">
-        <v>2</v>
-      </c>
-      <c r="L103">
-        <v>3.6</v>
-      </c>
-      <c r="M103">
-        <v>3.6</v>
-      </c>
-      <c r="N103">
-        <v>1.75</v>
-      </c>
-      <c r="O103">
-        <v>3.8</v>
-      </c>
-      <c r="P103">
-        <v>4.5</v>
-      </c>
-      <c r="Q103">
-        <v>-0.75</v>
-      </c>
       <c r="R103">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S103">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T103">
         <v>2.75</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W103">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9688,7 +9688,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5461530</v>
+        <v>5470380</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9700,58 +9700,58 @@
         <v>45073.625</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H104">
         <v>2</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
         <v>45</v>
       </c>
       <c r="K104">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N104">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P104">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q104">
         <v>-0.75</v>
       </c>
       <c r="R104">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S104">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9760,16 +9760,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC104">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -20919,6 +20919,15 @@
       <c r="G230" t="s">
         <v>33</v>
       </c>
+      <c r="H230">
+        <v>3</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230" t="s">
+        <v>45</v>
+      </c>
       <c r="K230">
         <v>1.8</v>
       </c>
@@ -20932,43 +20941,49 @@
         <v>1.909</v>
       </c>
       <c r="O230">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P230">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q230">
         <v>-0.5</v>
       </c>
       <c r="R230">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S230">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
+        <v>1.875</v>
+      </c>
+      <c r="V230">
         <v>1.975</v>
       </c>
-      <c r="V230">
-        <v>1.875</v>
-      </c>
       <c r="W230">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA230">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB230">
+        <v>0.875</v>
+      </c>
+      <c r="AC230">
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21098,10 +21113,10 @@
         <v>2.75</v>
       </c>
       <c r="U232">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V232">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W232">
         <v>0</v>
@@ -21157,25 +21172,25 @@
         <v>3.2</v>
       </c>
       <c r="P233">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q233">
         <v>0</v>
       </c>
       <c r="R233">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S233">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T233">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U233">
+        <v>1.8</v>
+      </c>
+      <c r="V233">
         <v>2.05</v>
-      </c>
-      <c r="V233">
-        <v>1.8</v>
       </c>
       <c r="W233">
         <v>0</v>
@@ -21225,10 +21240,10 @@
         <v>1.9</v>
       </c>
       <c r="N234">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O234">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P234">
         <v>1.909</v>
@@ -21237,19 +21252,19 @@
         <v>0.5</v>
       </c>
       <c r="R234">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S234">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T234">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U234">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V234">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W234">
         <v>0</v>
@@ -21311,19 +21326,19 @@
         <v>1</v>
       </c>
       <c r="R235">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S235">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T235">
         <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V235">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W235">
         <v>0</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC235"/>
+  <dimension ref="A1:AC233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20991,7 +20991,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6818327</v>
+        <v>6818325</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21000,49 +21000,49 @@
         <v>28</v>
       </c>
       <c r="E231" s="2">
-        <v>45346.35416666666</v>
+        <v>45346.5625</v>
       </c>
       <c r="F231" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K231">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L231">
+        <v>3.4</v>
+      </c>
+      <c r="M231">
+        <v>2.875</v>
+      </c>
+      <c r="N231">
+        <v>2.45</v>
+      </c>
+      <c r="O231">
         <v>3.2</v>
       </c>
-      <c r="M231">
+      <c r="P231">
         <v>2.8</v>
       </c>
-      <c r="N231">
-        <v>2.3</v>
-      </c>
-      <c r="O231">
-        <v>3.1</v>
-      </c>
-      <c r="P231">
-        <v>3</v>
-      </c>
       <c r="Q231">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R231">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S231">
+        <v>2.025</v>
+      </c>
+      <c r="T231">
+        <v>2.25</v>
+      </c>
+      <c r="U231">
         <v>1.85</v>
       </c>
-      <c r="T231">
-        <v>2.5</v>
-      </c>
-      <c r="U231">
-        <v>2.025</v>
-      </c>
       <c r="V231">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W231">
         <v>0</v>
@@ -21065,7 +21065,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6818326</v>
+        <v>6818323</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21074,49 +21074,49 @@
         <v>28</v>
       </c>
       <c r="E232" s="2">
-        <v>45346.45833333334</v>
+        <v>45347.45833333334</v>
       </c>
       <c r="F232" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G232" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K232">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="L232">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M232">
-        <v>2.75</v>
+        <v>1.9</v>
       </c>
       <c r="N232">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="O232">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P232">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="Q232">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R232">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S232">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T232">
         <v>2.75</v>
       </c>
       <c r="U232">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V232">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W232">
         <v>0</v>
@@ -21139,7 +21139,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6818325</v>
+        <v>6818322</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21148,43 +21148,43 @@
         <v>28</v>
       </c>
       <c r="E233" s="2">
-        <v>45346.5625</v>
+        <v>45347.5625</v>
       </c>
       <c r="F233" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G233" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K233">
-        <v>2.25</v>
+        <v>5.2</v>
       </c>
       <c r="L233">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M233">
-        <v>2.875</v>
+        <v>1.55</v>
       </c>
       <c r="N233">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="O233">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P233">
+        <v>1.5</v>
+      </c>
+      <c r="Q233">
+        <v>1</v>
+      </c>
+      <c r="R233">
+        <v>2</v>
+      </c>
+      <c r="S233">
+        <v>1.85</v>
+      </c>
+      <c r="T233">
         <v>2.75</v>
-      </c>
-      <c r="Q233">
-        <v>0</v>
-      </c>
-      <c r="R233">
-        <v>1.8</v>
-      </c>
-      <c r="S233">
-        <v>2.05</v>
-      </c>
-      <c r="T233">
-        <v>2.25</v>
       </c>
       <c r="U233">
         <v>1.8</v>
@@ -21205,154 +21205,6 @@
         <v>0</v>
       </c>
       <c r="AA233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:29">
-      <c r="A234" s="1">
-        <v>232</v>
-      </c>
-      <c r="B234">
-        <v>6818323</v>
-      </c>
-      <c r="C234" t="s">
-        <v>28</v>
-      </c>
-      <c r="D234" t="s">
-        <v>28</v>
-      </c>
-      <c r="E234" s="2">
-        <v>45347.45833333334</v>
-      </c>
-      <c r="F234" t="s">
-        <v>30</v>
-      </c>
-      <c r="G234" t="s">
-        <v>36</v>
-      </c>
-      <c r="K234">
-        <v>3.5</v>
-      </c>
-      <c r="L234">
-        <v>3.7</v>
-      </c>
-      <c r="M234">
-        <v>1.9</v>
-      </c>
-      <c r="N234">
-        <v>3.4</v>
-      </c>
-      <c r="O234">
-        <v>3.75</v>
-      </c>
-      <c r="P234">
-        <v>1.909</v>
-      </c>
-      <c r="Q234">
-        <v>0.5</v>
-      </c>
-      <c r="R234">
-        <v>1.85</v>
-      </c>
-      <c r="S234">
-        <v>2</v>
-      </c>
-      <c r="T234">
-        <v>2.75</v>
-      </c>
-      <c r="U234">
-        <v>1.825</v>
-      </c>
-      <c r="V234">
-        <v>2.025</v>
-      </c>
-      <c r="W234">
-        <v>0</v>
-      </c>
-      <c r="X234">
-        <v>0</v>
-      </c>
-      <c r="Y234">
-        <v>0</v>
-      </c>
-      <c r="Z234">
-        <v>0</v>
-      </c>
-      <c r="AA234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:29">
-      <c r="A235" s="1">
-        <v>233</v>
-      </c>
-      <c r="B235">
-        <v>6818322</v>
-      </c>
-      <c r="C235" t="s">
-        <v>28</v>
-      </c>
-      <c r="D235" t="s">
-        <v>28</v>
-      </c>
-      <c r="E235" s="2">
-        <v>45347.5625</v>
-      </c>
-      <c r="F235" t="s">
-        <v>34</v>
-      </c>
-      <c r="G235" t="s">
-        <v>32</v>
-      </c>
-      <c r="K235">
-        <v>5.2</v>
-      </c>
-      <c r="L235">
-        <v>4</v>
-      </c>
-      <c r="M235">
-        <v>1.55</v>
-      </c>
-      <c r="N235">
-        <v>5.25</v>
-      </c>
-      <c r="O235">
-        <v>4</v>
-      </c>
-      <c r="P235">
-        <v>1.533</v>
-      </c>
-      <c r="Q235">
-        <v>1</v>
-      </c>
-      <c r="R235">
-        <v>1.95</v>
-      </c>
-      <c r="S235">
-        <v>1.9</v>
-      </c>
-      <c r="T235">
-        <v>2.75</v>
-      </c>
-      <c r="U235">
-        <v>1.8</v>
-      </c>
-      <c r="V235">
-        <v>2.05</v>
-      </c>
-      <c r="W235">
-        <v>0</v>
-      </c>
-      <c r="X235">
-        <v>0</v>
-      </c>
-      <c r="Y235">
-        <v>0</v>
-      </c>
-      <c r="Z235">
-        <v>0</v>
-      </c>
-      <c r="AA235">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC233"/>
+  <dimension ref="A1:AC235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20991,7 +20991,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6818325</v>
+        <v>6818327</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21000,64 +21000,79 @@
         <v>28</v>
       </c>
       <c r="E231" s="2">
-        <v>45346.5625</v>
+        <v>45346.35416666666</v>
       </c>
       <c r="F231" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G231" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="H231">
+        <v>3</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231" t="s">
+        <v>45</v>
       </c>
       <c r="K231">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L231">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M231">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="N231">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="O231">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P231">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R231">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S231">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T231">
         <v>2.25</v>
       </c>
       <c r="U231">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V231">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W231">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="X231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA231">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB231">
+        <v>0.8</v>
+      </c>
+      <c r="AC231">
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21065,7 +21080,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6818323</v>
+        <v>6818326</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21074,64 +21089,79 @@
         <v>28</v>
       </c>
       <c r="E232" s="2">
-        <v>45347.45833333334</v>
+        <v>45346.45833333334</v>
       </c>
       <c r="F232" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G232" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="H232">
+        <v>4</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232" t="s">
+        <v>45</v>
       </c>
       <c r="K232">
+        <v>2.25</v>
+      </c>
+      <c r="L232">
+        <v>3.6</v>
+      </c>
+      <c r="M232">
+        <v>2.75</v>
+      </c>
+      <c r="N232">
+        <v>1.95</v>
+      </c>
+      <c r="O232">
+        <v>3.6</v>
+      </c>
+      <c r="P232">
         <v>3.5</v>
       </c>
-      <c r="L232">
-        <v>3.7</v>
-      </c>
-      <c r="M232">
-        <v>1.9</v>
-      </c>
-      <c r="N232">
-        <v>3.2</v>
-      </c>
-      <c r="O232">
-        <v>3.75</v>
-      </c>
-      <c r="P232">
-        <v>2</v>
-      </c>
       <c r="Q232">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R232">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S232">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T232">
         <v>2.75</v>
       </c>
       <c r="U232">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V232">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W232">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA232">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB232">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC232">
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21139,72 +21169,235 @@
         <v>231</v>
       </c>
       <c r="B233">
+        <v>6818325</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" t="s">
+        <v>28</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45346.5625</v>
+      </c>
+      <c r="F233" t="s">
+        <v>31</v>
+      </c>
+      <c r="G233" t="s">
+        <v>37</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233" t="s">
+        <v>45</v>
+      </c>
+      <c r="K233">
+        <v>2.25</v>
+      </c>
+      <c r="L233">
+        <v>3.4</v>
+      </c>
+      <c r="M233">
+        <v>2.875</v>
+      </c>
+      <c r="N233">
+        <v>2.45</v>
+      </c>
+      <c r="O233">
+        <v>3.2</v>
+      </c>
+      <c r="P233">
+        <v>2.8</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>1.825</v>
+      </c>
+      <c r="S233">
+        <v>2.025</v>
+      </c>
+      <c r="T233">
+        <v>2.25</v>
+      </c>
+      <c r="U233">
+        <v>1.85</v>
+      </c>
+      <c r="V233">
+        <v>2</v>
+      </c>
+      <c r="W233">
+        <v>1.45</v>
+      </c>
+      <c r="X233">
+        <v>-1</v>
+      </c>
+      <c r="Y233">
+        <v>-1</v>
+      </c>
+      <c r="Z233">
+        <v>0.825</v>
+      </c>
+      <c r="AA233">
+        <v>-1</v>
+      </c>
+      <c r="AB233">
+        <v>-1</v>
+      </c>
+      <c r="AC233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>6818323</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45347.45833333334</v>
+      </c>
+      <c r="F234" t="s">
+        <v>30</v>
+      </c>
+      <c r="G234" t="s">
+        <v>36</v>
+      </c>
+      <c r="K234">
+        <v>3.5</v>
+      </c>
+      <c r="L234">
+        <v>3.7</v>
+      </c>
+      <c r="M234">
+        <v>1.9</v>
+      </c>
+      <c r="N234">
+        <v>3.2</v>
+      </c>
+      <c r="O234">
+        <v>3.75</v>
+      </c>
+      <c r="P234">
+        <v>2</v>
+      </c>
+      <c r="Q234">
+        <v>0.5</v>
+      </c>
+      <c r="R234">
+        <v>1.85</v>
+      </c>
+      <c r="S234">
+        <v>2</v>
+      </c>
+      <c r="T234">
+        <v>2.75</v>
+      </c>
+      <c r="U234">
+        <v>1.85</v>
+      </c>
+      <c r="V234">
+        <v>2</v>
+      </c>
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
         <v>6818322</v>
       </c>
-      <c r="C233" t="s">
-        <v>28</v>
-      </c>
-      <c r="D233" t="s">
-        <v>28</v>
-      </c>
-      <c r="E233" s="2">
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2">
         <v>45347.5625</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F235" t="s">
         <v>34</v>
       </c>
-      <c r="G233" t="s">
+      <c r="G235" t="s">
         <v>32</v>
       </c>
-      <c r="K233">
+      <c r="K235">
         <v>5.2</v>
       </c>
-      <c r="L233">
+      <c r="L235">
         <v>4</v>
       </c>
-      <c r="M233">
+      <c r="M235">
         <v>1.55</v>
       </c>
-      <c r="N233">
+      <c r="N235">
         <v>5.5</v>
       </c>
-      <c r="O233">
+      <c r="O235">
         <v>4.2</v>
       </c>
-      <c r="P233">
+      <c r="P235">
         <v>1.5</v>
       </c>
-      <c r="Q233">
+      <c r="Q235">
         <v>1</v>
       </c>
-      <c r="R233">
-        <v>2</v>
-      </c>
-      <c r="S233">
+      <c r="R235">
+        <v>2</v>
+      </c>
+      <c r="S235">
         <v>1.85</v>
       </c>
-      <c r="T233">
+      <c r="T235">
         <v>2.75</v>
       </c>
-      <c r="U233">
+      <c r="U235">
         <v>1.8</v>
       </c>
-      <c r="V233">
+      <c r="V235">
         <v>2.05</v>
       </c>
-      <c r="W233">
+      <c r="W235">
         <v>0</v>
       </c>
-      <c r="X233">
+      <c r="X235">
         <v>0</v>
       </c>
-      <c r="Y233">
+      <c r="Y235">
         <v>0</v>
       </c>
-      <c r="Z233">
+      <c r="Z235">
         <v>0</v>
       </c>
-      <c r="AA233">
+      <c r="AA235">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -12213,19 +12213,19 @@
         <v>-1</v>
       </c>
       <c r="R132">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V132">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W132">
         <v>0</v>
@@ -12275,22 +12275,22 @@
         <v>3.1</v>
       </c>
       <c r="N133">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O133">
         <v>3.1</v>
       </c>
       <c r="P133">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q133">
         <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S133">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T133">
         <v>2.5</v>
@@ -12349,31 +12349,31 @@
         <v>2.3</v>
       </c>
       <c r="N134">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="O134">
         <v>3.2</v>
       </c>
       <c r="P134">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="Q134">
         <v>0.25</v>
       </c>
       <c r="R134">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S134">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T134">
         <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
         <v>0</v>
@@ -12423,31 +12423,31 @@
         <v>2.25</v>
       </c>
       <c r="N135">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P135">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R135">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S135">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T135">
         <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W135">
         <v>0</v>
@@ -12497,31 +12497,31 @@
         <v>8</v>
       </c>
       <c r="N136">
-        <v>1.333</v>
+        <v>1.285</v>
       </c>
       <c r="O136">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="P136">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q136">
         <v>-1.5</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S136">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T136">
         <v>3</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
         <v>0</v>
@@ -12571,31 +12571,31 @@
         <v>2.75</v>
       </c>
       <c r="N137">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O137">
         <v>3.4</v>
       </c>
       <c r="P137">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
+        <v>2</v>
+      </c>
+      <c r="S137">
         <v>1.85</v>
-      </c>
-      <c r="S137">
-        <v>2</v>
       </c>
       <c r="T137">
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W137">
         <v>0</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -12222,10 +12222,10 @@
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W132">
         <v>0</v>
@@ -12275,31 +12275,31 @@
         <v>3.1</v>
       </c>
       <c r="N133">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O133">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P133">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q133">
         <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S133">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
         <v>0</v>
@@ -12423,22 +12423,22 @@
         <v>2.25</v>
       </c>
       <c r="N135">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O135">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P135">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q135">
         <v>0.5</v>
       </c>
       <c r="R135">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T135">
         <v>2.75</v>
@@ -12509,19 +12509,19 @@
         <v>-1.5</v>
       </c>
       <c r="R136">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T136">
         <v>3</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W136">
         <v>0</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -12201,10 +12201,10 @@
         <v>5.5</v>
       </c>
       <c r="N132">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="O132">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P132">
         <v>6</v>
@@ -12213,19 +12213,19 @@
         <v>-1</v>
       </c>
       <c r="R132">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
+        <v>1.975</v>
+      </c>
+      <c r="V132">
         <v>1.875</v>
-      </c>
-      <c r="V132">
-        <v>1.975</v>
       </c>
       <c r="W132">
         <v>0</v>
@@ -12275,31 +12275,31 @@
         <v>3.1</v>
       </c>
       <c r="N133">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O133">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P133">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q133">
         <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W133">
         <v>0</v>
@@ -12349,10 +12349,10 @@
         <v>2.3</v>
       </c>
       <c r="N134">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O134">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
         <v>2.25</v>
@@ -12361,19 +12361,19 @@
         <v>0.25</v>
       </c>
       <c r="R134">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S134">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T134">
         <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V134">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W134">
         <v>0</v>
@@ -12423,7 +12423,7 @@
         <v>2.25</v>
       </c>
       <c r="N135">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O135">
         <v>3.6</v>
@@ -12435,19 +12435,19 @@
         <v>0.5</v>
       </c>
       <c r="R135">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S135">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T135">
         <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V135">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W135">
         <v>0</v>
@@ -12518,10 +12518,10 @@
         <v>3</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
         <v>0</v>
@@ -12571,22 +12571,22 @@
         <v>2.75</v>
       </c>
       <c r="N137">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O137">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P137">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="Q137">
         <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S137">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T137">
         <v>2.75</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -12191,6 +12191,15 @@
       <c r="G132" t="s">
         <v>35</v>
       </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>42</v>
+      </c>
       <c r="K132">
         <v>1.5</v>
       </c>
@@ -12213,10 +12222,10 @@
         <v>-1</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S132">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T132">
         <v>2.5</v>
@@ -12228,19 +12237,25 @@
         <v>1.875</v>
       </c>
       <c r="W132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB132">
+        <v>-1</v>
+      </c>
+      <c r="AC132">
+        <v>0.875</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12265,6 +12280,15 @@
       <c r="G133" t="s">
         <v>32</v>
       </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>43</v>
+      </c>
       <c r="K133">
         <v>2.25</v>
       </c>
@@ -12287,34 +12311,40 @@
         <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S133">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA133">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB133">
+        <v>-1</v>
+      </c>
+      <c r="AC133">
+        <v>0.95</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12339,6 +12369,15 @@
       <c r="G134" t="s">
         <v>34</v>
       </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134" t="s">
+        <v>41</v>
+      </c>
       <c r="K134">
         <v>2.9</v>
       </c>
@@ -12370,25 +12409,31 @@
         <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA134">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12423,7 +12468,7 @@
         <v>2.25</v>
       </c>
       <c r="N135">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O135">
         <v>3.6</v>
@@ -12444,10 +12489,10 @@
         <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W135">
         <v>0</v>
@@ -12497,31 +12542,31 @@
         <v>8</v>
       </c>
       <c r="N136">
-        <v>1.285</v>
+        <v>1.333</v>
       </c>
       <c r="O136">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="P136">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q136">
         <v>-1.5</v>
       </c>
       <c r="R136">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S136">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
         <v>3</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
         <v>0</v>
@@ -12571,31 +12616,31 @@
         <v>2.75</v>
       </c>
       <c r="N137">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O137">
         <v>3.3</v>
       </c>
       <c r="P137">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S137">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T137">
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
         <v>0</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC137"/>
+  <dimension ref="A1:AC143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12458,6 +12458,15 @@
       <c r="G135" t="s">
         <v>39</v>
       </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135" t="s">
+        <v>42</v>
+      </c>
       <c r="K135">
         <v>2.75</v>
       </c>
@@ -12468,46 +12477,52 @@
         <v>2.25</v>
       </c>
       <c r="N135">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O135">
         <v>3.6</v>
       </c>
       <c r="P135">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Q135">
         <v>0.5</v>
       </c>
       <c r="R135">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T135">
         <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V135">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0</v>
+        <v>1.05</v>
+      </c>
+      <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
+        <v>0.925</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12532,6 +12547,15 @@
       <c r="G136" t="s">
         <v>37</v>
       </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>43</v>
+      </c>
       <c r="K136">
         <v>1.25</v>
       </c>
@@ -12542,16 +12566,16 @@
         <v>8</v>
       </c>
       <c r="N136">
-        <v>1.333</v>
+        <v>1.222</v>
       </c>
       <c r="O136">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="P136">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q136">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R136">
         <v>1.95</v>
@@ -12563,25 +12587,31 @@
         <v>3</v>
       </c>
       <c r="U136">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>0</v>
+        <v>0.222</v>
       </c>
       <c r="X136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA136">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB136">
+        <v>-1</v>
+      </c>
+      <c r="AC136">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12606,6 +12636,15 @@
       <c r="G137" t="s">
         <v>36</v>
       </c>
+      <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>43</v>
+      </c>
       <c r="K137">
         <v>2.3</v>
       </c>
@@ -12616,45 +12655,495 @@
         <v>2.75</v>
       </c>
       <c r="N137">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O137">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P137">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S137">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T137">
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
+        <v>1.1</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>-1</v>
+      </c>
+      <c r="Z137">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA137">
+        <v>-1</v>
+      </c>
+      <c r="AB137">
+        <v>-1</v>
+      </c>
+      <c r="AC137">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>6818337</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45359.66666666666</v>
+      </c>
+      <c r="F138" t="s">
+        <v>34</v>
+      </c>
+      <c r="G138" t="s">
+        <v>31</v>
+      </c>
+      <c r="K138">
+        <v>1.727</v>
+      </c>
+      <c r="L138">
+        <v>3.6</v>
+      </c>
+      <c r="M138">
+        <v>4.5</v>
+      </c>
+      <c r="N138">
+        <v>1.571</v>
+      </c>
+      <c r="O138">
+        <v>4</v>
+      </c>
+      <c r="P138">
+        <v>5.5</v>
+      </c>
+      <c r="Q138">
+        <v>-1</v>
+      </c>
+      <c r="R138">
+        <v>2.025</v>
+      </c>
+      <c r="S138">
+        <v>1.825</v>
+      </c>
+      <c r="T138">
+        <v>2.5</v>
+      </c>
+      <c r="U138">
+        <v>1.825</v>
+      </c>
+      <c r="V138">
+        <v>2.025</v>
+      </c>
+      <c r="W138">
         <v>0</v>
       </c>
-      <c r="X137">
+      <c r="X138">
         <v>0</v>
       </c>
-      <c r="Y137">
+      <c r="Y138">
         <v>0</v>
       </c>
-      <c r="Z137">
+      <c r="Z138">
         <v>0</v>
       </c>
-      <c r="AA137">
+      <c r="AA138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>6818336</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45360.36458333334</v>
+      </c>
+      <c r="F139" t="s">
+        <v>35</v>
+      </c>
+      <c r="G139" t="s">
+        <v>30</v>
+      </c>
+      <c r="K139">
+        <v>2.9</v>
+      </c>
+      <c r="L139">
+        <v>3.5</v>
+      </c>
+      <c r="M139">
+        <v>2.25</v>
+      </c>
+      <c r="N139">
+        <v>3</v>
+      </c>
+      <c r="O139">
+        <v>3.5</v>
+      </c>
+      <c r="P139">
+        <v>2.2</v>
+      </c>
+      <c r="Q139">
+        <v>0.25</v>
+      </c>
+      <c r="R139">
+        <v>1.85</v>
+      </c>
+      <c r="S139">
+        <v>2</v>
+      </c>
+      <c r="T139">
+        <v>2.5</v>
+      </c>
+      <c r="U139">
+        <v>1.85</v>
+      </c>
+      <c r="V139">
+        <v>2</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>6818339</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45360.46875</v>
+      </c>
+      <c r="F140" t="s">
+        <v>37</v>
+      </c>
+      <c r="G140" t="s">
+        <v>40</v>
+      </c>
+      <c r="K140">
+        <v>2.15</v>
+      </c>
+      <c r="L140">
+        <v>3.2</v>
+      </c>
+      <c r="M140">
+        <v>3.4</v>
+      </c>
+      <c r="N140">
+        <v>2.1</v>
+      </c>
+      <c r="O140">
+        <v>3.2</v>
+      </c>
+      <c r="P140">
+        <v>3.6</v>
+      </c>
+      <c r="Q140">
+        <v>-0.25</v>
+      </c>
+      <c r="R140">
+        <v>1.875</v>
+      </c>
+      <c r="S140">
+        <v>1.975</v>
+      </c>
+      <c r="T140">
+        <v>2.25</v>
+      </c>
+      <c r="U140">
+        <v>1.825</v>
+      </c>
+      <c r="V140">
+        <v>2.025</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AA140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>6818335</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45361.375</v>
+      </c>
+      <c r="F141" t="s">
+        <v>39</v>
+      </c>
+      <c r="G141" t="s">
+        <v>33</v>
+      </c>
+      <c r="K141">
+        <v>2.1</v>
+      </c>
+      <c r="L141">
+        <v>3.4</v>
+      </c>
+      <c r="M141">
+        <v>3.4</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141">
+        <v>3.4</v>
+      </c>
+      <c r="P141">
+        <v>3.6</v>
+      </c>
+      <c r="Q141">
+        <v>-0.5</v>
+      </c>
+      <c r="R141">
+        <v>2.025</v>
+      </c>
+      <c r="S141">
+        <v>1.825</v>
+      </c>
+      <c r="T141">
+        <v>2.5</v>
+      </c>
+      <c r="U141">
+        <v>1.825</v>
+      </c>
+      <c r="V141">
+        <v>2.025</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>6818338</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45361.47916666666</v>
+      </c>
+      <c r="F142" t="s">
+        <v>36</v>
+      </c>
+      <c r="G142" t="s">
+        <v>38</v>
+      </c>
+      <c r="K142">
+        <v>5.25</v>
+      </c>
+      <c r="L142">
+        <v>4</v>
+      </c>
+      <c r="M142">
+        <v>1.571</v>
+      </c>
+      <c r="N142">
+        <v>5.5</v>
+      </c>
+      <c r="O142">
+        <v>4.2</v>
+      </c>
+      <c r="P142">
+        <v>1.533</v>
+      </c>
+      <c r="Q142">
+        <v>1</v>
+      </c>
+      <c r="R142">
+        <v>1.975</v>
+      </c>
+      <c r="S142">
+        <v>1.875</v>
+      </c>
+      <c r="T142">
+        <v>3</v>
+      </c>
+      <c r="U142">
+        <v>2.05</v>
+      </c>
+      <c r="V142">
+        <v>1.8</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>6818334</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45361.66666666666</v>
+      </c>
+      <c r="F143" t="s">
+        <v>32</v>
+      </c>
+      <c r="G143" t="s">
+        <v>29</v>
+      </c>
+      <c r="K143">
+        <v>2.2</v>
+      </c>
+      <c r="L143">
+        <v>3.4</v>
+      </c>
+      <c r="M143">
+        <v>3.1</v>
+      </c>
+      <c r="N143">
+        <v>2.2</v>
+      </c>
+      <c r="O143">
+        <v>3.4</v>
+      </c>
+      <c r="P143">
+        <v>3.2</v>
+      </c>
+      <c r="Q143">
+        <v>-0.25</v>
+      </c>
+      <c r="R143">
+        <v>1.925</v>
+      </c>
+      <c r="S143">
+        <v>1.925</v>
+      </c>
+      <c r="T143">
+        <v>2.5</v>
+      </c>
+      <c r="U143">
+        <v>1.825</v>
+      </c>
+      <c r="V143">
+        <v>2.025</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC143"/>
+  <dimension ref="A1:AC141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12725,6 +12725,15 @@
       <c r="G138" t="s">
         <v>31</v>
       </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>2</v>
+      </c>
+      <c r="J138" t="s">
+        <v>42</v>
+      </c>
       <c r="K138">
         <v>1.727</v>
       </c>
@@ -12762,19 +12771,25 @@
         <v>2.025</v>
       </c>
       <c r="W138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB138">
+        <v>-1</v>
+      </c>
+      <c r="AC138">
+        <v>1.025</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12782,7 +12797,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6818336</v>
+        <v>6818335</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12791,49 +12806,49 @@
         <v>28</v>
       </c>
       <c r="E139" s="2">
-        <v>45360.36458333334</v>
+        <v>45361.375</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K139">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="L139">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M139">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O139">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q139">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
+        <v>2</v>
+      </c>
+      <c r="S139">
         <v>1.85</v>
-      </c>
-      <c r="S139">
-        <v>2</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V139">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W139">
         <v>0</v>
@@ -12856,7 +12871,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6818339</v>
+        <v>6818338</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12865,49 +12880,49 @@
         <v>28</v>
       </c>
       <c r="E140" s="2">
-        <v>45360.46875</v>
+        <v>45361.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K140">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L140">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M140">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="N140">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="O140">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P140">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R140">
+        <v>2.025</v>
+      </c>
+      <c r="S140">
+        <v>1.825</v>
+      </c>
+      <c r="T140">
+        <v>2.75</v>
+      </c>
+      <c r="U140">
         <v>1.875</v>
       </c>
-      <c r="S140">
+      <c r="V140">
         <v>1.975</v>
-      </c>
-      <c r="T140">
-        <v>2.25</v>
-      </c>
-      <c r="U140">
-        <v>1.825</v>
-      </c>
-      <c r="V140">
-        <v>2.025</v>
       </c>
       <c r="W140">
         <v>0</v>
@@ -12930,7 +12945,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6818335</v>
+        <v>6818334</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12939,49 +12954,49 @@
         <v>28</v>
       </c>
       <c r="E141" s="2">
-        <v>45361.375</v>
+        <v>45361.66666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K141">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L141">
         <v>3.4</v>
       </c>
       <c r="M141">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N141">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O141">
         <v>3.4</v>
       </c>
       <c r="P141">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
+        <v>1.925</v>
+      </c>
+      <c r="S141">
+        <v>1.925</v>
+      </c>
+      <c r="T141">
+        <v>2.75</v>
+      </c>
+      <c r="U141">
         <v>2.025</v>
       </c>
-      <c r="S141">
+      <c r="V141">
         <v>1.825</v>
-      </c>
-      <c r="T141">
-        <v>2.5</v>
-      </c>
-      <c r="U141">
-        <v>1.825</v>
-      </c>
-      <c r="V141">
-        <v>2.025</v>
       </c>
       <c r="W141">
         <v>0</v>
@@ -12996,154 +13011,6 @@
         <v>0</v>
       </c>
       <c r="AA141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:29">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>6818338</v>
-      </c>
-      <c r="C142" t="s">
-        <v>28</v>
-      </c>
-      <c r="D142" t="s">
-        <v>28</v>
-      </c>
-      <c r="E142" s="2">
-        <v>45361.47916666666</v>
-      </c>
-      <c r="F142" t="s">
-        <v>36</v>
-      </c>
-      <c r="G142" t="s">
-        <v>38</v>
-      </c>
-      <c r="K142">
-        <v>5.25</v>
-      </c>
-      <c r="L142">
-        <v>4</v>
-      </c>
-      <c r="M142">
-        <v>1.571</v>
-      </c>
-      <c r="N142">
-        <v>5.5</v>
-      </c>
-      <c r="O142">
-        <v>4.2</v>
-      </c>
-      <c r="P142">
-        <v>1.533</v>
-      </c>
-      <c r="Q142">
-        <v>1</v>
-      </c>
-      <c r="R142">
-        <v>1.975</v>
-      </c>
-      <c r="S142">
-        <v>1.875</v>
-      </c>
-      <c r="T142">
-        <v>3</v>
-      </c>
-      <c r="U142">
-        <v>2.05</v>
-      </c>
-      <c r="V142">
-        <v>1.8</v>
-      </c>
-      <c r="W142">
-        <v>0</v>
-      </c>
-      <c r="X142">
-        <v>0</v>
-      </c>
-      <c r="Y142">
-        <v>0</v>
-      </c>
-      <c r="Z142">
-        <v>0</v>
-      </c>
-      <c r="AA142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:29">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143">
-        <v>6818334</v>
-      </c>
-      <c r="C143" t="s">
-        <v>28</v>
-      </c>
-      <c r="D143" t="s">
-        <v>28</v>
-      </c>
-      <c r="E143" s="2">
-        <v>45361.66666666666</v>
-      </c>
-      <c r="F143" t="s">
-        <v>32</v>
-      </c>
-      <c r="G143" t="s">
-        <v>29</v>
-      </c>
-      <c r="K143">
-        <v>2.2</v>
-      </c>
-      <c r="L143">
-        <v>3.4</v>
-      </c>
-      <c r="M143">
-        <v>3.1</v>
-      </c>
-      <c r="N143">
-        <v>2.2</v>
-      </c>
-      <c r="O143">
-        <v>3.4</v>
-      </c>
-      <c r="P143">
-        <v>3.2</v>
-      </c>
-      <c r="Q143">
-        <v>-0.25</v>
-      </c>
-      <c r="R143">
-        <v>1.925</v>
-      </c>
-      <c r="S143">
-        <v>1.925</v>
-      </c>
-      <c r="T143">
-        <v>2.5</v>
-      </c>
-      <c r="U143">
-        <v>1.825</v>
-      </c>
-      <c r="V143">
-        <v>2.025</v>
-      </c>
-      <c r="W143">
-        <v>0</v>
-      </c>
-      <c r="X143">
-        <v>0</v>
-      </c>
-      <c r="Y143">
-        <v>0</v>
-      </c>
-      <c r="Z143">
-        <v>0</v>
-      </c>
-      <c r="AA143">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC141"/>
+  <dimension ref="A1:AC149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12797,7 +12797,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6818335</v>
+        <v>6818336</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12806,64 +12806,79 @@
         <v>28</v>
       </c>
       <c r="E139" s="2">
-        <v>45361.375</v>
+        <v>45360.36458333334</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139" t="s">
+        <v>42</v>
       </c>
       <c r="K139">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="L139">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M139">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N139">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O139">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P139">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q139">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S139">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V139">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB139">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC139">
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12871,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6818338</v>
+        <v>6818339</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12880,64 +12895,79 @@
         <v>28</v>
       </c>
       <c r="E140" s="2">
-        <v>45361.47916666666</v>
+        <v>45360.46875</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="H140">
+        <v>3</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140" t="s">
+        <v>43</v>
       </c>
       <c r="K140">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M140">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="N140">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="O140">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P140">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q140">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S140">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W140">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA140">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB140">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC140">
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12945,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6818334</v>
+        <v>6818335</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12954,63 +12984,700 @@
         <v>28</v>
       </c>
       <c r="E141" s="2">
-        <v>45361.66666666666</v>
+        <v>45361.375</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141" t="s">
+        <v>41</v>
       </c>
       <c r="K141">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L141">
         <v>3.4</v>
       </c>
       <c r="M141">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N141">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O141">
         <v>3.4</v>
       </c>
       <c r="P141">
+        <v>3.6</v>
+      </c>
+      <c r="Q141">
+        <v>-0.5</v>
+      </c>
+      <c r="R141">
+        <v>2.025</v>
+      </c>
+      <c r="S141">
+        <v>1.825</v>
+      </c>
+      <c r="T141">
+        <v>2.5</v>
+      </c>
+      <c r="U141">
+        <v>1.825</v>
+      </c>
+      <c r="V141">
+        <v>2.025</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
+        <v>2.4</v>
+      </c>
+      <c r="Y141">
+        <v>-1</v>
+      </c>
+      <c r="Z141">
+        <v>-1</v>
+      </c>
+      <c r="AA141">
+        <v>0.825</v>
+      </c>
+      <c r="AB141">
+        <v>-1</v>
+      </c>
+      <c r="AC141">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>6818338</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45361.47916666666</v>
+      </c>
+      <c r="F142" t="s">
+        <v>36</v>
+      </c>
+      <c r="G142" t="s">
+        <v>38</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142" t="s">
+        <v>42</v>
+      </c>
+      <c r="K142">
+        <v>5.25</v>
+      </c>
+      <c r="L142">
+        <v>4</v>
+      </c>
+      <c r="M142">
+        <v>1.571</v>
+      </c>
+      <c r="N142">
+        <v>6.5</v>
+      </c>
+      <c r="O142">
+        <v>4.333</v>
+      </c>
+      <c r="P142">
+        <v>1.444</v>
+      </c>
+      <c r="Q142">
+        <v>1.25</v>
+      </c>
+      <c r="R142">
+        <v>1.9</v>
+      </c>
+      <c r="S142">
+        <v>1.95</v>
+      </c>
+      <c r="T142">
+        <v>3</v>
+      </c>
+      <c r="U142">
+        <v>2.05</v>
+      </c>
+      <c r="V142">
+        <v>1.8</v>
+      </c>
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
+        <v>-1</v>
+      </c>
+      <c r="Y142">
+        <v>0.444</v>
+      </c>
+      <c r="Z142">
+        <v>-1</v>
+      </c>
+      <c r="AA142">
+        <v>0.95</v>
+      </c>
+      <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>6818334</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45361.66666666666</v>
+      </c>
+      <c r="F143" t="s">
+        <v>32</v>
+      </c>
+      <c r="G143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143" t="s">
+        <v>41</v>
+      </c>
+      <c r="K143">
+        <v>2.2</v>
+      </c>
+      <c r="L143">
+        <v>3.4</v>
+      </c>
+      <c r="M143">
         <v>3.1</v>
       </c>
-      <c r="Q141">
+      <c r="N143">
+        <v>2.2</v>
+      </c>
+      <c r="O143">
+        <v>3.4</v>
+      </c>
+      <c r="P143">
+        <v>3.1</v>
+      </c>
+      <c r="Q143">
         <v>-0.25</v>
       </c>
-      <c r="R141">
+      <c r="R143">
+        <v>1.95</v>
+      </c>
+      <c r="S143">
+        <v>1.9</v>
+      </c>
+      <c r="T143">
+        <v>2.75</v>
+      </c>
+      <c r="U143">
+        <v>2</v>
+      </c>
+      <c r="V143">
+        <v>1.85</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
+        <v>2.4</v>
+      </c>
+      <c r="Y143">
+        <v>-1</v>
+      </c>
+      <c r="Z143">
+        <v>-0.5</v>
+      </c>
+      <c r="AA143">
+        <v>0.45</v>
+      </c>
+      <c r="AB143">
+        <v>1</v>
+      </c>
+      <c r="AC143">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>6818341</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45367.375</v>
+      </c>
+      <c r="F144" t="s">
+        <v>31</v>
+      </c>
+      <c r="G144" t="s">
+        <v>35</v>
+      </c>
+      <c r="K144">
+        <v>1.833</v>
+      </c>
+      <c r="L144">
+        <v>3.4</v>
+      </c>
+      <c r="M144">
+        <v>3.75</v>
+      </c>
+      <c r="N144">
+        <v>1.8</v>
+      </c>
+      <c r="O144">
+        <v>3.4</v>
+      </c>
+      <c r="P144">
+        <v>3.8</v>
+      </c>
+      <c r="Q144">
+        <v>-0.5</v>
+      </c>
+      <c r="R144">
+        <v>1.875</v>
+      </c>
+      <c r="S144">
+        <v>1.975</v>
+      </c>
+      <c r="T144">
+        <v>2.5</v>
+      </c>
+      <c r="U144">
+        <v>1.95</v>
+      </c>
+      <c r="V144">
+        <v>1.9</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>6818342</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45367.47916666666</v>
+      </c>
+      <c r="F145" t="s">
+        <v>30</v>
+      </c>
+      <c r="G145" t="s">
+        <v>39</v>
+      </c>
+      <c r="K145">
+        <v>2.5</v>
+      </c>
+      <c r="L145">
+        <v>3.5</v>
+      </c>
+      <c r="M145">
+        <v>2.4</v>
+      </c>
+      <c r="N145">
+        <v>2.6</v>
+      </c>
+      <c r="O145">
+        <v>3.6</v>
+      </c>
+      <c r="P145">
+        <v>2.3</v>
+      </c>
+      <c r="Q145">
+        <v>0.25</v>
+      </c>
+      <c r="R145">
+        <v>1.775</v>
+      </c>
+      <c r="S145">
+        <v>2.1</v>
+      </c>
+      <c r="T145">
+        <v>3.25</v>
+      </c>
+      <c r="U145">
+        <v>2.025</v>
+      </c>
+      <c r="V145">
+        <v>1.825</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>6818345</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45367.57291666666</v>
+      </c>
+      <c r="F146" t="s">
+        <v>37</v>
+      </c>
+      <c r="G146" t="s">
+        <v>36</v>
+      </c>
+      <c r="K146">
+        <v>1.909</v>
+      </c>
+      <c r="L146">
+        <v>3.6</v>
+      </c>
+      <c r="M146">
+        <v>3.3</v>
+      </c>
+      <c r="N146">
+        <v>2.1</v>
+      </c>
+      <c r="O146">
+        <v>3.5</v>
+      </c>
+      <c r="P146">
+        <v>2.9</v>
+      </c>
+      <c r="Q146">
+        <v>-0.25</v>
+      </c>
+      <c r="R146">
         <v>1.925</v>
       </c>
-      <c r="S141">
+      <c r="S146">
         <v>1.925</v>
       </c>
-      <c r="T141">
+      <c r="T146">
         <v>2.75</v>
       </c>
-      <c r="U141">
-        <v>2.025</v>
-      </c>
-      <c r="V141">
-        <v>1.825</v>
-      </c>
-      <c r="W141">
+      <c r="U146">
+        <v>1.95</v>
+      </c>
+      <c r="V146">
+        <v>1.9</v>
+      </c>
+      <c r="W146">
         <v>0</v>
       </c>
-      <c r="X141">
+      <c r="X146">
         <v>0</v>
       </c>
-      <c r="Y141">
+      <c r="Y146">
         <v>0</v>
       </c>
-      <c r="Z141">
+      <c r="Z146">
         <v>0</v>
       </c>
-      <c r="AA141">
+      <c r="AA146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>6818343</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45368.35416666666</v>
+      </c>
+      <c r="F147" t="s">
+        <v>33</v>
+      </c>
+      <c r="G147" t="s">
+        <v>32</v>
+      </c>
+      <c r="K147">
+        <v>1.727</v>
+      </c>
+      <c r="L147">
+        <v>3.6</v>
+      </c>
+      <c r="M147">
+        <v>4</v>
+      </c>
+      <c r="N147">
+        <v>1.7</v>
+      </c>
+      <c r="O147">
+        <v>3.6</v>
+      </c>
+      <c r="P147">
+        <v>4.2</v>
+      </c>
+      <c r="Q147">
+        <v>-0.75</v>
+      </c>
+      <c r="R147">
+        <v>1.925</v>
+      </c>
+      <c r="S147">
+        <v>1.925</v>
+      </c>
+      <c r="T147">
+        <v>2.5</v>
+      </c>
+      <c r="U147">
+        <v>1.875</v>
+      </c>
+      <c r="V147">
+        <v>1.975</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>6818340</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45368.44791666666</v>
+      </c>
+      <c r="F148" t="s">
+        <v>38</v>
+      </c>
+      <c r="G148" t="s">
+        <v>34</v>
+      </c>
+      <c r="K148">
+        <v>1.5</v>
+      </c>
+      <c r="L148">
+        <v>4</v>
+      </c>
+      <c r="M148">
+        <v>5.5</v>
+      </c>
+      <c r="N148">
+        <v>1.5</v>
+      </c>
+      <c r="O148">
+        <v>4</v>
+      </c>
+      <c r="P148">
+        <v>5.5</v>
+      </c>
+      <c r="Q148">
+        <v>-1</v>
+      </c>
+      <c r="R148">
+        <v>1.875</v>
+      </c>
+      <c r="S148">
+        <v>1.975</v>
+      </c>
+      <c r="T148">
+        <v>2.75</v>
+      </c>
+      <c r="U148">
+        <v>1.925</v>
+      </c>
+      <c r="V148">
+        <v>1.925</v>
+      </c>
+      <c r="W148">
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+      <c r="Y148">
+        <v>0</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AA148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>6818344</v>
+      </c>
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45368.5625</v>
+      </c>
+      <c r="F149" t="s">
+        <v>29</v>
+      </c>
+      <c r="G149" t="s">
+        <v>40</v>
+      </c>
+      <c r="K149">
+        <v>1.727</v>
+      </c>
+      <c r="L149">
+        <v>1.2</v>
+      </c>
+      <c r="M149">
+        <v>4</v>
+      </c>
+      <c r="N149">
+        <v>2.05</v>
+      </c>
+      <c r="O149">
+        <v>3.4</v>
+      </c>
+      <c r="P149">
+        <v>3.2</v>
+      </c>
+      <c r="Q149">
+        <v>-0.25</v>
+      </c>
+      <c r="R149">
+        <v>1.8</v>
+      </c>
+      <c r="S149">
+        <v>2.05</v>
+      </c>
+      <c r="T149">
+        <v>2.5</v>
+      </c>
+      <c r="U149">
+        <v>1.95</v>
+      </c>
+      <c r="V149">
+        <v>1.9</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AA149">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC149"/>
+  <dimension ref="A1:AC148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13259,6 +13259,15 @@
       <c r="G144" t="s">
         <v>35</v>
       </c>
+      <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144" t="s">
+        <v>41</v>
+      </c>
       <c r="K144">
         <v>1.833</v>
       </c>
@@ -13281,37 +13290,43 @@
         <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S144">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T144">
         <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:27">
+        <v>0.95</v>
+      </c>
+      <c r="AB144">
+        <v>1</v>
+      </c>
+      <c r="AC144">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -13333,6 +13348,15 @@
       <c r="G145" t="s">
         <v>39</v>
       </c>
+      <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="s">
+        <v>43</v>
+      </c>
       <c r="K145">
         <v>2.5</v>
       </c>
@@ -13343,49 +13367,55 @@
         <v>2.4</v>
       </c>
       <c r="N145">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q145">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S145">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T145">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
+        <v>1.825</v>
+      </c>
+      <c r="V145">
         <v>2.025</v>
       </c>
-      <c r="V145">
-        <v>1.825</v>
-      </c>
       <c r="W145">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB145">
+        <v>0.4125</v>
+      </c>
+      <c r="AC145">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -13407,6 +13437,15 @@
       <c r="G146" t="s">
         <v>36</v>
       </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146" t="s">
+        <v>42</v>
+      </c>
       <c r="K146">
         <v>1.909</v>
       </c>
@@ -13417,54 +13456,60 @@
         <v>3.3</v>
       </c>
       <c r="N146">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O146">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P146">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q146">
         <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S146">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:27">
+        <v>0.8</v>
+      </c>
+      <c r="AB146">
+        <v>-1</v>
+      </c>
+      <c r="AC146">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6818343</v>
+        <v>6818340</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13473,49 +13518,49 @@
         <v>28</v>
       </c>
       <c r="E147" s="2">
-        <v>45368.35416666666</v>
+        <v>45368.44791666666</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K147">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M147">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N147">
-        <v>1.7</v>
+        <v>1.444</v>
       </c>
       <c r="O147">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P147">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q147">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R147">
+        <v>2.025</v>
+      </c>
+      <c r="S147">
+        <v>1.825</v>
+      </c>
+      <c r="T147">
+        <v>2.75</v>
+      </c>
+      <c r="U147">
         <v>1.925</v>
       </c>
-      <c r="S147">
+      <c r="V147">
         <v>1.925</v>
-      </c>
-      <c r="T147">
-        <v>2.5</v>
-      </c>
-      <c r="U147">
-        <v>1.875</v>
-      </c>
-      <c r="V147">
-        <v>1.975</v>
       </c>
       <c r="W147">
         <v>0</v>
@@ -13533,12 +13578,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:27">
+    <row r="148" spans="1:29">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6818340</v>
+        <v>6818344</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13547,49 +13592,49 @@
         <v>28</v>
       </c>
       <c r="E148" s="2">
-        <v>45368.44791666666</v>
+        <v>45368.5625</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K148">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L148">
+        <v>1.2</v>
+      </c>
+      <c r="M148">
         <v>4</v>
       </c>
-      <c r="M148">
-        <v>5.5</v>
-      </c>
       <c r="N148">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="O148">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q148">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
+        <v>1.825</v>
+      </c>
+      <c r="S148">
+        <v>2.025</v>
+      </c>
+      <c r="T148">
+        <v>2.5</v>
+      </c>
+      <c r="U148">
+        <v>1.975</v>
+      </c>
+      <c r="V148">
         <v>1.875</v>
-      </c>
-      <c r="S148">
-        <v>1.975</v>
-      </c>
-      <c r="T148">
-        <v>2.75</v>
-      </c>
-      <c r="U148">
-        <v>1.925</v>
-      </c>
-      <c r="V148">
-        <v>1.925</v>
       </c>
       <c r="W148">
         <v>0</v>
@@ -13604,80 +13649,6 @@
         <v>0</v>
       </c>
       <c r="AA148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:27">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>6818344</v>
-      </c>
-      <c r="C149" t="s">
-        <v>28</v>
-      </c>
-      <c r="D149" t="s">
-        <v>28</v>
-      </c>
-      <c r="E149" s="2">
-        <v>45368.5625</v>
-      </c>
-      <c r="F149" t="s">
-        <v>29</v>
-      </c>
-      <c r="G149" t="s">
-        <v>40</v>
-      </c>
-      <c r="K149">
-        <v>1.727</v>
-      </c>
-      <c r="L149">
-        <v>1.2</v>
-      </c>
-      <c r="M149">
-        <v>4</v>
-      </c>
-      <c r="N149">
-        <v>2.05</v>
-      </c>
-      <c r="O149">
-        <v>3.4</v>
-      </c>
-      <c r="P149">
-        <v>3.2</v>
-      </c>
-      <c r="Q149">
-        <v>-0.25</v>
-      </c>
-      <c r="R149">
-        <v>1.8</v>
-      </c>
-      <c r="S149">
-        <v>2.05</v>
-      </c>
-      <c r="T149">
-        <v>2.5</v>
-      </c>
-      <c r="U149">
-        <v>1.95</v>
-      </c>
-      <c r="V149">
-        <v>1.9</v>
-      </c>
-      <c r="W149">
-        <v>0</v>
-      </c>
-      <c r="X149">
-        <v>0</v>
-      </c>
-      <c r="Y149">
-        <v>0</v>
-      </c>
-      <c r="Z149">
-        <v>0</v>
-      </c>
-      <c r="AA149">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC148"/>
+  <dimension ref="A1:AC155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6818340</v>
+        <v>6818343</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13518,64 +13518,79 @@
         <v>28</v>
       </c>
       <c r="E147" s="2">
-        <v>45368.44791666666</v>
+        <v>45368.35416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="H147">
+        <v>5</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147" t="s">
+        <v>43</v>
       </c>
       <c r="K147">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L147">
+        <v>3.6</v>
+      </c>
+      <c r="M147">
         <v>4</v>
       </c>
-      <c r="M147">
-        <v>5.5</v>
-      </c>
       <c r="N147">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="O147">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P147">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q147">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>1.85</v>
+      </c>
+      <c r="T147">
+        <v>2.5</v>
+      </c>
+      <c r="U147">
+        <v>1.825</v>
+      </c>
+      <c r="V147">
         <v>2.025</v>
       </c>
-      <c r="S147">
-        <v>1.825</v>
-      </c>
-      <c r="T147">
-        <v>2.75</v>
-      </c>
-      <c r="U147">
-        <v>1.925</v>
-      </c>
-      <c r="V147">
-        <v>1.925</v>
-      </c>
       <c r="W147">
-        <v>0</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA147">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB147">
+        <v>0.825</v>
+      </c>
+      <c r="AC147">
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13583,72 +13598,620 @@
         <v>146</v>
       </c>
       <c r="B148">
+        <v>6818340</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45368.44791666666</v>
+      </c>
+      <c r="F148" t="s">
+        <v>38</v>
+      </c>
+      <c r="G148" t="s">
+        <v>34</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="s">
+        <v>41</v>
+      </c>
+      <c r="K148">
+        <v>1.5</v>
+      </c>
+      <c r="L148">
+        <v>4</v>
+      </c>
+      <c r="M148">
+        <v>5.5</v>
+      </c>
+      <c r="N148">
+        <v>1.444</v>
+      </c>
+      <c r="O148">
+        <v>4.2</v>
+      </c>
+      <c r="P148">
+        <v>6.5</v>
+      </c>
+      <c r="Q148">
+        <v>-1.25</v>
+      </c>
+      <c r="R148">
+        <v>2.025</v>
+      </c>
+      <c r="S148">
+        <v>1.825</v>
+      </c>
+      <c r="T148">
+        <v>2.75</v>
+      </c>
+      <c r="U148">
+        <v>1.925</v>
+      </c>
+      <c r="V148">
+        <v>1.925</v>
+      </c>
+      <c r="W148">
+        <v>-1</v>
+      </c>
+      <c r="X148">
+        <v>3.2</v>
+      </c>
+      <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
+        <v>0.825</v>
+      </c>
+      <c r="AB148">
+        <v>-1</v>
+      </c>
+      <c r="AC148">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
         <v>6818344</v>
       </c>
-      <c r="C148" t="s">
-        <v>28</v>
-      </c>
-      <c r="D148" t="s">
-        <v>28</v>
-      </c>
-      <c r="E148" s="2">
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="2">
         <v>45368.5625</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F149" t="s">
         <v>29</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G149" t="s">
         <v>40</v>
       </c>
-      <c r="K148">
+      <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>43</v>
+      </c>
+      <c r="K149">
         <v>1.727</v>
       </c>
-      <c r="L148">
+      <c r="L149">
         <v>1.2</v>
       </c>
-      <c r="M148">
+      <c r="M149">
         <v>4</v>
       </c>
-      <c r="N148">
+      <c r="N149">
         <v>2.05</v>
       </c>
-      <c r="O148">
+      <c r="O149">
         <v>3.4</v>
       </c>
-      <c r="P148">
+      <c r="P149">
         <v>3.2</v>
       </c>
-      <c r="Q148">
+      <c r="Q149">
         <v>-0.25</v>
       </c>
-      <c r="R148">
+      <c r="R149">
         <v>1.825</v>
       </c>
-      <c r="S148">
+      <c r="S149">
         <v>2.025</v>
       </c>
-      <c r="T148">
+      <c r="T149">
         <v>2.5</v>
       </c>
-      <c r="U148">
+      <c r="U149">
         <v>1.975</v>
       </c>
-      <c r="V148">
+      <c r="V149">
         <v>1.875</v>
       </c>
-      <c r="W148">
+      <c r="W149">
+        <v>1.05</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>-1</v>
+      </c>
+      <c r="Z149">
+        <v>0.825</v>
+      </c>
+      <c r="AA149">
+        <v>-1</v>
+      </c>
+      <c r="AB149">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC149">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>6818351</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45380.66666666666</v>
+      </c>
+      <c r="F150" t="s">
+        <v>34</v>
+      </c>
+      <c r="G150" t="s">
+        <v>36</v>
+      </c>
+      <c r="K150">
+        <v>2.45</v>
+      </c>
+      <c r="L150">
+        <v>3.3</v>
+      </c>
+      <c r="M150">
+        <v>2.45</v>
+      </c>
+      <c r="N150">
+        <v>1.65</v>
+      </c>
+      <c r="O150">
+        <v>3.75</v>
+      </c>
+      <c r="P150">
+        <v>4.2</v>
+      </c>
+      <c r="Q150">
+        <v>-0.75</v>
+      </c>
+      <c r="R150">
+        <v>1.925</v>
+      </c>
+      <c r="S150">
+        <v>1.925</v>
+      </c>
+      <c r="T150">
+        <v>2.5</v>
+      </c>
+      <c r="U150">
+        <v>1.85</v>
+      </c>
+      <c r="V150">
+        <v>2</v>
+      </c>
+      <c r="W150">
         <v>0</v>
       </c>
-      <c r="X148">
+      <c r="X150">
         <v>0</v>
       </c>
-      <c r="Y148">
+      <c r="Y150">
         <v>0</v>
       </c>
-      <c r="Z148">
+      <c r="Z150">
         <v>0</v>
       </c>
-      <c r="AA148">
+      <c r="AA150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>6818347</v>
+      </c>
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45381.4375</v>
+      </c>
+      <c r="F151" t="s">
+        <v>40</v>
+      </c>
+      <c r="G151" t="s">
+        <v>33</v>
+      </c>
+      <c r="K151">
+        <v>2.75</v>
+      </c>
+      <c r="L151">
+        <v>3.25</v>
+      </c>
+      <c r="M151">
+        <v>2.25</v>
+      </c>
+      <c r="N151">
+        <v>2.875</v>
+      </c>
+      <c r="O151">
+        <v>3.3</v>
+      </c>
+      <c r="P151">
+        <v>2.2</v>
+      </c>
+      <c r="Q151">
+        <v>0.25</v>
+      </c>
+      <c r="R151">
+        <v>1.825</v>
+      </c>
+      <c r="S151">
+        <v>2.025</v>
+      </c>
+      <c r="T151">
+        <v>2.25</v>
+      </c>
+      <c r="U151">
+        <v>1.8</v>
+      </c>
+      <c r="V151">
+        <v>2.05</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>6818346</v>
+      </c>
+      <c r="C152" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45381.54166666666</v>
+      </c>
+      <c r="F152" t="s">
+        <v>29</v>
+      </c>
+      <c r="G152" t="s">
+        <v>37</v>
+      </c>
+      <c r="K152">
+        <v>2.3</v>
+      </c>
+      <c r="L152">
+        <v>3.25</v>
+      </c>
+      <c r="M152">
+        <v>2.7</v>
+      </c>
+      <c r="N152">
+        <v>2.2</v>
+      </c>
+      <c r="O152">
+        <v>3.25</v>
+      </c>
+      <c r="P152">
+        <v>2.8</v>
+      </c>
+      <c r="Q152">
+        <v>-0.25</v>
+      </c>
+      <c r="R152">
+        <v>2</v>
+      </c>
+      <c r="S152">
+        <v>1.85</v>
+      </c>
+      <c r="T152">
+        <v>2.5</v>
+      </c>
+      <c r="U152">
+        <v>1.9</v>
+      </c>
+      <c r="V152">
+        <v>1.95</v>
+      </c>
+      <c r="W152">
+        <v>0</v>
+      </c>
+      <c r="X152">
+        <v>0</v>
+      </c>
+      <c r="Y152">
+        <v>0</v>
+      </c>
+      <c r="Z152">
+        <v>0</v>
+      </c>
+      <c r="AA152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>6818348</v>
+      </c>
+      <c r="C153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45381.64583333334</v>
+      </c>
+      <c r="F153" t="s">
+        <v>32</v>
+      </c>
+      <c r="G153" t="s">
+        <v>30</v>
+      </c>
+      <c r="K153">
+        <v>2.45</v>
+      </c>
+      <c r="L153">
+        <v>3.3</v>
+      </c>
+      <c r="M153">
+        <v>2.45</v>
+      </c>
+      <c r="N153">
+        <v>2.625</v>
+      </c>
+      <c r="O153">
+        <v>3.3</v>
+      </c>
+      <c r="P153">
+        <v>2.25</v>
+      </c>
+      <c r="Q153">
+        <v>0.25</v>
+      </c>
+      <c r="R153">
+        <v>1.8</v>
+      </c>
+      <c r="S153">
+        <v>2.05</v>
+      </c>
+      <c r="T153">
+        <v>2.75</v>
+      </c>
+      <c r="U153">
+        <v>2</v>
+      </c>
+      <c r="V153">
+        <v>1.85</v>
+      </c>
+      <c r="W153">
+        <v>0</v>
+      </c>
+      <c r="X153">
+        <v>0</v>
+      </c>
+      <c r="Y153">
+        <v>0</v>
+      </c>
+      <c r="Z153">
+        <v>0</v>
+      </c>
+      <c r="AA153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>6818349</v>
+      </c>
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45382.4375</v>
+      </c>
+      <c r="F154" t="s">
+        <v>39</v>
+      </c>
+      <c r="G154" t="s">
+        <v>31</v>
+      </c>
+      <c r="K154">
+        <v>1.666</v>
+      </c>
+      <c r="L154">
+        <v>3.5</v>
+      </c>
+      <c r="M154">
+        <v>4.333</v>
+      </c>
+      <c r="N154">
+        <v>1.615</v>
+      </c>
+      <c r="O154">
+        <v>3.5</v>
+      </c>
+      <c r="P154">
+        <v>4.5</v>
+      </c>
+      <c r="Q154">
+        <v>-0.75</v>
+      </c>
+      <c r="R154">
+        <v>1.85</v>
+      </c>
+      <c r="S154">
+        <v>2</v>
+      </c>
+      <c r="T154">
+        <v>2.75</v>
+      </c>
+      <c r="U154">
+        <v>1.875</v>
+      </c>
+      <c r="V154">
+        <v>1.975</v>
+      </c>
+      <c r="W154">
+        <v>0</v>
+      </c>
+      <c r="X154">
+        <v>0</v>
+      </c>
+      <c r="Y154">
+        <v>0</v>
+      </c>
+      <c r="Z154">
+        <v>0</v>
+      </c>
+      <c r="AA154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>6818350</v>
+      </c>
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45382.54166666666</v>
+      </c>
+      <c r="F155" t="s">
+        <v>35</v>
+      </c>
+      <c r="G155" t="s">
+        <v>38</v>
+      </c>
+      <c r="K155">
+        <v>7.5</v>
+      </c>
+      <c r="L155">
+        <v>4.333</v>
+      </c>
+      <c r="M155">
+        <v>1.333</v>
+      </c>
+      <c r="N155">
+        <v>9.5</v>
+      </c>
+      <c r="O155">
+        <v>4.75</v>
+      </c>
+      <c r="P155">
+        <v>1.25</v>
+      </c>
+      <c r="Q155">
+        <v>1.5</v>
+      </c>
+      <c r="R155">
+        <v>1.925</v>
+      </c>
+      <c r="S155">
+        <v>1.925</v>
+      </c>
+      <c r="T155">
+        <v>2.75</v>
+      </c>
+      <c r="U155">
+        <v>1.825</v>
+      </c>
+      <c r="V155">
+        <v>2.025</v>
+      </c>
+      <c r="W155">
+        <v>0</v>
+      </c>
+      <c r="X155">
+        <v>0</v>
+      </c>
+      <c r="Y155">
+        <v>0</v>
+      </c>
+      <c r="Z155">
+        <v>0</v>
+      </c>
+      <c r="AA155">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -13803,31 +13803,31 @@
         <v>2.45</v>
       </c>
       <c r="N150">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="O150">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P150">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q150">
         <v>-0.75</v>
       </c>
       <c r="R150">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S150">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T150">
         <v>2.5</v>
       </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V150">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
         <v>0</v>
@@ -13883,25 +13883,25 @@
         <v>3.3</v>
       </c>
       <c r="P151">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q151">
         <v>0.25</v>
       </c>
       <c r="R151">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T151">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U151">
+        <v>2.05</v>
+      </c>
+      <c r="V151">
         <v>1.8</v>
-      </c>
-      <c r="V151">
-        <v>2.05</v>
       </c>
       <c r="W151">
         <v>0</v>
@@ -14099,22 +14099,22 @@
         <v>4.333</v>
       </c>
       <c r="N154">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="O154">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q154">
         <v>-0.75</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S154">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T154">
         <v>2.75</v>
@@ -14173,22 +14173,22 @@
         <v>1.333</v>
       </c>
       <c r="N155">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="O155">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P155">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q155">
         <v>1.5</v>
       </c>
       <c r="R155">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S155">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T155">
         <v>2.75</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC155"/>
+  <dimension ref="A1:AC154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13776,7 +13776,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6818351</v>
+        <v>6818347</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13785,49 +13785,49 @@
         <v>28</v>
       </c>
       <c r="E150" s="2">
-        <v>45380.66666666666</v>
+        <v>45381.4375</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K150">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="L150">
+        <v>3.25</v>
+      </c>
+      <c r="M150">
+        <v>2.25</v>
+      </c>
+      <c r="N150">
+        <v>2.875</v>
+      </c>
+      <c r="O150">
         <v>3.3</v>
       </c>
-      <c r="M150">
-        <v>2.45</v>
-      </c>
-      <c r="N150">
-        <v>1.727</v>
-      </c>
-      <c r="O150">
-        <v>3.6</v>
-      </c>
       <c r="P150">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q150">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R150">
+        <v>1.875</v>
+      </c>
+      <c r="S150">
         <v>1.975</v>
-      </c>
-      <c r="S150">
-        <v>1.875</v>
       </c>
       <c r="T150">
         <v>2.5</v>
       </c>
       <c r="U150">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V150">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W150">
         <v>0</v>
@@ -13850,7 +13850,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6818347</v>
+        <v>6818346</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13859,49 +13859,49 @@
         <v>28</v>
       </c>
       <c r="E151" s="2">
-        <v>45381.4375</v>
+        <v>45381.54166666666</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K151">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="L151">
         <v>3.25</v>
       </c>
       <c r="M151">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="N151">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O151">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P151">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R151">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S151">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T151">
         <v>2.5</v>
       </c>
       <c r="U151">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V151">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W151">
         <v>0</v>
@@ -13924,7 +13924,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6818346</v>
+        <v>6818348</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13933,49 +13933,49 @@
         <v>28</v>
       </c>
       <c r="E152" s="2">
-        <v>45381.54166666666</v>
+        <v>45381.64583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K152">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L152">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M152">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="N152">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="O152">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P152">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q152">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R152">
+        <v>1.8</v>
+      </c>
+      <c r="S152">
+        <v>2.05</v>
+      </c>
+      <c r="T152">
+        <v>2.75</v>
+      </c>
+      <c r="U152">
         <v>2</v>
       </c>
-      <c r="S152">
+      <c r="V152">
         <v>1.85</v>
-      </c>
-      <c r="T152">
-        <v>2.5</v>
-      </c>
-      <c r="U152">
-        <v>1.9</v>
-      </c>
-      <c r="V152">
-        <v>1.95</v>
       </c>
       <c r="W152">
         <v>0</v>
@@ -13998,7 +13998,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6818348</v>
+        <v>6818349</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14007,49 +14007,49 @@
         <v>28</v>
       </c>
       <c r="E153" s="2">
-        <v>45381.64583333334</v>
+        <v>45382.4375</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K153">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="L153">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N153">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="O153">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P153">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q153">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R153">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S153">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T153">
         <v>2.75</v>
       </c>
       <c r="U153">
+        <v>1.85</v>
+      </c>
+      <c r="V153">
         <v>2</v>
-      </c>
-      <c r="V153">
-        <v>1.85</v>
       </c>
       <c r="W153">
         <v>0</v>
@@ -14072,7 +14072,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6818349</v>
+        <v>6818350</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14081,49 +14081,49 @@
         <v>28</v>
       </c>
       <c r="E154" s="2">
-        <v>45382.4375</v>
+        <v>45382.54166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K154">
-        <v>1.666</v>
+        <v>7.5</v>
       </c>
       <c r="L154">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M154">
+        <v>1.333</v>
+      </c>
+      <c r="N154">
+        <v>8.5</v>
+      </c>
+      <c r="O154">
         <v>4.333</v>
       </c>
-      <c r="N154">
-        <v>1.666</v>
-      </c>
-      <c r="O154">
-        <v>3.6</v>
-      </c>
       <c r="P154">
-        <v>4.333</v>
+        <v>1.3</v>
       </c>
       <c r="Q154">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R154">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S154">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T154">
         <v>2.75</v>
       </c>
       <c r="U154">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V154">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W154">
         <v>0</v>
@@ -14138,80 +14138,6 @@
         <v>0</v>
       </c>
       <c r="AA154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:29">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155">
-        <v>6818350</v>
-      </c>
-      <c r="C155" t="s">
-        <v>28</v>
-      </c>
-      <c r="D155" t="s">
-        <v>28</v>
-      </c>
-      <c r="E155" s="2">
-        <v>45382.54166666666</v>
-      </c>
-      <c r="F155" t="s">
-        <v>35</v>
-      </c>
-      <c r="G155" t="s">
-        <v>38</v>
-      </c>
-      <c r="K155">
-        <v>7.5</v>
-      </c>
-      <c r="L155">
-        <v>4.333</v>
-      </c>
-      <c r="M155">
-        <v>1.333</v>
-      </c>
-      <c r="N155">
-        <v>8.5</v>
-      </c>
-      <c r="O155">
-        <v>4.333</v>
-      </c>
-      <c r="P155">
-        <v>1.3</v>
-      </c>
-      <c r="Q155">
-        <v>1.5</v>
-      </c>
-      <c r="R155">
-        <v>1.85</v>
-      </c>
-      <c r="S155">
-        <v>2</v>
-      </c>
-      <c r="T155">
-        <v>2.75</v>
-      </c>
-      <c r="U155">
-        <v>1.825</v>
-      </c>
-      <c r="V155">
-        <v>2.025</v>
-      </c>
-      <c r="W155">
-        <v>0</v>
-      </c>
-      <c r="X155">
-        <v>0</v>
-      </c>
-      <c r="Y155">
-        <v>0</v>
-      </c>
-      <c r="Z155">
-        <v>0</v>
-      </c>
-      <c r="AA155">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC154"/>
+  <dimension ref="A1:AC151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13776,7 +13776,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6818347</v>
+        <v>6818349</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13785,34 +13785,34 @@
         <v>28</v>
       </c>
       <c r="E150" s="2">
-        <v>45381.4375</v>
+        <v>45382.4375</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K150">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="L150">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M150">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="N150">
-        <v>2.875</v>
+        <v>1.615</v>
       </c>
       <c r="O150">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P150">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q150">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R150">
         <v>1.875</v>
@@ -13821,13 +13821,13 @@
         <v>1.975</v>
       </c>
       <c r="T150">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U150">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V150">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W150">
         <v>0</v>
@@ -13850,7 +13850,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6818346</v>
+        <v>6818350</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13859,49 +13859,49 @@
         <v>28</v>
       </c>
       <c r="E151" s="2">
-        <v>45381.54166666666</v>
+        <v>45382.54166666666</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K151">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="L151">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M151">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="N151">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="O151">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P151">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q151">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R151">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T151">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V151">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W151">
         <v>0</v>
@@ -13916,228 +13916,6 @@
         <v>0</v>
       </c>
       <c r="AA151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:29">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>6818348</v>
-      </c>
-      <c r="C152" t="s">
-        <v>28</v>
-      </c>
-      <c r="D152" t="s">
-        <v>28</v>
-      </c>
-      <c r="E152" s="2">
-        <v>45381.64583333334</v>
-      </c>
-      <c r="F152" t="s">
-        <v>32</v>
-      </c>
-      <c r="G152" t="s">
-        <v>30</v>
-      </c>
-      <c r="K152">
-        <v>2.45</v>
-      </c>
-      <c r="L152">
-        <v>3.3</v>
-      </c>
-      <c r="M152">
-        <v>2.45</v>
-      </c>
-      <c r="N152">
-        <v>2.625</v>
-      </c>
-      <c r="O152">
-        <v>3.3</v>
-      </c>
-      <c r="P152">
-        <v>2.25</v>
-      </c>
-      <c r="Q152">
-        <v>0.25</v>
-      </c>
-      <c r="R152">
-        <v>1.8</v>
-      </c>
-      <c r="S152">
-        <v>2.05</v>
-      </c>
-      <c r="T152">
-        <v>2.75</v>
-      </c>
-      <c r="U152">
-        <v>2</v>
-      </c>
-      <c r="V152">
-        <v>1.85</v>
-      </c>
-      <c r="W152">
-        <v>0</v>
-      </c>
-      <c r="X152">
-        <v>0</v>
-      </c>
-      <c r="Y152">
-        <v>0</v>
-      </c>
-      <c r="Z152">
-        <v>0</v>
-      </c>
-      <c r="AA152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:29">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>6818349</v>
-      </c>
-      <c r="C153" t="s">
-        <v>28</v>
-      </c>
-      <c r="D153" t="s">
-        <v>28</v>
-      </c>
-      <c r="E153" s="2">
-        <v>45382.4375</v>
-      </c>
-      <c r="F153" t="s">
-        <v>39</v>
-      </c>
-      <c r="G153" t="s">
-        <v>31</v>
-      </c>
-      <c r="K153">
-        <v>1.666</v>
-      </c>
-      <c r="L153">
-        <v>3.5</v>
-      </c>
-      <c r="M153">
-        <v>4.333</v>
-      </c>
-      <c r="N153">
-        <v>1.666</v>
-      </c>
-      <c r="O153">
-        <v>3.6</v>
-      </c>
-      <c r="P153">
-        <v>4.333</v>
-      </c>
-      <c r="Q153">
-        <v>-0.75</v>
-      </c>
-      <c r="R153">
-        <v>1.925</v>
-      </c>
-      <c r="S153">
-        <v>1.925</v>
-      </c>
-      <c r="T153">
-        <v>2.75</v>
-      </c>
-      <c r="U153">
-        <v>1.85</v>
-      </c>
-      <c r="V153">
-        <v>2</v>
-      </c>
-      <c r="W153">
-        <v>0</v>
-      </c>
-      <c r="X153">
-        <v>0</v>
-      </c>
-      <c r="Y153">
-        <v>0</v>
-      </c>
-      <c r="Z153">
-        <v>0</v>
-      </c>
-      <c r="AA153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:29">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154">
-        <v>6818350</v>
-      </c>
-      <c r="C154" t="s">
-        <v>28</v>
-      </c>
-      <c r="D154" t="s">
-        <v>28</v>
-      </c>
-      <c r="E154" s="2">
-        <v>45382.54166666666</v>
-      </c>
-      <c r="F154" t="s">
-        <v>35</v>
-      </c>
-      <c r="G154" t="s">
-        <v>38</v>
-      </c>
-      <c r="K154">
-        <v>7.5</v>
-      </c>
-      <c r="L154">
-        <v>4.333</v>
-      </c>
-      <c r="M154">
-        <v>1.333</v>
-      </c>
-      <c r="N154">
-        <v>8.5</v>
-      </c>
-      <c r="O154">
-        <v>4.333</v>
-      </c>
-      <c r="P154">
-        <v>1.3</v>
-      </c>
-      <c r="Q154">
-        <v>1.5</v>
-      </c>
-      <c r="R154">
-        <v>1.85</v>
-      </c>
-      <c r="S154">
-        <v>2</v>
-      </c>
-      <c r="T154">
-        <v>2.75</v>
-      </c>
-      <c r="U154">
-        <v>1.825</v>
-      </c>
-      <c r="V154">
-        <v>2.025</v>
-      </c>
-      <c r="W154">
-        <v>0</v>
-      </c>
-      <c r="X154">
-        <v>0</v>
-      </c>
-      <c r="Y154">
-        <v>0</v>
-      </c>
-      <c r="Z154">
-        <v>0</v>
-      </c>
-      <c r="AA154">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC151"/>
+  <dimension ref="A1:AC158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13776,7 +13776,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6818349</v>
+        <v>6818351</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13785,28 +13785,37 @@
         <v>28</v>
       </c>
       <c r="E150" s="2">
-        <v>45382.4375</v>
+        <v>45380.66666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150" t="s">
+        <v>41</v>
       </c>
       <c r="K150">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="L150">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M150">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N150">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="O150">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P150">
         <v>4.75</v>
@@ -13821,28 +13830,34 @@
         <v>1.975</v>
       </c>
       <c r="T150">
+        <v>2.5</v>
+      </c>
+      <c r="U150">
+        <v>1.875</v>
+      </c>
+      <c r="V150">
+        <v>1.975</v>
+      </c>
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
         <v>2.75</v>
       </c>
-      <c r="U150">
-        <v>2.025</v>
-      </c>
-      <c r="V150">
-        <v>1.825</v>
-      </c>
-      <c r="W150">
-        <v>0</v>
-      </c>
-      <c r="X150">
-        <v>0</v>
-      </c>
       <c r="Y150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB150">
+        <v>-1</v>
+      </c>
+      <c r="AC150">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13850,7 +13865,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6818350</v>
+        <v>6818347</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13859,63 +13874,626 @@
         <v>28</v>
       </c>
       <c r="E151" s="2">
-        <v>45382.54166666666</v>
+        <v>45381.4375</v>
       </c>
       <c r="F151" t="s">
+        <v>40</v>
+      </c>
+      <c r="G151" t="s">
+        <v>33</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
+        <v>3</v>
+      </c>
+      <c r="J151" t="s">
+        <v>42</v>
+      </c>
+      <c r="K151">
+        <v>2.75</v>
+      </c>
+      <c r="L151">
+        <v>3.25</v>
+      </c>
+      <c r="M151">
+        <v>2.25</v>
+      </c>
+      <c r="N151">
+        <v>2.875</v>
+      </c>
+      <c r="O151">
+        <v>3.3</v>
+      </c>
+      <c r="P151">
+        <v>2.15</v>
+      </c>
+      <c r="Q151">
+        <v>0.25</v>
+      </c>
+      <c r="R151">
+        <v>1.825</v>
+      </c>
+      <c r="S151">
+        <v>2.025</v>
+      </c>
+      <c r="T151">
+        <v>2.25</v>
+      </c>
+      <c r="U151">
+        <v>1.875</v>
+      </c>
+      <c r="V151">
+        <v>1.975</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
+        <v>-1</v>
+      </c>
+      <c r="Y151">
+        <v>1.15</v>
+      </c>
+      <c r="Z151">
+        <v>-1</v>
+      </c>
+      <c r="AA151">
+        <v>1.025</v>
+      </c>
+      <c r="AB151">
+        <v>0.875</v>
+      </c>
+      <c r="AC151">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>6818346</v>
+      </c>
+      <c r="C152" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45381.54166666666</v>
+      </c>
+      <c r="F152" t="s">
+        <v>29</v>
+      </c>
+      <c r="G152" t="s">
+        <v>37</v>
+      </c>
+      <c r="H152">
+        <v>2</v>
+      </c>
+      <c r="I152">
+        <v>2</v>
+      </c>
+      <c r="J152" t="s">
+        <v>41</v>
+      </c>
+      <c r="K152">
+        <v>2.3</v>
+      </c>
+      <c r="L152">
+        <v>3.25</v>
+      </c>
+      <c r="M152">
+        <v>2.7</v>
+      </c>
+      <c r="N152">
+        <v>2.1</v>
+      </c>
+      <c r="O152">
+        <v>3.3</v>
+      </c>
+      <c r="P152">
+        <v>3</v>
+      </c>
+      <c r="Q152">
+        <v>-0.25</v>
+      </c>
+      <c r="R152">
+        <v>1.95</v>
+      </c>
+      <c r="S152">
+        <v>1.9</v>
+      </c>
+      <c r="T152">
+        <v>2.5</v>
+      </c>
+      <c r="U152">
+        <v>2</v>
+      </c>
+      <c r="V152">
+        <v>1.85</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>2.3</v>
+      </c>
+      <c r="Y152">
+        <v>-1</v>
+      </c>
+      <c r="Z152">
+        <v>-0.5</v>
+      </c>
+      <c r="AA152">
+        <v>0.45</v>
+      </c>
+      <c r="AB152">
+        <v>1</v>
+      </c>
+      <c r="AC152">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>6818348</v>
+      </c>
+      <c r="C153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45381.64583333334</v>
+      </c>
+      <c r="F153" t="s">
+        <v>32</v>
+      </c>
+      <c r="G153" t="s">
+        <v>30</v>
+      </c>
+      <c r="H153">
+        <v>5</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153" t="s">
+        <v>43</v>
+      </c>
+      <c r="K153">
+        <v>2.45</v>
+      </c>
+      <c r="L153">
+        <v>3.3</v>
+      </c>
+      <c r="M153">
+        <v>2.45</v>
+      </c>
+      <c r="N153">
+        <v>2.5</v>
+      </c>
+      <c r="O153">
+        <v>3.3</v>
+      </c>
+      <c r="P153">
+        <v>2.4</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>1.975</v>
+      </c>
+      <c r="S153">
+        <v>1.875</v>
+      </c>
+      <c r="T153">
+        <v>2.75</v>
+      </c>
+      <c r="U153">
+        <v>2.025</v>
+      </c>
+      <c r="V153">
+        <v>1.825</v>
+      </c>
+      <c r="W153">
+        <v>1.5</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA153">
+        <v>-1</v>
+      </c>
+      <c r="AB153">
+        <v>1.025</v>
+      </c>
+      <c r="AC153">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>6818353</v>
+      </c>
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45387.625</v>
+      </c>
+      <c r="F154" t="s">
+        <v>31</v>
+      </c>
+      <c r="G154" t="s">
+        <v>32</v>
+      </c>
+      <c r="K154">
+        <v>1.909</v>
+      </c>
+      <c r="L154">
+        <v>3.5</v>
+      </c>
+      <c r="M154">
+        <v>3.25</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+      <c r="O154">
+        <v>3.4</v>
+      </c>
+      <c r="P154">
+        <v>3.3</v>
+      </c>
+      <c r="Q154">
+        <v>-0.25</v>
+      </c>
+      <c r="R154">
+        <v>1.85</v>
+      </c>
+      <c r="S154">
+        <v>2</v>
+      </c>
+      <c r="T154">
+        <v>2.5</v>
+      </c>
+      <c r="U154">
+        <v>1.9</v>
+      </c>
+      <c r="V154">
+        <v>1.95</v>
+      </c>
+      <c r="W154">
+        <v>0</v>
+      </c>
+      <c r="X154">
+        <v>0</v>
+      </c>
+      <c r="Y154">
+        <v>0</v>
+      </c>
+      <c r="Z154">
+        <v>0</v>
+      </c>
+      <c r="AA154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>6818356</v>
+      </c>
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45388.38541666666</v>
+      </c>
+      <c r="F155" t="s">
+        <v>36</v>
+      </c>
+      <c r="G155" t="s">
         <v>35</v>
       </c>
-      <c r="G151" t="s">
+      <c r="K155">
+        <v>1.571</v>
+      </c>
+      <c r="L155">
+        <v>3.6</v>
+      </c>
+      <c r="M155">
+        <v>5</v>
+      </c>
+      <c r="N155">
+        <v>1.727</v>
+      </c>
+      <c r="O155">
+        <v>3.4</v>
+      </c>
+      <c r="P155">
+        <v>4.5</v>
+      </c>
+      <c r="Q155">
+        <v>-0.75</v>
+      </c>
+      <c r="R155">
+        <v>2.025</v>
+      </c>
+      <c r="S155">
+        <v>1.825</v>
+      </c>
+      <c r="T155">
+        <v>2.5</v>
+      </c>
+      <c r="U155">
+        <v>1.85</v>
+      </c>
+      <c r="V155">
+        <v>2</v>
+      </c>
+      <c r="W155">
+        <v>0</v>
+      </c>
+      <c r="X155">
+        <v>0</v>
+      </c>
+      <c r="Y155">
+        <v>0</v>
+      </c>
+      <c r="Z155">
+        <v>0</v>
+      </c>
+      <c r="AA155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>6818354</v>
+      </c>
+      <c r="C156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45388.47916666666</v>
+      </c>
+      <c r="F156" t="s">
+        <v>30</v>
+      </c>
+      <c r="G156" t="s">
+        <v>40</v>
+      </c>
+      <c r="K156">
+        <v>1.727</v>
+      </c>
+      <c r="L156">
+        <v>3.4</v>
+      </c>
+      <c r="M156">
+        <v>4.2</v>
+      </c>
+      <c r="N156">
+        <v>1.8</v>
+      </c>
+      <c r="O156">
+        <v>3.3</v>
+      </c>
+      <c r="P156">
+        <v>4.2</v>
+      </c>
+      <c r="Q156">
+        <v>-0.5</v>
+      </c>
+      <c r="R156">
+        <v>1.875</v>
+      </c>
+      <c r="S156">
+        <v>1.975</v>
+      </c>
+      <c r="T156">
+        <v>2.5</v>
+      </c>
+      <c r="U156">
+        <v>1.825</v>
+      </c>
+      <c r="V156">
+        <v>2.025</v>
+      </c>
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156">
+        <v>0</v>
+      </c>
+      <c r="Y156">
+        <v>0</v>
+      </c>
+      <c r="Z156">
+        <v>0</v>
+      </c>
+      <c r="AA156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>6818355</v>
+      </c>
+      <c r="C157" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45388.60416666666</v>
+      </c>
+      <c r="F157" t="s">
+        <v>33</v>
+      </c>
+      <c r="G157" t="s">
+        <v>29</v>
+      </c>
+      <c r="K157">
+        <v>2</v>
+      </c>
+      <c r="L157">
+        <v>3.4</v>
+      </c>
+      <c r="M157">
+        <v>3.1</v>
+      </c>
+      <c r="N157">
+        <v>1.8</v>
+      </c>
+      <c r="O157">
+        <v>3.5</v>
+      </c>
+      <c r="P157">
+        <v>4</v>
+      </c>
+      <c r="Q157">
+        <v>-0.5</v>
+      </c>
+      <c r="R157">
+        <v>1.875</v>
+      </c>
+      <c r="S157">
+        <v>1.975</v>
+      </c>
+      <c r="T157">
+        <v>2.5</v>
+      </c>
+      <c r="U157">
+        <v>1.825</v>
+      </c>
+      <c r="V157">
+        <v>2.025</v>
+      </c>
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157">
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <v>0</v>
+      </c>
+      <c r="Z157">
+        <v>0</v>
+      </c>
+      <c r="AA157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>6818352</v>
+      </c>
+      <c r="C158" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45389.40625</v>
+      </c>
+      <c r="F158" t="s">
         <v>38</v>
       </c>
-      <c r="K151">
-        <v>7.5</v>
-      </c>
-      <c r="L151">
-        <v>4.333</v>
-      </c>
-      <c r="M151">
-        <v>1.333</v>
-      </c>
-      <c r="N151">
-        <v>8.5</v>
-      </c>
-      <c r="O151">
-        <v>4.333</v>
-      </c>
-      <c r="P151">
-        <v>1.3</v>
-      </c>
-      <c r="Q151">
-        <v>1.5</v>
-      </c>
-      <c r="R151">
-        <v>1.875</v>
-      </c>
-      <c r="S151">
-        <v>1.975</v>
-      </c>
-      <c r="T151">
-        <v>2.75</v>
-      </c>
-      <c r="U151">
-        <v>1.825</v>
-      </c>
-      <c r="V151">
-        <v>2.025</v>
-      </c>
-      <c r="W151">
+      <c r="G158" t="s">
+        <v>39</v>
+      </c>
+      <c r="K158">
+        <v>1.444</v>
+      </c>
+      <c r="L158">
+        <v>4</v>
+      </c>
+      <c r="M158">
+        <v>5.75</v>
+      </c>
+      <c r="N158">
+        <v>1.45</v>
+      </c>
+      <c r="O158">
+        <v>4</v>
+      </c>
+      <c r="P158">
+        <v>6.5</v>
+      </c>
+      <c r="Q158">
+        <v>-1</v>
+      </c>
+      <c r="R158">
+        <v>1.8</v>
+      </c>
+      <c r="S158">
+        <v>2.05</v>
+      </c>
+      <c r="T158">
+        <v>3</v>
+      </c>
+      <c r="U158">
+        <v>1.9</v>
+      </c>
+      <c r="V158">
+        <v>1.95</v>
+      </c>
+      <c r="W158">
         <v>0</v>
       </c>
-      <c r="X151">
+      <c r="X158">
         <v>0</v>
       </c>
-      <c r="Y151">
+      <c r="Y158">
         <v>0</v>
       </c>
-      <c r="Z151">
+      <c r="Z158">
         <v>0</v>
       </c>
-      <c r="AA151">
+      <c r="AA158">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC158"/>
+  <dimension ref="A1:AC161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14132,7 +14132,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6818353</v>
+        <v>6818349</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14141,64 +14141,79 @@
         <v>28</v>
       </c>
       <c r="E154" s="2">
-        <v>45387.625</v>
+        <v>45382.4375</v>
       </c>
       <c r="F154" t="s">
+        <v>39</v>
+      </c>
+      <c r="G154" t="s">
         <v>31</v>
       </c>
-      <c r="G154" t="s">
-        <v>32</v>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154" t="s">
+        <v>42</v>
       </c>
       <c r="K154">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L154">
         <v>3.5</v>
       </c>
       <c r="M154">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N154">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="O154">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S154">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T154">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U154">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V154">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Z154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB154">
+        <v>0.4</v>
+      </c>
+      <c r="AC154">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14206,7 +14221,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6818356</v>
+        <v>6818350</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14215,64 +14230,79 @@
         <v>28</v>
       </c>
       <c r="E155" s="2">
-        <v>45388.38541666666</v>
+        <v>45382.54166666666</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>3</v>
+      </c>
+      <c r="J155" t="s">
+        <v>42</v>
       </c>
       <c r="K155">
-        <v>1.571</v>
+        <v>7.5</v>
       </c>
       <c r="L155">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M155">
-        <v>5</v>
+        <v>1.333</v>
       </c>
       <c r="N155">
-        <v>1.727</v>
+        <v>9.5</v>
       </c>
       <c r="O155">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P155">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q155">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R155">
+        <v>2</v>
+      </c>
+      <c r="S155">
+        <v>1.85</v>
+      </c>
+      <c r="T155">
+        <v>3</v>
+      </c>
+      <c r="U155">
         <v>2.025</v>
       </c>
-      <c r="S155">
+      <c r="V155">
         <v>1.825</v>
       </c>
-      <c r="T155">
-        <v>2.5</v>
-      </c>
-      <c r="U155">
-        <v>1.85</v>
-      </c>
-      <c r="V155">
-        <v>2</v>
-      </c>
       <c r="W155">
+        <v>-1</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
+        <v>0.25</v>
+      </c>
+      <c r="Z155">
+        <v>-1</v>
+      </c>
+      <c r="AA155">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB155">
         <v>0</v>
       </c>
-      <c r="X155">
-        <v>0</v>
-      </c>
-      <c r="Y155">
-        <v>0</v>
-      </c>
-      <c r="Z155">
-        <v>0</v>
-      </c>
-      <c r="AA155">
-        <v>0</v>
+      <c r="AC155">
+        <v>-0</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14280,7 +14310,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6818354</v>
+        <v>6818353</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14289,40 +14319,40 @@
         <v>28</v>
       </c>
       <c r="E156" s="2">
-        <v>45388.47916666666</v>
+        <v>45387.625</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K156">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L156">
+        <v>3.5</v>
+      </c>
+      <c r="M156">
+        <v>3.25</v>
+      </c>
+      <c r="N156">
+        <v>2.05</v>
+      </c>
+      <c r="O156">
         <v>3.4</v>
       </c>
-      <c r="M156">
-        <v>4.2</v>
-      </c>
-      <c r="N156">
-        <v>1.8</v>
-      </c>
-      <c r="O156">
-        <v>3.3</v>
-      </c>
       <c r="P156">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S156">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T156">
         <v>2.5</v>
@@ -14354,7 +14384,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6818355</v>
+        <v>6818356</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14363,49 +14393,49 @@
         <v>28</v>
       </c>
       <c r="E157" s="2">
-        <v>45388.60416666666</v>
+        <v>45388.38541666666</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K157">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L157">
+        <v>3.6</v>
+      </c>
+      <c r="M157">
+        <v>5</v>
+      </c>
+      <c r="N157">
+        <v>1.75</v>
+      </c>
+      <c r="O157">
         <v>3.4</v>
       </c>
-      <c r="M157">
-        <v>3.1</v>
-      </c>
-      <c r="N157">
+      <c r="P157">
+        <v>4.333</v>
+      </c>
+      <c r="Q157">
+        <v>-0.75</v>
+      </c>
+      <c r="R157">
+        <v>2.05</v>
+      </c>
+      <c r="S157">
         <v>1.8</v>
-      </c>
-      <c r="O157">
-        <v>3.5</v>
-      </c>
-      <c r="P157">
-        <v>4</v>
-      </c>
-      <c r="Q157">
-        <v>-0.5</v>
-      </c>
-      <c r="R157">
-        <v>1.875</v>
-      </c>
-      <c r="S157">
-        <v>1.975</v>
       </c>
       <c r="T157">
         <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W157">
         <v>0</v>
@@ -14428,7 +14458,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6818352</v>
+        <v>6818354</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14437,49 +14467,49 @@
         <v>28</v>
       </c>
       <c r="E158" s="2">
-        <v>45389.40625</v>
+        <v>45388.47916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K158">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="N158">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="O158">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P158">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S158">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T158">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V158">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W158">
         <v>0</v>
@@ -14494,6 +14524,228 @@
         <v>0</v>
       </c>
       <c r="AA158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>6818355</v>
+      </c>
+      <c r="C159" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45388.60416666666</v>
+      </c>
+      <c r="F159" t="s">
+        <v>33</v>
+      </c>
+      <c r="G159" t="s">
+        <v>29</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>3.4</v>
+      </c>
+      <c r="M159">
+        <v>3.1</v>
+      </c>
+      <c r="N159">
+        <v>1.85</v>
+      </c>
+      <c r="O159">
+        <v>3.4</v>
+      </c>
+      <c r="P159">
+        <v>3.8</v>
+      </c>
+      <c r="Q159">
+        <v>-0.5</v>
+      </c>
+      <c r="R159">
+        <v>1.9</v>
+      </c>
+      <c r="S159">
+        <v>1.95</v>
+      </c>
+      <c r="T159">
+        <v>2.5</v>
+      </c>
+      <c r="U159">
+        <v>1.825</v>
+      </c>
+      <c r="V159">
+        <v>2.025</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <v>0</v>
+      </c>
+      <c r="Z159">
+        <v>0</v>
+      </c>
+      <c r="AA159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>6818352</v>
+      </c>
+      <c r="C160" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" t="s">
+        <v>28</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45389.40625</v>
+      </c>
+      <c r="F160" t="s">
+        <v>38</v>
+      </c>
+      <c r="G160" t="s">
+        <v>39</v>
+      </c>
+      <c r="K160">
+        <v>1.444</v>
+      </c>
+      <c r="L160">
+        <v>4</v>
+      </c>
+      <c r="M160">
+        <v>5.75</v>
+      </c>
+      <c r="N160">
+        <v>1.5</v>
+      </c>
+      <c r="O160">
+        <v>4</v>
+      </c>
+      <c r="P160">
+        <v>5.75</v>
+      </c>
+      <c r="Q160">
+        <v>-1</v>
+      </c>
+      <c r="R160">
+        <v>1.825</v>
+      </c>
+      <c r="S160">
+        <v>2.025</v>
+      </c>
+      <c r="T160">
+        <v>3</v>
+      </c>
+      <c r="U160">
+        <v>1.925</v>
+      </c>
+      <c r="V160">
+        <v>1.925</v>
+      </c>
+      <c r="W160">
+        <v>0</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+      <c r="Y160">
+        <v>0</v>
+      </c>
+      <c r="Z160">
+        <v>0</v>
+      </c>
+      <c r="AA160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>6818357</v>
+      </c>
+      <c r="C161" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161" t="s">
+        <v>28</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45389.52083333334</v>
+      </c>
+      <c r="F161" t="s">
+        <v>37</v>
+      </c>
+      <c r="G161" t="s">
+        <v>34</v>
+      </c>
+      <c r="K161">
+        <v>2.4</v>
+      </c>
+      <c r="L161">
+        <v>3.2</v>
+      </c>
+      <c r="M161">
+        <v>2.6</v>
+      </c>
+      <c r="N161">
+        <v>3</v>
+      </c>
+      <c r="O161">
+        <v>3.25</v>
+      </c>
+      <c r="P161">
+        <v>2.15</v>
+      </c>
+      <c r="Q161">
+        <v>0.25</v>
+      </c>
+      <c r="R161">
+        <v>1.925</v>
+      </c>
+      <c r="S161">
+        <v>1.925</v>
+      </c>
+      <c r="T161">
+        <v>2.5</v>
+      </c>
+      <c r="U161">
+        <v>1.975</v>
+      </c>
+      <c r="V161">
+        <v>1.875</v>
+      </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>0</v>
+      </c>
+      <c r="Z161">
+        <v>0</v>
+      </c>
+      <c r="AA161">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14423,19 +14423,19 @@
         <v>-0.75</v>
       </c>
       <c r="R157">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S157">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T157">
         <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V157">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W157">
         <v>0</v>
@@ -14497,10 +14497,10 @@
         <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S158">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T158">
         <v>2.5</v>
@@ -14559,31 +14559,31 @@
         <v>3.1</v>
       </c>
       <c r="N159">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O159">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P159">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q159">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R159">
+        <v>1.95</v>
+      </c>
+      <c r="S159">
         <v>1.9</v>
       </c>
-      <c r="S159">
-        <v>1.95</v>
-      </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
+        <v>2.025</v>
+      </c>
+      <c r="V159">
         <v>1.825</v>
-      </c>
-      <c r="V159">
-        <v>2.025</v>
       </c>
       <c r="W159">
         <v>0</v>
@@ -14645,10 +14645,10 @@
         <v>-1</v>
       </c>
       <c r="R160">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S160">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T160">
         <v>3</v>
@@ -14707,31 +14707,31 @@
         <v>2.6</v>
       </c>
       <c r="N161">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O161">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P161">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="Q161">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R161">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S161">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T161">
         <v>2.5</v>
       </c>
       <c r="U161">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V161">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W161">
         <v>0</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14337,31 +14337,31 @@
         <v>3.25</v>
       </c>
       <c r="N156">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O156">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P156">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S156">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V156">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W156">
         <v>0</v>
@@ -14411,22 +14411,22 @@
         <v>5</v>
       </c>
       <c r="N157">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O157">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P157">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q157">
         <v>-0.75</v>
       </c>
       <c r="R157">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S157">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T157">
         <v>2.5</v>
@@ -14633,22 +14633,22 @@
         <v>5.75</v>
       </c>
       <c r="N160">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P160">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="Q160">
         <v>-1</v>
       </c>
       <c r="R160">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S160">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T160">
         <v>3</v>
@@ -14707,22 +14707,22 @@
         <v>2.6</v>
       </c>
       <c r="N161">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O161">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P161">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q161">
         <v>0.5</v>
       </c>
       <c r="R161">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S161">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T161">
         <v>2.5</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14411,31 +14411,31 @@
         <v>5</v>
       </c>
       <c r="N157">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O157">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P157">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q157">
         <v>-0.75</v>
       </c>
       <c r="R157">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S157">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T157">
         <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V157">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W157">
         <v>0</v>
@@ -14571,10 +14571,10 @@
         <v>-0.75</v>
       </c>
       <c r="R159">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S159">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T159">
         <v>2.75</v>
@@ -14633,22 +14633,22 @@
         <v>5.75</v>
       </c>
       <c r="N160">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="O160">
         <v>3.8</v>
       </c>
       <c r="P160">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q160">
         <v>-1</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S160">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T160">
         <v>3</v>
@@ -14707,22 +14707,22 @@
         <v>2.6</v>
       </c>
       <c r="N161">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O161">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P161">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="Q161">
         <v>0.5</v>
       </c>
       <c r="R161">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S161">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T161">
         <v>2.5</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -14327,6 +14327,15 @@
       <c r="G156" t="s">
         <v>32</v>
       </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>5</v>
+      </c>
+      <c r="J156" t="s">
+        <v>42</v>
+      </c>
       <c r="K156">
         <v>1.909</v>
       </c>
@@ -14337,46 +14346,52 @@
         <v>3.25</v>
       </c>
       <c r="N156">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O156">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P156">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q156">
         <v>-0.5</v>
       </c>
       <c r="R156">
+        <v>1.875</v>
+      </c>
+      <c r="S156">
         <v>1.975</v>
-      </c>
-      <c r="S156">
-        <v>1.875</v>
       </c>
       <c r="T156">
         <v>2.75</v>
       </c>
       <c r="U156">
+        <v>1.85</v>
+      </c>
+      <c r="V156">
         <v>2</v>
       </c>
-      <c r="V156">
-        <v>1.85</v>
-      </c>
       <c r="W156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB156">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC156">
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14423,10 +14438,10 @@
         <v>-0.75</v>
       </c>
       <c r="R157">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S157">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T157">
         <v>2.5</v>
@@ -14497,19 +14512,19 @@
         <v>-0.5</v>
       </c>
       <c r="R158">
+        <v>1.85</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158">
+        <v>2.75</v>
+      </c>
+      <c r="U158">
+        <v>1.975</v>
+      </c>
+      <c r="V158">
         <v>1.875</v>
-      </c>
-      <c r="S158">
-        <v>1.975</v>
-      </c>
-      <c r="T158">
-        <v>2.5</v>
-      </c>
-      <c r="U158">
-        <v>1.825</v>
-      </c>
-      <c r="V158">
-        <v>2.025</v>
       </c>
       <c r="W158">
         <v>0</v>
@@ -14571,19 +14586,19 @@
         <v>-0.75</v>
       </c>
       <c r="R159">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S159">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T159">
         <v>2.75</v>
       </c>
       <c r="U159">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V159">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W159">
         <v>0</v>
@@ -14633,31 +14648,31 @@
         <v>5.75</v>
       </c>
       <c r="N160">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="O160">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P160">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q160">
         <v>-1</v>
       </c>
       <c r="R160">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S160">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T160">
         <v>3</v>
       </c>
       <c r="U160">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W160">
         <v>0</v>
@@ -14707,31 +14722,31 @@
         <v>2.6</v>
       </c>
       <c r="N161">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O161">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P161">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q161">
         <v>0.5</v>
       </c>
       <c r="R161">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S161">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T161">
         <v>2.5</v>
       </c>
       <c r="U161">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V161">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W161">
         <v>0</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC161"/>
+  <dimension ref="A1:AC159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6818356</v>
+        <v>6818355</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14408,49 +14408,49 @@
         <v>28</v>
       </c>
       <c r="E157" s="2">
-        <v>45388.38541666666</v>
+        <v>45388.60416666666</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K157">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L157">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M157">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N157">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="O157">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P157">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q157">
         <v>-0.75</v>
       </c>
       <c r="R157">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W157">
         <v>0</v>
@@ -14473,7 +14473,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6818354</v>
+        <v>6818352</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14482,49 +14482,49 @@
         <v>28</v>
       </c>
       <c r="E158" s="2">
-        <v>45388.47916666666</v>
+        <v>45389.40625</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G158" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K158">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L158">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M158">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="N158">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O158">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P158">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R158">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S158">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U158">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V158">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W158">
         <v>0</v>
@@ -14547,7 +14547,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6818355</v>
+        <v>6818357</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14556,43 +14556,43 @@
         <v>28</v>
       </c>
       <c r="E159" s="2">
-        <v>45388.60416666666</v>
+        <v>45389.52083333334</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K159">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L159">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M159">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N159">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="O159">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P159">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q159">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R159">
+        <v>1.9</v>
+      </c>
+      <c r="S159">
         <v>1.95</v>
       </c>
-      <c r="S159">
-        <v>1.9</v>
-      </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
         <v>1.975</v>
@@ -14613,154 +14613,6 @@
         <v>0</v>
       </c>
       <c r="AA159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:29">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160">
-        <v>6818352</v>
-      </c>
-      <c r="C160" t="s">
-        <v>28</v>
-      </c>
-      <c r="D160" t="s">
-        <v>28</v>
-      </c>
-      <c r="E160" s="2">
-        <v>45389.40625</v>
-      </c>
-      <c r="F160" t="s">
-        <v>38</v>
-      </c>
-      <c r="G160" t="s">
-        <v>39</v>
-      </c>
-      <c r="K160">
-        <v>1.444</v>
-      </c>
-      <c r="L160">
-        <v>4</v>
-      </c>
-      <c r="M160">
-        <v>5.75</v>
-      </c>
-      <c r="N160">
-        <v>1.533</v>
-      </c>
-      <c r="O160">
-        <v>4</v>
-      </c>
-      <c r="P160">
-        <v>5.5</v>
-      </c>
-      <c r="Q160">
-        <v>-1</v>
-      </c>
-      <c r="R160">
-        <v>1.85</v>
-      </c>
-      <c r="S160">
-        <v>2</v>
-      </c>
-      <c r="T160">
-        <v>3</v>
-      </c>
-      <c r="U160">
-        <v>1.9</v>
-      </c>
-      <c r="V160">
-        <v>1.95</v>
-      </c>
-      <c r="W160">
-        <v>0</v>
-      </c>
-      <c r="X160">
-        <v>0</v>
-      </c>
-      <c r="Y160">
-        <v>0</v>
-      </c>
-      <c r="Z160">
-        <v>0</v>
-      </c>
-      <c r="AA160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:27">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161">
-        <v>6818357</v>
-      </c>
-      <c r="C161" t="s">
-        <v>28</v>
-      </c>
-      <c r="D161" t="s">
-        <v>28</v>
-      </c>
-      <c r="E161" s="2">
-        <v>45389.52083333334</v>
-      </c>
-      <c r="F161" t="s">
-        <v>37</v>
-      </c>
-      <c r="G161" t="s">
-        <v>34</v>
-      </c>
-      <c r="K161">
-        <v>2.4</v>
-      </c>
-      <c r="L161">
-        <v>3.2</v>
-      </c>
-      <c r="M161">
-        <v>2.6</v>
-      </c>
-      <c r="N161">
-        <v>3.5</v>
-      </c>
-      <c r="O161">
-        <v>3.5</v>
-      </c>
-      <c r="P161">
-        <v>1.85</v>
-      </c>
-      <c r="Q161">
-        <v>0.5</v>
-      </c>
-      <c r="R161">
-        <v>1.925</v>
-      </c>
-      <c r="S161">
-        <v>1.925</v>
-      </c>
-      <c r="T161">
-        <v>2.5</v>
-      </c>
-      <c r="U161">
-        <v>1.975</v>
-      </c>
-      <c r="V161">
-        <v>1.875</v>
-      </c>
-      <c r="W161">
-        <v>0</v>
-      </c>
-      <c r="X161">
-        <v>0</v>
-      </c>
-      <c r="Y161">
-        <v>0</v>
-      </c>
-      <c r="Z161">
-        <v>0</v>
-      </c>
-      <c r="AA161">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC159"/>
+  <dimension ref="A1:AC161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6818355</v>
+        <v>6818356</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14408,64 +14408,79 @@
         <v>28</v>
       </c>
       <c r="E157" s="2">
-        <v>45388.60416666666</v>
+        <v>45388.38541666666</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="H157">
+        <v>5</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157" t="s">
+        <v>43</v>
       </c>
       <c r="K157">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L157">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M157">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N157">
         <v>1.666</v>
       </c>
       <c r="O157">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P157">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q157">
         <v>-0.75</v>
       </c>
       <c r="R157">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S157">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V157">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W157">
-        <v>0</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA157">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB157">
+        <v>0.825</v>
+      </c>
+      <c r="AC157">
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14473,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6818352</v>
+        <v>6818354</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14482,64 +14497,79 @@
         <v>28</v>
       </c>
       <c r="E158" s="2">
-        <v>45389.40625</v>
+        <v>45388.47916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158" t="s">
+        <v>41</v>
       </c>
       <c r="K158">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="N158">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O158">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P158">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S158">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T158">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V158">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB158">
+        <v>-1</v>
+      </c>
+      <c r="AC158">
+        <v>0.875</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14547,73 +14577,266 @@
         <v>157</v>
       </c>
       <c r="B159">
+        <v>6818355</v>
+      </c>
+      <c r="C159" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45388.60416666666</v>
+      </c>
+      <c r="F159" t="s">
+        <v>33</v>
+      </c>
+      <c r="G159" t="s">
+        <v>29</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159" t="s">
+        <v>42</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>3.4</v>
+      </c>
+      <c r="M159">
+        <v>3.1</v>
+      </c>
+      <c r="N159">
+        <v>1.666</v>
+      </c>
+      <c r="O159">
+        <v>3.75</v>
+      </c>
+      <c r="P159">
+        <v>4.5</v>
+      </c>
+      <c r="Q159">
+        <v>-0.75</v>
+      </c>
+      <c r="R159">
+        <v>1.925</v>
+      </c>
+      <c r="S159">
+        <v>1.925</v>
+      </c>
+      <c r="T159">
+        <v>2.75</v>
+      </c>
+      <c r="U159">
+        <v>1.925</v>
+      </c>
+      <c r="V159">
+        <v>1.925</v>
+      </c>
+      <c r="W159">
+        <v>-1</v>
+      </c>
+      <c r="X159">
+        <v>-1</v>
+      </c>
+      <c r="Y159">
+        <v>3.5</v>
+      </c>
+      <c r="Z159">
+        <v>-1</v>
+      </c>
+      <c r="AA159">
+        <v>0.925</v>
+      </c>
+      <c r="AB159">
+        <v>0.4625</v>
+      </c>
+      <c r="AC159">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>6818352</v>
+      </c>
+      <c r="C160" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" t="s">
+        <v>28</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45389.40625</v>
+      </c>
+      <c r="F160" t="s">
+        <v>38</v>
+      </c>
+      <c r="G160" t="s">
+        <v>39</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160" t="s">
+        <v>43</v>
+      </c>
+      <c r="K160">
+        <v>1.444</v>
+      </c>
+      <c r="L160">
+        <v>4</v>
+      </c>
+      <c r="M160">
+        <v>5.75</v>
+      </c>
+      <c r="N160">
+        <v>1.4</v>
+      </c>
+      <c r="O160">
+        <v>4.333</v>
+      </c>
+      <c r="P160">
+        <v>7</v>
+      </c>
+      <c r="Q160">
+        <v>-1.25</v>
+      </c>
+      <c r="R160">
+        <v>1.9</v>
+      </c>
+      <c r="S160">
+        <v>1.95</v>
+      </c>
+      <c r="T160">
+        <v>3</v>
+      </c>
+      <c r="U160">
+        <v>1.875</v>
+      </c>
+      <c r="V160">
+        <v>1.975</v>
+      </c>
+      <c r="W160">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X160">
+        <v>-1</v>
+      </c>
+      <c r="Y160">
+        <v>-1</v>
+      </c>
+      <c r="Z160">
+        <v>-0.5</v>
+      </c>
+      <c r="AA160">
+        <v>0.475</v>
+      </c>
+      <c r="AB160">
+        <v>-1</v>
+      </c>
+      <c r="AC160">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
         <v>6818357</v>
       </c>
-      <c r="C159" t="s">
-        <v>28</v>
-      </c>
-      <c r="D159" t="s">
-        <v>28</v>
-      </c>
-      <c r="E159" s="2">
+      <c r="C161" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161" t="s">
+        <v>28</v>
+      </c>
+      <c r="E161" s="2">
         <v>45389.52083333334</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F161" t="s">
         <v>37</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G161" t="s">
         <v>34</v>
       </c>
-      <c r="K159">
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161" t="s">
+        <v>42</v>
+      </c>
+      <c r="K161">
         <v>2.4</v>
       </c>
-      <c r="L159">
+      <c r="L161">
         <v>3.2</v>
       </c>
-      <c r="M159">
+      <c r="M161">
         <v>2.6</v>
       </c>
-      <c r="N159">
+      <c r="N161">
+        <v>3.75</v>
+      </c>
+      <c r="O161">
         <v>3.5</v>
       </c>
-      <c r="O159">
-        <v>3.5</v>
-      </c>
-      <c r="P159">
+      <c r="P161">
+        <v>1.833</v>
+      </c>
+      <c r="Q161">
+        <v>0.5</v>
+      </c>
+      <c r="R161">
+        <v>2.025</v>
+      </c>
+      <c r="S161">
+        <v>1.825</v>
+      </c>
+      <c r="T161">
+        <v>2.5</v>
+      </c>
+      <c r="U161">
+        <v>2</v>
+      </c>
+      <c r="V161">
         <v>1.85</v>
       </c>
-      <c r="Q159">
-        <v>0.5</v>
-      </c>
-      <c r="R159">
-        <v>1.9</v>
-      </c>
-      <c r="S159">
-        <v>1.95</v>
-      </c>
-      <c r="T159">
-        <v>2.5</v>
-      </c>
-      <c r="U159">
-        <v>1.975</v>
-      </c>
-      <c r="V159">
-        <v>1.875</v>
-      </c>
-      <c r="W159">
-        <v>0</v>
-      </c>
-      <c r="X159">
-        <v>0</v>
-      </c>
-      <c r="Y159">
-        <v>0</v>
-      </c>
-      <c r="Z159">
-        <v>0</v>
-      </c>
-      <c r="AA159">
-        <v>0</v>
+      <c r="W161">
+        <v>-1</v>
+      </c>
+      <c r="X161">
+        <v>-1</v>
+      </c>
+      <c r="Y161">
+        <v>0.833</v>
+      </c>
+      <c r="Z161">
+        <v>-1</v>
+      </c>
+      <c r="AA161">
+        <v>0.825</v>
+      </c>
+      <c r="AB161">
+        <v>1</v>
+      </c>
+      <c r="AC161">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC161"/>
+  <dimension ref="A1:AC166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14839,6 +14839,376 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="162" spans="1:29">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>7939469</v>
+      </c>
+      <c r="C162" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" t="s">
+        <v>28</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45392.54166666666</v>
+      </c>
+      <c r="F162" t="s">
+        <v>38</v>
+      </c>
+      <c r="G162" t="s">
+        <v>30</v>
+      </c>
+      <c r="K162">
+        <v>1.3</v>
+      </c>
+      <c r="L162">
+        <v>5.5</v>
+      </c>
+      <c r="M162">
+        <v>9</v>
+      </c>
+      <c r="N162">
+        <v>1.3</v>
+      </c>
+      <c r="O162">
+        <v>5.75</v>
+      </c>
+      <c r="P162">
+        <v>8.5</v>
+      </c>
+      <c r="Q162">
+        <v>-1.5</v>
+      </c>
+      <c r="R162">
+        <v>1.825</v>
+      </c>
+      <c r="S162">
+        <v>2.025</v>
+      </c>
+      <c r="T162">
+        <v>3.25</v>
+      </c>
+      <c r="U162">
+        <v>2.05</v>
+      </c>
+      <c r="V162">
+        <v>1.8</v>
+      </c>
+      <c r="W162">
+        <v>0</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <v>0</v>
+      </c>
+      <c r="Z162">
+        <v>0</v>
+      </c>
+      <c r="AA162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>6818359</v>
+      </c>
+      <c r="C163" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" t="s">
+        <v>28</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45395.39583333334</v>
+      </c>
+      <c r="F163" t="s">
+        <v>40</v>
+      </c>
+      <c r="G163" t="s">
+        <v>31</v>
+      </c>
+      <c r="K163">
+        <v>2.6</v>
+      </c>
+      <c r="L163">
+        <v>3.4</v>
+      </c>
+      <c r="M163">
+        <v>2.6</v>
+      </c>
+      <c r="N163">
+        <v>2.6</v>
+      </c>
+      <c r="O163">
+        <v>3.4</v>
+      </c>
+      <c r="P163">
+        <v>2.6</v>
+      </c>
+      <c r="Q163">
+        <v>0</v>
+      </c>
+      <c r="R163">
+        <v>1.925</v>
+      </c>
+      <c r="S163">
+        <v>1.925</v>
+      </c>
+      <c r="T163">
+        <v>2.5</v>
+      </c>
+      <c r="U163">
+        <v>1.975</v>
+      </c>
+      <c r="V163">
+        <v>1.875</v>
+      </c>
+      <c r="W163">
+        <v>0</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>0</v>
+      </c>
+      <c r="Z163">
+        <v>0</v>
+      </c>
+      <c r="AA163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>6818358</v>
+      </c>
+      <c r="C164" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" t="s">
+        <v>28</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45395.5</v>
+      </c>
+      <c r="F164" t="s">
+        <v>33</v>
+      </c>
+      <c r="G164" t="s">
+        <v>37</v>
+      </c>
+      <c r="K164">
+        <v>1.666</v>
+      </c>
+      <c r="L164">
+        <v>3.5</v>
+      </c>
+      <c r="M164">
+        <v>5.5</v>
+      </c>
+      <c r="N164">
+        <v>1.727</v>
+      </c>
+      <c r="O164">
+        <v>3.4</v>
+      </c>
+      <c r="P164">
+        <v>5</v>
+      </c>
+      <c r="Q164">
+        <v>-0.75</v>
+      </c>
+      <c r="R164">
+        <v>1.95</v>
+      </c>
+      <c r="S164">
+        <v>1.9</v>
+      </c>
+      <c r="T164">
+        <v>2.5</v>
+      </c>
+      <c r="U164">
+        <v>1.975</v>
+      </c>
+      <c r="V164">
+        <v>1.875</v>
+      </c>
+      <c r="W164">
+        <v>0</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>0</v>
+      </c>
+      <c r="Z164">
+        <v>0</v>
+      </c>
+      <c r="AA164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>6818360</v>
+      </c>
+      <c r="C165" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" t="s">
+        <v>28</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45395.60416666666</v>
+      </c>
+      <c r="F165" t="s">
+        <v>39</v>
+      </c>
+      <c r="G165" t="s">
+        <v>36</v>
+      </c>
+      <c r="K165">
+        <v>1.666</v>
+      </c>
+      <c r="L165">
+        <v>3.5</v>
+      </c>
+      <c r="M165">
+        <v>5.5</v>
+      </c>
+      <c r="N165">
+        <v>1.571</v>
+      </c>
+      <c r="O165">
+        <v>3.75</v>
+      </c>
+      <c r="P165">
+        <v>6</v>
+      </c>
+      <c r="Q165">
+        <v>-1</v>
+      </c>
+      <c r="R165">
+        <v>2.05</v>
+      </c>
+      <c r="S165">
+        <v>1.8</v>
+      </c>
+      <c r="T165">
+        <v>2.75</v>
+      </c>
+      <c r="U165">
+        <v>1.85</v>
+      </c>
+      <c r="V165">
+        <v>2</v>
+      </c>
+      <c r="W165">
+        <v>0</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>0</v>
+      </c>
+      <c r="Z165">
+        <v>0</v>
+      </c>
+      <c r="AA165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>6818361</v>
+      </c>
+      <c r="C166" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45396.57291666666</v>
+      </c>
+      <c r="F166" t="s">
+        <v>35</v>
+      </c>
+      <c r="G166" t="s">
+        <v>34</v>
+      </c>
+      <c r="K166">
+        <v>5.5</v>
+      </c>
+      <c r="L166">
+        <v>3.5</v>
+      </c>
+      <c r="M166">
+        <v>1.666</v>
+      </c>
+      <c r="N166">
+        <v>5.25</v>
+      </c>
+      <c r="O166">
+        <v>3.5</v>
+      </c>
+      <c r="P166">
+        <v>1.7</v>
+      </c>
+      <c r="Q166">
+        <v>0.75</v>
+      </c>
+      <c r="R166">
+        <v>1.925</v>
+      </c>
+      <c r="S166">
+        <v>1.925</v>
+      </c>
+      <c r="T166">
+        <v>2.5</v>
+      </c>
+      <c r="U166">
+        <v>1.925</v>
+      </c>
+      <c r="V166">
+        <v>1.925</v>
+      </c>
+      <c r="W166">
+        <v>0</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>0</v>
+      </c>
+      <c r="Z166">
+        <v>0</v>
+      </c>
+      <c r="AA166">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>Kisvarda FC</t>
+  </si>
+  <si>
+    <t>Man Utd</t>
+  </si>
+  <si>
+    <t>Man City</t>
   </si>
   <si>
     <t>D</t>
@@ -507,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC166"/>
+  <dimension ref="A1:AC167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K2">
         <v>2.625</v>
@@ -717,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K3">
         <v>3.2</v>
@@ -806,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K4">
         <v>2.375</v>
@@ -895,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K5">
         <v>2.9</v>
@@ -984,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>1.833</v>
@@ -1073,7 +1079,7 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <v>2.05</v>
@@ -1162,7 +1168,7 @@
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8">
         <v>1.666</v>
@@ -1251,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K9">
         <v>3.5</v>
@@ -1340,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K10">
         <v>2.05</v>
@@ -1429,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <v>2.2</v>
@@ -1518,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>2.7</v>
@@ -1607,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>1.727</v>
@@ -1696,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>2.55</v>
@@ -1785,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K15">
         <v>1.85</v>
@@ -1874,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K16">
         <v>1.5</v>
@@ -1963,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>2.05</v>
@@ -2052,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K18">
         <v>1.85</v>
@@ -2141,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K19">
         <v>2.15</v>
@@ -2230,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -2319,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>2.25</v>
@@ -2408,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K22">
         <v>2.7</v>
@@ -2497,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K23">
         <v>2.4</v>
@@ -2586,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K24">
         <v>2.3</v>
@@ -2675,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -2764,7 +2770,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K26">
         <v>1.75</v>
@@ -2853,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>1.4</v>
@@ -2942,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K28">
         <v>1.95</v>
@@ -3031,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K29">
         <v>2.3</v>
@@ -3120,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>1.909</v>
@@ -3209,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K31">
         <v>2.9</v>
@@ -3298,7 +3304,7 @@
         <v>6</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K32">
         <v>5.25</v>
@@ -3387,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3476,7 +3482,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K34">
         <v>1.8</v>
@@ -3565,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K35">
         <v>1.9</v>
@@ -3654,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>2.5</v>
@@ -3743,7 +3749,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K37">
         <v>2.2</v>
@@ -3832,7 +3838,7 @@
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K38">
         <v>2.2</v>
@@ -3921,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>1.363</v>
@@ -4010,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K40">
         <v>2.1</v>
@@ -4099,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K41">
         <v>1.4</v>
@@ -4188,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -4277,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K43">
         <v>1.615</v>
@@ -4366,7 +4372,7 @@
         <v>6</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K44">
         <v>4.75</v>
@@ -4455,7 +4461,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K45">
         <v>1.8</v>
@@ -4544,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K46">
         <v>2.6</v>
@@ -4633,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K47">
         <v>2.25</v>
@@ -4722,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K48">
         <v>1.8</v>
@@ -4811,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K49">
         <v>2.25</v>
@@ -4900,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K50">
         <v>2.4</v>
@@ -4989,7 +4995,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K51">
         <v>2.4</v>
@@ -5078,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K52">
         <v>2.5</v>
@@ -5167,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K53">
         <v>1.8</v>
@@ -5256,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K54">
         <v>2.1</v>
@@ -5345,7 +5351,7 @@
         <v>5</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K55">
         <v>2.5</v>
@@ -5434,7 +5440,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K56">
         <v>1.909</v>
@@ -5523,7 +5529,7 @@
         <v>5</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K57">
         <v>2.5</v>
@@ -5612,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K58">
         <v>1.909</v>
@@ -5701,7 +5707,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K59">
         <v>7.5</v>
@@ -5790,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K60">
         <v>1.666</v>
@@ -5879,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K61">
         <v>2.5</v>
@@ -5968,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K62">
         <v>2.35</v>
@@ -6057,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K63">
         <v>2.7</v>
@@ -6146,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K64">
         <v>1.571</v>
@@ -6235,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K65">
         <v>1.25</v>
@@ -6324,7 +6330,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K66">
         <v>3.3</v>
@@ -6413,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K67">
         <v>1.8</v>
@@ -6502,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>2.4</v>
@@ -6591,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K69">
         <v>1.909</v>
@@ -6680,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K70">
         <v>5.75</v>
@@ -6769,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K71">
         <v>1.75</v>
@@ -6858,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K72">
         <v>2.2</v>
@@ -6947,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K73">
         <v>1.727</v>
@@ -7036,7 +7042,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K74">
         <v>2.375</v>
@@ -7125,7 +7131,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K75">
         <v>2.2</v>
@@ -7214,7 +7220,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K76">
         <v>1.333</v>
@@ -7303,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K77">
         <v>2.25</v>
@@ -7392,7 +7398,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K78">
         <v>1.85</v>
@@ -7481,7 +7487,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K79">
         <v>2.3</v>
@@ -7570,7 +7576,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K80">
         <v>2.3</v>
@@ -7659,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K81">
         <v>3.1</v>
@@ -7748,7 +7754,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K82">
         <v>3.75</v>
@@ -7837,7 +7843,7 @@
         <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K83">
         <v>2.3</v>
@@ -7926,7 +7932,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K84">
         <v>2.3</v>
@@ -8015,7 +8021,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K85">
         <v>2.3</v>
@@ -8104,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K86">
         <v>2.875</v>
@@ -8193,7 +8199,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K87">
         <v>2.6</v>
@@ -8282,7 +8288,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K88">
         <v>1.833</v>
@@ -8371,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K89">
         <v>1.285</v>
@@ -8460,7 +8466,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K90">
         <v>6.5</v>
@@ -8549,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K91">
         <v>1.8</v>
@@ -8638,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K92">
         <v>3.2</v>
@@ -8727,7 +8733,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K93">
         <v>2.45</v>
@@ -8816,7 +8822,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K94">
         <v>3.1</v>
@@ -8905,7 +8911,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K95">
         <v>3.6</v>
@@ -8994,7 +9000,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K96">
         <v>3.2</v>
@@ -9083,7 +9089,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K97">
         <v>2.1</v>
@@ -9172,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K98">
         <v>2.25</v>
@@ -9261,7 +9267,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K99">
         <v>2</v>
@@ -9350,7 +9356,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K100">
         <v>2.375</v>
@@ -9439,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K101">
         <v>1.2</v>
@@ -9528,7 +9534,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K102">
         <v>1.727</v>
@@ -9617,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K103">
         <v>2.3</v>
@@ -9706,7 +9712,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K104">
         <v>3.2</v>
@@ -9795,7 +9801,7 @@
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K105">
         <v>7</v>
@@ -9884,7 +9890,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K106">
         <v>1.8</v>
@@ -9973,7 +9979,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K107">
         <v>2.8</v>
@@ -10062,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K108">
         <v>2.1</v>
@@ -10151,7 +10157,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K109">
         <v>2.8</v>
@@ -10240,7 +10246,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K110">
         <v>1.333</v>
@@ -10329,7 +10335,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K111">
         <v>2.45</v>
@@ -10418,7 +10424,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K112">
         <v>1.5</v>
@@ -10507,7 +10513,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K113">
         <v>3.75</v>
@@ -10596,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K114">
         <v>2.15</v>
@@ -10685,7 +10691,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K115">
         <v>2.75</v>
@@ -10774,7 +10780,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K116">
         <v>1.909</v>
@@ -10863,7 +10869,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K117">
         <v>3.9</v>
@@ -10952,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K118">
         <v>1.55</v>
@@ -11041,7 +11047,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K119">
         <v>1.7</v>
@@ -11130,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K120">
         <v>2</v>
@@ -11219,7 +11225,7 @@
         <v>4</v>
       </c>
       <c r="J121" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K121">
         <v>1.55</v>
@@ -11308,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K122">
         <v>1.909</v>
@@ -11397,7 +11403,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K123">
         <v>2.15</v>
@@ -11486,7 +11492,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K124">
         <v>2.6</v>
@@ -11575,7 +11581,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K125">
         <v>1.65</v>
@@ -11664,7 +11670,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K126">
         <v>1.8</v>
@@ -11753,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K127">
         <v>2.4</v>
@@ -11842,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K128">
         <v>2.25</v>
@@ -11931,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K129">
         <v>2.25</v>
@@ -12020,7 +12026,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K130">
         <v>3.5</v>
@@ -12109,7 +12115,7 @@
         <v>5</v>
       </c>
       <c r="J131" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K131">
         <v>5.2</v>
@@ -12198,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K132">
         <v>1.5</v>
@@ -12287,7 +12293,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K133">
         <v>2.25</v>
@@ -12376,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K134">
         <v>2.9</v>
@@ -12465,7 +12471,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K135">
         <v>2.75</v>
@@ -12554,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K136">
         <v>1.25</v>
@@ -12643,7 +12649,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K137">
         <v>2.3</v>
@@ -12732,7 +12738,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K138">
         <v>1.727</v>
@@ -12821,7 +12827,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K139">
         <v>2.9</v>
@@ -12910,7 +12916,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K140">
         <v>2.15</v>
@@ -12999,7 +13005,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K141">
         <v>2.1</v>
@@ -13088,7 +13094,7 @@
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K142">
         <v>5.25</v>
@@ -13177,7 +13183,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K143">
         <v>2.2</v>
@@ -13266,7 +13272,7 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K144">
         <v>1.833</v>
@@ -13355,7 +13361,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K145">
         <v>2.5</v>
@@ -13444,7 +13450,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K146">
         <v>1.909</v>
@@ -13533,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K147">
         <v>1.727</v>
@@ -13622,7 +13628,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K148">
         <v>1.5</v>
@@ -13711,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K149">
         <v>1.727</v>
@@ -13800,7 +13806,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K150">
         <v>2.45</v>
@@ -13889,7 +13895,7 @@
         <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K151">
         <v>2.75</v>
@@ -13978,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K152">
         <v>2.3</v>
@@ -14067,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K153">
         <v>2.45</v>
@@ -14156,7 +14162,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K154">
         <v>1.666</v>
@@ -14245,7 +14251,7 @@
         <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K155">
         <v>7.5</v>
@@ -14334,7 +14340,7 @@
         <v>5</v>
       </c>
       <c r="J156" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K156">
         <v>1.909</v>
@@ -14423,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K157">
         <v>1.571</v>
@@ -14512,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K158">
         <v>1.727</v>
@@ -14601,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K159">
         <v>2</v>
@@ -14690,7 +14696,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K160">
         <v>1.444</v>
@@ -14779,7 +14785,7 @@
         <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K161">
         <v>2.4</v>
@@ -14844,7 +14850,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7939469</v>
+        <v>8074943</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14853,64 +14859,79 @@
         <v>28</v>
       </c>
       <c r="E162" s="2">
-        <v>45392.54166666666</v>
+        <v>45391.53819444445</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="H162">
+        <v>2</v>
+      </c>
+      <c r="I162">
+        <v>2</v>
+      </c>
+      <c r="J162" t="s">
+        <v>43</v>
       </c>
       <c r="K162">
-        <v>1.3</v>
+        <v>8.5</v>
       </c>
       <c r="L162">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="M162">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="N162">
-        <v>1.3</v>
+        <v>8.5</v>
       </c>
       <c r="O162">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P162">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q162">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R162">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S162">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T162">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V162">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Y162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA162">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB162">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC162">
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14918,7 +14939,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6818359</v>
+        <v>7939469</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14927,49 +14948,49 @@
         <v>28</v>
       </c>
       <c r="E163" s="2">
-        <v>45395.39583333334</v>
+        <v>45392.54166666666</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K163">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M163">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="N163">
-        <v>2.6</v>
+        <v>1.285</v>
       </c>
       <c r="O163">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P163">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="Q163">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R163">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S163">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U163">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V163">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W163">
         <v>0</v>
@@ -14992,7 +15013,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6818358</v>
+        <v>6818359</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15001,40 +15022,40 @@
         <v>28</v>
       </c>
       <c r="E164" s="2">
-        <v>45395.5</v>
+        <v>45395.39583333334</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K164">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="L164">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M164">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N164">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O164">
         <v>3.4</v>
       </c>
       <c r="P164">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q164">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S164">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T164">
         <v>2.5</v>
@@ -15066,7 +15087,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6818360</v>
+        <v>6818358</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15075,13 +15096,13 @@
         <v>28</v>
       </c>
       <c r="E165" s="2">
-        <v>45395.60416666666</v>
+        <v>45395.5</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K165">
         <v>1.666</v>
@@ -15099,25 +15120,25 @@
         <v>3.75</v>
       </c>
       <c r="P165">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q165">
         <v>-1</v>
       </c>
       <c r="R165">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S165">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V165">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W165">
         <v>0</v>
@@ -15140,7 +15161,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6818361</v>
+        <v>6818360</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15149,49 +15170,49 @@
         <v>28</v>
       </c>
       <c r="E166" s="2">
-        <v>45396.57291666666</v>
+        <v>45395.60416666666</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K166">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="L166">
         <v>3.5</v>
       </c>
       <c r="M166">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="N166">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="O166">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>1.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q166">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S166">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U166">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V166">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W166">
         <v>0</v>
@@ -15206,6 +15227,80 @@
         <v>0</v>
       </c>
       <c r="AA166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>6818361</v>
+      </c>
+      <c r="C167" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45396.57291666666</v>
+      </c>
+      <c r="F167" t="s">
+        <v>35</v>
+      </c>
+      <c r="G167" t="s">
+        <v>34</v>
+      </c>
+      <c r="K167">
+        <v>5.5</v>
+      </c>
+      <c r="L167">
+        <v>3.5</v>
+      </c>
+      <c r="M167">
+        <v>1.666</v>
+      </c>
+      <c r="N167">
+        <v>5.25</v>
+      </c>
+      <c r="O167">
+        <v>3.5</v>
+      </c>
+      <c r="P167">
+        <v>1.7</v>
+      </c>
+      <c r="Q167">
+        <v>0.75</v>
+      </c>
+      <c r="R167">
+        <v>1.95</v>
+      </c>
+      <c r="S167">
+        <v>1.9</v>
+      </c>
+      <c r="T167">
+        <v>2.5</v>
+      </c>
+      <c r="U167">
+        <v>1.925</v>
+      </c>
+      <c r="V167">
+        <v>1.925</v>
+      </c>
+      <c r="W167">
+        <v>0</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>0</v>
+      </c>
+      <c r="Z167">
+        <v>0</v>
+      </c>
+      <c r="AA167">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC167"/>
+  <dimension ref="A1:AC168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14939,7 +14939,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7939469</v>
+        <v>6818359</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14948,49 +14948,49 @@
         <v>28</v>
       </c>
       <c r="E163" s="2">
-        <v>45392.54166666666</v>
+        <v>45395.39583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K163">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="L163">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M163">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="N163">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="O163">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q163">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R163">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S163">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V163">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W163">
         <v>0</v>
@@ -15013,7 +15013,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6818359</v>
+        <v>6818358</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15022,49 +15022,49 @@
         <v>28</v>
       </c>
       <c r="E164" s="2">
-        <v>45395.39583333334</v>
+        <v>45395.5</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K164">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L164">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M164">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N164">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="O164">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P164">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R164">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S164">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T164">
         <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V164">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
         <v>0</v>
@@ -15087,7 +15087,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6818358</v>
+        <v>6818360</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15096,13 +15096,13 @@
         <v>28</v>
       </c>
       <c r="E165" s="2">
-        <v>45395.5</v>
+        <v>45395.60416666666</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K165">
         <v>1.666</v>
@@ -15114,31 +15114,31 @@
         <v>5.5</v>
       </c>
       <c r="N165">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="O165">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P165">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q165">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R165">
+        <v>1.85</v>
+      </c>
+      <c r="S165">
         <v>2</v>
       </c>
-      <c r="S165">
-        <v>1.85</v>
-      </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
         <v>0</v>
@@ -15161,7 +15161,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6818360</v>
+        <v>6820520</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15170,49 +15170,49 @@
         <v>28</v>
       </c>
       <c r="E166" s="2">
-        <v>45395.60416666666</v>
+        <v>45396.375</v>
       </c>
       <c r="F166" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K166">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L166">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M166">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N166">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O166">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P166">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
+        <v>2.05</v>
+      </c>
+      <c r="S166">
         <v>1.8</v>
-      </c>
-      <c r="S166">
-        <v>2.05</v>
       </c>
       <c r="T166">
         <v>2.75</v>
       </c>
       <c r="U166">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V166">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W166">
         <v>0</v>
@@ -15235,7 +15235,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6818361</v>
+        <v>6860904</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15244,49 +15244,49 @@
         <v>28</v>
       </c>
       <c r="E167" s="2">
-        <v>45396.57291666666</v>
+        <v>45396.47916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K167">
         <v>5.5</v>
       </c>
       <c r="L167">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M167">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="N167">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="O167">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P167">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q167">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U167">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V167">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W167">
         <v>0</v>
@@ -15301,6 +15301,80 @@
         <v>0</v>
       </c>
       <c r="AA167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>6818361</v>
+      </c>
+      <c r="C168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D168" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45396.57291666666</v>
+      </c>
+      <c r="F168" t="s">
+        <v>35</v>
+      </c>
+      <c r="G168" t="s">
+        <v>34</v>
+      </c>
+      <c r="K168">
+        <v>5.5</v>
+      </c>
+      <c r="L168">
+        <v>3.5</v>
+      </c>
+      <c r="M168">
+        <v>1.666</v>
+      </c>
+      <c r="N168">
+        <v>5.5</v>
+      </c>
+      <c r="O168">
+        <v>3.6</v>
+      </c>
+      <c r="P168">
+        <v>1.65</v>
+      </c>
+      <c r="Q168">
+        <v>0.75</v>
+      </c>
+      <c r="R168">
+        <v>2</v>
+      </c>
+      <c r="S168">
+        <v>1.85</v>
+      </c>
+      <c r="T168">
+        <v>2.5</v>
+      </c>
+      <c r="U168">
+        <v>1.925</v>
+      </c>
+      <c r="V168">
+        <v>1.925</v>
+      </c>
+      <c r="W168">
+        <v>0</v>
+      </c>
+      <c r="X168">
+        <v>0</v>
+      </c>
+      <c r="Y168">
+        <v>0</v>
+      </c>
+      <c r="Z168">
+        <v>0</v>
+      </c>
+      <c r="AA168">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC168"/>
+  <dimension ref="A1:AC169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14939,7 +14939,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6818359</v>
+        <v>7939469</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14948,43 +14948,52 @@
         <v>28</v>
       </c>
       <c r="E163" s="2">
-        <v>45395.39583333334</v>
+        <v>45392.54166666666</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="H163">
+        <v>2</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163" t="s">
+        <v>45</v>
       </c>
       <c r="K163">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M163">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="N163">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="O163">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P163">
-        <v>2.7</v>
+        <v>9.5</v>
       </c>
       <c r="Q163">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R163">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S163">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U163">
         <v>1.975</v>
@@ -14993,19 +15002,25 @@
         <v>1.875</v>
       </c>
       <c r="W163">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB163">
+        <v>-0.5</v>
+      </c>
+      <c r="AC163">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15013,7 +15028,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6818358</v>
+        <v>6818359</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15022,49 +15037,49 @@
         <v>28</v>
       </c>
       <c r="E164" s="2">
-        <v>45395.5</v>
+        <v>45395.39583333334</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K164">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="L164">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M164">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N164">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="O164">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P164">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q164">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S164">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T164">
         <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W164">
         <v>0</v>
@@ -15087,7 +15102,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6818360</v>
+        <v>6818358</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15096,13 +15111,13 @@
         <v>28</v>
       </c>
       <c r="E165" s="2">
-        <v>45395.60416666666</v>
+        <v>45395.5</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K165">
         <v>1.666</v>
@@ -15114,31 +15129,31 @@
         <v>5.5</v>
       </c>
       <c r="N165">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P165">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R165">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S165">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T165">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W165">
         <v>0</v>
@@ -15161,7 +15176,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6820520</v>
+        <v>6818360</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15170,49 +15185,49 @@
         <v>28</v>
       </c>
       <c r="E166" s="2">
-        <v>45396.375</v>
+        <v>45395.60416666666</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G166" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K166">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="L166">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M166">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N166">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O166">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S166">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T166">
         <v>2.75</v>
       </c>
       <c r="U166">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W166">
         <v>0</v>
@@ -15235,7 +15250,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6860904</v>
+        <v>6820520</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15244,49 +15259,49 @@
         <v>28</v>
       </c>
       <c r="E167" s="2">
-        <v>45396.47916666666</v>
+        <v>45396.375</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K167">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M167">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="N167">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="O167">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P167">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q167">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
+        <v>2.05</v>
+      </c>
+      <c r="S167">
         <v>1.8</v>
       </c>
-      <c r="S167">
-        <v>2.05</v>
-      </c>
       <c r="T167">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V167">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W167">
         <v>0</v>
@@ -15309,7 +15324,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6818361</v>
+        <v>6860904</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15318,49 +15333,49 @@
         <v>28</v>
       </c>
       <c r="E168" s="2">
-        <v>45396.57291666666</v>
+        <v>45396.47916666666</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K168">
         <v>5.5</v>
       </c>
       <c r="L168">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M168">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="N168">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="O168">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P168">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="Q168">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R168">
+        <v>1.85</v>
+      </c>
+      <c r="S168">
         <v>2</v>
       </c>
-      <c r="S168">
+      <c r="T168">
+        <v>3.25</v>
+      </c>
+      <c r="U168">
+        <v>2</v>
+      </c>
+      <c r="V168">
         <v>1.85</v>
-      </c>
-      <c r="T168">
-        <v>2.5</v>
-      </c>
-      <c r="U168">
-        <v>1.925</v>
-      </c>
-      <c r="V168">
-        <v>1.925</v>
       </c>
       <c r="W168">
         <v>0</v>
@@ -15375,6 +15390,80 @@
         <v>0</v>
       </c>
       <c r="AA168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>6818361</v>
+      </c>
+      <c r="C169" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" t="s">
+        <v>28</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45396.57291666666</v>
+      </c>
+      <c r="F169" t="s">
+        <v>35</v>
+      </c>
+      <c r="G169" t="s">
+        <v>34</v>
+      </c>
+      <c r="K169">
+        <v>5.5</v>
+      </c>
+      <c r="L169">
+        <v>3.5</v>
+      </c>
+      <c r="M169">
+        <v>1.666</v>
+      </c>
+      <c r="N169">
+        <v>5.5</v>
+      </c>
+      <c r="O169">
+        <v>3.6</v>
+      </c>
+      <c r="P169">
+        <v>1.65</v>
+      </c>
+      <c r="Q169">
+        <v>0.75</v>
+      </c>
+      <c r="R169">
+        <v>2</v>
+      </c>
+      <c r="S169">
+        <v>1.85</v>
+      </c>
+      <c r="T169">
+        <v>2.5</v>
+      </c>
+      <c r="U169">
+        <v>1.9</v>
+      </c>
+      <c r="V169">
+        <v>1.95</v>
+      </c>
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <v>0</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AA169">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -15055,22 +15055,22 @@
         <v>2.6</v>
       </c>
       <c r="N164">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O164">
         <v>3.4</v>
       </c>
       <c r="P164">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S164">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T164">
         <v>2.5</v>
@@ -15203,31 +15203,31 @@
         <v>5.5</v>
       </c>
       <c r="N166">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O166">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P166">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q166">
         <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T166">
         <v>2.75</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W166">
         <v>0</v>
@@ -15277,31 +15277,31 @@
         <v>4.5</v>
       </c>
       <c r="N167">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O167">
         <v>3.2</v>
       </c>
       <c r="P167">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q167">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R167">
+        <v>1.8</v>
+      </c>
+      <c r="S167">
         <v>2.05</v>
-      </c>
-      <c r="S167">
-        <v>1.8</v>
       </c>
       <c r="T167">
         <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V167">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W167">
         <v>0</v>
@@ -15351,13 +15351,13 @@
         <v>1.5</v>
       </c>
       <c r="N168">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="O168">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P168">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q168">
         <v>1.25</v>
@@ -15372,10 +15372,10 @@
         <v>3.25</v>
       </c>
       <c r="U168">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W168">
         <v>0</v>
@@ -15437,10 +15437,10 @@
         <v>0.75</v>
       </c>
       <c r="R169">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S169">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T169">
         <v>2.5</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC169"/>
+  <dimension ref="A1:AC166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15028,7 +15028,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6818359</v>
+        <v>6820520</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15037,49 +15037,49 @@
         <v>28</v>
       </c>
       <c r="E164" s="2">
-        <v>45395.39583333334</v>
+        <v>45396.375</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K164">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="L164">
         <v>3.4</v>
       </c>
       <c r="M164">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="N164">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O164">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P164">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q164">
         <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S164">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U164">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V164">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W164">
         <v>0</v>
@@ -15102,7 +15102,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6818358</v>
+        <v>6860904</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15111,49 +15111,49 @@
         <v>28</v>
       </c>
       <c r="E165" s="2">
-        <v>45395.5</v>
+        <v>45396.47916666666</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K165">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="L165">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M165">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="N165">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="O165">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P165">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q165">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R165">
+        <v>1.85</v>
+      </c>
+      <c r="S165">
+        <v>2</v>
+      </c>
+      <c r="T165">
+        <v>3</v>
+      </c>
+      <c r="U165">
+        <v>1.825</v>
+      </c>
+      <c r="V165">
         <v>2.025</v>
-      </c>
-      <c r="S165">
-        <v>1.825</v>
-      </c>
-      <c r="T165">
-        <v>2.5</v>
-      </c>
-      <c r="U165">
-        <v>1.925</v>
-      </c>
-      <c r="V165">
-        <v>1.925</v>
       </c>
       <c r="W165">
         <v>0</v>
@@ -15176,7 +15176,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6818360</v>
+        <v>6818361</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15185,49 +15185,49 @@
         <v>28</v>
       </c>
       <c r="E166" s="2">
-        <v>45395.60416666666</v>
+        <v>45396.57291666666</v>
       </c>
       <c r="F166" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K166">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="L166">
         <v>3.5</v>
       </c>
       <c r="M166">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="N166">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="O166">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R166">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S166">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T166">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V166">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W166">
         <v>0</v>
@@ -15242,228 +15242,6 @@
         <v>0</v>
       </c>
       <c r="AA166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:29">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167">
-        <v>6820520</v>
-      </c>
-      <c r="C167" t="s">
-        <v>28</v>
-      </c>
-      <c r="D167" t="s">
-        <v>28</v>
-      </c>
-      <c r="E167" s="2">
-        <v>45396.375</v>
-      </c>
-      <c r="F167" t="s">
-        <v>29</v>
-      </c>
-      <c r="G167" t="s">
-        <v>30</v>
-      </c>
-      <c r="K167">
-        <v>1.727</v>
-      </c>
-      <c r="L167">
-        <v>3.4</v>
-      </c>
-      <c r="M167">
-        <v>4.5</v>
-      </c>
-      <c r="N167">
-        <v>2.375</v>
-      </c>
-      <c r="O167">
-        <v>3.2</v>
-      </c>
-      <c r="P167">
-        <v>2.625</v>
-      </c>
-      <c r="Q167">
-        <v>0</v>
-      </c>
-      <c r="R167">
-        <v>1.8</v>
-      </c>
-      <c r="S167">
-        <v>2.05</v>
-      </c>
-      <c r="T167">
-        <v>2.75</v>
-      </c>
-      <c r="U167">
-        <v>1.8</v>
-      </c>
-      <c r="V167">
-        <v>2.05</v>
-      </c>
-      <c r="W167">
-        <v>0</v>
-      </c>
-      <c r="X167">
-        <v>0</v>
-      </c>
-      <c r="Y167">
-        <v>0</v>
-      </c>
-      <c r="Z167">
-        <v>0</v>
-      </c>
-      <c r="AA167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:29">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168">
-        <v>6860904</v>
-      </c>
-      <c r="C168" t="s">
-        <v>28</v>
-      </c>
-      <c r="D168" t="s">
-        <v>28</v>
-      </c>
-      <c r="E168" s="2">
-        <v>45396.47916666666</v>
-      </c>
-      <c r="F168" t="s">
-        <v>32</v>
-      </c>
-      <c r="G168" t="s">
-        <v>38</v>
-      </c>
-      <c r="K168">
-        <v>5.5</v>
-      </c>
-      <c r="L168">
-        <v>4</v>
-      </c>
-      <c r="M168">
-        <v>1.5</v>
-      </c>
-      <c r="N168">
-        <v>6</v>
-      </c>
-      <c r="O168">
-        <v>4.2</v>
-      </c>
-      <c r="P168">
-        <v>1.45</v>
-      </c>
-      <c r="Q168">
-        <v>1.25</v>
-      </c>
-      <c r="R168">
-        <v>1.85</v>
-      </c>
-      <c r="S168">
-        <v>2</v>
-      </c>
-      <c r="T168">
-        <v>3.25</v>
-      </c>
-      <c r="U168">
-        <v>2.05</v>
-      </c>
-      <c r="V168">
-        <v>1.8</v>
-      </c>
-      <c r="W168">
-        <v>0</v>
-      </c>
-      <c r="X168">
-        <v>0</v>
-      </c>
-      <c r="Y168">
-        <v>0</v>
-      </c>
-      <c r="Z168">
-        <v>0</v>
-      </c>
-      <c r="AA168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:29">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>6818361</v>
-      </c>
-      <c r="C169" t="s">
-        <v>28</v>
-      </c>
-      <c r="D169" t="s">
-        <v>28</v>
-      </c>
-      <c r="E169" s="2">
-        <v>45396.57291666666</v>
-      </c>
-      <c r="F169" t="s">
-        <v>35</v>
-      </c>
-      <c r="G169" t="s">
-        <v>34</v>
-      </c>
-      <c r="K169">
-        <v>5.5</v>
-      </c>
-      <c r="L169">
-        <v>3.5</v>
-      </c>
-      <c r="M169">
-        <v>1.666</v>
-      </c>
-      <c r="N169">
-        <v>5.5</v>
-      </c>
-      <c r="O169">
-        <v>3.6</v>
-      </c>
-      <c r="P169">
-        <v>1.65</v>
-      </c>
-      <c r="Q169">
-        <v>0.75</v>
-      </c>
-      <c r="R169">
-        <v>2.025</v>
-      </c>
-      <c r="S169">
-        <v>1.825</v>
-      </c>
-      <c r="T169">
-        <v>2.5</v>
-      </c>
-      <c r="U169">
-        <v>1.9</v>
-      </c>
-      <c r="V169">
-        <v>1.95</v>
-      </c>
-      <c r="W169">
-        <v>0</v>
-      </c>
-      <c r="X169">
-        <v>0</v>
-      </c>
-      <c r="Y169">
-        <v>0</v>
-      </c>
-      <c r="Z169">
-        <v>0</v>
-      </c>
-      <c r="AA169">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC166"/>
+  <dimension ref="A1:AC165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15028,7 +15028,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6820520</v>
+        <v>6818359</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15037,64 +15037,79 @@
         <v>28</v>
       </c>
       <c r="E164" s="2">
-        <v>45396.375</v>
+        <v>45395.39583333334</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="H164">
+        <v>4</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164" t="s">
+        <v>45</v>
       </c>
       <c r="K164">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="L164">
         <v>3.4</v>
       </c>
       <c r="M164">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="N164">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O164">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P164">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S164">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T164">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA164">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB164">
+        <v>0.925</v>
+      </c>
+      <c r="AC164">
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15102,7 +15117,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6860904</v>
+        <v>6818358</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15111,138 +15126,79 @@
         <v>28</v>
       </c>
       <c r="E165" s="2">
-        <v>45396.47916666666</v>
+        <v>45395.5</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165" t="s">
+        <v>45</v>
       </c>
       <c r="K165">
+        <v>1.666</v>
+      </c>
+      <c r="L165">
+        <v>3.5</v>
+      </c>
+      <c r="M165">
         <v>5.5</v>
       </c>
-      <c r="L165">
-        <v>4</v>
-      </c>
-      <c r="M165">
+      <c r="N165">
         <v>1.5</v>
       </c>
-      <c r="N165">
-        <v>6</v>
-      </c>
       <c r="O165">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P165">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="Q165">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R165">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T165">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V165">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W165">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
         <v>0</v>
       </c>
       <c r="AA165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:29">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166">
-        <v>6818361</v>
-      </c>
-      <c r="C166" t="s">
-        <v>28</v>
-      </c>
-      <c r="D166" t="s">
-        <v>28</v>
-      </c>
-      <c r="E166" s="2">
-        <v>45396.57291666666</v>
-      </c>
-      <c r="F166" t="s">
-        <v>35</v>
-      </c>
-      <c r="G166" t="s">
-        <v>34</v>
-      </c>
-      <c r="K166">
-        <v>5.5</v>
-      </c>
-      <c r="L166">
-        <v>3.5</v>
-      </c>
-      <c r="M166">
-        <v>1.666</v>
-      </c>
-      <c r="N166">
-        <v>6</v>
-      </c>
-      <c r="O166">
-        <v>3.6</v>
-      </c>
-      <c r="P166">
-        <v>1.6</v>
-      </c>
-      <c r="Q166">
-        <v>1</v>
-      </c>
-      <c r="R166">
-        <v>1.85</v>
-      </c>
-      <c r="S166">
-        <v>2</v>
-      </c>
-      <c r="T166">
-        <v>2.5</v>
-      </c>
-      <c r="U166">
-        <v>1.875</v>
-      </c>
-      <c r="V166">
-        <v>1.975</v>
-      </c>
-      <c r="W166">
-        <v>0</v>
-      </c>
-      <c r="X166">
-        <v>0</v>
-      </c>
-      <c r="Y166">
-        <v>0</v>
-      </c>
-      <c r="Z166">
-        <v>0</v>
-      </c>
-      <c r="AA166">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB165">
+        <v>-1</v>
+      </c>
+      <c r="AC165">
+        <v>0.925</v>
       </c>
     </row>
   </sheetData>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC165"/>
+  <dimension ref="A1:AC174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15201,6 +15201,717 @@
         <v>0.925</v>
       </c>
     </row>
+    <row r="166" spans="1:29">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>6818360</v>
+      </c>
+      <c r="C166" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45395.60416666666</v>
+      </c>
+      <c r="F166" t="s">
+        <v>39</v>
+      </c>
+      <c r="G166" t="s">
+        <v>36</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166">
+        <v>2</v>
+      </c>
+      <c r="J166" t="s">
+        <v>44</v>
+      </c>
+      <c r="K166">
+        <v>1.666</v>
+      </c>
+      <c r="L166">
+        <v>3.5</v>
+      </c>
+      <c r="M166">
+        <v>5.5</v>
+      </c>
+      <c r="N166">
+        <v>1.909</v>
+      </c>
+      <c r="O166">
+        <v>3.4</v>
+      </c>
+      <c r="P166">
+        <v>4</v>
+      </c>
+      <c r="Q166">
+        <v>-0.5</v>
+      </c>
+      <c r="R166">
+        <v>1.875</v>
+      </c>
+      <c r="S166">
+        <v>1.975</v>
+      </c>
+      <c r="T166">
+        <v>2.75</v>
+      </c>
+      <c r="U166">
+        <v>1.825</v>
+      </c>
+      <c r="V166">
+        <v>2.025</v>
+      </c>
+      <c r="W166">
+        <v>-1</v>
+      </c>
+      <c r="X166">
+        <v>-1</v>
+      </c>
+      <c r="Y166">
+        <v>3</v>
+      </c>
+      <c r="Z166">
+        <v>-1</v>
+      </c>
+      <c r="AA166">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB166">
+        <v>0.4125</v>
+      </c>
+      <c r="AC166">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>6820520</v>
+      </c>
+      <c r="C167" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45396.375</v>
+      </c>
+      <c r="F167" t="s">
+        <v>29</v>
+      </c>
+      <c r="G167" t="s">
+        <v>30</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167" t="s">
+        <v>43</v>
+      </c>
+      <c r="K167">
+        <v>1.727</v>
+      </c>
+      <c r="L167">
+        <v>3.4</v>
+      </c>
+      <c r="M167">
+        <v>4.5</v>
+      </c>
+      <c r="N167">
+        <v>2.2</v>
+      </c>
+      <c r="O167">
+        <v>3.2</v>
+      </c>
+      <c r="P167">
+        <v>2.9</v>
+      </c>
+      <c r="Q167">
+        <v>-0.25</v>
+      </c>
+      <c r="R167">
+        <v>1.975</v>
+      </c>
+      <c r="S167">
+        <v>1.875</v>
+      </c>
+      <c r="T167">
+        <v>3</v>
+      </c>
+      <c r="U167">
+        <v>1.975</v>
+      </c>
+      <c r="V167">
+        <v>1.875</v>
+      </c>
+      <c r="W167">
+        <v>-1</v>
+      </c>
+      <c r="X167">
+        <v>2.2</v>
+      </c>
+      <c r="Y167">
+        <v>-1</v>
+      </c>
+      <c r="Z167">
+        <v>-0.5</v>
+      </c>
+      <c r="AA167">
+        <v>0.4375</v>
+      </c>
+      <c r="AB167">
+        <v>-1</v>
+      </c>
+      <c r="AC167">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>6860904</v>
+      </c>
+      <c r="C168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D168" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45396.47916666666</v>
+      </c>
+      <c r="F168" t="s">
+        <v>32</v>
+      </c>
+      <c r="G168" t="s">
+        <v>38</v>
+      </c>
+      <c r="H168">
+        <v>2</v>
+      </c>
+      <c r="I168">
+        <v>3</v>
+      </c>
+      <c r="J168" t="s">
+        <v>44</v>
+      </c>
+      <c r="K168">
+        <v>5.5</v>
+      </c>
+      <c r="L168">
+        <v>4</v>
+      </c>
+      <c r="M168">
+        <v>1.5</v>
+      </c>
+      <c r="N168">
+        <v>6.5</v>
+      </c>
+      <c r="O168">
+        <v>3.8</v>
+      </c>
+      <c r="P168">
+        <v>1.45</v>
+      </c>
+      <c r="Q168">
+        <v>1.25</v>
+      </c>
+      <c r="R168">
+        <v>1.8</v>
+      </c>
+      <c r="S168">
+        <v>2.05</v>
+      </c>
+      <c r="T168">
+        <v>2.75</v>
+      </c>
+      <c r="U168">
+        <v>1.875</v>
+      </c>
+      <c r="V168">
+        <v>1.975</v>
+      </c>
+      <c r="W168">
+        <v>-1</v>
+      </c>
+      <c r="X168">
+        <v>-1</v>
+      </c>
+      <c r="Y168">
+        <v>0.45</v>
+      </c>
+      <c r="Z168">
+        <v>0.4</v>
+      </c>
+      <c r="AA168">
+        <v>-0.5</v>
+      </c>
+      <c r="AB168">
+        <v>0.875</v>
+      </c>
+      <c r="AC168">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>6818365</v>
+      </c>
+      <c r="C169" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" t="s">
+        <v>28</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45402.39583333334</v>
+      </c>
+      <c r="F169" t="s">
+        <v>34</v>
+      </c>
+      <c r="G169" t="s">
+        <v>39</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>3.4</v>
+      </c>
+      <c r="M169">
+        <v>3.3</v>
+      </c>
+      <c r="N169">
+        <v>1.909</v>
+      </c>
+      <c r="O169">
+        <v>3.5</v>
+      </c>
+      <c r="P169">
+        <v>3.6</v>
+      </c>
+      <c r="Q169">
+        <v>-0.5</v>
+      </c>
+      <c r="R169">
+        <v>1.925</v>
+      </c>
+      <c r="S169">
+        <v>1.925</v>
+      </c>
+      <c r="T169">
+        <v>2.75</v>
+      </c>
+      <c r="U169">
+        <v>2</v>
+      </c>
+      <c r="V169">
+        <v>1.85</v>
+      </c>
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <v>0</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AA169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>6818362</v>
+      </c>
+      <c r="C170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170" t="s">
+        <v>28</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45402.5</v>
+      </c>
+      <c r="F170" t="s">
+        <v>38</v>
+      </c>
+      <c r="G170" t="s">
+        <v>40</v>
+      </c>
+      <c r="K170">
+        <v>1.25</v>
+      </c>
+      <c r="L170">
+        <v>5.5</v>
+      </c>
+      <c r="M170">
+        <v>9</v>
+      </c>
+      <c r="N170">
+        <v>1.181</v>
+      </c>
+      <c r="O170">
+        <v>5.75</v>
+      </c>
+      <c r="P170">
+        <v>13</v>
+      </c>
+      <c r="Q170">
+        <v>-2</v>
+      </c>
+      <c r="R170">
+        <v>2.05</v>
+      </c>
+      <c r="S170">
+        <v>1.8</v>
+      </c>
+      <c r="T170">
+        <v>3</v>
+      </c>
+      <c r="U170">
+        <v>1.875</v>
+      </c>
+      <c r="V170">
+        <v>1.975</v>
+      </c>
+      <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170">
+        <v>0</v>
+      </c>
+      <c r="Y170">
+        <v>0</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>6818364</v>
+      </c>
+      <c r="C171" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" t="s">
+        <v>28</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45402.60416666666</v>
+      </c>
+      <c r="F171" t="s">
+        <v>30</v>
+      </c>
+      <c r="G171" t="s">
+        <v>33</v>
+      </c>
+      <c r="K171">
+        <v>2.5</v>
+      </c>
+      <c r="L171">
+        <v>3.2</v>
+      </c>
+      <c r="M171">
+        <v>2.625</v>
+      </c>
+      <c r="N171">
+        <v>2.625</v>
+      </c>
+      <c r="O171">
+        <v>3.2</v>
+      </c>
+      <c r="P171">
+        <v>2.5</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <v>2.025</v>
+      </c>
+      <c r="S171">
+        <v>1.825</v>
+      </c>
+      <c r="T171">
+        <v>2.75</v>
+      </c>
+      <c r="U171">
+        <v>2</v>
+      </c>
+      <c r="V171">
+        <v>1.85</v>
+      </c>
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+      <c r="Y171">
+        <v>0</v>
+      </c>
+      <c r="Z171">
+        <v>0</v>
+      </c>
+      <c r="AA171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>6818367</v>
+      </c>
+      <c r="C172" t="s">
+        <v>28</v>
+      </c>
+      <c r="D172" t="s">
+        <v>28</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45403.37847222222</v>
+      </c>
+      <c r="F172" t="s">
+        <v>37</v>
+      </c>
+      <c r="G172" t="s">
+        <v>35</v>
+      </c>
+      <c r="K172">
+        <v>1.727</v>
+      </c>
+      <c r="L172">
+        <v>3.5</v>
+      </c>
+      <c r="M172">
+        <v>4.333</v>
+      </c>
+      <c r="N172">
+        <v>1.666</v>
+      </c>
+      <c r="O172">
+        <v>3.6</v>
+      </c>
+      <c r="P172">
+        <v>4.5</v>
+      </c>
+      <c r="Q172">
+        <v>-0.75</v>
+      </c>
+      <c r="R172">
+        <v>1.9</v>
+      </c>
+      <c r="S172">
+        <v>1.95</v>
+      </c>
+      <c r="T172">
+        <v>2.5</v>
+      </c>
+      <c r="U172">
+        <v>2.025</v>
+      </c>
+      <c r="V172">
+        <v>1.825</v>
+      </c>
+      <c r="W172">
+        <v>0</v>
+      </c>
+      <c r="X172">
+        <v>0</v>
+      </c>
+      <c r="Y172">
+        <v>0</v>
+      </c>
+      <c r="Z172">
+        <v>0</v>
+      </c>
+      <c r="AA172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>6818366</v>
+      </c>
+      <c r="C173" t="s">
+        <v>28</v>
+      </c>
+      <c r="D173" t="s">
+        <v>28</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45403.45833333334</v>
+      </c>
+      <c r="F173" t="s">
+        <v>36</v>
+      </c>
+      <c r="G173" t="s">
+        <v>32</v>
+      </c>
+      <c r="K173">
+        <v>1.909</v>
+      </c>
+      <c r="L173">
+        <v>3.4</v>
+      </c>
+      <c r="M173">
+        <v>3.6</v>
+      </c>
+      <c r="N173">
+        <v>1.909</v>
+      </c>
+      <c r="O173">
+        <v>3.4</v>
+      </c>
+      <c r="P173">
+        <v>3.6</v>
+      </c>
+      <c r="Q173">
+        <v>-0.5</v>
+      </c>
+      <c r="R173">
+        <v>1.975</v>
+      </c>
+      <c r="S173">
+        <v>1.875</v>
+      </c>
+      <c r="T173">
+        <v>2.75</v>
+      </c>
+      <c r="U173">
+        <v>2</v>
+      </c>
+      <c r="V173">
+        <v>1.85</v>
+      </c>
+      <c r="W173">
+        <v>0</v>
+      </c>
+      <c r="X173">
+        <v>0</v>
+      </c>
+      <c r="Y173">
+        <v>0</v>
+      </c>
+      <c r="Z173">
+        <v>0</v>
+      </c>
+      <c r="AA173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>6818363</v>
+      </c>
+      <c r="C174" t="s">
+        <v>28</v>
+      </c>
+      <c r="D174" t="s">
+        <v>28</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45403.5625</v>
+      </c>
+      <c r="F174" t="s">
+        <v>31</v>
+      </c>
+      <c r="G174" t="s">
+        <v>29</v>
+      </c>
+      <c r="K174">
+        <v>2</v>
+      </c>
+      <c r="L174">
+        <v>3.4</v>
+      </c>
+      <c r="M174">
+        <v>3.3</v>
+      </c>
+      <c r="N174">
+        <v>2.1</v>
+      </c>
+      <c r="O174">
+        <v>3.4</v>
+      </c>
+      <c r="P174">
+        <v>3.1</v>
+      </c>
+      <c r="Q174">
+        <v>-0.25</v>
+      </c>
+      <c r="R174">
+        <v>1.9</v>
+      </c>
+      <c r="S174">
+        <v>1.95</v>
+      </c>
+      <c r="T174">
+        <v>2.75</v>
+      </c>
+      <c r="U174">
+        <v>1.825</v>
+      </c>
+      <c r="V174">
+        <v>2.025</v>
+      </c>
+      <c r="W174">
+        <v>0</v>
+      </c>
+      <c r="X174">
+        <v>0</v>
+      </c>
+      <c r="Y174">
+        <v>0</v>
+      </c>
+      <c r="Z174">
+        <v>0</v>
+      </c>
+      <c r="AA174">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC174"/>
+  <dimension ref="A1:AC175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15473,7 +15473,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6818365</v>
+        <v>6818361</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15482,64 +15482,79 @@
         <v>28</v>
       </c>
       <c r="E169" s="2">
-        <v>45402.39583333334</v>
+        <v>45396.57291666666</v>
       </c>
       <c r="F169" t="s">
+        <v>35</v>
+      </c>
+      <c r="G169" t="s">
         <v>34</v>
       </c>
-      <c r="G169" t="s">
-        <v>39</v>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>4</v>
+      </c>
+      <c r="J169" t="s">
+        <v>44</v>
       </c>
       <c r="K169">
+        <v>5.5</v>
+      </c>
+      <c r="L169">
+        <v>3.5</v>
+      </c>
+      <c r="M169">
+        <v>1.666</v>
+      </c>
+      <c r="N169">
+        <v>6.5</v>
+      </c>
+      <c r="O169">
+        <v>3.75</v>
+      </c>
+      <c r="P169">
+        <v>1.55</v>
+      </c>
+      <c r="Q169">
+        <v>1</v>
+      </c>
+      <c r="R169">
+        <v>1.9</v>
+      </c>
+      <c r="S169">
+        <v>1.95</v>
+      </c>
+      <c r="T169">
+        <v>2.5</v>
+      </c>
+      <c r="U169">
+        <v>1.85</v>
+      </c>
+      <c r="V169">
         <v>2</v>
       </c>
-      <c r="L169">
-        <v>3.4</v>
-      </c>
-      <c r="M169">
-        <v>3.3</v>
-      </c>
-      <c r="N169">
-        <v>1.909</v>
-      </c>
-      <c r="O169">
-        <v>3.5</v>
-      </c>
-      <c r="P169">
-        <v>3.6</v>
-      </c>
-      <c r="Q169">
-        <v>-0.5</v>
-      </c>
-      <c r="R169">
-        <v>1.925</v>
-      </c>
-      <c r="S169">
-        <v>1.925</v>
-      </c>
-      <c r="T169">
-        <v>2.75</v>
-      </c>
-      <c r="U169">
-        <v>2</v>
-      </c>
-      <c r="V169">
-        <v>1.85</v>
-      </c>
       <c r="W169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB169">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC169">
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15547,7 +15562,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6818362</v>
+        <v>6818365</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15556,49 +15571,49 @@
         <v>28</v>
       </c>
       <c r="E170" s="2">
-        <v>45402.5</v>
+        <v>45402.39583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K170">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="L170">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M170">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="N170">
-        <v>1.181</v>
+        <v>1.909</v>
       </c>
       <c r="O170">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P170">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="Q170">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R170">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S170">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T170">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V170">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W170">
         <v>0</v>
@@ -15621,7 +15636,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6818364</v>
+        <v>6818362</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15630,49 +15645,49 @@
         <v>28</v>
       </c>
       <c r="E171" s="2">
-        <v>45402.60416666666</v>
+        <v>45402.5</v>
       </c>
       <c r="F171" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G171" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K171">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="L171">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M171">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="N171">
-        <v>2.625</v>
+        <v>1.181</v>
       </c>
       <c r="O171">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="P171">
-        <v>2.5</v>
+        <v>13</v>
       </c>
       <c r="Q171">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R171">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S171">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U171">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V171">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W171">
         <v>0</v>
@@ -15695,7 +15710,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6818367</v>
+        <v>6818364</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15704,49 +15719,49 @@
         <v>28</v>
       </c>
       <c r="E172" s="2">
-        <v>45403.37847222222</v>
+        <v>45402.60416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G172" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K172">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L172">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M172">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="N172">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="O172">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P172">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q172">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R172">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S172">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U172">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V172">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W172">
         <v>0</v>
@@ -15769,7 +15784,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6818366</v>
+        <v>6818367</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15778,49 +15793,49 @@
         <v>28</v>
       </c>
       <c r="E173" s="2">
-        <v>45403.45833333334</v>
+        <v>45403.37847222222</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G173" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K173">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L173">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M173">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N173">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="O173">
         <v>3.4</v>
       </c>
       <c r="P173">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R173">
+        <v>1.9</v>
+      </c>
+      <c r="S173">
+        <v>1.95</v>
+      </c>
+      <c r="T173">
+        <v>2.25</v>
+      </c>
+      <c r="U173">
         <v>1.975</v>
       </c>
-      <c r="S173">
+      <c r="V173">
         <v>1.875</v>
-      </c>
-      <c r="T173">
-        <v>2.75</v>
-      </c>
-      <c r="U173">
-        <v>2</v>
-      </c>
-      <c r="V173">
-        <v>1.85</v>
       </c>
       <c r="W173">
         <v>0</v>
@@ -15843,7 +15858,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6818363</v>
+        <v>6818366</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15852,43 +15867,43 @@
         <v>28</v>
       </c>
       <c r="E174" s="2">
-        <v>45403.5625</v>
+        <v>45403.45833333334</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G174" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K174">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L174">
         <v>3.4</v>
       </c>
       <c r="M174">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N174">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O174">
         <v>3.4</v>
       </c>
       <c r="P174">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q174">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R174">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S174">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T174">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
         <v>1.825</v>
@@ -15909,6 +15924,80 @@
         <v>0</v>
       </c>
       <c r="AA174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>6818363</v>
+      </c>
+      <c r="C175" t="s">
+        <v>28</v>
+      </c>
+      <c r="D175" t="s">
+        <v>28</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45403.5625</v>
+      </c>
+      <c r="F175" t="s">
+        <v>31</v>
+      </c>
+      <c r="G175" t="s">
+        <v>29</v>
+      </c>
+      <c r="K175">
+        <v>2</v>
+      </c>
+      <c r="L175">
+        <v>3.4</v>
+      </c>
+      <c r="M175">
+        <v>3.3</v>
+      </c>
+      <c r="N175">
+        <v>2.1</v>
+      </c>
+      <c r="O175">
+        <v>3.4</v>
+      </c>
+      <c r="P175">
+        <v>3.1</v>
+      </c>
+      <c r="Q175">
+        <v>-0.25</v>
+      </c>
+      <c r="R175">
+        <v>1.9</v>
+      </c>
+      <c r="S175">
+        <v>1.95</v>
+      </c>
+      <c r="T175">
+        <v>2.75</v>
+      </c>
+      <c r="U175">
+        <v>1.825</v>
+      </c>
+      <c r="V175">
+        <v>2.025</v>
+      </c>
+      <c r="W175">
+        <v>0</v>
+      </c>
+      <c r="X175">
+        <v>0</v>
+      </c>
+      <c r="Y175">
+        <v>0</v>
+      </c>
+      <c r="Z175">
+        <v>0</v>
+      </c>
+      <c r="AA175">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -15592,28 +15592,28 @@
         <v>1.909</v>
       </c>
       <c r="O170">
+        <v>3.4</v>
+      </c>
+      <c r="P170">
         <v>3.5</v>
-      </c>
-      <c r="P170">
-        <v>3.6</v>
       </c>
       <c r="Q170">
         <v>-0.5</v>
       </c>
       <c r="R170">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S170">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T170">
         <v>2.75</v>
       </c>
       <c r="U170">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V170">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W170">
         <v>0</v>
@@ -15675,10 +15675,10 @@
         <v>-2</v>
       </c>
       <c r="R171">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S171">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T171">
         <v>3</v>
@@ -15749,10 +15749,10 @@
         <v>0</v>
       </c>
       <c r="R172">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S172">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T172">
         <v>2.75</v>
@@ -15823,19 +15823,19 @@
         <v>-0.75</v>
       </c>
       <c r="R173">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S173">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T173">
         <v>2.25</v>
       </c>
       <c r="U173">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V173">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W173">
         <v>0</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -15589,7 +15589,7 @@
         <v>3.3</v>
       </c>
       <c r="N170">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O170">
         <v>3.4</v>
@@ -15607,7 +15607,7 @@
         <v>1.85</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U170">
         <v>2.025</v>
@@ -15663,31 +15663,31 @@
         <v>9</v>
       </c>
       <c r="N171">
-        <v>1.181</v>
+        <v>1.2</v>
       </c>
       <c r="O171">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="P171">
         <v>13</v>
       </c>
       <c r="Q171">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R171">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S171">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T171">
         <v>3</v>
       </c>
       <c r="U171">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V171">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W171">
         <v>0</v>
@@ -15737,22 +15737,22 @@
         <v>2.625</v>
       </c>
       <c r="N172">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="O172">
         <v>3.2</v>
       </c>
       <c r="P172">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R172">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S172">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T172">
         <v>2.75</v>
@@ -15811,10 +15811,10 @@
         <v>4.333</v>
       </c>
       <c r="N173">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O173">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P173">
         <v>5.25</v>
@@ -15823,19 +15823,19 @@
         <v>-0.75</v>
       </c>
       <c r="R173">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T173">
         <v>2.25</v>
       </c>
       <c r="U173">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V173">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W173">
         <v>0</v>
@@ -15885,22 +15885,22 @@
         <v>3.6</v>
       </c>
       <c r="N174">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O174">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P174">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q174">
         <v>-0.5</v>
       </c>
       <c r="R174">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S174">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T174">
         <v>2.5</v>
@@ -15959,22 +15959,22 @@
         <v>3.3</v>
       </c>
       <c r="N175">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O175">
         <v>3.4</v>
       </c>
       <c r="P175">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q175">
         <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T175">
         <v>2.75</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -15589,7 +15589,7 @@
         <v>3.3</v>
       </c>
       <c r="N170">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O170">
         <v>3.4</v>
@@ -15607,13 +15607,13 @@
         <v>1.85</v>
       </c>
       <c r="T170">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U170">
+        <v>1.825</v>
+      </c>
+      <c r="V170">
         <v>2.025</v>
-      </c>
-      <c r="V170">
-        <v>1.825</v>
       </c>
       <c r="W170">
         <v>0</v>
@@ -15675,10 +15675,10 @@
         <v>-1.75</v>
       </c>
       <c r="R171">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S171">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T171">
         <v>3</v>
@@ -15737,10 +15737,10 @@
         <v>2.625</v>
       </c>
       <c r="N172">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O172">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P172">
         <v>2.3</v>
@@ -15749,10 +15749,10 @@
         <v>0.25</v>
       </c>
       <c r="R172">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S172">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T172">
         <v>2.75</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC175"/>
+  <dimension ref="A1:AC172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15562,7 +15562,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6818365</v>
+        <v>6818363</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15571,13 +15571,13 @@
         <v>28</v>
       </c>
       <c r="E170" s="2">
-        <v>45402.39583333334</v>
+        <v>45403.5625</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15589,31 +15589,31 @@
         <v>3.3</v>
       </c>
       <c r="N170">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O170">
         <v>3.4</v>
       </c>
       <c r="P170">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q170">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S170">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T170">
         <v>3</v>
       </c>
       <c r="U170">
+        <v>2.025</v>
+      </c>
+      <c r="V170">
         <v>1.825</v>
-      </c>
-      <c r="V170">
-        <v>2.025</v>
       </c>
       <c r="W170">
         <v>0</v>
@@ -15636,7 +15636,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6818362</v>
+        <v>6818371</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15645,49 +15645,49 @@
         <v>28</v>
       </c>
       <c r="E171" s="2">
-        <v>45402.5</v>
+        <v>45409.39583333334</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K171">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L171">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M171">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="N171">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O171">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P171">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q171">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R171">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S171">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T171">
         <v>3</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V171">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W171">
         <v>0</v>
@@ -15710,7 +15710,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6818364</v>
+        <v>6818368</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15719,40 +15719,40 @@
         <v>28</v>
       </c>
       <c r="E172" s="2">
-        <v>45402.60416666666</v>
+        <v>45409.5</v>
       </c>
       <c r="F172" t="s">
         <v>30</v>
       </c>
       <c r="G172" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K172">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L172">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M172">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="N172">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O172">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P172">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q172">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S172">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T172">
         <v>2.75</v>
@@ -15776,228 +15776,6 @@
         <v>0</v>
       </c>
       <c r="AA172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:29">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173">
-        <v>6818367</v>
-      </c>
-      <c r="C173" t="s">
-        <v>28</v>
-      </c>
-      <c r="D173" t="s">
-        <v>28</v>
-      </c>
-      <c r="E173" s="2">
-        <v>45403.37847222222</v>
-      </c>
-      <c r="F173" t="s">
-        <v>37</v>
-      </c>
-      <c r="G173" t="s">
-        <v>35</v>
-      </c>
-      <c r="K173">
-        <v>1.727</v>
-      </c>
-      <c r="L173">
-        <v>3.5</v>
-      </c>
-      <c r="M173">
-        <v>4.333</v>
-      </c>
-      <c r="N173">
-        <v>1.615</v>
-      </c>
-      <c r="O173">
-        <v>3.5</v>
-      </c>
-      <c r="P173">
-        <v>5.25</v>
-      </c>
-      <c r="Q173">
-        <v>-0.75</v>
-      </c>
-      <c r="R173">
-        <v>1.85</v>
-      </c>
-      <c r="S173">
-        <v>2</v>
-      </c>
-      <c r="T173">
-        <v>2.25</v>
-      </c>
-      <c r="U173">
-        <v>1.925</v>
-      </c>
-      <c r="V173">
-        <v>1.925</v>
-      </c>
-      <c r="W173">
-        <v>0</v>
-      </c>
-      <c r="X173">
-        <v>0</v>
-      </c>
-      <c r="Y173">
-        <v>0</v>
-      </c>
-      <c r="Z173">
-        <v>0</v>
-      </c>
-      <c r="AA173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:29">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174">
-        <v>6818366</v>
-      </c>
-      <c r="C174" t="s">
-        <v>28</v>
-      </c>
-      <c r="D174" t="s">
-        <v>28</v>
-      </c>
-      <c r="E174" s="2">
-        <v>45403.45833333334</v>
-      </c>
-      <c r="F174" t="s">
-        <v>36</v>
-      </c>
-      <c r="G174" t="s">
-        <v>32</v>
-      </c>
-      <c r="K174">
-        <v>1.909</v>
-      </c>
-      <c r="L174">
-        <v>3.4</v>
-      </c>
-      <c r="M174">
-        <v>3.6</v>
-      </c>
-      <c r="N174">
-        <v>1.95</v>
-      </c>
-      <c r="O174">
-        <v>3.3</v>
-      </c>
-      <c r="P174">
-        <v>3.5</v>
-      </c>
-      <c r="Q174">
-        <v>-0.5</v>
-      </c>
-      <c r="R174">
-        <v>2.025</v>
-      </c>
-      <c r="S174">
-        <v>1.825</v>
-      </c>
-      <c r="T174">
-        <v>2.5</v>
-      </c>
-      <c r="U174">
-        <v>1.825</v>
-      </c>
-      <c r="V174">
-        <v>2.025</v>
-      </c>
-      <c r="W174">
-        <v>0</v>
-      </c>
-      <c r="X174">
-        <v>0</v>
-      </c>
-      <c r="Y174">
-        <v>0</v>
-      </c>
-      <c r="Z174">
-        <v>0</v>
-      </c>
-      <c r="AA174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:29">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175">
-        <v>6818363</v>
-      </c>
-      <c r="C175" t="s">
-        <v>28</v>
-      </c>
-      <c r="D175" t="s">
-        <v>28</v>
-      </c>
-      <c r="E175" s="2">
-        <v>45403.5625</v>
-      </c>
-      <c r="F175" t="s">
-        <v>31</v>
-      </c>
-      <c r="G175" t="s">
-        <v>29</v>
-      </c>
-      <c r="K175">
-        <v>2</v>
-      </c>
-      <c r="L175">
-        <v>3.4</v>
-      </c>
-      <c r="M175">
-        <v>3.3</v>
-      </c>
-      <c r="N175">
-        <v>2.05</v>
-      </c>
-      <c r="O175">
-        <v>3.4</v>
-      </c>
-      <c r="P175">
-        <v>3.2</v>
-      </c>
-      <c r="Q175">
-        <v>-0.25</v>
-      </c>
-      <c r="R175">
-        <v>1.85</v>
-      </c>
-      <c r="S175">
-        <v>2</v>
-      </c>
-      <c r="T175">
-        <v>2.75</v>
-      </c>
-      <c r="U175">
-        <v>1.825</v>
-      </c>
-      <c r="V175">
-        <v>2.025</v>
-      </c>
-      <c r="W175">
-        <v>0</v>
-      </c>
-      <c r="X175">
-        <v>0</v>
-      </c>
-      <c r="Y175">
-        <v>0</v>
-      </c>
-      <c r="Z175">
-        <v>0</v>
-      </c>
-      <c r="AA175">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC172"/>
+  <dimension ref="A1:AC176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15562,7 +15562,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6818363</v>
+        <v>6818365</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15571,13 +15571,22 @@
         <v>28</v>
       </c>
       <c r="E170" s="2">
-        <v>45403.5625</v>
+        <v>45402.39583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="H170">
+        <v>5</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170" t="s">
+        <v>45</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15589,46 +15598,52 @@
         <v>3.3</v>
       </c>
       <c r="N170">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O170">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P170">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q170">
         <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S170">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T170">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U170">
+        <v>1.825</v>
+      </c>
+      <c r="V170">
         <v>2.025</v>
       </c>
-      <c r="V170">
-        <v>1.825</v>
-      </c>
       <c r="W170">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA170">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB170">
+        <v>0.825</v>
+      </c>
+      <c r="AC170">
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15636,7 +15651,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6818371</v>
+        <v>6818362</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15645,43 +15660,52 @@
         <v>28</v>
       </c>
       <c r="E171" s="2">
-        <v>45409.39583333334</v>
+        <v>45402.5</v>
       </c>
       <c r="F171" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G171" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171" t="s">
+        <v>43</v>
       </c>
       <c r="K171">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L171">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M171">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="N171">
-        <v>1.4</v>
+        <v>1.125</v>
       </c>
       <c r="O171">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P171">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Q171">
-        <v>-1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R171">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S171">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T171">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U171">
         <v>1.975</v>
@@ -15690,19 +15714,25 @@
         <v>1.875</v>
       </c>
       <c r="W171">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y171">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB171">
+        <v>-1</v>
+      </c>
+      <c r="AC171">
+        <v>0.875</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15710,7 +15740,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6818368</v>
+        <v>6818364</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15719,63 +15749,389 @@
         <v>28</v>
       </c>
       <c r="E172" s="2">
-        <v>45409.5</v>
+        <v>45402.60416666666</v>
       </c>
       <c r="F172" t="s">
         <v>30</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="H172">
+        <v>5</v>
+      </c>
+      <c r="I172">
+        <v>3</v>
+      </c>
+      <c r="J172" t="s">
+        <v>45</v>
       </c>
       <c r="K172">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L172">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M172">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="N172">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="O172">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P172">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q172">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R172">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S172">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T172">
         <v>2.75</v>
       </c>
       <c r="U172">
+        <v>1.975</v>
+      </c>
+      <c r="V172">
+        <v>1.875</v>
+      </c>
+      <c r="W172">
+        <v>1.7</v>
+      </c>
+      <c r="X172">
+        <v>-1</v>
+      </c>
+      <c r="Y172">
+        <v>-1</v>
+      </c>
+      <c r="Z172">
+        <v>1.05</v>
+      </c>
+      <c r="AA172">
+        <v>-1</v>
+      </c>
+      <c r="AB172">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC172">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>6818367</v>
+      </c>
+      <c r="C173" t="s">
+        <v>28</v>
+      </c>
+      <c r="D173" t="s">
+        <v>28</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45403.37847222222</v>
+      </c>
+      <c r="F173" t="s">
+        <v>37</v>
+      </c>
+      <c r="G173" t="s">
+        <v>35</v>
+      </c>
+      <c r="H173">
         <v>2</v>
       </c>
-      <c r="V172">
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173" t="s">
+        <v>45</v>
+      </c>
+      <c r="K173">
+        <v>1.727</v>
+      </c>
+      <c r="L173">
+        <v>3.5</v>
+      </c>
+      <c r="M173">
+        <v>4.333</v>
+      </c>
+      <c r="N173">
+        <v>1.4</v>
+      </c>
+      <c r="O173">
+        <v>4.2</v>
+      </c>
+      <c r="P173">
+        <v>7</v>
+      </c>
+      <c r="Q173">
+        <v>-1.25</v>
+      </c>
+      <c r="R173">
+        <v>1.975</v>
+      </c>
+      <c r="S173">
+        <v>1.875</v>
+      </c>
+      <c r="T173">
+        <v>2.5</v>
+      </c>
+      <c r="U173">
+        <v>1.975</v>
+      </c>
+      <c r="V173">
+        <v>1.875</v>
+      </c>
+      <c r="W173">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X173">
+        <v>-1</v>
+      </c>
+      <c r="Y173">
+        <v>-1</v>
+      </c>
+      <c r="Z173">
+        <v>-0.5</v>
+      </c>
+      <c r="AA173">
+        <v>0.4375</v>
+      </c>
+      <c r="AB173">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC173">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>6818363</v>
+      </c>
+      <c r="C174" t="s">
+        <v>28</v>
+      </c>
+      <c r="D174" t="s">
+        <v>28</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45403.5625</v>
+      </c>
+      <c r="F174" t="s">
+        <v>31</v>
+      </c>
+      <c r="G174" t="s">
+        <v>29</v>
+      </c>
+      <c r="K174">
+        <v>2</v>
+      </c>
+      <c r="L174">
+        <v>3.4</v>
+      </c>
+      <c r="M174">
+        <v>3.3</v>
+      </c>
+      <c r="N174">
+        <v>2.15</v>
+      </c>
+      <c r="O174">
+        <v>3.4</v>
+      </c>
+      <c r="P174">
+        <v>2.9</v>
+      </c>
+      <c r="Q174">
+        <v>-0.25</v>
+      </c>
+      <c r="R174">
+        <v>1.975</v>
+      </c>
+      <c r="S174">
+        <v>1.875</v>
+      </c>
+      <c r="T174">
+        <v>3</v>
+      </c>
+      <c r="U174">
+        <v>2.025</v>
+      </c>
+      <c r="V174">
+        <v>1.825</v>
+      </c>
+      <c r="W174">
+        <v>0</v>
+      </c>
+      <c r="X174">
+        <v>0</v>
+      </c>
+      <c r="Y174">
+        <v>0</v>
+      </c>
+      <c r="Z174">
+        <v>0</v>
+      </c>
+      <c r="AA174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>6818371</v>
+      </c>
+      <c r="C175" t="s">
+        <v>28</v>
+      </c>
+      <c r="D175" t="s">
+        <v>28</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45409.39583333334</v>
+      </c>
+      <c r="F175" t="s">
+        <v>39</v>
+      </c>
+      <c r="G175" t="s">
+        <v>35</v>
+      </c>
+      <c r="K175">
+        <v>1.4</v>
+      </c>
+      <c r="L175">
+        <v>4.5</v>
+      </c>
+      <c r="M175">
+        <v>6.5</v>
+      </c>
+      <c r="N175">
+        <v>1.4</v>
+      </c>
+      <c r="O175">
+        <v>4.5</v>
+      </c>
+      <c r="P175">
+        <v>7</v>
+      </c>
+      <c r="Q175">
+        <v>-1.25</v>
+      </c>
+      <c r="R175">
+        <v>1.875</v>
+      </c>
+      <c r="S175">
+        <v>1.975</v>
+      </c>
+      <c r="T175">
+        <v>3</v>
+      </c>
+      <c r="U175">
+        <v>1.975</v>
+      </c>
+      <c r="V175">
+        <v>1.875</v>
+      </c>
+      <c r="W175">
+        <v>0</v>
+      </c>
+      <c r="X175">
+        <v>0</v>
+      </c>
+      <c r="Y175">
+        <v>0</v>
+      </c>
+      <c r="Z175">
+        <v>0</v>
+      </c>
+      <c r="AA175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>6818368</v>
+      </c>
+      <c r="C176" t="s">
+        <v>28</v>
+      </c>
+      <c r="D176" t="s">
+        <v>28</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45409.5</v>
+      </c>
+      <c r="F176" t="s">
+        <v>30</v>
+      </c>
+      <c r="G176" t="s">
+        <v>37</v>
+      </c>
+      <c r="K176">
+        <v>2</v>
+      </c>
+      <c r="L176">
+        <v>3.3</v>
+      </c>
+      <c r="M176">
+        <v>3.4</v>
+      </c>
+      <c r="N176">
         <v>1.85</v>
       </c>
-      <c r="W172">
+      <c r="O176">
+        <v>3.4</v>
+      </c>
+      <c r="P176">
+        <v>3.8</v>
+      </c>
+      <c r="Q176">
+        <v>-0.5</v>
+      </c>
+      <c r="R176">
+        <v>1.925</v>
+      </c>
+      <c r="S176">
+        <v>1.925</v>
+      </c>
+      <c r="T176">
+        <v>2.75</v>
+      </c>
+      <c r="U176">
+        <v>2</v>
+      </c>
+      <c r="V176">
+        <v>1.85</v>
+      </c>
+      <c r="W176">
         <v>0</v>
       </c>
-      <c r="X172">
+      <c r="X176">
         <v>0</v>
       </c>
-      <c r="Y172">
+      <c r="Y176">
         <v>0</v>
       </c>
-      <c r="Z172">
+      <c r="Z176">
         <v>0</v>
       </c>
-      <c r="AA172">
+      <c r="AA176">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,24 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>6943666</t>
+  </si>
+  <si>
+    <t>6818371</t>
+  </si>
+  <si>
+    <t>6818368</t>
+  </si>
+  <si>
+    <t>6818369</t>
+  </si>
+  <si>
+    <t>6818370</t>
+  </si>
+  <si>
+    <t>6885578</t>
   </si>
   <si>
     <t>Hungary NB I</t>
@@ -510,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB176"/>
+  <dimension ref="A1:AB181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,16 +625,16 @@
         <v>6863238</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>45135.625</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -625,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J2">
         <v>2.625</v>
@@ -693,16 +711,16 @@
         <v>6863236</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>45136.54166666666</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -711,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J3">
         <v>3.2</v>
@@ -759,10 +777,10 @@
         <v>1.625</v>
       </c>
       <c r="Y3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA3">
         <v>-1</v>
@@ -779,16 +797,16 @@
         <v>6863235</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>45136.63541666666</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -797,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J4">
         <v>2.375</v>
@@ -845,10 +863,10 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
         <v>0.875</v>
@@ -865,16 +883,16 @@
         <v>6818267</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
         <v>45137.625</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -883,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J5">
         <v>2.9</v>
@@ -931,10 +949,10 @@
         <v>1.6</v>
       </c>
       <c r="Y5">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA5">
         <v>-1</v>
@@ -951,16 +969,16 @@
         <v>6863237</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>45138.625</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -969,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J6">
         <v>1.833</v>
@@ -1017,10 +1035,10 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
         <v>1.025</v>
@@ -1037,16 +1055,16 @@
         <v>6818205</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>45142.625</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1055,7 +1073,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J7">
         <v>2.05</v>
@@ -1123,16 +1141,16 @@
         <v>6818204</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2">
         <v>45143.53125</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1141,7 +1159,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J8">
         <v>1.666</v>
@@ -1189,10 +1207,10 @@
         <v>2.2</v>
       </c>
       <c r="Y8">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA8">
         <v>0.8999999999999999</v>
@@ -1209,16 +1227,16 @@
         <v>6818206</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>45144.53125</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1227,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J9">
         <v>3.5</v>
@@ -1275,10 +1293,10 @@
         <v>0.7</v>
       </c>
       <c r="Y9">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA9">
         <v>0.925</v>
@@ -1295,16 +1313,16 @@
         <v>6818202</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>45144.625</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1313,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J10">
         <v>2.05</v>
@@ -1361,10 +1379,10 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
         <v>0.5</v>
@@ -1381,16 +1399,16 @@
         <v>6818207</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
         <v>45145.625</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1399,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J11">
         <v>2.2</v>
@@ -1447,10 +1465,10 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z11">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
         <v>0.925</v>
@@ -1467,16 +1485,16 @@
         <v>6818212</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>45149.625</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1485,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J12">
         <v>2.7</v>
@@ -1553,16 +1571,16 @@
         <v>6818209</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>45150.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1571,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J13">
         <v>1.727</v>
@@ -1639,16 +1657,16 @@
         <v>6818210</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>45150.63541666666</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1657,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J14">
         <v>2.55</v>
@@ -1725,16 +1743,16 @@
         <v>6818211</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>45151.47916666666</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1743,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J15">
         <v>1.85</v>
@@ -1791,10 +1809,10 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
         <v>-1</v>
@@ -1811,16 +1829,16 @@
         <v>6818208</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>45151.57291666666</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1829,7 +1847,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J16">
         <v>1.5</v>
@@ -1877,10 +1895,10 @@
         <v>5</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA16">
         <v>0.4375</v>
@@ -1897,16 +1915,16 @@
         <v>6818213</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
         <v>45151.66666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1915,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J17">
         <v>2.05</v>
@@ -1963,10 +1981,10 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
         <v>-1</v>
@@ -1983,16 +2001,16 @@
         <v>6818219</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2001,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J18">
         <v>1.85</v>
@@ -2069,16 +2087,16 @@
         <v>6818216</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>45156.63541666666</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2087,7 +2105,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J19">
         <v>2.15</v>
@@ -2135,10 +2153,10 @@
         <v>2.3</v>
       </c>
       <c r="Y19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA19">
         <v>0.925</v>
@@ -2155,16 +2173,16 @@
         <v>6818214</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <v>45157.53125</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2173,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -2221,10 +2239,10 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z20">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
         <v>-1</v>
@@ -2241,16 +2259,16 @@
         <v>6818217</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>45157.625</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2259,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J21">
         <v>2.25</v>
@@ -2307,10 +2325,10 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
         <v>0.425</v>
@@ -2327,16 +2345,16 @@
         <v>6818215</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2">
         <v>45159.63541666666</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -2345,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J22">
         <v>2.7</v>
@@ -2393,10 +2411,10 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
         <v>0.8500000000000001</v>
@@ -2413,16 +2431,16 @@
         <v>6818225</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2">
         <v>45164.4375</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -2431,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J23">
         <v>2.4</v>
@@ -2479,10 +2497,10 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
         <v>0.925</v>
@@ -2499,16 +2517,16 @@
         <v>6818222</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>45164.53125</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2517,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J24">
         <v>2.3</v>
@@ -2565,10 +2583,10 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -2585,16 +2603,16 @@
         <v>6818221</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
         <v>45164.625</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2603,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -2651,10 +2669,10 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z25">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
         <v>1.025</v>
@@ -2671,16 +2689,16 @@
         <v>6818223</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2">
         <v>45165.4375</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2689,7 +2707,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J26">
         <v>1.75</v>
@@ -2737,10 +2755,10 @@
         <v>2.5</v>
       </c>
       <c r="Y26">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA26">
         <v>0.8500000000000001</v>
@@ -2757,16 +2775,16 @@
         <v>6818220</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -2775,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J27">
         <v>1.4</v>
@@ -2823,10 +2841,10 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
         <v>0.875</v>
@@ -2843,16 +2861,16 @@
         <v>6818224</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2">
         <v>45165.60416666666</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2861,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J28">
         <v>1.95</v>
@@ -2909,10 +2927,10 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z28">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
         <v>-1</v>
@@ -2929,16 +2947,16 @@
         <v>6818227</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2">
         <v>45171.42708333334</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2947,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J29">
         <v>2.3</v>
@@ -2995,10 +3013,10 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z29">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
         <v>0.4375</v>
@@ -3015,16 +3033,16 @@
         <v>6818230</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2">
         <v>45171.60416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3033,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3081,10 +3099,10 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
         <v>-1</v>
@@ -3101,16 +3119,16 @@
         <v>6818231</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2">
         <v>45172.38541666666</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3119,7 +3137,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J31">
         <v>2.9</v>
@@ -3167,10 +3185,10 @@
         <v>0.833</v>
       </c>
       <c r="Y31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA31">
         <v>0.9750000000000001</v>
@@ -3187,16 +3205,16 @@
         <v>6818229</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
         <v>45172.51041666666</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3205,7 +3223,7 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J32">
         <v>5.25</v>
@@ -3253,10 +3271,10 @@
         <v>0.55</v>
       </c>
       <c r="Y32">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA32">
         <v>0.9750000000000001</v>
@@ -3273,16 +3291,16 @@
         <v>6818226</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2">
         <v>45172.60416666666</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3291,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J33">
         <v>2.25</v>
@@ -3339,10 +3357,10 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
         <v>-1</v>
@@ -3359,16 +3377,16 @@
         <v>7197411</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
         <v>45191.625</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3377,7 +3395,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J34">
         <v>1.8</v>
@@ -3425,10 +3443,10 @@
         <v>4.25</v>
       </c>
       <c r="Y34">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA34">
         <v>-1</v>
@@ -3445,16 +3463,16 @@
         <v>7197409</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2">
         <v>45192.39583333334</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3463,7 +3481,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J35">
         <v>1.9</v>
@@ -3511,10 +3529,10 @@
         <v>2.6</v>
       </c>
       <c r="Y35">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA35">
         <v>-1</v>
@@ -3531,16 +3549,16 @@
         <v>6818234</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2">
         <v>45192.5</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3549,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3597,10 +3615,10 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z36">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
         <v>0.9750000000000001</v>
@@ -3617,16 +3635,16 @@
         <v>7197408</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2">
         <v>45192.60416666666</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3635,7 +3653,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J37">
         <v>2.2</v>
@@ -3683,10 +3701,10 @@
         <v>2.1</v>
       </c>
       <c r="Y37">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA37">
         <v>-1</v>
@@ -3703,16 +3721,16 @@
         <v>7197410</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3721,7 +3739,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J38">
         <v>2.2</v>
@@ -3789,16 +3807,16 @@
         <v>7197407</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3807,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J39">
         <v>1.363</v>
@@ -3875,16 +3893,16 @@
         <v>7020194</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2">
         <v>45196.53125</v>
       </c>
       <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
         <v>38</v>
-      </c>
-      <c r="F40" t="s">
-        <v>32</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3893,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J40">
         <v>2.1</v>
@@ -3941,10 +3959,10 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z40">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
         <v>-1</v>
@@ -3961,16 +3979,16 @@
         <v>6863234</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2">
         <v>45196.625</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3979,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4047,16 +4065,16 @@
         <v>6818242</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2">
         <v>45198.625</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4065,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J42">
         <v>3</v>
@@ -4133,16 +4151,16 @@
         <v>6818243</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2">
         <v>45199.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4151,7 +4169,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J43">
         <v>1.615</v>
@@ -4199,10 +4217,10 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z43">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA43">
         <v>0</v>
@@ -4219,16 +4237,16 @@
         <v>6818240</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2">
         <v>45199.5</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4237,7 +4255,7 @@
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J44">
         <v>4.75</v>
@@ -4285,10 +4303,10 @@
         <v>0.5329999999999999</v>
       </c>
       <c r="Y44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA44">
         <v>0.8500000000000001</v>
@@ -4305,16 +4323,16 @@
         <v>6818239</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2">
         <v>45199.60416666666</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4323,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J45">
         <v>1.8</v>
@@ -4371,10 +4389,10 @@
         <v>2.8</v>
       </c>
       <c r="Y45">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA45">
         <v>0.5125</v>
@@ -4391,16 +4409,16 @@
         <v>6818241</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4409,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J46">
         <v>2.6</v>
@@ -4457,10 +4475,10 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z46">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
         <v>0.875</v>
@@ -4477,16 +4495,16 @@
         <v>6818238</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4495,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J47">
         <v>2.25</v>
@@ -4543,10 +4561,10 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z47">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
         <v>0.8999999999999999</v>
@@ -4563,16 +4581,16 @@
         <v>6818247</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2">
         <v>45205.64583333334</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4581,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J48">
         <v>1.8</v>
@@ -4629,10 +4647,10 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z48">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
         <v>-1</v>
@@ -4649,16 +4667,16 @@
         <v>6818246</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2">
         <v>45206.32291666666</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4667,7 +4685,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J49">
         <v>2.25</v>
@@ -4715,10 +4733,10 @@
         <v>1.7</v>
       </c>
       <c r="Y49">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA49">
         <v>0.4875</v>
@@ -4735,16 +4753,16 @@
         <v>6818245</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2">
         <v>45206.46875</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4753,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J50">
         <v>2.4</v>
@@ -4801,10 +4819,10 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z50">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
         <v>-1</v>
@@ -4821,16 +4839,16 @@
         <v>6818249</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2">
         <v>45206.64583333334</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4839,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J51">
         <v>2.4</v>
@@ -4907,16 +4925,16 @@
         <v>6818248</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2">
         <v>45207.33333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4925,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J52">
         <v>2.5</v>
@@ -4973,10 +4991,10 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z52">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
         <v>0.4375</v>
@@ -4993,16 +5011,16 @@
         <v>6818244</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2">
         <v>45207.47916666666</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5011,7 +5029,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J53">
         <v>1.8</v>
@@ -5079,16 +5097,16 @@
         <v>6818254</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2">
         <v>45220.3125</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5097,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J54">
         <v>2.1</v>
@@ -5145,10 +5163,10 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z54">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
         <v>0.9750000000000001</v>
@@ -5165,16 +5183,16 @@
         <v>6818255</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2">
         <v>45220.40625</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5183,7 +5201,7 @@
         <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J55">
         <v>2.5</v>
@@ -5231,10 +5249,10 @@
         <v>1.55</v>
       </c>
       <c r="Y55">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA55">
         <v>0.8999999999999999</v>
@@ -5251,16 +5269,16 @@
         <v>6818250</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2">
         <v>45220.5</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G56">
         <v>5</v>
@@ -5269,7 +5287,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J56">
         <v>1.909</v>
@@ -5317,10 +5335,10 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z56">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
         <v>0.8999999999999999</v>
@@ -5337,16 +5355,16 @@
         <v>6818253</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2">
         <v>45221.34375</v>
       </c>
       <c r="E57" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5355,7 +5373,7 @@
         <v>5</v>
       </c>
       <c r="I57" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J57">
         <v>2.5</v>
@@ -5403,10 +5421,10 @@
         <v>0.909</v>
       </c>
       <c r="Y57">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA57">
         <v>0.9750000000000001</v>
@@ -5423,16 +5441,16 @@
         <v>6818252</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2">
         <v>45221.4375</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5441,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J58">
         <v>1.909</v>
@@ -5489,10 +5507,10 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z58">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
         <v>0.8999999999999999</v>
@@ -5509,16 +5527,16 @@
         <v>6818251</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2">
         <v>45221.53125</v>
       </c>
       <c r="E59" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5527,7 +5545,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J59">
         <v>7.5</v>
@@ -5575,10 +5593,10 @@
         <v>0.55</v>
       </c>
       <c r="Y59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA59">
         <v>-0.5</v>
@@ -5595,16 +5613,16 @@
         <v>6818261</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2">
         <v>45227.3125</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -5613,7 +5631,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J60">
         <v>1.666</v>
@@ -5661,10 +5679,10 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
         <v>0.875</v>
@@ -5681,16 +5699,16 @@
         <v>6818260</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2">
         <v>45227.40625</v>
       </c>
       <c r="E61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" t="s">
         <v>35</v>
-      </c>
-      <c r="F61" t="s">
-        <v>29</v>
       </c>
       <c r="G61">
         <v>4</v>
@@ -5699,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J61">
         <v>2.5</v>
@@ -5747,10 +5765,10 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z61">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
         <v>0.925</v>
@@ -5767,16 +5785,16 @@
         <v>6818259</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2">
         <v>45227.5</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5785,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J62">
         <v>2.35</v>
@@ -5853,16 +5871,16 @@
         <v>6818258</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2">
         <v>45228.38541666666</v>
       </c>
       <c r="E63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" t="s">
         <v>34</v>
-      </c>
-      <c r="F63" t="s">
-        <v>28</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5871,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J63">
         <v>2.7</v>
@@ -5919,10 +5937,10 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -5939,16 +5957,16 @@
         <v>6818257</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -5957,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J64">
         <v>1.571</v>
@@ -6005,10 +6023,10 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
         <v>0.825</v>
@@ -6025,16 +6043,16 @@
         <v>6818256</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2">
         <v>45228.58333333334</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6043,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J65">
         <v>1.25</v>
@@ -6091,10 +6109,10 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
         <v>-0.5</v>
@@ -6111,16 +6129,16 @@
         <v>6818265</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2">
         <v>45234.35416666666</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6129,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J66">
         <v>3.3</v>
@@ -6177,10 +6195,10 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z66">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
         <v>0.4875</v>
@@ -6197,16 +6215,16 @@
         <v>6818264</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2">
         <v>45234.48958333334</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6215,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J67">
         <v>1.8</v>
@@ -6283,16 +6301,16 @@
         <v>6818263</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2">
         <v>45234.58333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6301,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J68">
         <v>2.4</v>
@@ -6349,10 +6367,10 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
         <v>0</v>
@@ -6369,16 +6387,16 @@
         <v>6999361</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2">
         <v>45235.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6387,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J69">
         <v>1.909</v>
@@ -6435,10 +6453,10 @@
         <v>2.4</v>
       </c>
       <c r="Y69">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA69">
         <v>-1</v>
@@ -6455,16 +6473,16 @@
         <v>6818262</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2">
         <v>45235.44791666666</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6473,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J70">
         <v>5.75</v>
@@ -6521,10 +6539,10 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
         <v>0</v>
@@ -6541,16 +6559,16 @@
         <v>6818266</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D71" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E71" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6559,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J71">
         <v>1.75</v>
@@ -6627,16 +6645,16 @@
         <v>6818268</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2">
         <v>45240.66666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6645,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J72">
         <v>2.2</v>
@@ -6693,10 +6711,10 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z72">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
         <v>-1</v>
@@ -6713,16 +6731,16 @@
         <v>6818270</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2">
         <v>45241.42708333334</v>
       </c>
       <c r="E73" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6731,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J73">
         <v>1.727</v>
@@ -6779,10 +6797,10 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
         <v>-1</v>
@@ -6799,16 +6817,16 @@
         <v>6818271</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2">
         <v>45241.64583333334</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6817,7 +6835,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J74">
         <v>2.375</v>
@@ -6865,10 +6883,10 @@
         <v>1.7</v>
       </c>
       <c r="Y74">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
         <v>0.825</v>
@@ -6885,16 +6903,16 @@
         <v>6818273</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E75" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6903,7 +6921,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J75">
         <v>2.2</v>
@@ -6951,10 +6969,10 @@
         <v>1.6</v>
       </c>
       <c r="Y75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA75">
         <v>1.05</v>
@@ -6971,16 +6989,16 @@
         <v>6818272</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2">
         <v>45242.5</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6989,7 +7007,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J76">
         <v>1.333</v>
@@ -7057,16 +7075,16 @@
         <v>6818269</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2">
         <v>45242.60416666666</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7075,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J77">
         <v>2.25</v>
@@ -7123,10 +7141,10 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z77">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
         <v>-1</v>
@@ -7143,16 +7161,16 @@
         <v>7448992</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D78" s="2">
         <v>45254.66666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G78">
         <v>4</v>
@@ -7161,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J78">
         <v>1.85</v>
@@ -7209,10 +7227,10 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
         <v>0.9750000000000001</v>
@@ -7229,16 +7247,16 @@
         <v>7448994</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2">
         <v>45255.44791666666</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7247,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7295,10 +7313,10 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
         <v>1.05</v>
@@ -7315,16 +7333,16 @@
         <v>7448993</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2">
         <v>45255.54166666666</v>
       </c>
       <c r="E80" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7333,7 +7351,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7381,10 +7399,10 @@
         <v>1.05</v>
       </c>
       <c r="Y80">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA80">
         <v>0.475</v>
@@ -7401,16 +7419,16 @@
         <v>7448991</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2">
         <v>45255.64583333334</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G81">
         <v>4</v>
@@ -7419,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J81">
         <v>3.1</v>
@@ -7467,10 +7485,10 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
         <v>0.825</v>
@@ -7487,16 +7505,16 @@
         <v>7448990</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7505,7 +7523,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J82">
         <v>3.75</v>
@@ -7573,16 +7591,16 @@
         <v>6818277</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2">
         <v>45256.64583333334</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7591,7 +7609,7 @@
         <v>3</v>
       </c>
       <c r="I83" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J83">
         <v>2.3</v>
@@ -7659,16 +7677,16 @@
         <v>7473670</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2">
         <v>45262.375</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F84" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7677,7 +7695,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J84">
         <v>2.3</v>
@@ -7725,10 +7743,10 @@
         <v>2.75</v>
       </c>
       <c r="Y84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA84">
         <v>0.4875</v>
@@ -7745,16 +7763,16 @@
         <v>7473671</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -7763,7 +7781,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J85">
         <v>2.3</v>
@@ -7811,10 +7829,10 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
         <v>0.9750000000000001</v>
@@ -7831,16 +7849,16 @@
         <v>6818281</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2">
         <v>45262.64583333334</v>
       </c>
       <c r="E86" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7849,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J86">
         <v>2.875</v>
@@ -7917,16 +7935,16 @@
         <v>7473672</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2">
         <v>45263.36458333334</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7935,7 +7953,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J87">
         <v>2.6</v>
@@ -7983,10 +8001,10 @@
         <v>1.375</v>
       </c>
       <c r="Y87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA87">
         <v>0</v>
@@ -8003,16 +8021,16 @@
         <v>7473673</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2">
         <v>45263.46875</v>
       </c>
       <c r="E88" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8021,7 +8039,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J88">
         <v>1.833</v>
@@ -8069,10 +8087,10 @@
         <v>3.2</v>
       </c>
       <c r="Y88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA88">
         <v>0</v>
@@ -8089,16 +8107,16 @@
         <v>7473674</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D89" s="2">
         <v>45263.57291666666</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8107,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J89">
         <v>1.285</v>
@@ -8175,16 +8193,16 @@
         <v>7088570</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2">
         <v>45266.64583333334</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8193,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J90">
         <v>6.5</v>
@@ -8241,10 +8259,10 @@
         <v>0.363</v>
       </c>
       <c r="Y90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA90">
         <v>-1</v>
@@ -8261,16 +8279,16 @@
         <v>6818291</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D91" s="2">
         <v>45268.66666666666</v>
       </c>
       <c r="E91" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8279,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J91">
         <v>1.8</v>
@@ -8327,10 +8345,10 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
         <v>0.925</v>
@@ -8347,16 +8365,16 @@
         <v>6818289</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D92" s="2">
         <v>45269.38541666666</v>
       </c>
       <c r="E92" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8365,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J92">
         <v>3.2</v>
@@ -8413,10 +8431,10 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
         <v>1</v>
@@ -8433,16 +8451,16 @@
         <v>6818287</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2">
         <v>45269.48958333334</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8451,7 +8469,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J93">
         <v>2.45</v>
@@ -8519,16 +8537,16 @@
         <v>6818288</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2">
         <v>45270.375</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8537,7 +8555,7 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8585,10 +8603,10 @@
         <v>1.625</v>
       </c>
       <c r="Y94">
+        <v>-1</v>
+      </c>
+      <c r="Z94">
         <v>0.925</v>
-      </c>
-      <c r="Z94">
-        <v>-1</v>
       </c>
       <c r="AA94">
         <v>0.925</v>
@@ -8605,16 +8623,16 @@
         <v>6818290</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D95" s="2">
         <v>45270.47916666666</v>
       </c>
       <c r="E95" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8623,7 +8641,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J95">
         <v>3.6</v>
@@ -8671,10 +8689,10 @@
         <v>1.3</v>
       </c>
       <c r="Y95">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA95">
         <v>-1</v>
@@ -8691,16 +8709,16 @@
         <v>6818286</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2">
         <v>45270.58333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8709,7 +8727,7 @@
         <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J96">
         <v>3.2</v>
@@ -8757,10 +8775,10 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
         <v>1</v>
@@ -8777,16 +8795,16 @@
         <v>6818296</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D97" s="2">
         <v>45276.35416666666</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8795,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J97">
         <v>2.1</v>
@@ -8843,10 +8861,10 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z97">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
         <v>0</v>
@@ -8863,16 +8881,16 @@
         <v>6818294</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D98" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8881,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J98">
         <v>2.25</v>
@@ -8929,10 +8947,10 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z98">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
         <v>0.8</v>
@@ -8949,16 +8967,16 @@
         <v>6818293</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D99" s="2">
         <v>45276.5625</v>
       </c>
       <c r="E99" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F99" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8967,7 +8985,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J99">
         <v>2</v>
@@ -9035,16 +9053,16 @@
         <v>6818292</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D100" s="2">
         <v>45277.39583333334</v>
       </c>
       <c r="E100" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9053,7 +9071,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J100">
         <v>2.375</v>
@@ -9121,16 +9139,16 @@
         <v>6818295</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D101" s="2">
         <v>45277.5</v>
       </c>
       <c r="E101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s">
         <v>37</v>
-      </c>
-      <c r="F101" t="s">
-        <v>31</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9139,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J101">
         <v>1.2</v>
@@ -9187,10 +9205,10 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z101">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
         <v>0</v>
@@ -9207,16 +9225,16 @@
         <v>6818297</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D102" s="2">
         <v>45277.58333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9225,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J102">
         <v>1.727</v>
@@ -9293,16 +9311,16 @@
         <v>7646444</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D103" s="2">
         <v>45324.66666666666</v>
       </c>
       <c r="E103" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9311,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J103">
         <v>2.3</v>
@@ -9359,10 +9377,10 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z103">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
         <v>0.5125</v>
@@ -9379,16 +9397,16 @@
         <v>7646447</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D104" s="2">
         <v>45325.35416666666</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -9397,7 +9415,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J104">
         <v>3.2</v>
@@ -9445,10 +9463,10 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z104">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
         <v>0.8500000000000001</v>
@@ -9465,16 +9483,16 @@
         <v>7646443</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D105" s="2">
         <v>45325.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9483,7 +9501,7 @@
         <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J105">
         <v>7</v>
@@ -9531,10 +9549,10 @@
         <v>0.5329999999999999</v>
       </c>
       <c r="Y105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA105">
         <v>0.825</v>
@@ -9551,16 +9569,16 @@
         <v>7646445</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D106" s="2">
         <v>45325.5625</v>
       </c>
       <c r="E106" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9569,7 +9587,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J106">
         <v>1.8</v>
@@ -9637,16 +9655,16 @@
         <v>7646448</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D107" s="2">
         <v>45326.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9655,7 +9673,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9703,10 +9721,10 @@
         <v>1.75</v>
       </c>
       <c r="Y107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA107">
         <v>0.925</v>
@@ -9723,16 +9741,16 @@
         <v>7646446</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D108" s="2">
         <v>45326.5625</v>
       </c>
       <c r="E108" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9741,7 +9759,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J108">
         <v>2.1</v>
@@ -9789,10 +9807,10 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z108">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
         <v>0.45</v>
@@ -9809,16 +9827,16 @@
         <v>6818305</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D109" s="2">
         <v>45328.57291666666</v>
       </c>
       <c r="E109" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9827,7 +9845,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J109">
         <v>2.8</v>
@@ -9875,10 +9893,10 @@
         <v>1.5</v>
       </c>
       <c r="Y109">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA109">
         <v>0.875</v>
@@ -9895,16 +9913,16 @@
         <v>6818306</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D110" s="2">
         <v>45328.66666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F110" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G110">
         <v>5</v>
@@ -9913,7 +9931,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J110">
         <v>1.333</v>
@@ -9961,10 +9979,10 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z110">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
         <v>0.8500000000000001</v>
@@ -9981,16 +9999,16 @@
         <v>6818307</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D111" s="2">
         <v>45329.57291666666</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -9999,7 +10017,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J111">
         <v>2.45</v>
@@ -10047,10 +10065,10 @@
         <v>2.2</v>
       </c>
       <c r="Y111">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA111">
         <v>0.825</v>
@@ -10067,16 +10085,16 @@
         <v>6818308</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D112" s="2">
         <v>45329.66666666666</v>
       </c>
       <c r="E112" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10085,7 +10103,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J112">
         <v>1.5</v>
@@ -10133,10 +10151,10 @@
         <v>4.25</v>
       </c>
       <c r="Y112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA112">
         <v>-1</v>
@@ -10153,16 +10171,16 @@
         <v>6818309</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D113" s="2">
         <v>45330.5</v>
       </c>
       <c r="E113" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10171,7 +10189,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J113">
         <v>3.75</v>
@@ -10219,10 +10237,10 @@
         <v>0.909</v>
       </c>
       <c r="Y113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA113">
         <v>-1</v>
@@ -10239,16 +10257,16 @@
         <v>6818304</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D114" s="2">
         <v>45330.66666666666</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10257,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J114">
         <v>2.15</v>
@@ -10305,10 +10323,10 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z114">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
         <v>0.45</v>
@@ -10325,16 +10343,16 @@
         <v>6818313</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D115" s="2">
         <v>45332.35416666666</v>
       </c>
       <c r="E115" t="s">
+        <v>45</v>
+      </c>
+      <c r="F115" t="s">
         <v>39</v>
-      </c>
-      <c r="F115" t="s">
-        <v>33</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10343,7 +10361,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J115">
         <v>2.75</v>
@@ -10391,10 +10409,10 @@
         <v>1.05</v>
       </c>
       <c r="Y115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA115">
         <v>-1</v>
@@ -10411,16 +10429,16 @@
         <v>6818314</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D116" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10429,7 +10447,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J116">
         <v>1.909</v>
@@ -10477,10 +10495,10 @@
         <v>1.6</v>
       </c>
       <c r="Y116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA116">
         <v>-1</v>
@@ -10497,16 +10515,16 @@
         <v>6818310</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D117" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E117" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10515,7 +10533,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J117">
         <v>3.9</v>
@@ -10563,10 +10581,10 @@
         <v>0.6499999999999999</v>
       </c>
       <c r="Y117">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA117">
         <v>0.5125</v>
@@ -10583,16 +10601,16 @@
         <v>6818315</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D118" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E118" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10601,7 +10619,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J118">
         <v>1.55</v>
@@ -10649,10 +10667,10 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z118">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA118">
         <v>-1</v>
@@ -10669,16 +10687,16 @@
         <v>6818311</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D119" s="2">
         <v>45333.44791666666</v>
       </c>
       <c r="E119" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10687,7 +10705,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J119">
         <v>1.7</v>
@@ -10735,10 +10753,10 @@
         <v>3</v>
       </c>
       <c r="Y119">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA119">
         <v>0.45</v>
@@ -10755,16 +10773,16 @@
         <v>6818312</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D120" s="2">
         <v>45333.65625</v>
       </c>
       <c r="E120" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10773,7 +10791,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J120">
         <v>2</v>
@@ -10841,16 +10859,16 @@
         <v>6818321</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D121" s="2">
         <v>45338.66666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10859,7 +10877,7 @@
         <v>4</v>
       </c>
       <c r="I121" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J121">
         <v>1.55</v>
@@ -10907,10 +10925,10 @@
         <v>5</v>
       </c>
       <c r="Y121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA121">
         <v>0.9750000000000001</v>
@@ -10927,16 +10945,16 @@
         <v>6818316</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D122" s="2">
         <v>45339.375</v>
       </c>
       <c r="E122" t="s">
+        <v>42</v>
+      </c>
+      <c r="F122" t="s">
         <v>36</v>
-      </c>
-      <c r="F122" t="s">
-        <v>30</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10945,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J122">
         <v>1.909</v>
@@ -10993,10 +11011,10 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z122">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
         <v>-1</v>
@@ -11013,16 +11031,16 @@
         <v>6818320</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D123" s="2">
         <v>45339.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11031,7 +11049,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J123">
         <v>2.15</v>
@@ -11079,10 +11097,10 @@
         <v>1.625</v>
       </c>
       <c r="Y123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA123">
         <v>1</v>
@@ -11099,16 +11117,16 @@
         <v>6818318</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D124" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11117,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J124">
         <v>2.6</v>
@@ -11165,10 +11183,10 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z124">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
         <v>-1</v>
@@ -11185,16 +11203,16 @@
         <v>6818319</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D125" s="2">
         <v>45340.5625</v>
       </c>
       <c r="E125" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F125" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G125">
         <v>6</v>
@@ -11203,7 +11221,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J125">
         <v>1.65</v>
@@ -11251,10 +11269,10 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z125">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
         <v>0.825</v>
@@ -11271,16 +11289,16 @@
         <v>6818324</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D126" s="2">
         <v>45345.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G126">
         <v>3</v>
@@ -11289,7 +11307,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J126">
         <v>1.8</v>
@@ -11337,10 +11355,10 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
         <v>0.875</v>
@@ -11357,16 +11375,16 @@
         <v>6818327</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D127" s="2">
         <v>45346.35416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11375,7 +11393,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J127">
         <v>2.4</v>
@@ -11423,10 +11441,10 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
         <v>0.8</v>
@@ -11443,16 +11461,16 @@
         <v>6818326</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D128" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11461,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J128">
         <v>2.25</v>
@@ -11509,10 +11527,10 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z128">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
         <v>0.9750000000000001</v>
@@ -11529,16 +11547,16 @@
         <v>6818325</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D129" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E129" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11547,7 +11565,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J129">
         <v>2.25</v>
@@ -11595,10 +11613,10 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z129">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
         <v>-1</v>
@@ -11615,16 +11633,16 @@
         <v>6818323</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D130" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11633,7 +11651,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J130">
         <v>3.5</v>
@@ -11681,10 +11699,10 @@
         <v>0.95</v>
       </c>
       <c r="Y130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA130">
         <v>-1</v>
@@ -11701,16 +11719,16 @@
         <v>6818322</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D131" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E131" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11719,7 +11737,7 @@
         <v>5</v>
       </c>
       <c r="I131" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J131">
         <v>5.2</v>
@@ -11767,10 +11785,10 @@
         <v>0.444</v>
       </c>
       <c r="Y131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA131">
         <v>0.875</v>
@@ -11787,16 +11805,16 @@
         <v>6818331</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D132" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E132" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11805,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J132">
         <v>1.5</v>
@@ -11853,10 +11871,10 @@
         <v>5</v>
       </c>
       <c r="Y132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA132">
         <v>-1</v>
@@ -11873,16 +11891,16 @@
         <v>6818333</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D133" s="2">
         <v>45353.4375</v>
       </c>
       <c r="E133" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11891,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J133">
         <v>2.25</v>
@@ -11939,10 +11957,10 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z133">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
         <v>-1</v>
@@ -11959,16 +11977,16 @@
         <v>6818330</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D134" s="2">
         <v>45353.61458333334</v>
       </c>
       <c r="E134" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11977,7 +11995,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J134">
         <v>2.9</v>
@@ -12045,16 +12063,16 @@
         <v>6818332</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D135" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12063,7 +12081,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J135">
         <v>2.75</v>
@@ -12111,10 +12129,10 @@
         <v>1</v>
       </c>
       <c r="Y135">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA135">
         <v>-1</v>
@@ -12131,16 +12149,16 @@
         <v>6818328</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D136" s="2">
         <v>45354.52083333334</v>
       </c>
       <c r="E136" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12149,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J136">
         <v>1.25</v>
@@ -12197,10 +12215,10 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z136">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
         <v>-1</v>
@@ -12217,16 +12235,16 @@
         <v>6818329</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D137" s="2">
         <v>45354.625</v>
       </c>
       <c r="E137" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12235,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J137">
         <v>2.3</v>
@@ -12283,10 +12301,10 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
         <v>-1</v>
@@ -12303,16 +12321,16 @@
         <v>6818337</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D138" s="2">
         <v>45359.66666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -12321,7 +12339,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J138">
         <v>1.727</v>
@@ -12369,10 +12387,10 @@
         <v>4.5</v>
       </c>
       <c r="Y138">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA138">
         <v>-1</v>
@@ -12389,16 +12407,16 @@
         <v>6818336</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D139" s="2">
         <v>45360.36458333334</v>
       </c>
       <c r="E139" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F139" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12407,7 +12425,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J139">
         <v>2.9</v>
@@ -12455,10 +12473,10 @@
         <v>1.15</v>
       </c>
       <c r="Y139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA139">
         <v>0.8500000000000001</v>
@@ -12475,16 +12493,16 @@
         <v>6818339</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D140" s="2">
         <v>45360.46875</v>
       </c>
       <c r="E140" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12493,7 +12511,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J140">
         <v>2.15</v>
@@ -12541,10 +12559,10 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
         <v>0.8999999999999999</v>
@@ -12561,16 +12579,16 @@
         <v>6818335</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D141" s="2">
         <v>45361.375</v>
       </c>
       <c r="E141" t="s">
+        <v>44</v>
+      </c>
+      <c r="F141" t="s">
         <v>38</v>
-      </c>
-      <c r="F141" t="s">
-        <v>32</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12579,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12647,16 +12665,16 @@
         <v>6818338</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D142" s="2">
         <v>45361.47916666666</v>
       </c>
       <c r="E142" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12665,7 +12683,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J142">
         <v>5.25</v>
@@ -12713,10 +12731,10 @@
         <v>0.444</v>
       </c>
       <c r="Y142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA142">
         <v>-1</v>
@@ -12733,16 +12751,16 @@
         <v>6818334</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D143" s="2">
         <v>45361.66666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F143" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12751,7 +12769,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J143">
         <v>2.2</v>
@@ -12819,16 +12837,16 @@
         <v>6818341</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D144" s="2">
         <v>45367.375</v>
       </c>
       <c r="E144" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12837,7 +12855,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J144">
         <v>1.833</v>
@@ -12905,16 +12923,16 @@
         <v>6818342</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D145" s="2">
         <v>45367.47916666666</v>
       </c>
       <c r="E145" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12923,7 +12941,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J145">
         <v>2.5</v>
@@ -12971,10 +12989,10 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z145">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
         <v>0.4125</v>
@@ -12991,16 +13009,16 @@
         <v>6818345</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D146" s="2">
         <v>45367.57291666666</v>
       </c>
       <c r="E146" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13009,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J146">
         <v>1.909</v>
@@ -13057,10 +13075,10 @@
         <v>1.8</v>
       </c>
       <c r="Y146">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA146">
         <v>-1</v>
@@ -13077,16 +13095,16 @@
         <v>6818343</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D147" s="2">
         <v>45368.35416666666</v>
       </c>
       <c r="E147" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G147">
         <v>5</v>
@@ -13095,7 +13113,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J147">
         <v>1.727</v>
@@ -13143,10 +13161,10 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z147">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
         <v>0.825</v>
@@ -13163,16 +13181,16 @@
         <v>6818340</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D148" s="2">
         <v>45368.44791666666</v>
       </c>
       <c r="E148" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13181,7 +13199,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J148">
         <v>1.5</v>
@@ -13249,16 +13267,16 @@
         <v>6818344</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D149" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E149" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13267,7 +13285,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J149">
         <v>1.727</v>
@@ -13315,10 +13333,10 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z149">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
         <v>0.9750000000000001</v>
@@ -13335,16 +13353,16 @@
         <v>6818351</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D150" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E150" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13353,7 +13371,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J150">
         <v>2.45</v>
@@ -13421,16 +13439,16 @@
         <v>6818347</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D151" s="2">
         <v>45381.4375</v>
       </c>
       <c r="E151" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13439,7 +13457,7 @@
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J151">
         <v>2.75</v>
@@ -13487,10 +13505,10 @@
         <v>1.15</v>
       </c>
       <c r="Y151">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA151">
         <v>0.875</v>
@@ -13507,16 +13525,16 @@
         <v>6818346</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D152" s="2">
         <v>45381.54166666666</v>
       </c>
       <c r="E152" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13525,7 +13543,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J152">
         <v>2.3</v>
@@ -13593,16 +13611,16 @@
         <v>6818348</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D153" s="2">
         <v>45381.64583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G153">
         <v>5</v>
@@ -13611,7 +13629,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J153">
         <v>2.45</v>
@@ -13659,10 +13677,10 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z153">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
         <v>1.025</v>
@@ -13679,16 +13697,16 @@
         <v>6818349</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D154" s="2">
         <v>45382.4375</v>
       </c>
       <c r="E154" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13697,7 +13715,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J154">
         <v>1.666</v>
@@ -13745,10 +13763,10 @@
         <v>3.2</v>
       </c>
       <c r="Y154">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA154">
         <v>0.4</v>
@@ -13765,16 +13783,16 @@
         <v>6818350</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D155" s="2">
         <v>45382.54166666666</v>
       </c>
       <c r="E155" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13783,7 +13801,7 @@
         <v>3</v>
       </c>
       <c r="I155" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J155">
         <v>7.5</v>
@@ -13831,10 +13849,10 @@
         <v>0.25</v>
       </c>
       <c r="Y155">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA155">
         <v>0</v>
@@ -13851,16 +13869,16 @@
         <v>6818353</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D156" s="2">
         <v>45387.625</v>
       </c>
       <c r="E156" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13869,7 +13887,7 @@
         <v>5</v>
       </c>
       <c r="I156" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J156">
         <v>1.909</v>
@@ -13917,10 +13935,10 @@
         <v>2.6</v>
       </c>
       <c r="Y156">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA156">
         <v>0.8500000000000001</v>
@@ -13937,16 +13955,16 @@
         <v>6818356</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D157" s="2">
         <v>45388.38541666666</v>
       </c>
       <c r="E157" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G157">
         <v>5</v>
@@ -13955,7 +13973,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J157">
         <v>1.571</v>
@@ -14003,10 +14021,10 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z157">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
         <v>0.825</v>
@@ -14023,16 +14041,16 @@
         <v>6818354</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D158" s="2">
         <v>45388.47916666666</v>
       </c>
       <c r="E158" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14041,7 +14059,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J158">
         <v>1.727</v>
@@ -14109,16 +14127,16 @@
         <v>6818355</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D159" s="2">
         <v>45388.60416666666</v>
       </c>
       <c r="E159" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14127,7 +14145,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J159">
         <v>2</v>
@@ -14175,10 +14193,10 @@
         <v>3.5</v>
       </c>
       <c r="Y159">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA159">
         <v>0.4625</v>
@@ -14195,16 +14213,16 @@
         <v>6818352</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D160" s="2">
         <v>45389.40625</v>
       </c>
       <c r="E160" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14213,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J160">
         <v>1.444</v>
@@ -14261,10 +14279,10 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z160">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AA160">
         <v>-1</v>
@@ -14281,16 +14299,16 @@
         <v>6818357</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D161" s="2">
         <v>45389.52083333334</v>
       </c>
       <c r="E161" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14299,7 +14317,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J161">
         <v>2.4</v>
@@ -14347,10 +14365,10 @@
         <v>0.833</v>
       </c>
       <c r="Y161">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA161">
         <v>1</v>
@@ -14367,16 +14385,16 @@
         <v>8074943</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D162" s="2">
         <v>45391.53819444445</v>
       </c>
       <c r="E162" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14385,7 +14403,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J162">
         <v>8.5</v>
@@ -14453,16 +14471,16 @@
         <v>7939469</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D163" s="2">
         <v>45392.54166666666</v>
       </c>
       <c r="E163" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14471,7 +14489,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J163">
         <v>1.3</v>
@@ -14539,16 +14557,16 @@
         <v>6818359</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D164" s="2">
         <v>45395.39583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G164">
         <v>4</v>
@@ -14557,7 +14575,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J164">
         <v>2.6</v>
@@ -14605,10 +14623,10 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z164">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
         <v>0.925</v>
@@ -14625,16 +14643,16 @@
         <v>6818358</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D165" s="2">
         <v>45395.5</v>
       </c>
       <c r="E165" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14643,7 +14661,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J165">
         <v>1.666</v>
@@ -14691,10 +14709,10 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z165">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA165">
         <v>-1</v>
@@ -14711,16 +14729,16 @@
         <v>6818360</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D166" s="2">
         <v>45395.60416666666</v>
       </c>
       <c r="E166" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14729,7 +14747,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J166">
         <v>1.666</v>
@@ -14777,10 +14795,10 @@
         <v>3</v>
       </c>
       <c r="Y166">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA166">
         <v>0.4125</v>
@@ -14797,16 +14815,16 @@
         <v>6820520</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D167" s="2">
         <v>45396.375</v>
       </c>
       <c r="E167" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14815,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J167">
         <v>1.727</v>
@@ -14883,16 +14901,16 @@
         <v>6860904</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D168" s="2">
         <v>45396.47916666666</v>
       </c>
       <c r="E168" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14901,7 +14919,7 @@
         <v>3</v>
       </c>
       <c r="I168" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J168">
         <v>5.5</v>
@@ -14949,10 +14967,10 @@
         <v>0.45</v>
       </c>
       <c r="Y168">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA168">
         <v>0.875</v>
@@ -14969,16 +14987,16 @@
         <v>6818361</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D169" s="2">
         <v>45396.57291666666</v>
       </c>
       <c r="E169" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F169" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -14987,7 +15005,7 @@
         <v>4</v>
       </c>
       <c r="I169" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J169">
         <v>5.5</v>
@@ -15035,10 +15053,10 @@
         <v>0.55</v>
       </c>
       <c r="Y169">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA169">
         <v>0.8500000000000001</v>
@@ -15055,16 +15073,16 @@
         <v>6818365</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D170" s="2">
         <v>45402.39583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G170">
         <v>5</v>
@@ -15073,7 +15091,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J170">
         <v>2</v>
@@ -15121,10 +15139,10 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z170">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
         <v>0.825</v>
@@ -15141,16 +15159,16 @@
         <v>6818362</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D171" s="2">
         <v>45402.5</v>
       </c>
       <c r="E171" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F171" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15159,7 +15177,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J171">
         <v>1.25</v>
@@ -15227,16 +15245,16 @@
         <v>6818364</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D172" s="2">
         <v>45402.60416666666</v>
       </c>
       <c r="E172" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G172">
         <v>5</v>
@@ -15245,7 +15263,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J172">
         <v>2.5</v>
@@ -15293,10 +15311,10 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z172">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
         <v>0.9750000000000001</v>
@@ -15313,16 +15331,16 @@
         <v>6818367</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D173" s="2">
         <v>45403.37847222222</v>
       </c>
       <c r="E173" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15331,7 +15349,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J173">
         <v>1.727</v>
@@ -15379,10 +15397,10 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z173">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA173">
         <v>0.9750000000000001</v>
@@ -15396,64 +15414,85 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6818371</v>
+        <v>6818366</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D174" s="2">
-        <v>45409.39583333334</v>
+        <v>45403.45833333334</v>
       </c>
       <c r="E174" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174" t="s">
+        <v>48</v>
       </c>
       <c r="J174">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="K174">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L174">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M174">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="N174">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O174">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P174">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q174">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R174">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S174">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T174">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U174">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V174">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W174">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X174">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y174">
+        <v>-1</v>
+      </c>
+      <c r="Z174">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA174">
+        <v>-1</v>
+      </c>
+      <c r="AB174">
+        <v>0.825</v>
       </c>
     </row>
     <row r="175" spans="1:28">
@@ -15461,63 +15500,84 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6818368</v>
+        <v>6818363</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D175" s="2">
-        <v>45409.5</v>
+        <v>45403.5625</v>
       </c>
       <c r="E175" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>2</v>
+      </c>
+      <c r="I175" t="s">
+        <v>49</v>
       </c>
       <c r="J175">
         <v>2</v>
       </c>
       <c r="K175">
+        <v>3.4</v>
+      </c>
+      <c r="L175">
         <v>3.3</v>
       </c>
-      <c r="L175">
-        <v>3.4</v>
-      </c>
       <c r="M175">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N175">
         <v>3.4</v>
       </c>
       <c r="O175">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="P175">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q175">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="R175">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S175">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T175">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V175">
+        <v>-1</v>
+      </c>
+      <c r="W175">
+        <v>-1</v>
+      </c>
+      <c r="X175">
+        <v>1.8</v>
+      </c>
+      <c r="Y175">
+        <v>-1</v>
+      </c>
+      <c r="Z175">
+        <v>0.825</v>
+      </c>
+      <c r="AA175">
         <v>0</v>
       </c>
-      <c r="W175">
-        <v>0</v>
-      </c>
-      <c r="X175">
+      <c r="AB175">
         <v>0</v>
       </c>
     </row>
@@ -15525,56 +15585,56 @@
       <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176">
-        <v>6818370</v>
+      <c r="B176" t="s">
+        <v>27</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D176" s="2">
-        <v>45410.42708333334</v>
+        <v>45408.625</v>
       </c>
       <c r="E176" t="s">
+        <v>37</v>
+      </c>
+      <c r="F176" t="s">
         <v>39</v>
       </c>
-      <c r="F176" t="s">
-        <v>35</v>
-      </c>
       <c r="J176">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="K176">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L176">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="M176">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N176">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O176">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="P176">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q176">
-        <v>2.15</v>
+        <v>1.875</v>
       </c>
       <c r="R176">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S176">
         <v>2.5</v>
       </c>
       <c r="T176">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U176">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
         <v>0</v>
@@ -15583,6 +15643,331 @@
         <v>0</v>
       </c>
       <c r="X176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>28</v>
+      </c>
+      <c r="C177" t="s">
+        <v>33</v>
+      </c>
+      <c r="D177" s="2">
+        <v>45409.39583333334</v>
+      </c>
+      <c r="E177" t="s">
+        <v>44</v>
+      </c>
+      <c r="F177" t="s">
+        <v>40</v>
+      </c>
+      <c r="J177">
+        <v>1.4</v>
+      </c>
+      <c r="K177">
+        <v>4.5</v>
+      </c>
+      <c r="L177">
+        <v>6.5</v>
+      </c>
+      <c r="M177">
+        <v>1.333</v>
+      </c>
+      <c r="N177">
+        <v>4.75</v>
+      </c>
+      <c r="O177">
+        <v>8</v>
+      </c>
+      <c r="P177">
+        <v>-1.5</v>
+      </c>
+      <c r="Q177">
+        <v>1.975</v>
+      </c>
+      <c r="R177">
+        <v>1.875</v>
+      </c>
+      <c r="S177">
+        <v>3</v>
+      </c>
+      <c r="T177">
+        <v>1.9</v>
+      </c>
+      <c r="U177">
+        <v>1.95</v>
+      </c>
+      <c r="V177">
+        <v>0</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>29</v>
+      </c>
+      <c r="C178" t="s">
+        <v>33</v>
+      </c>
+      <c r="D178" s="2">
+        <v>45409.5</v>
+      </c>
+      <c r="E178" t="s">
+        <v>35</v>
+      </c>
+      <c r="F178" t="s">
+        <v>42</v>
+      </c>
+      <c r="J178">
+        <v>2</v>
+      </c>
+      <c r="K178">
+        <v>3.3</v>
+      </c>
+      <c r="L178">
+        <v>3.4</v>
+      </c>
+      <c r="M178">
+        <v>1.95</v>
+      </c>
+      <c r="N178">
+        <v>3.3</v>
+      </c>
+      <c r="O178">
+        <v>3.8</v>
+      </c>
+      <c r="P178">
+        <v>-0.5</v>
+      </c>
+      <c r="Q178">
+        <v>2</v>
+      </c>
+      <c r="R178">
+        <v>1.85</v>
+      </c>
+      <c r="S178">
+        <v>2.5</v>
+      </c>
+      <c r="T178">
+        <v>1.9</v>
+      </c>
+      <c r="U178">
+        <v>1.95</v>
+      </c>
+      <c r="V178">
+        <v>0</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>30</v>
+      </c>
+      <c r="C179" t="s">
+        <v>33</v>
+      </c>
+      <c r="D179" s="2">
+        <v>45409.60416666666</v>
+      </c>
+      <c r="E179" t="s">
+        <v>38</v>
+      </c>
+      <c r="F179" t="s">
+        <v>36</v>
+      </c>
+      <c r="J179">
+        <v>1.75</v>
+      </c>
+      <c r="K179">
+        <v>3.6</v>
+      </c>
+      <c r="L179">
+        <v>4</v>
+      </c>
+      <c r="M179">
+        <v>1.75</v>
+      </c>
+      <c r="N179">
+        <v>3.6</v>
+      </c>
+      <c r="O179">
+        <v>4.2</v>
+      </c>
+      <c r="P179">
+        <v>-0.75</v>
+      </c>
+      <c r="Q179">
+        <v>2</v>
+      </c>
+      <c r="R179">
+        <v>1.85</v>
+      </c>
+      <c r="S179">
+        <v>2.75</v>
+      </c>
+      <c r="T179">
+        <v>2</v>
+      </c>
+      <c r="U179">
+        <v>1.85</v>
+      </c>
+      <c r="V179">
+        <v>0</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>31</v>
+      </c>
+      <c r="C180" t="s">
+        <v>33</v>
+      </c>
+      <c r="D180" s="2">
+        <v>45410.42708333334</v>
+      </c>
+      <c r="E180" t="s">
+        <v>45</v>
+      </c>
+      <c r="F180" t="s">
+        <v>41</v>
+      </c>
+      <c r="J180">
+        <v>2.6</v>
+      </c>
+      <c r="K180">
+        <v>3.25</v>
+      </c>
+      <c r="L180">
+        <v>2.5</v>
+      </c>
+      <c r="M180">
+        <v>2.875</v>
+      </c>
+      <c r="N180">
+        <v>3.25</v>
+      </c>
+      <c r="O180">
+        <v>2.375</v>
+      </c>
+      <c r="P180">
+        <v>0.25</v>
+      </c>
+      <c r="Q180">
+        <v>1.775</v>
+      </c>
+      <c r="R180">
+        <v>2.1</v>
+      </c>
+      <c r="S180">
+        <v>2.5</v>
+      </c>
+      <c r="T180">
+        <v>1.925</v>
+      </c>
+      <c r="U180">
+        <v>1.925</v>
+      </c>
+      <c r="V180">
+        <v>0</v>
+      </c>
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>32</v>
+      </c>
+      <c r="C181" t="s">
+        <v>33</v>
+      </c>
+      <c r="D181" s="2">
+        <v>45410.53125</v>
+      </c>
+      <c r="E181" t="s">
+        <v>34</v>
+      </c>
+      <c r="F181" t="s">
+        <v>43</v>
+      </c>
+      <c r="J181">
+        <v>4.333</v>
+      </c>
+      <c r="K181">
+        <v>3.75</v>
+      </c>
+      <c r="L181">
+        <v>1.666</v>
+      </c>
+      <c r="M181">
+        <v>5.75</v>
+      </c>
+      <c r="N181">
+        <v>4.2</v>
+      </c>
+      <c r="O181">
+        <v>1.5</v>
+      </c>
+      <c r="P181">
+        <v>1</v>
+      </c>
+      <c r="Q181">
+        <v>2.05</v>
+      </c>
+      <c r="R181">
+        <v>1.8</v>
+      </c>
+      <c r="S181">
+        <v>3</v>
+      </c>
+      <c r="T181">
+        <v>1.925</v>
+      </c>
+      <c r="U181">
+        <v>1.925</v>
+      </c>
+      <c r="V181">
+        <v>0</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -15610,31 +15610,31 @@
         <v>1.909</v>
       </c>
       <c r="M176">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N176">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O176">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="P176">
         <v>0.5</v>
       </c>
       <c r="Q176">
+        <v>1.975</v>
+      </c>
+      <c r="R176">
         <v>1.875</v>
-      </c>
-      <c r="R176">
-        <v>1.975</v>
       </c>
       <c r="S176">
         <v>2.5</v>
       </c>
       <c r="T176">
+        <v>1.875</v>
+      </c>
+      <c r="U176">
         <v>1.975</v>
-      </c>
-      <c r="U176">
-        <v>1.875</v>
       </c>
       <c r="V176">
         <v>0</v>
@@ -15675,31 +15675,31 @@
         <v>6.5</v>
       </c>
       <c r="M177">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="N177">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="O177">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="P177">
         <v>-1.5</v>
       </c>
       <c r="Q177">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R177">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S177">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T177">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U177">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V177">
         <v>0</v>
@@ -15740,25 +15740,25 @@
         <v>3.4</v>
       </c>
       <c r="M178">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="N178">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O178">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P178">
         <v>-0.5</v>
       </c>
       <c r="Q178">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R178">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S178">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T178">
         <v>1.9</v>
@@ -15805,31 +15805,31 @@
         <v>4</v>
       </c>
       <c r="M179">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="N179">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O179">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P179">
         <v>-0.75</v>
       </c>
       <c r="Q179">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R179">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S179">
         <v>2.75</v>
       </c>
       <c r="T179">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U179">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V179">
         <v>0</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>6943666</t>
   </si>
   <si>
     <t>6818371</t>
@@ -528,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB181"/>
+  <dimension ref="A1:AB180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,16 +622,16 @@
         <v>6863238</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>45135.625</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -643,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2">
         <v>2.625</v>
@@ -711,16 +708,16 @@
         <v>6863236</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>45136.54166666666</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -729,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J3">
         <v>3.2</v>
@@ -797,16 +794,16 @@
         <v>6863235</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>45136.63541666666</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -815,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J4">
         <v>2.375</v>
@@ -883,16 +880,16 @@
         <v>6818267</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>45137.625</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -901,7 +898,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5">
         <v>2.9</v>
@@ -969,16 +966,16 @@
         <v>6863237</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>45138.625</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -987,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6">
         <v>1.833</v>
@@ -1055,16 +1052,16 @@
         <v>6818205</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>45142.625</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1073,7 +1070,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7">
         <v>2.05</v>
@@ -1141,16 +1138,16 @@
         <v>6818204</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>45143.53125</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1159,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <v>1.666</v>
@@ -1227,16 +1224,16 @@
         <v>6818206</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>45144.53125</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1245,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9">
         <v>3.5</v>
@@ -1313,16 +1310,16 @@
         <v>6818202</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>45144.625</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1331,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10">
         <v>2.05</v>
@@ -1399,16 +1396,16 @@
         <v>6818207</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2">
         <v>45145.625</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1417,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J11">
         <v>2.2</v>
@@ -1485,16 +1482,16 @@
         <v>6818212</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
         <v>45149.625</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1503,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J12">
         <v>2.7</v>
@@ -1571,16 +1568,16 @@
         <v>6818209</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>45150.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1589,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13">
         <v>1.727</v>
@@ -1657,16 +1654,16 @@
         <v>6818210</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>45150.63541666666</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1675,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J14">
         <v>2.55</v>
@@ -1743,16 +1740,16 @@
         <v>6818211</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>45151.47916666666</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1761,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J15">
         <v>1.85</v>
@@ -1829,16 +1826,16 @@
         <v>6818208</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2">
         <v>45151.57291666666</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1847,7 +1844,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J16">
         <v>1.5</v>
@@ -1915,16 +1912,16 @@
         <v>6818213</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>45151.66666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1933,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J17">
         <v>2.05</v>
@@ -2001,16 +1998,16 @@
         <v>6818219</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2019,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18">
         <v>1.85</v>
@@ -2087,16 +2084,16 @@
         <v>6818216</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2">
         <v>45156.63541666666</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2105,7 +2102,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J19">
         <v>2.15</v>
@@ -2173,16 +2170,16 @@
         <v>6818214</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2">
         <v>45157.53125</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2191,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -2259,16 +2256,16 @@
         <v>6818217</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2">
         <v>45157.625</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2277,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J21">
         <v>2.25</v>
@@ -2345,16 +2342,16 @@
         <v>6818215</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
         <v>45159.63541666666</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -2363,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J22">
         <v>2.7</v>
@@ -2431,16 +2428,16 @@
         <v>6818225</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2">
         <v>45164.4375</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -2449,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J23">
         <v>2.4</v>
@@ -2517,16 +2514,16 @@
         <v>6818222</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>45164.53125</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2535,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J24">
         <v>2.3</v>
@@ -2603,16 +2600,16 @@
         <v>6818221</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
         <v>45164.625</v>
       </c>
       <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
         <v>36</v>
-      </c>
-      <c r="F25" t="s">
-        <v>37</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2621,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -2689,16 +2686,16 @@
         <v>6818223</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>45165.4375</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2707,7 +2704,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J26">
         <v>1.75</v>
@@ -2775,16 +2772,16 @@
         <v>6818220</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" t="s">
         <v>43</v>
-      </c>
-      <c r="F27" t="s">
-        <v>44</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -2793,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J27">
         <v>1.4</v>
@@ -2861,16 +2858,16 @@
         <v>6818224</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2">
         <v>45165.60416666666</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2879,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J28">
         <v>1.95</v>
@@ -2947,16 +2944,16 @@
         <v>6818227</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2">
         <v>45171.42708333334</v>
       </c>
       <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
         <v>34</v>
-      </c>
-      <c r="F29" t="s">
-        <v>35</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2965,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J29">
         <v>2.3</v>
@@ -3033,16 +3030,16 @@
         <v>6818230</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2">
         <v>45171.60416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3051,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3119,16 +3116,16 @@
         <v>6818231</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2">
         <v>45172.38541666666</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3137,7 +3134,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J31">
         <v>2.9</v>
@@ -3205,16 +3202,16 @@
         <v>6818229</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2">
         <v>45172.51041666666</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3223,7 +3220,7 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J32">
         <v>5.25</v>
@@ -3291,16 +3288,16 @@
         <v>6818226</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
         <v>45172.60416666666</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3309,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J33">
         <v>2.25</v>
@@ -3377,16 +3374,16 @@
         <v>7197411</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2">
         <v>45191.625</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3395,7 +3392,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J34">
         <v>1.8</v>
@@ -3463,16 +3460,16 @@
         <v>7197409</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2">
         <v>45192.39583333334</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3481,7 +3478,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J35">
         <v>1.9</v>
@@ -3549,16 +3546,16 @@
         <v>6818234</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2">
         <v>45192.5</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3567,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3635,16 +3632,16 @@
         <v>7197408</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2">
         <v>45192.60416666666</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3653,7 +3650,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J37">
         <v>2.2</v>
@@ -3721,16 +3718,16 @@
         <v>7197410</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3739,7 +3736,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J38">
         <v>2.2</v>
@@ -3807,16 +3804,16 @@
         <v>7197407</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3825,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J39">
         <v>1.363</v>
@@ -3893,16 +3890,16 @@
         <v>7020194</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2">
         <v>45196.53125</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3911,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J40">
         <v>2.1</v>
@@ -3979,16 +3976,16 @@
         <v>6863234</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2">
         <v>45196.625</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3997,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4065,16 +4062,16 @@
         <v>6818242</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2">
         <v>45198.625</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4083,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J42">
         <v>3</v>
@@ -4151,16 +4148,16 @@
         <v>6818243</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2">
         <v>45199.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4169,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J43">
         <v>1.615</v>
@@ -4237,16 +4234,16 @@
         <v>6818240</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2">
         <v>45199.5</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4255,7 +4252,7 @@
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J44">
         <v>4.75</v>
@@ -4323,16 +4320,16 @@
         <v>6818239</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2">
         <v>45199.60416666666</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4341,7 +4338,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J45">
         <v>1.8</v>
@@ -4409,16 +4406,16 @@
         <v>6818241</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4427,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J46">
         <v>2.6</v>
@@ -4495,16 +4492,16 @@
         <v>6818238</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4513,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J47">
         <v>2.25</v>
@@ -4581,16 +4578,16 @@
         <v>6818247</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2">
         <v>45205.64583333334</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4599,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J48">
         <v>1.8</v>
@@ -4667,16 +4664,16 @@
         <v>6818246</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D49" s="2">
         <v>45206.32291666666</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4685,7 +4682,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J49">
         <v>2.25</v>
@@ -4753,16 +4750,16 @@
         <v>6818245</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2">
         <v>45206.46875</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4771,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J50">
         <v>2.4</v>
@@ -4839,16 +4836,16 @@
         <v>6818249</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2">
         <v>45206.64583333334</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4857,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J51">
         <v>2.4</v>
@@ -4925,16 +4922,16 @@
         <v>6818248</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D52" s="2">
         <v>45207.33333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4943,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J52">
         <v>2.5</v>
@@ -5011,16 +5008,16 @@
         <v>6818244</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2">
         <v>45207.47916666666</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5029,7 +5026,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J53">
         <v>1.8</v>
@@ -5097,16 +5094,16 @@
         <v>6818254</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2">
         <v>45220.3125</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5115,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J54">
         <v>2.1</v>
@@ -5183,16 +5180,16 @@
         <v>6818255</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55" s="2">
         <v>45220.40625</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5201,7 +5198,7 @@
         <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J55">
         <v>2.5</v>
@@ -5269,16 +5266,16 @@
         <v>6818250</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D56" s="2">
         <v>45220.5</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G56">
         <v>5</v>
@@ -5287,7 +5284,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J56">
         <v>1.909</v>
@@ -5355,16 +5352,16 @@
         <v>6818253</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D57" s="2">
         <v>45221.34375</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5373,7 +5370,7 @@
         <v>5</v>
       </c>
       <c r="I57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J57">
         <v>2.5</v>
@@ -5441,16 +5438,16 @@
         <v>6818252</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D58" s="2">
         <v>45221.4375</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5459,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J58">
         <v>1.909</v>
@@ -5527,16 +5524,16 @@
         <v>6818251</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D59" s="2">
         <v>45221.53125</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5545,7 +5542,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J59">
         <v>7.5</v>
@@ -5613,16 +5610,16 @@
         <v>6818261</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D60" s="2">
         <v>45227.3125</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -5631,7 +5628,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J60">
         <v>1.666</v>
@@ -5699,16 +5696,16 @@
         <v>6818260</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2">
         <v>45227.40625</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G61">
         <v>4</v>
@@ -5717,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J61">
         <v>2.5</v>
@@ -5785,16 +5782,16 @@
         <v>6818259</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D62" s="2">
         <v>45227.5</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5803,7 +5800,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J62">
         <v>2.35</v>
@@ -5871,16 +5868,16 @@
         <v>6818258</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D63" s="2">
         <v>45228.38541666666</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5889,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J63">
         <v>2.7</v>
@@ -5957,16 +5954,16 @@
         <v>6818257</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D64" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
         <v>44</v>
-      </c>
-      <c r="F64" t="s">
-        <v>45</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -5975,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J64">
         <v>1.571</v>
@@ -6043,16 +6040,16 @@
         <v>6818256</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D65" s="2">
         <v>45228.58333333334</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6061,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J65">
         <v>1.25</v>
@@ -6129,16 +6126,16 @@
         <v>6818265</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2">
         <v>45234.35416666666</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6147,7 +6144,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J66">
         <v>3.3</v>
@@ -6215,16 +6212,16 @@
         <v>6818264</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D67" s="2">
         <v>45234.48958333334</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6233,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J67">
         <v>1.8</v>
@@ -6301,16 +6298,16 @@
         <v>6818263</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D68" s="2">
         <v>45234.58333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6319,7 +6316,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J68">
         <v>2.4</v>
@@ -6387,16 +6384,16 @@
         <v>6999361</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D69" s="2">
         <v>45235.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6405,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J69">
         <v>1.909</v>
@@ -6473,16 +6470,16 @@
         <v>6818262</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D70" s="2">
         <v>45235.44791666666</v>
       </c>
       <c r="E70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s">
         <v>42</v>
-      </c>
-      <c r="F70" t="s">
-        <v>43</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6491,7 +6488,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J70">
         <v>5.75</v>
@@ -6559,16 +6556,16 @@
         <v>6818266</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D71" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6577,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J71">
         <v>1.75</v>
@@ -6645,16 +6642,16 @@
         <v>6818268</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D72" s="2">
         <v>45240.66666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6663,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J72">
         <v>2.2</v>
@@ -6731,16 +6728,16 @@
         <v>6818270</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D73" s="2">
         <v>45241.42708333334</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6749,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J73">
         <v>1.727</v>
@@ -6817,16 +6814,16 @@
         <v>6818271</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D74" s="2">
         <v>45241.64583333334</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6835,7 +6832,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J74">
         <v>2.375</v>
@@ -6903,16 +6900,16 @@
         <v>6818273</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D75" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6921,7 +6918,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J75">
         <v>2.2</v>
@@ -6989,16 +6986,16 @@
         <v>6818272</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D76" s="2">
         <v>45242.5</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7007,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J76">
         <v>1.333</v>
@@ -7075,16 +7072,16 @@
         <v>6818269</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D77" s="2">
         <v>45242.60416666666</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7093,7 +7090,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J77">
         <v>2.25</v>
@@ -7161,16 +7158,16 @@
         <v>7448992</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D78" s="2">
         <v>45254.66666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G78">
         <v>4</v>
@@ -7179,7 +7176,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J78">
         <v>1.85</v>
@@ -7247,16 +7244,16 @@
         <v>7448994</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D79" s="2">
         <v>45255.44791666666</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7265,7 +7262,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7333,16 +7330,16 @@
         <v>7448993</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D80" s="2">
         <v>45255.54166666666</v>
       </c>
       <c r="E80" t="s">
+        <v>36</v>
+      </c>
+      <c r="F80" t="s">
         <v>37</v>
-      </c>
-      <c r="F80" t="s">
-        <v>38</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7351,7 +7348,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7419,16 +7416,16 @@
         <v>7448991</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D81" s="2">
         <v>45255.64583333334</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G81">
         <v>4</v>
@@ -7437,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J81">
         <v>3.1</v>
@@ -7505,16 +7502,16 @@
         <v>7448990</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D82" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7523,7 +7520,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J82">
         <v>3.75</v>
@@ -7591,16 +7588,16 @@
         <v>6818277</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D83" s="2">
         <v>45256.64583333334</v>
       </c>
       <c r="E83" t="s">
+        <v>40</v>
+      </c>
+      <c r="F83" t="s">
         <v>41</v>
-      </c>
-      <c r="F83" t="s">
-        <v>42</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7609,7 +7606,7 @@
         <v>3</v>
       </c>
       <c r="I83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J83">
         <v>2.3</v>
@@ -7677,16 +7674,16 @@
         <v>7473670</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D84" s="2">
         <v>45262.375</v>
       </c>
       <c r="E84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7695,7 +7692,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J84">
         <v>2.3</v>
@@ -7763,16 +7760,16 @@
         <v>7473671</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D85" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -7781,7 +7778,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J85">
         <v>2.3</v>
@@ -7849,16 +7846,16 @@
         <v>6818281</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D86" s="2">
         <v>45262.64583333334</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7867,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J86">
         <v>2.875</v>
@@ -7935,16 +7932,16 @@
         <v>7473672</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D87" s="2">
         <v>45263.36458333334</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7953,7 +7950,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J87">
         <v>2.6</v>
@@ -8021,16 +8018,16 @@
         <v>7473673</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D88" s="2">
         <v>45263.46875</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8039,7 +8036,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J88">
         <v>1.833</v>
@@ -8107,16 +8104,16 @@
         <v>7473674</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D89" s="2">
         <v>45263.57291666666</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8125,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J89">
         <v>1.285</v>
@@ -8193,16 +8190,16 @@
         <v>7088570</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D90" s="2">
         <v>45266.64583333334</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8211,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J90">
         <v>6.5</v>
@@ -8279,16 +8276,16 @@
         <v>6818291</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D91" s="2">
         <v>45268.66666666666</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8297,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J91">
         <v>1.8</v>
@@ -8365,16 +8362,16 @@
         <v>6818289</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D92" s="2">
         <v>45269.38541666666</v>
       </c>
       <c r="E92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8383,7 +8380,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J92">
         <v>3.2</v>
@@ -8451,16 +8448,16 @@
         <v>6818287</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D93" s="2">
         <v>45269.48958333334</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8469,7 +8466,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J93">
         <v>2.45</v>
@@ -8537,16 +8534,16 @@
         <v>6818288</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D94" s="2">
         <v>45270.375</v>
       </c>
       <c r="E94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8555,7 +8552,7 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8623,16 +8620,16 @@
         <v>6818290</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D95" s="2">
         <v>45270.47916666666</v>
       </c>
       <c r="E95" t="s">
+        <v>39</v>
+      </c>
+      <c r="F95" t="s">
         <v>40</v>
-      </c>
-      <c r="F95" t="s">
-        <v>41</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8641,7 +8638,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J95">
         <v>3.6</v>
@@ -8709,16 +8706,16 @@
         <v>6818286</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D96" s="2">
         <v>45270.58333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8727,7 +8724,7 @@
         <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J96">
         <v>3.2</v>
@@ -8795,16 +8792,16 @@
         <v>6818296</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D97" s="2">
         <v>45276.35416666666</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8813,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J97">
         <v>2.1</v>
@@ -8881,16 +8878,16 @@
         <v>6818294</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D98" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8899,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J98">
         <v>2.25</v>
@@ -8967,16 +8964,16 @@
         <v>6818293</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D99" s="2">
         <v>45276.5625</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8985,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J99">
         <v>2</v>
@@ -9053,16 +9050,16 @@
         <v>6818292</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D100" s="2">
         <v>45277.39583333334</v>
       </c>
       <c r="E100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9071,7 +9068,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J100">
         <v>2.375</v>
@@ -9139,16 +9136,16 @@
         <v>6818295</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D101" s="2">
         <v>45277.5</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9157,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J101">
         <v>1.2</v>
@@ -9225,16 +9222,16 @@
         <v>6818297</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D102" s="2">
         <v>45277.58333333334</v>
       </c>
       <c r="E102" t="s">
+        <v>38</v>
+      </c>
+      <c r="F102" t="s">
         <v>39</v>
-      </c>
-      <c r="F102" t="s">
-        <v>40</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9243,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J102">
         <v>1.727</v>
@@ -9311,16 +9308,16 @@
         <v>7646444</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D103" s="2">
         <v>45324.66666666666</v>
       </c>
       <c r="E103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9329,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J103">
         <v>2.3</v>
@@ -9397,16 +9394,16 @@
         <v>7646447</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D104" s="2">
         <v>45325.35416666666</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -9415,7 +9412,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J104">
         <v>3.2</v>
@@ -9483,16 +9480,16 @@
         <v>7646443</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D105" s="2">
         <v>45325.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9501,7 +9498,7 @@
         <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J105">
         <v>7</v>
@@ -9569,16 +9566,16 @@
         <v>7646445</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D106" s="2">
         <v>45325.5625</v>
       </c>
       <c r="E106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9587,7 +9584,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J106">
         <v>1.8</v>
@@ -9655,16 +9652,16 @@
         <v>7646448</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D107" s="2">
         <v>45326.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9673,7 +9670,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9741,16 +9738,16 @@
         <v>7646446</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D108" s="2">
         <v>45326.5625</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9759,7 +9756,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J108">
         <v>2.1</v>
@@ -9827,16 +9824,16 @@
         <v>6818305</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D109" s="2">
         <v>45328.57291666666</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9845,7 +9842,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J109">
         <v>2.8</v>
@@ -9913,16 +9910,16 @@
         <v>6818306</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D110" s="2">
         <v>45328.66666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G110">
         <v>5</v>
@@ -9931,7 +9928,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J110">
         <v>1.333</v>
@@ -9999,16 +9996,16 @@
         <v>6818307</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D111" s="2">
         <v>45329.57291666666</v>
       </c>
       <c r="E111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10017,7 +10014,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J111">
         <v>2.45</v>
@@ -10085,16 +10082,16 @@
         <v>6818308</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D112" s="2">
         <v>45329.66666666666</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10103,7 +10100,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J112">
         <v>1.5</v>
@@ -10171,16 +10168,16 @@
         <v>6818309</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D113" s="2">
         <v>45330.5</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10189,7 +10186,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J113">
         <v>3.75</v>
@@ -10257,16 +10254,16 @@
         <v>6818304</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D114" s="2">
         <v>45330.66666666666</v>
       </c>
       <c r="E114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10275,7 +10272,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J114">
         <v>2.15</v>
@@ -10343,16 +10340,16 @@
         <v>6818313</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D115" s="2">
         <v>45332.35416666666</v>
       </c>
       <c r="E115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10361,7 +10358,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J115">
         <v>2.75</v>
@@ -10429,16 +10426,16 @@
         <v>6818314</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D116" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10447,7 +10444,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J116">
         <v>1.909</v>
@@ -10515,16 +10512,16 @@
         <v>6818310</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D117" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10533,7 +10530,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J117">
         <v>3.9</v>
@@ -10601,16 +10598,16 @@
         <v>6818315</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D118" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10619,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J118">
         <v>1.55</v>
@@ -10687,16 +10684,16 @@
         <v>6818311</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D119" s="2">
         <v>45333.44791666666</v>
       </c>
       <c r="E119" t="s">
+        <v>34</v>
+      </c>
+      <c r="F119" t="s">
         <v>35</v>
-      </c>
-      <c r="F119" t="s">
-        <v>36</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10705,7 +10702,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J119">
         <v>1.7</v>
@@ -10773,16 +10770,16 @@
         <v>6818312</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D120" s="2">
         <v>45333.65625</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10791,7 +10788,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J120">
         <v>2</v>
@@ -10859,16 +10856,16 @@
         <v>6818321</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D121" s="2">
         <v>45338.66666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10877,7 +10874,7 @@
         <v>4</v>
       </c>
       <c r="I121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J121">
         <v>1.55</v>
@@ -10945,16 +10942,16 @@
         <v>6818316</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D122" s="2">
         <v>45339.375</v>
       </c>
       <c r="E122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10963,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J122">
         <v>1.909</v>
@@ -11031,16 +11028,16 @@
         <v>6818320</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D123" s="2">
         <v>45339.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11049,7 +11046,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J123">
         <v>2.15</v>
@@ -11117,16 +11114,16 @@
         <v>6818318</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D124" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11135,7 +11132,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J124">
         <v>2.6</v>
@@ -11203,16 +11200,16 @@
         <v>6818319</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D125" s="2">
         <v>45340.5625</v>
       </c>
       <c r="E125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G125">
         <v>6</v>
@@ -11221,7 +11218,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J125">
         <v>1.65</v>
@@ -11289,16 +11286,16 @@
         <v>6818324</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D126" s="2">
         <v>45345.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G126">
         <v>3</v>
@@ -11307,7 +11304,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J126">
         <v>1.8</v>
@@ -11375,16 +11372,16 @@
         <v>6818327</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D127" s="2">
         <v>45346.35416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11393,7 +11390,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J127">
         <v>2.4</v>
@@ -11461,16 +11458,16 @@
         <v>6818326</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D128" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11479,7 +11476,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J128">
         <v>2.25</v>
@@ -11547,16 +11544,16 @@
         <v>6818325</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D129" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F129" t="s">
         <v>38</v>
-      </c>
-      <c r="F129" t="s">
-        <v>39</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11565,7 +11562,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J129">
         <v>2.25</v>
@@ -11633,16 +11630,16 @@
         <v>6818323</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D130" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11651,7 +11648,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J130">
         <v>3.5</v>
@@ -11719,16 +11716,16 @@
         <v>6818322</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D131" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11737,7 +11734,7 @@
         <v>5</v>
       </c>
       <c r="I131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J131">
         <v>5.2</v>
@@ -11805,16 +11802,16 @@
         <v>6818331</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D132" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11823,7 +11820,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J132">
         <v>1.5</v>
@@ -11891,16 +11888,16 @@
         <v>6818333</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D133" s="2">
         <v>45353.4375</v>
       </c>
       <c r="E133" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11909,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J133">
         <v>2.25</v>
@@ -11977,16 +11974,16 @@
         <v>6818330</v>
       </c>
       <c r="C134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D134" s="2">
         <v>45353.61458333334</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11995,7 +11992,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J134">
         <v>2.9</v>
@@ -12063,16 +12060,16 @@
         <v>6818332</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D135" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12081,7 +12078,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J135">
         <v>2.75</v>
@@ -12149,16 +12146,16 @@
         <v>6818328</v>
       </c>
       <c r="C136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D136" s="2">
         <v>45354.52083333334</v>
       </c>
       <c r="E136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12167,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J136">
         <v>1.25</v>
@@ -12235,16 +12232,16 @@
         <v>6818329</v>
       </c>
       <c r="C137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D137" s="2">
         <v>45354.625</v>
       </c>
       <c r="E137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12253,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J137">
         <v>2.3</v>
@@ -12321,16 +12318,16 @@
         <v>6818337</v>
       </c>
       <c r="C138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D138" s="2">
         <v>45359.66666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -12339,7 +12336,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J138">
         <v>1.727</v>
@@ -12407,16 +12404,16 @@
         <v>6818336</v>
       </c>
       <c r="C139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D139" s="2">
         <v>45360.36458333334</v>
       </c>
       <c r="E139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12425,7 +12422,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J139">
         <v>2.9</v>
@@ -12493,16 +12490,16 @@
         <v>6818339</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D140" s="2">
         <v>45360.46875</v>
       </c>
       <c r="E140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12511,7 +12508,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J140">
         <v>2.15</v>
@@ -12579,16 +12576,16 @@
         <v>6818335</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D141" s="2">
         <v>45361.375</v>
       </c>
       <c r="E141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12597,7 +12594,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12665,16 +12662,16 @@
         <v>6818338</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D142" s="2">
         <v>45361.47916666666</v>
       </c>
       <c r="E142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12683,7 +12680,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J142">
         <v>5.25</v>
@@ -12751,16 +12748,16 @@
         <v>6818334</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D143" s="2">
         <v>45361.66666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12769,7 +12766,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J143">
         <v>2.2</v>
@@ -12837,16 +12834,16 @@
         <v>6818341</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D144" s="2">
         <v>45367.375</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12855,7 +12852,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J144">
         <v>1.833</v>
@@ -12923,16 +12920,16 @@
         <v>6818342</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D145" s="2">
         <v>45367.47916666666</v>
       </c>
       <c r="E145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F145" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12941,7 +12938,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J145">
         <v>2.5</v>
@@ -13009,16 +13006,16 @@
         <v>6818345</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D146" s="2">
         <v>45367.57291666666</v>
       </c>
       <c r="E146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13027,7 +13024,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J146">
         <v>1.909</v>
@@ -13095,16 +13092,16 @@
         <v>6818343</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D147" s="2">
         <v>45368.35416666666</v>
       </c>
       <c r="E147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G147">
         <v>5</v>
@@ -13113,7 +13110,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J147">
         <v>1.727</v>
@@ -13181,16 +13178,16 @@
         <v>6818340</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D148" s="2">
         <v>45368.44791666666</v>
       </c>
       <c r="E148" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13199,7 +13196,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J148">
         <v>1.5</v>
@@ -13267,16 +13264,16 @@
         <v>6818344</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D149" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13285,7 +13282,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J149">
         <v>1.727</v>
@@ -13353,16 +13350,16 @@
         <v>6818351</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D150" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13371,7 +13368,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J150">
         <v>2.45</v>
@@ -13439,16 +13436,16 @@
         <v>6818347</v>
       </c>
       <c r="C151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D151" s="2">
         <v>45381.4375</v>
       </c>
       <c r="E151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13457,7 +13454,7 @@
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J151">
         <v>2.75</v>
@@ -13525,16 +13522,16 @@
         <v>6818346</v>
       </c>
       <c r="C152" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D152" s="2">
         <v>45381.54166666666</v>
       </c>
       <c r="E152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13543,7 +13540,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J152">
         <v>2.3</v>
@@ -13611,16 +13608,16 @@
         <v>6818348</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D153" s="2">
         <v>45381.64583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G153">
         <v>5</v>
@@ -13629,7 +13626,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J153">
         <v>2.45</v>
@@ -13697,16 +13694,16 @@
         <v>6818349</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D154" s="2">
         <v>45382.4375</v>
       </c>
       <c r="E154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13715,7 +13712,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J154">
         <v>1.666</v>
@@ -13783,16 +13780,16 @@
         <v>6818350</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D155" s="2">
         <v>45382.54166666666</v>
       </c>
       <c r="E155" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13801,7 +13798,7 @@
         <v>3</v>
       </c>
       <c r="I155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J155">
         <v>7.5</v>
@@ -13869,16 +13866,16 @@
         <v>6818353</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D156" s="2">
         <v>45387.625</v>
       </c>
       <c r="E156" t="s">
+        <v>35</v>
+      </c>
+      <c r="F156" t="s">
         <v>36</v>
-      </c>
-      <c r="F156" t="s">
-        <v>37</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13887,7 +13884,7 @@
         <v>5</v>
       </c>
       <c r="I156" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J156">
         <v>1.909</v>
@@ -13955,16 +13952,16 @@
         <v>6818356</v>
       </c>
       <c r="C157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D157" s="2">
         <v>45388.38541666666</v>
       </c>
       <c r="E157" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G157">
         <v>5</v>
@@ -13973,7 +13970,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J157">
         <v>1.571</v>
@@ -14041,16 +14038,16 @@
         <v>6818354</v>
       </c>
       <c r="C158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D158" s="2">
         <v>45388.47916666666</v>
       </c>
       <c r="E158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14059,7 +14056,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J158">
         <v>1.727</v>
@@ -14127,16 +14124,16 @@
         <v>6818355</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D159" s="2">
         <v>45388.60416666666</v>
       </c>
       <c r="E159" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14145,7 +14142,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J159">
         <v>2</v>
@@ -14213,16 +14210,16 @@
         <v>6818352</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D160" s="2">
         <v>45389.40625</v>
       </c>
       <c r="E160" t="s">
+        <v>42</v>
+      </c>
+      <c r="F160" t="s">
         <v>43</v>
-      </c>
-      <c r="F160" t="s">
-        <v>44</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14231,7 +14228,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J160">
         <v>1.444</v>
@@ -14299,16 +14296,16 @@
         <v>6818357</v>
       </c>
       <c r="C161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D161" s="2">
         <v>45389.52083333334</v>
       </c>
       <c r="E161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14317,7 +14314,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J161">
         <v>2.4</v>
@@ -14385,16 +14382,16 @@
         <v>8074943</v>
       </c>
       <c r="C162" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D162" s="2">
         <v>45391.53819444445</v>
       </c>
       <c r="E162" t="s">
+        <v>45</v>
+      </c>
+      <c r="F162" t="s">
         <v>46</v>
-      </c>
-      <c r="F162" t="s">
-        <v>47</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14403,7 +14400,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J162">
         <v>8.5</v>
@@ -14471,16 +14468,16 @@
         <v>7939469</v>
       </c>
       <c r="C163" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D163" s="2">
         <v>45392.54166666666</v>
       </c>
       <c r="E163" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14489,7 +14486,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J163">
         <v>1.3</v>
@@ -14557,16 +14554,16 @@
         <v>6818359</v>
       </c>
       <c r="C164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D164" s="2">
         <v>45395.39583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G164">
         <v>4</v>
@@ -14575,7 +14572,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J164">
         <v>2.6</v>
@@ -14643,16 +14640,16 @@
         <v>6818358</v>
       </c>
       <c r="C165" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D165" s="2">
         <v>45395.5</v>
       </c>
       <c r="E165" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F165" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14661,7 +14658,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J165">
         <v>1.666</v>
@@ -14729,16 +14726,16 @@
         <v>6818360</v>
       </c>
       <c r="C166" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D166" s="2">
         <v>45395.60416666666</v>
       </c>
       <c r="E166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14747,7 +14744,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J166">
         <v>1.666</v>
@@ -14815,16 +14812,16 @@
         <v>6820520</v>
       </c>
       <c r="C167" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D167" s="2">
         <v>45396.375</v>
       </c>
       <c r="E167" t="s">
+        <v>33</v>
+      </c>
+      <c r="F167" t="s">
         <v>34</v>
-      </c>
-      <c r="F167" t="s">
-        <v>35</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14833,7 +14830,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J167">
         <v>1.727</v>
@@ -14901,16 +14898,16 @@
         <v>6860904</v>
       </c>
       <c r="C168" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D168" s="2">
         <v>45396.47916666666</v>
       </c>
       <c r="E168" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F168" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14919,7 +14916,7 @@
         <v>3</v>
       </c>
       <c r="I168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J168">
         <v>5.5</v>
@@ -14987,16 +14984,16 @@
         <v>6818361</v>
       </c>
       <c r="C169" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D169" s="2">
         <v>45396.57291666666</v>
       </c>
       <c r="E169" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F169" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -15005,7 +15002,7 @@
         <v>4</v>
       </c>
       <c r="I169" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J169">
         <v>5.5</v>
@@ -15073,16 +15070,16 @@
         <v>6818365</v>
       </c>
       <c r="C170" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D170" s="2">
         <v>45402.39583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G170">
         <v>5</v>
@@ -15091,7 +15088,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J170">
         <v>2</v>
@@ -15159,16 +15156,16 @@
         <v>6818362</v>
       </c>
       <c r="C171" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D171" s="2">
         <v>45402.5</v>
       </c>
       <c r="E171" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15177,7 +15174,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J171">
         <v>1.25</v>
@@ -15245,16 +15242,16 @@
         <v>6818364</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D172" s="2">
         <v>45402.60416666666</v>
       </c>
       <c r="E172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G172">
         <v>5</v>
@@ -15263,7 +15260,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J172">
         <v>2.5</v>
@@ -15331,16 +15328,16 @@
         <v>6818367</v>
       </c>
       <c r="C173" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D173" s="2">
         <v>45403.37847222222</v>
       </c>
       <c r="E173" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15349,7 +15346,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J173">
         <v>1.727</v>
@@ -15417,16 +15414,16 @@
         <v>6818366</v>
       </c>
       <c r="C174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D174" s="2">
         <v>45403.45833333334</v>
       </c>
       <c r="E174" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15435,7 +15432,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J174">
         <v>1.909</v>
@@ -15503,16 +15500,16 @@
         <v>6818363</v>
       </c>
       <c r="C175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D175" s="2">
         <v>45403.5625</v>
       </c>
       <c r="E175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15521,7 +15518,7 @@
         <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J175">
         <v>2</v>
@@ -15589,52 +15586,52 @@
         <v>27</v>
       </c>
       <c r="C176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D176" s="2">
-        <v>45408.625</v>
+        <v>45409.39583333334</v>
       </c>
       <c r="E176" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F176" t="s">
         <v>39</v>
       </c>
       <c r="J176">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="K176">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L176">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="M176">
-        <v>3.8</v>
+        <v>1.333</v>
       </c>
       <c r="N176">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="O176">
+        <v>8</v>
+      </c>
+      <c r="P176">
+        <v>-1.5</v>
+      </c>
+      <c r="Q176">
+        <v>1.95</v>
+      </c>
+      <c r="R176">
+        <v>1.9</v>
+      </c>
+      <c r="S176">
+        <v>3</v>
+      </c>
+      <c r="T176">
         <v>1.85</v>
       </c>
-      <c r="P176">
-        <v>0.5</v>
-      </c>
-      <c r="Q176">
-        <v>1.975</v>
-      </c>
-      <c r="R176">
-        <v>1.875</v>
-      </c>
-      <c r="S176">
-        <v>2.5</v>
-      </c>
-      <c r="T176">
-        <v>1.875</v>
-      </c>
       <c r="U176">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V176">
         <v>0</v>
@@ -15654,52 +15651,52 @@
         <v>28</v>
       </c>
       <c r="C177" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D177" s="2">
-        <v>45409.39583333334</v>
+        <v>45409.5</v>
       </c>
       <c r="E177" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J177">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="K177">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L177">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M177">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="N177">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="O177">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="P177">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q177">
+        <v>1.975</v>
+      </c>
+      <c r="R177">
+        <v>1.875</v>
+      </c>
+      <c r="S177">
+        <v>2.5</v>
+      </c>
+      <c r="T177">
+        <v>2</v>
+      </c>
+      <c r="U177">
         <v>1.85</v>
-      </c>
-      <c r="R177">
-        <v>2</v>
-      </c>
-      <c r="S177">
-        <v>3.25</v>
-      </c>
-      <c r="T177">
-        <v>2.05</v>
-      </c>
-      <c r="U177">
-        <v>1.8</v>
       </c>
       <c r="V177">
         <v>0</v>
@@ -15719,52 +15716,52 @@
         <v>29</v>
       </c>
       <c r="C178" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D178" s="2">
-        <v>45409.5</v>
+        <v>45409.60416666666</v>
       </c>
       <c r="E178" t="s">
+        <v>37</v>
+      </c>
+      <c r="F178" t="s">
         <v>35</v>
       </c>
-      <c r="F178" t="s">
-        <v>42</v>
-      </c>
       <c r="J178">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="K178">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L178">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M178">
         <v>1.909</v>
       </c>
       <c r="N178">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O178">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P178">
         <v>-0.5</v>
       </c>
       <c r="Q178">
+        <v>1.95</v>
+      </c>
+      <c r="R178">
+        <v>1.9</v>
+      </c>
+      <c r="S178">
+        <v>2.75</v>
+      </c>
+      <c r="T178">
         <v>1.975</v>
       </c>
-      <c r="R178">
+      <c r="U178">
         <v>1.875</v>
-      </c>
-      <c r="S178">
-        <v>2.25</v>
-      </c>
-      <c r="T178">
-        <v>1.9</v>
-      </c>
-      <c r="U178">
-        <v>1.95</v>
       </c>
       <c r="V178">
         <v>0</v>
@@ -15784,52 +15781,52 @@
         <v>30</v>
       </c>
       <c r="C179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D179" s="2">
-        <v>45409.60416666666</v>
+        <v>45410.42708333334</v>
       </c>
       <c r="E179" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J179">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="K179">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M179">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="N179">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="O179">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="P179">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q179">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R179">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S179">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T179">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U179">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V179">
         <v>0</v>
@@ -15849,46 +15846,46 @@
         <v>31</v>
       </c>
       <c r="C180" t="s">
+        <v>32</v>
+      </c>
+      <c r="D180" s="2">
+        <v>45410.53125</v>
+      </c>
+      <c r="E180" t="s">
         <v>33</v>
       </c>
-      <c r="D180" s="2">
-        <v>45410.42708333334</v>
-      </c>
-      <c r="E180" t="s">
-        <v>45</v>
-      </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J180">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="K180">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L180">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="M180">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="N180">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="O180">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="P180">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q180">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="R180">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S180">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T180">
         <v>1.925</v>
@@ -15903,71 +15900,6 @@
         <v>0</v>
       </c>
       <c r="X180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:24">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
-      <c r="B181" t="s">
-        <v>32</v>
-      </c>
-      <c r="C181" t="s">
-        <v>33</v>
-      </c>
-      <c r="D181" s="2">
-        <v>45410.53125</v>
-      </c>
-      <c r="E181" t="s">
-        <v>34</v>
-      </c>
-      <c r="F181" t="s">
-        <v>43</v>
-      </c>
-      <c r="J181">
-        <v>4.333</v>
-      </c>
-      <c r="K181">
-        <v>3.75</v>
-      </c>
-      <c r="L181">
-        <v>1.666</v>
-      </c>
-      <c r="M181">
-        <v>5.75</v>
-      </c>
-      <c r="N181">
-        <v>4.2</v>
-      </c>
-      <c r="O181">
-        <v>1.5</v>
-      </c>
-      <c r="P181">
-        <v>1</v>
-      </c>
-      <c r="Q181">
-        <v>2.05</v>
-      </c>
-      <c r="R181">
-        <v>1.8</v>
-      </c>
-      <c r="S181">
-        <v>3</v>
-      </c>
-      <c r="T181">
-        <v>1.925</v>
-      </c>
-      <c r="U181">
-        <v>1.925</v>
-      </c>
-      <c r="V181">
-        <v>0</v>
-      </c>
-      <c r="W181">
-        <v>0</v>
-      </c>
-      <c r="X181">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB180"/>
+  <dimension ref="A1:AB181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15582,41 +15582,50 @@
       <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="s">
-        <v>27</v>
+      <c r="B176">
+        <v>6943666</v>
       </c>
       <c r="C176" t="s">
         <v>32</v>
       </c>
       <c r="D176" s="2">
-        <v>45409.39583333334</v>
+        <v>45408.625</v>
       </c>
       <c r="E176" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176" t="s">
+        <v>49</v>
       </c>
       <c r="J176">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="K176">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L176">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="M176">
-        <v>1.333</v>
+        <v>3.75</v>
       </c>
       <c r="N176">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="O176">
-        <v>8</v>
+        <v>1.85</v>
       </c>
       <c r="P176">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q176">
         <v>1.95</v>
@@ -15625,22 +15634,34 @@
         <v>1.9</v>
       </c>
       <c r="S176">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T176">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U176">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V176">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="W176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X176">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y176">
+        <v>0.95</v>
+      </c>
+      <c r="Z176">
+        <v>-1</v>
+      </c>
+      <c r="AA176">
+        <v>-1</v>
+      </c>
+      <c r="AB176">
+        <v>0.95</v>
       </c>
     </row>
     <row r="177" spans="1:24">
@@ -15648,40 +15669,40 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C177" t="s">
         <v>32</v>
       </c>
       <c r="D177" s="2">
-        <v>45409.5</v>
+        <v>45409.39583333334</v>
       </c>
       <c r="E177" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J177">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="K177">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="L177">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M177">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N177">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="O177">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="P177">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q177">
         <v>1.975</v>
@@ -15690,13 +15711,13 @@
         <v>1.875</v>
       </c>
       <c r="S177">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T177">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V177">
         <v>0</v>
@@ -15713,55 +15734,55 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C178" t="s">
         <v>32</v>
       </c>
       <c r="D178" s="2">
-        <v>45409.60416666666</v>
+        <v>45409.5</v>
       </c>
       <c r="E178" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J178">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="K178">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M178">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="N178">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O178">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P178">
         <v>-0.5</v>
       </c>
       <c r="Q178">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R178">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S178">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T178">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U178">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V178">
         <v>0</v>
@@ -15778,55 +15799,55 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C179" t="s">
         <v>32</v>
       </c>
       <c r="D179" s="2">
-        <v>45410.42708333334</v>
+        <v>45409.60416666666</v>
       </c>
       <c r="E179" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J179">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="K179">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L179">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="M179">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="N179">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O179">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="P179">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q179">
+        <v>2.025</v>
+      </c>
+      <c r="R179">
         <v>1.825</v>
       </c>
-      <c r="R179">
-        <v>2.025</v>
-      </c>
       <c r="S179">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T179">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U179">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
         <v>0</v>
@@ -15843,49 +15864,49 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C180" t="s">
         <v>32</v>
       </c>
       <c r="D180" s="2">
-        <v>45410.53125</v>
+        <v>45410.42708333334</v>
       </c>
       <c r="E180" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F180" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J180">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="K180">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L180">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="M180">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="N180">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="O180">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="P180">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q180">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R180">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S180">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T180">
         <v>1.925</v>
@@ -15900,6 +15921,71 @@
         <v>0</v>
       </c>
       <c r="X180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>31</v>
+      </c>
+      <c r="C181" t="s">
+        <v>32</v>
+      </c>
+      <c r="D181" s="2">
+        <v>45410.53125</v>
+      </c>
+      <c r="E181" t="s">
+        <v>33</v>
+      </c>
+      <c r="F181" t="s">
+        <v>42</v>
+      </c>
+      <c r="J181">
+        <v>4.333</v>
+      </c>
+      <c r="K181">
+        <v>3.75</v>
+      </c>
+      <c r="L181">
+        <v>1.666</v>
+      </c>
+      <c r="M181">
+        <v>5.75</v>
+      </c>
+      <c r="N181">
+        <v>4.2</v>
+      </c>
+      <c r="O181">
+        <v>1.5</v>
+      </c>
+      <c r="P181">
+        <v>1</v>
+      </c>
+      <c r="Q181">
+        <v>2.025</v>
+      </c>
+      <c r="R181">
+        <v>1.825</v>
+      </c>
+      <c r="S181">
+        <v>3</v>
+      </c>
+      <c r="T181">
+        <v>1.975</v>
+      </c>
+      <c r="U181">
+        <v>1.875</v>
+      </c>
+      <c r="V181">
+        <v>0</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>6818371</t>
   </si>
   <si>
     <t>6818368</t>
@@ -525,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB181"/>
+  <dimension ref="A1:AB180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,16 +619,16 @@
         <v>6863238</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2">
         <v>45135.625</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -640,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2">
         <v>2.625</v>
@@ -708,16 +705,16 @@
         <v>6863236</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>45136.54166666666</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -726,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3">
         <v>3.2</v>
@@ -794,16 +791,16 @@
         <v>6863235</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2">
         <v>45136.63541666666</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -812,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J4">
         <v>2.375</v>
@@ -880,16 +877,16 @@
         <v>6818267</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <v>45137.625</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -898,7 +895,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5">
         <v>2.9</v>
@@ -966,16 +963,16 @@
         <v>6863237</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>45138.625</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -984,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6">
         <v>1.833</v>
@@ -1052,16 +1049,16 @@
         <v>6818205</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>45142.625</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1070,7 +1067,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7">
         <v>2.05</v>
@@ -1138,16 +1135,16 @@
         <v>6818204</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>45143.53125</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1156,7 +1153,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8">
         <v>1.666</v>
@@ -1224,16 +1221,16 @@
         <v>6818206</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2">
         <v>45144.53125</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1242,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9">
         <v>3.5</v>
@@ -1310,16 +1307,16 @@
         <v>6818202</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>45144.625</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1328,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10">
         <v>2.05</v>
@@ -1396,16 +1393,16 @@
         <v>6818207</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>45145.625</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1414,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11">
         <v>2.2</v>
@@ -1482,16 +1479,16 @@
         <v>6818212</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>45149.625</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1500,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J12">
         <v>2.7</v>
@@ -1568,16 +1565,16 @@
         <v>6818209</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>45150.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1586,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J13">
         <v>1.727</v>
@@ -1654,16 +1651,16 @@
         <v>6818210</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>45150.63541666666</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1672,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J14">
         <v>2.55</v>
@@ -1740,16 +1737,16 @@
         <v>6818211</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
         <v>45151.47916666666</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1758,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J15">
         <v>1.85</v>
@@ -1826,16 +1823,16 @@
         <v>6818208</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>45151.57291666666</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1844,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J16">
         <v>1.5</v>
@@ -1912,16 +1909,16 @@
         <v>6818213</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2">
         <v>45151.66666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1930,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J17">
         <v>2.05</v>
@@ -1998,16 +1995,16 @@
         <v>6818219</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2016,7 +2013,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J18">
         <v>1.85</v>
@@ -2084,16 +2081,16 @@
         <v>6818216</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2">
         <v>45156.63541666666</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2102,7 +2099,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J19">
         <v>2.15</v>
@@ -2170,16 +2167,16 @@
         <v>6818214</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2">
         <v>45157.53125</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2188,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -2256,16 +2253,16 @@
         <v>6818217</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2">
         <v>45157.625</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2274,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J21">
         <v>2.25</v>
@@ -2342,16 +2339,16 @@
         <v>6818215</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2">
         <v>45159.63541666666</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -2360,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J22">
         <v>2.7</v>
@@ -2428,16 +2425,16 @@
         <v>6818225</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2">
         <v>45164.4375</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -2446,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J23">
         <v>2.4</v>
@@ -2514,16 +2511,16 @@
         <v>6818222</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2">
         <v>45164.53125</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2532,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J24">
         <v>2.3</v>
@@ -2600,16 +2597,16 @@
         <v>6818221</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2">
         <v>45164.625</v>
       </c>
       <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
         <v>35</v>
-      </c>
-      <c r="F25" t="s">
-        <v>36</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2618,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -2686,16 +2683,16 @@
         <v>6818223</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2">
         <v>45165.4375</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2704,7 +2701,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J26">
         <v>1.75</v>
@@ -2772,16 +2769,16 @@
         <v>6818220</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
         <v>42</v>
-      </c>
-      <c r="F27" t="s">
-        <v>43</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -2790,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J27">
         <v>1.4</v>
@@ -2858,16 +2855,16 @@
         <v>6818224</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2">
         <v>45165.60416666666</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2876,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J28">
         <v>1.95</v>
@@ -2944,16 +2941,16 @@
         <v>6818227</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2">
         <v>45171.42708333334</v>
       </c>
       <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
         <v>33</v>
-      </c>
-      <c r="F29" t="s">
-        <v>34</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2962,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J29">
         <v>2.3</v>
@@ -3030,16 +3027,16 @@
         <v>6818230</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2">
         <v>45171.60416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3048,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3116,16 +3113,16 @@
         <v>6818231</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2">
         <v>45172.38541666666</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3134,7 +3131,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J31">
         <v>2.9</v>
@@ -3202,16 +3199,16 @@
         <v>6818229</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
         <v>45172.51041666666</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3220,7 +3217,7 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J32">
         <v>5.25</v>
@@ -3288,16 +3285,16 @@
         <v>6818226</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2">
         <v>45172.60416666666</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3306,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J33">
         <v>2.25</v>
@@ -3374,16 +3371,16 @@
         <v>7197411</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="2">
         <v>45191.625</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3392,7 +3389,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J34">
         <v>1.8</v>
@@ -3460,16 +3457,16 @@
         <v>7197409</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" s="2">
         <v>45192.39583333334</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3478,7 +3475,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J35">
         <v>1.9</v>
@@ -3546,16 +3543,16 @@
         <v>6818234</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2">
         <v>45192.5</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3564,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3632,16 +3629,16 @@
         <v>7197408</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2">
         <v>45192.60416666666</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3650,7 +3647,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J37">
         <v>2.2</v>
@@ -3718,16 +3715,16 @@
         <v>7197410</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3736,7 +3733,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J38">
         <v>2.2</v>
@@ -3804,16 +3801,16 @@
         <v>7197407</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3822,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J39">
         <v>1.363</v>
@@ -3890,16 +3887,16 @@
         <v>7020194</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D40" s="2">
         <v>45196.53125</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3908,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J40">
         <v>2.1</v>
@@ -3976,16 +3973,16 @@
         <v>6863234</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D41" s="2">
         <v>45196.625</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3994,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4062,16 +4059,16 @@
         <v>6818242</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D42" s="2">
         <v>45198.625</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4080,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J42">
         <v>3</v>
@@ -4148,16 +4145,16 @@
         <v>6818243</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D43" s="2">
         <v>45199.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4166,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J43">
         <v>1.615</v>
@@ -4234,16 +4231,16 @@
         <v>6818240</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2">
         <v>45199.5</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4252,7 +4249,7 @@
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J44">
         <v>4.75</v>
@@ -4320,16 +4317,16 @@
         <v>6818239</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D45" s="2">
         <v>45199.60416666666</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4338,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J45">
         <v>1.8</v>
@@ -4406,16 +4403,16 @@
         <v>6818241</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D46" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4424,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J46">
         <v>2.6</v>
@@ -4492,16 +4489,16 @@
         <v>6818238</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4510,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J47">
         <v>2.25</v>
@@ -4578,16 +4575,16 @@
         <v>6818247</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D48" s="2">
         <v>45205.64583333334</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4596,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J48">
         <v>1.8</v>
@@ -4664,16 +4661,16 @@
         <v>6818246</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D49" s="2">
         <v>45206.32291666666</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4682,7 +4679,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J49">
         <v>2.25</v>
@@ -4750,16 +4747,16 @@
         <v>6818245</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D50" s="2">
         <v>45206.46875</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4768,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J50">
         <v>2.4</v>
@@ -4836,16 +4833,16 @@
         <v>6818249</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D51" s="2">
         <v>45206.64583333334</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4854,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J51">
         <v>2.4</v>
@@ -4922,16 +4919,16 @@
         <v>6818248</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D52" s="2">
         <v>45207.33333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4940,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J52">
         <v>2.5</v>
@@ -5008,16 +5005,16 @@
         <v>6818244</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D53" s="2">
         <v>45207.47916666666</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5026,7 +5023,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J53">
         <v>1.8</v>
@@ -5094,16 +5091,16 @@
         <v>6818254</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D54" s="2">
         <v>45220.3125</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5112,7 +5109,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J54">
         <v>2.1</v>
@@ -5180,16 +5177,16 @@
         <v>6818255</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D55" s="2">
         <v>45220.40625</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5198,7 +5195,7 @@
         <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J55">
         <v>2.5</v>
@@ -5266,16 +5263,16 @@
         <v>6818250</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D56" s="2">
         <v>45220.5</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G56">
         <v>5</v>
@@ -5284,7 +5281,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J56">
         <v>1.909</v>
@@ -5352,16 +5349,16 @@
         <v>6818253</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D57" s="2">
         <v>45221.34375</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5370,7 +5367,7 @@
         <v>5</v>
       </c>
       <c r="I57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J57">
         <v>2.5</v>
@@ -5438,16 +5435,16 @@
         <v>6818252</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D58" s="2">
         <v>45221.4375</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5456,7 +5453,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J58">
         <v>1.909</v>
@@ -5524,16 +5521,16 @@
         <v>6818251</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D59" s="2">
         <v>45221.53125</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5542,7 +5539,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J59">
         <v>7.5</v>
@@ -5610,16 +5607,16 @@
         <v>6818261</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D60" s="2">
         <v>45227.3125</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -5628,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J60">
         <v>1.666</v>
@@ -5696,16 +5693,16 @@
         <v>6818260</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D61" s="2">
         <v>45227.40625</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G61">
         <v>4</v>
@@ -5714,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J61">
         <v>2.5</v>
@@ -5782,16 +5779,16 @@
         <v>6818259</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D62" s="2">
         <v>45227.5</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5800,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J62">
         <v>2.35</v>
@@ -5868,16 +5865,16 @@
         <v>6818258</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D63" s="2">
         <v>45228.38541666666</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5886,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J63">
         <v>2.7</v>
@@ -5954,16 +5951,16 @@
         <v>6818257</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D64" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E64" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64" t="s">
         <v>43</v>
-      </c>
-      <c r="F64" t="s">
-        <v>44</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -5972,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J64">
         <v>1.571</v>
@@ -6040,16 +6037,16 @@
         <v>6818256</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D65" s="2">
         <v>45228.58333333334</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6058,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J65">
         <v>1.25</v>
@@ -6126,16 +6123,16 @@
         <v>6818265</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D66" s="2">
         <v>45234.35416666666</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6144,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J66">
         <v>3.3</v>
@@ -6212,16 +6209,16 @@
         <v>6818264</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D67" s="2">
         <v>45234.48958333334</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6230,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J67">
         <v>1.8</v>
@@ -6298,16 +6295,16 @@
         <v>6818263</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D68" s="2">
         <v>45234.58333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6316,7 +6313,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J68">
         <v>2.4</v>
@@ -6384,16 +6381,16 @@
         <v>6999361</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D69" s="2">
         <v>45235.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6402,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J69">
         <v>1.909</v>
@@ -6470,16 +6467,16 @@
         <v>6818262</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D70" s="2">
         <v>45235.44791666666</v>
       </c>
       <c r="E70" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" t="s">
         <v>41</v>
-      </c>
-      <c r="F70" t="s">
-        <v>42</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6488,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J70">
         <v>5.75</v>
@@ -6556,16 +6553,16 @@
         <v>6818266</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D71" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6574,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J71">
         <v>1.75</v>
@@ -6642,16 +6639,16 @@
         <v>6818268</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D72" s="2">
         <v>45240.66666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6660,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J72">
         <v>2.2</v>
@@ -6728,16 +6725,16 @@
         <v>6818270</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D73" s="2">
         <v>45241.42708333334</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6746,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J73">
         <v>1.727</v>
@@ -6814,16 +6811,16 @@
         <v>6818271</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D74" s="2">
         <v>45241.64583333334</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6832,7 +6829,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J74">
         <v>2.375</v>
@@ -6900,16 +6897,16 @@
         <v>6818273</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D75" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6918,7 +6915,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J75">
         <v>2.2</v>
@@ -6986,16 +6983,16 @@
         <v>6818272</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D76" s="2">
         <v>45242.5</v>
       </c>
       <c r="E76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7004,7 +7001,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J76">
         <v>1.333</v>
@@ -7072,16 +7069,16 @@
         <v>6818269</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D77" s="2">
         <v>45242.60416666666</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7090,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J77">
         <v>2.25</v>
@@ -7158,16 +7155,16 @@
         <v>7448992</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D78" s="2">
         <v>45254.66666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G78">
         <v>4</v>
@@ -7176,7 +7173,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J78">
         <v>1.85</v>
@@ -7244,16 +7241,16 @@
         <v>7448994</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D79" s="2">
         <v>45255.44791666666</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7262,7 +7259,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7330,16 +7327,16 @@
         <v>7448993</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D80" s="2">
         <v>45255.54166666666</v>
       </c>
       <c r="E80" t="s">
+        <v>35</v>
+      </c>
+      <c r="F80" t="s">
         <v>36</v>
-      </c>
-      <c r="F80" t="s">
-        <v>37</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7348,7 +7345,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7416,16 +7413,16 @@
         <v>7448991</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D81" s="2">
         <v>45255.64583333334</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G81">
         <v>4</v>
@@ -7434,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J81">
         <v>3.1</v>
@@ -7502,16 +7499,16 @@
         <v>7448990</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D82" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7520,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J82">
         <v>3.75</v>
@@ -7588,16 +7585,16 @@
         <v>6818277</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D83" s="2">
         <v>45256.64583333334</v>
       </c>
       <c r="E83" t="s">
+        <v>39</v>
+      </c>
+      <c r="F83" t="s">
         <v>40</v>
-      </c>
-      <c r="F83" t="s">
-        <v>41</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7606,7 +7603,7 @@
         <v>3</v>
       </c>
       <c r="I83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J83">
         <v>2.3</v>
@@ -7674,16 +7671,16 @@
         <v>7473670</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D84" s="2">
         <v>45262.375</v>
       </c>
       <c r="E84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7692,7 +7689,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J84">
         <v>2.3</v>
@@ -7760,16 +7757,16 @@
         <v>7473671</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D85" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -7778,7 +7775,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J85">
         <v>2.3</v>
@@ -7846,16 +7843,16 @@
         <v>6818281</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D86" s="2">
         <v>45262.64583333334</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7864,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J86">
         <v>2.875</v>
@@ -7932,16 +7929,16 @@
         <v>7473672</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D87" s="2">
         <v>45263.36458333334</v>
       </c>
       <c r="E87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7950,7 +7947,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J87">
         <v>2.6</v>
@@ -8018,16 +8015,16 @@
         <v>7473673</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D88" s="2">
         <v>45263.46875</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8036,7 +8033,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J88">
         <v>1.833</v>
@@ -8104,16 +8101,16 @@
         <v>7473674</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D89" s="2">
         <v>45263.57291666666</v>
       </c>
       <c r="E89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8122,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J89">
         <v>1.285</v>
@@ -8190,16 +8187,16 @@
         <v>7088570</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D90" s="2">
         <v>45266.64583333334</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8208,7 +8205,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J90">
         <v>6.5</v>
@@ -8276,16 +8273,16 @@
         <v>6818291</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D91" s="2">
         <v>45268.66666666666</v>
       </c>
       <c r="E91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8294,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J91">
         <v>1.8</v>
@@ -8362,16 +8359,16 @@
         <v>6818289</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D92" s="2">
         <v>45269.38541666666</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8380,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J92">
         <v>3.2</v>
@@ -8448,16 +8445,16 @@
         <v>6818287</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D93" s="2">
         <v>45269.48958333334</v>
       </c>
       <c r="E93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8466,7 +8463,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J93">
         <v>2.45</v>
@@ -8534,16 +8531,16 @@
         <v>6818288</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D94" s="2">
         <v>45270.375</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8552,7 +8549,7 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8620,16 +8617,16 @@
         <v>6818290</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D95" s="2">
         <v>45270.47916666666</v>
       </c>
       <c r="E95" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" t="s">
         <v>39</v>
-      </c>
-      <c r="F95" t="s">
-        <v>40</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8638,7 +8635,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J95">
         <v>3.6</v>
@@ -8706,16 +8703,16 @@
         <v>6818286</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D96" s="2">
         <v>45270.58333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8724,7 +8721,7 @@
         <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J96">
         <v>3.2</v>
@@ -8792,16 +8789,16 @@
         <v>6818296</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D97" s="2">
         <v>45276.35416666666</v>
       </c>
       <c r="E97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8810,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J97">
         <v>2.1</v>
@@ -8878,16 +8875,16 @@
         <v>6818294</v>
       </c>
       <c r="C98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D98" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8896,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J98">
         <v>2.25</v>
@@ -8964,16 +8961,16 @@
         <v>6818293</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D99" s="2">
         <v>45276.5625</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8982,7 +8979,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J99">
         <v>2</v>
@@ -9050,16 +9047,16 @@
         <v>6818292</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D100" s="2">
         <v>45277.39583333334</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9068,7 +9065,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J100">
         <v>2.375</v>
@@ -9136,16 +9133,16 @@
         <v>6818295</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D101" s="2">
         <v>45277.5</v>
       </c>
       <c r="E101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9154,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J101">
         <v>1.2</v>
@@ -9222,16 +9219,16 @@
         <v>6818297</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D102" s="2">
         <v>45277.58333333334</v>
       </c>
       <c r="E102" t="s">
+        <v>37</v>
+      </c>
+      <c r="F102" t="s">
         <v>38</v>
-      </c>
-      <c r="F102" t="s">
-        <v>39</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9240,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J102">
         <v>1.727</v>
@@ -9308,16 +9305,16 @@
         <v>7646444</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D103" s="2">
         <v>45324.66666666666</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9326,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J103">
         <v>2.3</v>
@@ -9394,16 +9391,16 @@
         <v>7646447</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D104" s="2">
         <v>45325.35416666666</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -9412,7 +9409,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J104">
         <v>3.2</v>
@@ -9480,16 +9477,16 @@
         <v>7646443</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D105" s="2">
         <v>45325.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9498,7 +9495,7 @@
         <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J105">
         <v>7</v>
@@ -9566,16 +9563,16 @@
         <v>7646445</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D106" s="2">
         <v>45325.5625</v>
       </c>
       <c r="E106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9584,7 +9581,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J106">
         <v>1.8</v>
@@ -9652,16 +9649,16 @@
         <v>7646448</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D107" s="2">
         <v>45326.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9670,7 +9667,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9738,16 +9735,16 @@
         <v>7646446</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D108" s="2">
         <v>45326.5625</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9756,7 +9753,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J108">
         <v>2.1</v>
@@ -9824,16 +9821,16 @@
         <v>6818305</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D109" s="2">
         <v>45328.57291666666</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9842,7 +9839,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J109">
         <v>2.8</v>
@@ -9910,16 +9907,16 @@
         <v>6818306</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D110" s="2">
         <v>45328.66666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G110">
         <v>5</v>
@@ -9928,7 +9925,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J110">
         <v>1.333</v>
@@ -9996,16 +9993,16 @@
         <v>6818307</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D111" s="2">
         <v>45329.57291666666</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10014,7 +10011,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J111">
         <v>2.45</v>
@@ -10082,16 +10079,16 @@
         <v>6818308</v>
       </c>
       <c r="C112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D112" s="2">
         <v>45329.66666666666</v>
       </c>
       <c r="E112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10100,7 +10097,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J112">
         <v>1.5</v>
@@ -10168,16 +10165,16 @@
         <v>6818309</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D113" s="2">
         <v>45330.5</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10186,7 +10183,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J113">
         <v>3.75</v>
@@ -10254,16 +10251,16 @@
         <v>6818304</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D114" s="2">
         <v>45330.66666666666</v>
       </c>
       <c r="E114" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10272,7 +10269,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J114">
         <v>2.15</v>
@@ -10340,16 +10337,16 @@
         <v>6818313</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D115" s="2">
         <v>45332.35416666666</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10358,7 +10355,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J115">
         <v>2.75</v>
@@ -10426,16 +10423,16 @@
         <v>6818314</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D116" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10444,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J116">
         <v>1.909</v>
@@ -10512,16 +10509,16 @@
         <v>6818310</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D117" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10530,7 +10527,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J117">
         <v>3.9</v>
@@ -10598,16 +10595,16 @@
         <v>6818315</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D118" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10616,7 +10613,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J118">
         <v>1.55</v>
@@ -10684,16 +10681,16 @@
         <v>6818311</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D119" s="2">
         <v>45333.44791666666</v>
       </c>
       <c r="E119" t="s">
+        <v>33</v>
+      </c>
+      <c r="F119" t="s">
         <v>34</v>
-      </c>
-      <c r="F119" t="s">
-        <v>35</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10702,7 +10699,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J119">
         <v>1.7</v>
@@ -10770,16 +10767,16 @@
         <v>6818312</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D120" s="2">
         <v>45333.65625</v>
       </c>
       <c r="E120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10788,7 +10785,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J120">
         <v>2</v>
@@ -10856,16 +10853,16 @@
         <v>6818321</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D121" s="2">
         <v>45338.66666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10874,7 +10871,7 @@
         <v>4</v>
       </c>
       <c r="I121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J121">
         <v>1.55</v>
@@ -10942,16 +10939,16 @@
         <v>6818316</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D122" s="2">
         <v>45339.375</v>
       </c>
       <c r="E122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10960,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J122">
         <v>1.909</v>
@@ -11028,16 +11025,16 @@
         <v>6818320</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D123" s="2">
         <v>45339.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11046,7 +11043,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J123">
         <v>2.15</v>
@@ -11114,16 +11111,16 @@
         <v>6818318</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D124" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11132,7 +11129,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J124">
         <v>2.6</v>
@@ -11200,16 +11197,16 @@
         <v>6818319</v>
       </c>
       <c r="C125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D125" s="2">
         <v>45340.5625</v>
       </c>
       <c r="E125" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G125">
         <v>6</v>
@@ -11218,7 +11215,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J125">
         <v>1.65</v>
@@ -11286,16 +11283,16 @@
         <v>6818324</v>
       </c>
       <c r="C126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D126" s="2">
         <v>45345.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G126">
         <v>3</v>
@@ -11304,7 +11301,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J126">
         <v>1.8</v>
@@ -11372,16 +11369,16 @@
         <v>6818327</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D127" s="2">
         <v>45346.35416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11390,7 +11387,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J127">
         <v>2.4</v>
@@ -11458,16 +11455,16 @@
         <v>6818326</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D128" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11476,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J128">
         <v>2.25</v>
@@ -11544,16 +11541,16 @@
         <v>6818325</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D129" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E129" t="s">
+        <v>36</v>
+      </c>
+      <c r="F129" t="s">
         <v>37</v>
-      </c>
-      <c r="F129" t="s">
-        <v>38</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11562,7 +11559,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J129">
         <v>2.25</v>
@@ -11630,16 +11627,16 @@
         <v>6818323</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D130" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11648,7 +11645,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J130">
         <v>3.5</v>
@@ -11716,16 +11713,16 @@
         <v>6818322</v>
       </c>
       <c r="C131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D131" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11734,7 +11731,7 @@
         <v>5</v>
       </c>
       <c r="I131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J131">
         <v>5.2</v>
@@ -11802,16 +11799,16 @@
         <v>6818331</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D132" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E132" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11820,7 +11817,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J132">
         <v>1.5</v>
@@ -11888,16 +11885,16 @@
         <v>6818333</v>
       </c>
       <c r="C133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D133" s="2">
         <v>45353.4375</v>
       </c>
       <c r="E133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11906,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J133">
         <v>2.25</v>
@@ -11974,16 +11971,16 @@
         <v>6818330</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D134" s="2">
         <v>45353.61458333334</v>
       </c>
       <c r="E134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11992,7 +11989,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J134">
         <v>2.9</v>
@@ -12060,16 +12057,16 @@
         <v>6818332</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D135" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12078,7 +12075,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J135">
         <v>2.75</v>
@@ -12146,16 +12143,16 @@
         <v>6818328</v>
       </c>
       <c r="C136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D136" s="2">
         <v>45354.52083333334</v>
       </c>
       <c r="E136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12164,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J136">
         <v>1.25</v>
@@ -12232,16 +12229,16 @@
         <v>6818329</v>
       </c>
       <c r="C137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D137" s="2">
         <v>45354.625</v>
       </c>
       <c r="E137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12250,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J137">
         <v>2.3</v>
@@ -12318,16 +12315,16 @@
         <v>6818337</v>
       </c>
       <c r="C138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D138" s="2">
         <v>45359.66666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -12336,7 +12333,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J138">
         <v>1.727</v>
@@ -12404,16 +12401,16 @@
         <v>6818336</v>
       </c>
       <c r="C139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D139" s="2">
         <v>45360.36458333334</v>
       </c>
       <c r="E139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12422,7 +12419,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J139">
         <v>2.9</v>
@@ -12490,16 +12487,16 @@
         <v>6818339</v>
       </c>
       <c r="C140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D140" s="2">
         <v>45360.46875</v>
       </c>
       <c r="E140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12508,7 +12505,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J140">
         <v>2.15</v>
@@ -12576,16 +12573,16 @@
         <v>6818335</v>
       </c>
       <c r="C141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D141" s="2">
         <v>45361.375</v>
       </c>
       <c r="E141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12594,7 +12591,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12662,16 +12659,16 @@
         <v>6818338</v>
       </c>
       <c r="C142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D142" s="2">
         <v>45361.47916666666</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12680,7 +12677,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J142">
         <v>5.25</v>
@@ -12748,16 +12745,16 @@
         <v>6818334</v>
       </c>
       <c r="C143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D143" s="2">
         <v>45361.66666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12766,7 +12763,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J143">
         <v>2.2</v>
@@ -12834,16 +12831,16 @@
         <v>6818341</v>
       </c>
       <c r="C144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D144" s="2">
         <v>45367.375</v>
       </c>
       <c r="E144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12852,7 +12849,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J144">
         <v>1.833</v>
@@ -12920,16 +12917,16 @@
         <v>6818342</v>
       </c>
       <c r="C145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D145" s="2">
         <v>45367.47916666666</v>
       </c>
       <c r="E145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12938,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J145">
         <v>2.5</v>
@@ -13006,16 +13003,16 @@
         <v>6818345</v>
       </c>
       <c r="C146" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D146" s="2">
         <v>45367.57291666666</v>
       </c>
       <c r="E146" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13024,7 +13021,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J146">
         <v>1.909</v>
@@ -13092,16 +13089,16 @@
         <v>6818343</v>
       </c>
       <c r="C147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D147" s="2">
         <v>45368.35416666666</v>
       </c>
       <c r="E147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G147">
         <v>5</v>
@@ -13110,7 +13107,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J147">
         <v>1.727</v>
@@ -13178,16 +13175,16 @@
         <v>6818340</v>
       </c>
       <c r="C148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D148" s="2">
         <v>45368.44791666666</v>
       </c>
       <c r="E148" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13196,7 +13193,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J148">
         <v>1.5</v>
@@ -13264,16 +13261,16 @@
         <v>6818344</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D149" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13282,7 +13279,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J149">
         <v>1.727</v>
@@ -13350,16 +13347,16 @@
         <v>6818351</v>
       </c>
       <c r="C150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D150" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E150" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13368,7 +13365,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J150">
         <v>2.45</v>
@@ -13436,16 +13433,16 @@
         <v>6818347</v>
       </c>
       <c r="C151" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D151" s="2">
         <v>45381.4375</v>
       </c>
       <c r="E151" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13454,7 +13451,7 @@
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J151">
         <v>2.75</v>
@@ -13522,16 +13519,16 @@
         <v>6818346</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D152" s="2">
         <v>45381.54166666666</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13540,7 +13537,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J152">
         <v>2.3</v>
@@ -13608,16 +13605,16 @@
         <v>6818348</v>
       </c>
       <c r="C153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D153" s="2">
         <v>45381.64583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G153">
         <v>5</v>
@@ -13626,7 +13623,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J153">
         <v>2.45</v>
@@ -13694,16 +13691,16 @@
         <v>6818349</v>
       </c>
       <c r="C154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D154" s="2">
         <v>45382.4375</v>
       </c>
       <c r="E154" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13712,7 +13709,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J154">
         <v>1.666</v>
@@ -13780,16 +13777,16 @@
         <v>6818350</v>
       </c>
       <c r="C155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D155" s="2">
         <v>45382.54166666666</v>
       </c>
       <c r="E155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13798,7 +13795,7 @@
         <v>3</v>
       </c>
       <c r="I155" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J155">
         <v>7.5</v>
@@ -13866,16 +13863,16 @@
         <v>6818353</v>
       </c>
       <c r="C156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D156" s="2">
         <v>45387.625</v>
       </c>
       <c r="E156" t="s">
+        <v>34</v>
+      </c>
+      <c r="F156" t="s">
         <v>35</v>
-      </c>
-      <c r="F156" t="s">
-        <v>36</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13884,7 +13881,7 @@
         <v>5</v>
       </c>
       <c r="I156" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J156">
         <v>1.909</v>
@@ -13952,16 +13949,16 @@
         <v>6818356</v>
       </c>
       <c r="C157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D157" s="2">
         <v>45388.38541666666</v>
       </c>
       <c r="E157" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G157">
         <v>5</v>
@@ -13970,7 +13967,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J157">
         <v>1.571</v>
@@ -14038,16 +14035,16 @@
         <v>6818354</v>
       </c>
       <c r="C158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D158" s="2">
         <v>45388.47916666666</v>
       </c>
       <c r="E158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F158" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14056,7 +14053,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J158">
         <v>1.727</v>
@@ -14124,16 +14121,16 @@
         <v>6818355</v>
       </c>
       <c r="C159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D159" s="2">
         <v>45388.60416666666</v>
       </c>
       <c r="E159" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14142,7 +14139,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J159">
         <v>2</v>
@@ -14210,16 +14207,16 @@
         <v>6818352</v>
       </c>
       <c r="C160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D160" s="2">
         <v>45389.40625</v>
       </c>
       <c r="E160" t="s">
+        <v>41</v>
+      </c>
+      <c r="F160" t="s">
         <v>42</v>
-      </c>
-      <c r="F160" t="s">
-        <v>43</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14228,7 +14225,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J160">
         <v>1.444</v>
@@ -14296,16 +14293,16 @@
         <v>6818357</v>
       </c>
       <c r="C161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D161" s="2">
         <v>45389.52083333334</v>
       </c>
       <c r="E161" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14314,7 +14311,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J161">
         <v>2.4</v>
@@ -14382,16 +14379,16 @@
         <v>8074943</v>
       </c>
       <c r="C162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D162" s="2">
         <v>45391.53819444445</v>
       </c>
       <c r="E162" t="s">
+        <v>44</v>
+      </c>
+      <c r="F162" t="s">
         <v>45</v>
-      </c>
-      <c r="F162" t="s">
-        <v>46</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14400,7 +14397,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J162">
         <v>8.5</v>
@@ -14468,16 +14465,16 @@
         <v>7939469</v>
       </c>
       <c r="C163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D163" s="2">
         <v>45392.54166666666</v>
       </c>
       <c r="E163" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14486,7 +14483,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J163">
         <v>1.3</v>
@@ -14554,16 +14551,16 @@
         <v>6818359</v>
       </c>
       <c r="C164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D164" s="2">
         <v>45395.39583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G164">
         <v>4</v>
@@ -14572,7 +14569,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J164">
         <v>2.6</v>
@@ -14640,16 +14637,16 @@
         <v>6818358</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D165" s="2">
         <v>45395.5</v>
       </c>
       <c r="E165" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14658,7 +14655,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J165">
         <v>1.666</v>
@@ -14726,16 +14723,16 @@
         <v>6818360</v>
       </c>
       <c r="C166" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D166" s="2">
         <v>45395.60416666666</v>
       </c>
       <c r="E166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14744,7 +14741,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J166">
         <v>1.666</v>
@@ -14812,16 +14809,16 @@
         <v>6820520</v>
       </c>
       <c r="C167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D167" s="2">
         <v>45396.375</v>
       </c>
       <c r="E167" t="s">
+        <v>32</v>
+      </c>
+      <c r="F167" t="s">
         <v>33</v>
-      </c>
-      <c r="F167" t="s">
-        <v>34</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14830,7 +14827,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J167">
         <v>1.727</v>
@@ -14898,16 +14895,16 @@
         <v>6860904</v>
       </c>
       <c r="C168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D168" s="2">
         <v>45396.47916666666</v>
       </c>
       <c r="E168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F168" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14916,7 +14913,7 @@
         <v>3</v>
       </c>
       <c r="I168" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J168">
         <v>5.5</v>
@@ -14984,16 +14981,16 @@
         <v>6818361</v>
       </c>
       <c r="C169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D169" s="2">
         <v>45396.57291666666</v>
       </c>
       <c r="E169" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -15002,7 +14999,7 @@
         <v>4</v>
       </c>
       <c r="I169" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J169">
         <v>5.5</v>
@@ -15070,16 +15067,16 @@
         <v>6818365</v>
       </c>
       <c r="C170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D170" s="2">
         <v>45402.39583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F170" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G170">
         <v>5</v>
@@ -15088,7 +15085,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J170">
         <v>2</v>
@@ -15156,16 +15153,16 @@
         <v>6818362</v>
       </c>
       <c r="C171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D171" s="2">
         <v>45402.5</v>
       </c>
       <c r="E171" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15174,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J171">
         <v>1.25</v>
@@ -15242,16 +15239,16 @@
         <v>6818364</v>
       </c>
       <c r="C172" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D172" s="2">
         <v>45402.60416666666</v>
       </c>
       <c r="E172" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G172">
         <v>5</v>
@@ -15260,7 +15257,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J172">
         <v>2.5</v>
@@ -15328,16 +15325,16 @@
         <v>6818367</v>
       </c>
       <c r="C173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D173" s="2">
         <v>45403.37847222222</v>
       </c>
       <c r="E173" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15346,7 +15343,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J173">
         <v>1.727</v>
@@ -15414,16 +15411,16 @@
         <v>6818366</v>
       </c>
       <c r="C174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D174" s="2">
         <v>45403.45833333334</v>
       </c>
       <c r="E174" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15432,7 +15429,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J174">
         <v>1.909</v>
@@ -15500,16 +15497,16 @@
         <v>6818363</v>
       </c>
       <c r="C175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D175" s="2">
         <v>45403.5625</v>
       </c>
       <c r="E175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15518,7 +15515,7 @@
         <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J175">
         <v>2</v>
@@ -15586,16 +15583,16 @@
         <v>6943666</v>
       </c>
       <c r="C176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D176" s="2">
         <v>45408.625</v>
       </c>
       <c r="E176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F176" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15604,7 +15601,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J176">
         <v>3.6</v>
@@ -15672,52 +15669,52 @@
         <v>27</v>
       </c>
       <c r="C177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D177" s="2">
-        <v>45409.39583333334</v>
+        <v>45409.5</v>
       </c>
       <c r="E177" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J177">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="K177">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L177">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M177">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="N177">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="O177">
-        <v>10</v>
+        <v>4.333</v>
       </c>
       <c r="P177">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q177">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R177">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S177">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T177">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U177">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
         <v>0</v>
@@ -15737,52 +15734,52 @@
         <v>28</v>
       </c>
       <c r="C178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D178" s="2">
-        <v>45409.5</v>
+        <v>45409.60416666666</v>
       </c>
       <c r="E178" t="s">
+        <v>36</v>
+      </c>
+      <c r="F178" t="s">
         <v>34</v>
       </c>
-      <c r="F178" t="s">
-        <v>41</v>
-      </c>
       <c r="J178">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="K178">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L178">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M178">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="N178">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O178">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P178">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q178">
+        <v>2.025</v>
+      </c>
+      <c r="R178">
+        <v>1.825</v>
+      </c>
+      <c r="S178">
+        <v>2.75</v>
+      </c>
+      <c r="T178">
         <v>1.925</v>
       </c>
-      <c r="R178">
+      <c r="U178">
         <v>1.925</v>
-      </c>
-      <c r="S178">
-        <v>2.5</v>
-      </c>
-      <c r="T178">
-        <v>2</v>
-      </c>
-      <c r="U178">
-        <v>1.85</v>
       </c>
       <c r="V178">
         <v>0</v>
@@ -15802,52 +15799,52 @@
         <v>29</v>
       </c>
       <c r="C179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D179" s="2">
-        <v>45409.60416666666</v>
+        <v>45410.42708333334</v>
       </c>
       <c r="E179" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J179">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="K179">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M179">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="N179">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O179">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="P179">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q179">
+        <v>1.825</v>
+      </c>
+      <c r="R179">
         <v>2.025</v>
       </c>
-      <c r="R179">
-        <v>1.825</v>
-      </c>
       <c r="S179">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T179">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U179">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V179">
         <v>0</v>
@@ -15867,52 +15864,52 @@
         <v>30</v>
       </c>
       <c r="C180" t="s">
+        <v>31</v>
+      </c>
+      <c r="D180" s="2">
+        <v>45410.53125</v>
+      </c>
+      <c r="E180" t="s">
         <v>32</v>
       </c>
-      <c r="D180" s="2">
-        <v>45410.42708333334</v>
-      </c>
-      <c r="E180" t="s">
-        <v>44</v>
-      </c>
       <c r="F180" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J180">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="K180">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L180">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="M180">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="N180">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="O180">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="P180">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q180">
+        <v>2.025</v>
+      </c>
+      <c r="R180">
         <v>1.825</v>
       </c>
-      <c r="R180">
-        <v>2.025</v>
-      </c>
       <c r="S180">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T180">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U180">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
         <v>0</v>
@@ -15921,71 +15918,6 @@
         <v>0</v>
       </c>
       <c r="X180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:24">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
-      <c r="B181" t="s">
-        <v>31</v>
-      </c>
-      <c r="C181" t="s">
-        <v>32</v>
-      </c>
-      <c r="D181" s="2">
-        <v>45410.53125</v>
-      </c>
-      <c r="E181" t="s">
-        <v>33</v>
-      </c>
-      <c r="F181" t="s">
-        <v>42</v>
-      </c>
-      <c r="J181">
-        <v>4.333</v>
-      </c>
-      <c r="K181">
-        <v>3.75</v>
-      </c>
-      <c r="L181">
-        <v>1.666</v>
-      </c>
-      <c r="M181">
-        <v>5.75</v>
-      </c>
-      <c r="N181">
-        <v>4.2</v>
-      </c>
-      <c r="O181">
-        <v>1.5</v>
-      </c>
-      <c r="P181">
-        <v>1</v>
-      </c>
-      <c r="Q181">
-        <v>2.025</v>
-      </c>
-      <c r="R181">
-        <v>1.825</v>
-      </c>
-      <c r="S181">
-        <v>3</v>
-      </c>
-      <c r="T181">
-        <v>1.975</v>
-      </c>
-      <c r="U181">
-        <v>1.875</v>
-      </c>
-      <c r="V181">
-        <v>0</v>
-      </c>
-      <c r="W181">
-        <v>0</v>
-      </c>
-      <c r="X181">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -95,15 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>6818368</t>
-  </si>
-  <si>
-    <t>6818369</t>
-  </si>
-  <si>
-    <t>6818370</t>
   </si>
   <si>
     <t>6885578</t>
@@ -522,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB180"/>
+  <dimension ref="A1:AB177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,16 +610,16 @@
         <v>6863238</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45135.625</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -637,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J2">
         <v>2.625</v>
@@ -705,16 +696,16 @@
         <v>6863236</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45136.54166666666</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -723,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <v>3.2</v>
@@ -791,16 +782,16 @@
         <v>6863235</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45136.63541666666</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -809,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J4">
         <v>2.375</v>
@@ -877,16 +868,16 @@
         <v>6818267</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45137.625</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -895,7 +886,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>2.9</v>
@@ -963,16 +954,16 @@
         <v>6863237</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45138.625</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -981,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <v>1.833</v>
@@ -1049,16 +1040,16 @@
         <v>6818205</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45142.625</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1067,7 +1058,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J7">
         <v>2.05</v>
@@ -1135,16 +1126,16 @@
         <v>6818204</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45143.53125</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1153,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>1.666</v>
@@ -1221,16 +1212,16 @@
         <v>6818206</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45144.53125</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1239,7 +1230,7 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J9">
         <v>3.5</v>
@@ -1307,16 +1298,16 @@
         <v>6818202</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45144.625</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1325,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J10">
         <v>2.05</v>
@@ -1393,16 +1384,16 @@
         <v>6818207</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45145.625</v>
       </c>
       <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
         <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1411,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J11">
         <v>2.2</v>
@@ -1479,16 +1470,16 @@
         <v>6818212</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45149.625</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1497,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J12">
         <v>2.7</v>
@@ -1565,16 +1556,16 @@
         <v>6818209</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45150.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1583,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J13">
         <v>1.727</v>
@@ -1651,16 +1642,16 @@
         <v>6818210</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45150.63541666666</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1669,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J14">
         <v>2.55</v>
@@ -1737,16 +1728,16 @@
         <v>6818211</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45151.47916666666</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1755,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J15">
         <v>1.85</v>
@@ -1823,16 +1814,16 @@
         <v>6818208</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45151.57291666666</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1841,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J16">
         <v>1.5</v>
@@ -1909,16 +1900,16 @@
         <v>6818213</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45151.66666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1927,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J17">
         <v>2.05</v>
@@ -1995,16 +1986,16 @@
         <v>6818219</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2013,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J18">
         <v>1.85</v>
@@ -2081,16 +2072,16 @@
         <v>6818216</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45156.63541666666</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2099,7 +2090,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>2.15</v>
@@ -2167,16 +2158,16 @@
         <v>6818214</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45157.53125</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2185,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -2253,16 +2244,16 @@
         <v>6818217</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45157.625</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2271,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J21">
         <v>2.25</v>
@@ -2339,16 +2330,16 @@
         <v>6818215</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45159.63541666666</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -2357,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J22">
         <v>2.7</v>
@@ -2425,16 +2416,16 @@
         <v>6818225</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45164.4375</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -2443,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J23">
         <v>2.4</v>
@@ -2511,16 +2502,16 @@
         <v>6818222</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45164.53125</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2529,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J24">
         <v>2.3</v>
@@ -2597,16 +2588,16 @@
         <v>6818221</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45164.625</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2615,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -2683,16 +2674,16 @@
         <v>6818223</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45165.4375</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2701,7 +2692,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J26">
         <v>1.75</v>
@@ -2769,16 +2760,16 @@
         <v>6818220</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -2787,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J27">
         <v>1.4</v>
@@ -2855,16 +2846,16 @@
         <v>6818224</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45165.60416666666</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2873,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J28">
         <v>1.95</v>
@@ -2941,16 +2932,16 @@
         <v>6818227</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45171.42708333334</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2959,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J29">
         <v>2.3</v>
@@ -3027,16 +3018,16 @@
         <v>6818230</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45171.60416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3045,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3113,16 +3104,16 @@
         <v>6818231</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45172.38541666666</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3131,7 +3122,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J31">
         <v>2.9</v>
@@ -3199,16 +3190,16 @@
         <v>6818229</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45172.51041666666</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3217,7 +3208,7 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J32">
         <v>5.25</v>
@@ -3285,16 +3276,16 @@
         <v>6818226</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45172.60416666666</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3303,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J33">
         <v>2.25</v>
@@ -3371,16 +3362,16 @@
         <v>7197411</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45191.625</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3389,7 +3380,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J34">
         <v>1.8</v>
@@ -3457,16 +3448,16 @@
         <v>7197409</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45192.39583333334</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3475,7 +3466,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J35">
         <v>1.9</v>
@@ -3543,16 +3534,16 @@
         <v>6818234</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45192.5</v>
       </c>
       <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
         <v>33</v>
-      </c>
-      <c r="F36" t="s">
-        <v>36</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3561,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3629,16 +3620,16 @@
         <v>7197408</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45192.60416666666</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3647,7 +3638,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J37">
         <v>2.2</v>
@@ -3715,16 +3706,16 @@
         <v>7197410</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3733,7 +3724,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J38">
         <v>2.2</v>
@@ -3801,16 +3792,16 @@
         <v>7197407</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3819,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J39">
         <v>1.363</v>
@@ -3887,16 +3878,16 @@
         <v>7020194</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45196.53125</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3905,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J40">
         <v>2.1</v>
@@ -3973,16 +3964,16 @@
         <v>6863234</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45196.625</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3991,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4059,16 +4050,16 @@
         <v>6818242</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45198.625</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4077,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J42">
         <v>3</v>
@@ -4145,16 +4136,16 @@
         <v>6818243</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45199.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4163,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J43">
         <v>1.615</v>
@@ -4231,16 +4222,16 @@
         <v>6818240</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45199.5</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4249,7 +4240,7 @@
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J44">
         <v>4.75</v>
@@ -4317,16 +4308,16 @@
         <v>6818239</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45199.60416666666</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4335,7 +4326,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J45">
         <v>1.8</v>
@@ -4403,16 +4394,16 @@
         <v>6818241</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4421,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J46">
         <v>2.6</v>
@@ -4489,16 +4480,16 @@
         <v>6818238</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4507,7 +4498,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J47">
         <v>2.25</v>
@@ -4575,16 +4566,16 @@
         <v>6818247</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45205.64583333334</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4593,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J48">
         <v>1.8</v>
@@ -4661,16 +4652,16 @@
         <v>6818246</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45206.32291666666</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4679,7 +4670,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J49">
         <v>2.25</v>
@@ -4747,16 +4738,16 @@
         <v>6818245</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45206.46875</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4765,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J50">
         <v>2.4</v>
@@ -4833,16 +4824,16 @@
         <v>6818249</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45206.64583333334</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4851,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J51">
         <v>2.4</v>
@@ -4919,16 +4910,16 @@
         <v>6818248</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45207.33333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4937,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J52">
         <v>2.5</v>
@@ -5005,16 +4996,16 @@
         <v>6818244</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45207.47916666666</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5023,7 +5014,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J53">
         <v>1.8</v>
@@ -5091,16 +5082,16 @@
         <v>6818254</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45220.3125</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5109,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J54">
         <v>2.1</v>
@@ -5177,16 +5168,16 @@
         <v>6818255</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45220.40625</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5195,7 +5186,7 @@
         <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J55">
         <v>2.5</v>
@@ -5263,16 +5254,16 @@
         <v>6818250</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45220.5</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G56">
         <v>5</v>
@@ -5281,7 +5272,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J56">
         <v>1.909</v>
@@ -5349,16 +5340,16 @@
         <v>6818253</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45221.34375</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5367,7 +5358,7 @@
         <v>5</v>
       </c>
       <c r="I57" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J57">
         <v>2.5</v>
@@ -5435,16 +5426,16 @@
         <v>6818252</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45221.4375</v>
       </c>
       <c r="E58" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" t="s">
         <v>36</v>
-      </c>
-      <c r="F58" t="s">
-        <v>39</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5453,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J58">
         <v>1.909</v>
@@ -5521,16 +5512,16 @@
         <v>6818251</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45221.53125</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5539,7 +5530,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J59">
         <v>7.5</v>
@@ -5607,16 +5598,16 @@
         <v>6818261</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45227.3125</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -5625,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J60">
         <v>1.666</v>
@@ -5693,16 +5684,16 @@
         <v>6818260</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45227.40625</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G61">
         <v>4</v>
@@ -5711,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J61">
         <v>2.5</v>
@@ -5779,16 +5770,16 @@
         <v>6818259</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45227.5</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5797,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J62">
         <v>2.35</v>
@@ -5865,16 +5856,16 @@
         <v>6818258</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45228.38541666666</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5883,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J63">
         <v>2.7</v>
@@ -5951,16 +5942,16 @@
         <v>6818257</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -5969,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J64">
         <v>1.571</v>
@@ -6037,16 +6028,16 @@
         <v>6818256</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45228.58333333334</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6055,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J65">
         <v>1.25</v>
@@ -6123,16 +6114,16 @@
         <v>6818265</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45234.35416666666</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6141,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J66">
         <v>3.3</v>
@@ -6209,16 +6200,16 @@
         <v>6818264</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45234.48958333334</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6227,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J67">
         <v>1.8</v>
@@ -6295,16 +6286,16 @@
         <v>6818263</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45234.58333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6313,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J68">
         <v>2.4</v>
@@ -6381,16 +6372,16 @@
         <v>6999361</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45235.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6399,7 +6390,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J69">
         <v>1.909</v>
@@ -6467,16 +6458,16 @@
         <v>6818262</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45235.44791666666</v>
       </c>
       <c r="E70" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6485,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J70">
         <v>5.75</v>
@@ -6553,16 +6544,16 @@
         <v>6818266</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E71" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6571,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J71">
         <v>1.75</v>
@@ -6639,16 +6630,16 @@
         <v>6818268</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45240.66666666666</v>
       </c>
       <c r="E72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" t="s">
         <v>32</v>
-      </c>
-      <c r="F72" t="s">
-        <v>35</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6657,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J72">
         <v>2.2</v>
@@ -6725,16 +6716,16 @@
         <v>6818270</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45241.42708333334</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6743,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J73">
         <v>1.727</v>
@@ -6811,16 +6802,16 @@
         <v>6818271</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45241.64583333334</v>
       </c>
       <c r="E74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F74" t="s">
         <v>34</v>
-      </c>
-      <c r="F74" t="s">
-        <v>37</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6829,7 +6820,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J74">
         <v>2.375</v>
@@ -6897,16 +6888,16 @@
         <v>6818273</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6915,7 +6906,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J75">
         <v>2.2</v>
@@ -6983,16 +6974,16 @@
         <v>6818272</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45242.5</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7001,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J76">
         <v>1.333</v>
@@ -7069,16 +7060,16 @@
         <v>6818269</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45242.60416666666</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7087,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J77">
         <v>2.25</v>
@@ -7155,16 +7146,16 @@
         <v>7448992</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45254.66666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G78">
         <v>4</v>
@@ -7173,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J78">
         <v>1.85</v>
@@ -7241,16 +7232,16 @@
         <v>7448994</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45255.44791666666</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7259,7 +7250,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7327,16 +7318,16 @@
         <v>7448993</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45255.54166666666</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7345,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7413,16 +7404,16 @@
         <v>7448991</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45255.64583333334</v>
       </c>
       <c r="E81" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G81">
         <v>4</v>
@@ -7431,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J81">
         <v>3.1</v>
@@ -7499,16 +7490,16 @@
         <v>7448990</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E82" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7517,7 +7508,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J82">
         <v>3.75</v>
@@ -7585,16 +7576,16 @@
         <v>6818277</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45256.64583333334</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7603,7 +7594,7 @@
         <v>3</v>
       </c>
       <c r="I83" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J83">
         <v>2.3</v>
@@ -7671,16 +7662,16 @@
         <v>7473670</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45262.375</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7689,7 +7680,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J84">
         <v>2.3</v>
@@ -7757,16 +7748,16 @@
         <v>7473671</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E85" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -7775,7 +7766,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J85">
         <v>2.3</v>
@@ -7843,16 +7834,16 @@
         <v>6818281</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45262.64583333334</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7861,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J86">
         <v>2.875</v>
@@ -7929,16 +7920,16 @@
         <v>7473672</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45263.36458333334</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7947,7 +7938,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J87">
         <v>2.6</v>
@@ -8015,16 +8006,16 @@
         <v>7473673</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45263.46875</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8033,7 +8024,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J88">
         <v>1.833</v>
@@ -8101,16 +8092,16 @@
         <v>7473674</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45263.57291666666</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8119,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J89">
         <v>1.285</v>
@@ -8187,16 +8178,16 @@
         <v>7088570</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45266.64583333334</v>
       </c>
       <c r="E90" t="s">
+        <v>35</v>
+      </c>
+      <c r="F90" t="s">
         <v>38</v>
-      </c>
-      <c r="F90" t="s">
-        <v>41</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8205,7 +8196,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J90">
         <v>6.5</v>
@@ -8273,16 +8264,16 @@
         <v>6818291</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45268.66666666666</v>
       </c>
       <c r="E91" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" t="s">
         <v>37</v>
-      </c>
-      <c r="F91" t="s">
-        <v>40</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8291,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J91">
         <v>1.8</v>
@@ -8359,16 +8350,16 @@
         <v>6818289</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45269.38541666666</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8377,7 +8368,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J92">
         <v>3.2</v>
@@ -8445,16 +8436,16 @@
         <v>6818287</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45269.48958333334</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8463,7 +8454,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J93">
         <v>2.45</v>
@@ -8531,16 +8522,16 @@
         <v>6818288</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45270.375</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8549,7 +8540,7 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8617,16 +8608,16 @@
         <v>6818290</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45270.47916666666</v>
       </c>
       <c r="E95" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8635,7 +8626,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J95">
         <v>3.6</v>
@@ -8703,16 +8694,16 @@
         <v>6818286</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45270.58333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8721,7 +8712,7 @@
         <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J96">
         <v>3.2</v>
@@ -8789,16 +8780,16 @@
         <v>6818296</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45276.35416666666</v>
       </c>
       <c r="E97" t="s">
+        <v>36</v>
+      </c>
+      <c r="F97" t="s">
         <v>39</v>
-      </c>
-      <c r="F97" t="s">
-        <v>42</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8807,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J97">
         <v>2.1</v>
@@ -8875,16 +8866,16 @@
         <v>6818294</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8893,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J98">
         <v>2.25</v>
@@ -8961,16 +8952,16 @@
         <v>6818293</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45276.5625</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8979,7 +8970,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J99">
         <v>2</v>
@@ -9047,16 +9038,16 @@
         <v>6818292</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45277.39583333334</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9065,7 +9056,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J100">
         <v>2.375</v>
@@ -9133,16 +9124,16 @@
         <v>6818295</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45277.5</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9151,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J101">
         <v>1.2</v>
@@ -9219,16 +9210,16 @@
         <v>6818297</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45277.58333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9237,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J102">
         <v>1.727</v>
@@ -9305,16 +9296,16 @@
         <v>7646444</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45324.66666666666</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9323,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J103">
         <v>2.3</v>
@@ -9391,16 +9382,16 @@
         <v>7646447</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45325.35416666666</v>
       </c>
       <c r="E104" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -9409,7 +9400,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J104">
         <v>3.2</v>
@@ -9477,16 +9468,16 @@
         <v>7646443</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45325.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9495,7 +9486,7 @@
         <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J105">
         <v>7</v>
@@ -9563,16 +9554,16 @@
         <v>7646445</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45325.5625</v>
       </c>
       <c r="E106" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9581,7 +9572,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J106">
         <v>1.8</v>
@@ -9649,16 +9640,16 @@
         <v>7646448</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45326.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9667,7 +9658,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9735,16 +9726,16 @@
         <v>7646446</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45326.5625</v>
       </c>
       <c r="E108" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9753,7 +9744,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J108">
         <v>2.1</v>
@@ -9821,16 +9812,16 @@
         <v>6818305</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45328.57291666666</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9839,7 +9830,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J109">
         <v>2.8</v>
@@ -9907,16 +9898,16 @@
         <v>6818306</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45328.66666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G110">
         <v>5</v>
@@ -9925,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J110">
         <v>1.333</v>
@@ -9993,16 +9984,16 @@
         <v>6818307</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45329.57291666666</v>
       </c>
       <c r="E111" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10011,7 +10002,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J111">
         <v>2.45</v>
@@ -10079,16 +10070,16 @@
         <v>6818308</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45329.66666666666</v>
       </c>
       <c r="E112" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10097,7 +10088,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J112">
         <v>1.5</v>
@@ -10165,16 +10156,16 @@
         <v>6818309</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45330.5</v>
       </c>
       <c r="E113" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10183,7 +10174,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J113">
         <v>3.75</v>
@@ -10251,16 +10242,16 @@
         <v>6818304</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45330.66666666666</v>
       </c>
       <c r="E114" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10269,7 +10260,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J114">
         <v>2.15</v>
@@ -10337,16 +10328,16 @@
         <v>6818313</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45332.35416666666</v>
       </c>
       <c r="E115" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10355,7 +10346,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J115">
         <v>2.75</v>
@@ -10423,16 +10414,16 @@
         <v>6818314</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10441,7 +10432,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J116">
         <v>1.909</v>
@@ -10509,16 +10500,16 @@
         <v>6818310</v>
       </c>
       <c r="C117" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E117" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10527,7 +10518,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J117">
         <v>3.9</v>
@@ -10595,16 +10586,16 @@
         <v>6818315</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E118" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10613,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J118">
         <v>1.55</v>
@@ -10681,16 +10672,16 @@
         <v>6818311</v>
       </c>
       <c r="C119" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45333.44791666666</v>
       </c>
       <c r="E119" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10699,7 +10690,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J119">
         <v>1.7</v>
@@ -10767,16 +10758,16 @@
         <v>6818312</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45333.65625</v>
       </c>
       <c r="E120" t="s">
+        <v>32</v>
+      </c>
+      <c r="F120" t="s">
         <v>35</v>
-      </c>
-      <c r="F120" t="s">
-        <v>38</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10785,7 +10776,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J120">
         <v>2</v>
@@ -10853,16 +10844,16 @@
         <v>6818321</v>
       </c>
       <c r="C121" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45338.66666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10871,7 +10862,7 @@
         <v>4</v>
       </c>
       <c r="I121" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J121">
         <v>1.55</v>
@@ -10939,16 +10930,16 @@
         <v>6818316</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45339.375</v>
       </c>
       <c r="E122" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10957,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J122">
         <v>1.909</v>
@@ -11025,16 +11016,16 @@
         <v>6818320</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45339.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11043,7 +11034,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J123">
         <v>2.15</v>
@@ -11111,16 +11102,16 @@
         <v>6818318</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11129,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J124">
         <v>2.6</v>
@@ -11197,16 +11188,16 @@
         <v>6818319</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45340.5625</v>
       </c>
       <c r="E125" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G125">
         <v>6</v>
@@ -11215,7 +11206,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J125">
         <v>1.65</v>
@@ -11283,16 +11274,16 @@
         <v>6818324</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45345.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G126">
         <v>3</v>
@@ -11301,7 +11292,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J126">
         <v>1.8</v>
@@ -11369,16 +11360,16 @@
         <v>6818327</v>
       </c>
       <c r="C127" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45346.35416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11387,7 +11378,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J127">
         <v>2.4</v>
@@ -11455,16 +11446,16 @@
         <v>6818326</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11473,7 +11464,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J128">
         <v>2.25</v>
@@ -11541,16 +11532,16 @@
         <v>6818325</v>
       </c>
       <c r="C129" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11559,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J129">
         <v>2.25</v>
@@ -11627,16 +11618,16 @@
         <v>6818323</v>
       </c>
       <c r="C130" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11645,7 +11636,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J130">
         <v>3.5</v>
@@ -11713,16 +11704,16 @@
         <v>6818322</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E131" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11731,7 +11722,7 @@
         <v>5</v>
       </c>
       <c r="I131" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J131">
         <v>5.2</v>
@@ -11799,16 +11790,16 @@
         <v>6818331</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E132" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11817,7 +11808,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J132">
         <v>1.5</v>
@@ -11885,16 +11876,16 @@
         <v>6818333</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45353.4375</v>
       </c>
       <c r="E133" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11903,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J133">
         <v>2.25</v>
@@ -11971,16 +11962,16 @@
         <v>6818330</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45353.61458333334</v>
       </c>
       <c r="E134" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11989,7 +11980,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J134">
         <v>2.9</v>
@@ -12057,16 +12048,16 @@
         <v>6818332</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12075,7 +12066,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J135">
         <v>2.75</v>
@@ -12143,16 +12134,16 @@
         <v>6818328</v>
       </c>
       <c r="C136" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45354.52083333334</v>
       </c>
       <c r="E136" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12161,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J136">
         <v>1.25</v>
@@ -12229,16 +12220,16 @@
         <v>6818329</v>
       </c>
       <c r="C137" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45354.625</v>
       </c>
       <c r="E137" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12247,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J137">
         <v>2.3</v>
@@ -12315,16 +12306,16 @@
         <v>6818337</v>
       </c>
       <c r="C138" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45359.66666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -12333,7 +12324,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J138">
         <v>1.727</v>
@@ -12401,16 +12392,16 @@
         <v>6818336</v>
       </c>
       <c r="C139" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45360.36458333334</v>
       </c>
       <c r="E139" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12419,7 +12410,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J139">
         <v>2.9</v>
@@ -12487,16 +12478,16 @@
         <v>6818339</v>
       </c>
       <c r="C140" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45360.46875</v>
       </c>
       <c r="E140" t="s">
+        <v>37</v>
+      </c>
+      <c r="F140" t="s">
         <v>40</v>
-      </c>
-      <c r="F140" t="s">
-        <v>43</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12505,7 +12496,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J140">
         <v>2.15</v>
@@ -12573,16 +12564,16 @@
         <v>6818335</v>
       </c>
       <c r="C141" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45361.375</v>
       </c>
       <c r="E141" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12591,7 +12582,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12659,16 +12650,16 @@
         <v>6818338</v>
       </c>
       <c r="C142" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45361.47916666666</v>
       </c>
       <c r="E142" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12677,7 +12668,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J142">
         <v>5.25</v>
@@ -12745,16 +12736,16 @@
         <v>6818334</v>
       </c>
       <c r="C143" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45361.66666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12763,7 +12754,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J143">
         <v>2.2</v>
@@ -12831,16 +12822,16 @@
         <v>6818341</v>
       </c>
       <c r="C144" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45367.375</v>
       </c>
       <c r="E144" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12849,7 +12840,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J144">
         <v>1.833</v>
@@ -12917,16 +12908,16 @@
         <v>6818342</v>
       </c>
       <c r="C145" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
         <v>45367.47916666666</v>
       </c>
       <c r="E145" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12935,7 +12926,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J145">
         <v>2.5</v>
@@ -13003,16 +12994,16 @@
         <v>6818345</v>
       </c>
       <c r="C146" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45367.57291666666</v>
       </c>
       <c r="E146" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13021,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J146">
         <v>1.909</v>
@@ -13089,16 +13080,16 @@
         <v>6818343</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
         <v>45368.35416666666</v>
       </c>
       <c r="E147" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G147">
         <v>5</v>
@@ -13107,7 +13098,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J147">
         <v>1.727</v>
@@ -13175,16 +13166,16 @@
         <v>6818340</v>
       </c>
       <c r="C148" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
         <v>45368.44791666666</v>
       </c>
       <c r="E148" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13193,7 +13184,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J148">
         <v>1.5</v>
@@ -13261,16 +13252,16 @@
         <v>6818344</v>
       </c>
       <c r="C149" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E149" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13279,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J149">
         <v>1.727</v>
@@ -13347,16 +13338,16 @@
         <v>6818351</v>
       </c>
       <c r="C150" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E150" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13365,7 +13356,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J150">
         <v>2.45</v>
@@ -13433,16 +13424,16 @@
         <v>6818347</v>
       </c>
       <c r="C151" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2">
         <v>45381.4375</v>
       </c>
       <c r="E151" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13451,7 +13442,7 @@
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J151">
         <v>2.75</v>
@@ -13519,16 +13510,16 @@
         <v>6818346</v>
       </c>
       <c r="C152" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2">
         <v>45381.54166666666</v>
       </c>
       <c r="E152" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13537,7 +13528,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J152">
         <v>2.3</v>
@@ -13605,16 +13596,16 @@
         <v>6818348</v>
       </c>
       <c r="C153" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D153" s="2">
         <v>45381.64583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G153">
         <v>5</v>
@@ -13623,7 +13614,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J153">
         <v>2.45</v>
@@ -13691,16 +13682,16 @@
         <v>6818349</v>
       </c>
       <c r="C154" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2">
         <v>45382.4375</v>
       </c>
       <c r="E154" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13709,7 +13700,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J154">
         <v>1.666</v>
@@ -13777,16 +13768,16 @@
         <v>6818350</v>
       </c>
       <c r="C155" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D155" s="2">
         <v>45382.54166666666</v>
       </c>
       <c r="E155" t="s">
+        <v>35</v>
+      </c>
+      <c r="F155" t="s">
         <v>38</v>
-      </c>
-      <c r="F155" t="s">
-        <v>41</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13795,7 +13786,7 @@
         <v>3</v>
       </c>
       <c r="I155" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J155">
         <v>7.5</v>
@@ -13863,16 +13854,16 @@
         <v>6818353</v>
       </c>
       <c r="C156" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D156" s="2">
         <v>45387.625</v>
       </c>
       <c r="E156" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13881,7 +13872,7 @@
         <v>5</v>
       </c>
       <c r="I156" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J156">
         <v>1.909</v>
@@ -13949,16 +13940,16 @@
         <v>6818356</v>
       </c>
       <c r="C157" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D157" s="2">
         <v>45388.38541666666</v>
       </c>
       <c r="E157" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G157">
         <v>5</v>
@@ -13967,7 +13958,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J157">
         <v>1.571</v>
@@ -14035,16 +14026,16 @@
         <v>6818354</v>
       </c>
       <c r="C158" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2">
         <v>45388.47916666666</v>
       </c>
       <c r="E158" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14053,7 +14044,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J158">
         <v>1.727</v>
@@ -14121,16 +14112,16 @@
         <v>6818355</v>
       </c>
       <c r="C159" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2">
         <v>45388.60416666666</v>
       </c>
       <c r="E159" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14139,7 +14130,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J159">
         <v>2</v>
@@ -14207,16 +14198,16 @@
         <v>6818352</v>
       </c>
       <c r="C160" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2">
         <v>45389.40625</v>
       </c>
       <c r="E160" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14225,7 +14216,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J160">
         <v>1.444</v>
@@ -14293,16 +14284,16 @@
         <v>6818357</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2">
         <v>45389.52083333334</v>
       </c>
       <c r="E161" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14311,7 +14302,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J161">
         <v>2.4</v>
@@ -14379,16 +14370,16 @@
         <v>8074943</v>
       </c>
       <c r="C162" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D162" s="2">
         <v>45391.53819444445</v>
       </c>
       <c r="E162" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F162" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14397,7 +14388,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J162">
         <v>8.5</v>
@@ -14465,16 +14456,16 @@
         <v>7939469</v>
       </c>
       <c r="C163" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D163" s="2">
         <v>45392.54166666666</v>
       </c>
       <c r="E163" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14483,7 +14474,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J163">
         <v>1.3</v>
@@ -14551,16 +14542,16 @@
         <v>6818359</v>
       </c>
       <c r="C164" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D164" s="2">
         <v>45395.39583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G164">
         <v>4</v>
@@ -14569,7 +14560,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J164">
         <v>2.6</v>
@@ -14637,16 +14628,16 @@
         <v>6818358</v>
       </c>
       <c r="C165" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D165" s="2">
         <v>45395.5</v>
       </c>
       <c r="E165" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F165" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14655,7 +14646,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J165">
         <v>1.666</v>
@@ -14723,16 +14714,16 @@
         <v>6818360</v>
       </c>
       <c r="C166" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D166" s="2">
         <v>45395.60416666666</v>
       </c>
       <c r="E166" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F166" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14741,7 +14732,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J166">
         <v>1.666</v>
@@ -14809,16 +14800,16 @@
         <v>6820520</v>
       </c>
       <c r="C167" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D167" s="2">
         <v>45396.375</v>
       </c>
       <c r="E167" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14827,7 +14818,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J167">
         <v>1.727</v>
@@ -14895,16 +14886,16 @@
         <v>6860904</v>
       </c>
       <c r="C168" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D168" s="2">
         <v>45396.47916666666</v>
       </c>
       <c r="E168" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14913,7 +14904,7 @@
         <v>3</v>
       </c>
       <c r="I168" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J168">
         <v>5.5</v>
@@ -14981,16 +14972,16 @@
         <v>6818361</v>
       </c>
       <c r="C169" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D169" s="2">
         <v>45396.57291666666</v>
       </c>
       <c r="E169" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -14999,7 +14990,7 @@
         <v>4</v>
       </c>
       <c r="I169" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J169">
         <v>5.5</v>
@@ -15067,16 +15058,16 @@
         <v>6818365</v>
       </c>
       <c r="C170" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D170" s="2">
         <v>45402.39583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G170">
         <v>5</v>
@@ -15085,7 +15076,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J170">
         <v>2</v>
@@ -15153,16 +15144,16 @@
         <v>6818362</v>
       </c>
       <c r="C171" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D171" s="2">
         <v>45402.5</v>
       </c>
       <c r="E171" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F171" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15171,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J171">
         <v>1.25</v>
@@ -15239,16 +15230,16 @@
         <v>6818364</v>
       </c>
       <c r="C172" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D172" s="2">
         <v>45402.60416666666</v>
       </c>
       <c r="E172" t="s">
+        <v>30</v>
+      </c>
+      <c r="F172" t="s">
         <v>33</v>
-      </c>
-      <c r="F172" t="s">
-        <v>36</v>
       </c>
       <c r="G172">
         <v>5</v>
@@ -15257,7 +15248,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J172">
         <v>2.5</v>
@@ -15325,16 +15316,16 @@
         <v>6818367</v>
       </c>
       <c r="C173" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D173" s="2">
         <v>45403.37847222222</v>
       </c>
       <c r="E173" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15343,7 +15334,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J173">
         <v>1.727</v>
@@ -15411,16 +15402,16 @@
         <v>6818366</v>
       </c>
       <c r="C174" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D174" s="2">
         <v>45403.45833333334</v>
       </c>
       <c r="E174" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15429,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J174">
         <v>1.909</v>
@@ -15497,16 +15488,16 @@
         <v>6818363</v>
       </c>
       <c r="C175" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D175" s="2">
         <v>45403.5625</v>
       </c>
       <c r="E175" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15515,7 +15506,7 @@
         <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J175">
         <v>2</v>
@@ -15583,16 +15574,16 @@
         <v>6943666</v>
       </c>
       <c r="C176" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D176" s="2">
         <v>45408.625</v>
       </c>
       <c r="E176" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15601,7 +15592,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J176">
         <v>3.6</v>
@@ -15669,52 +15660,52 @@
         <v>27</v>
       </c>
       <c r="C177" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D177" s="2">
-        <v>45409.5</v>
+        <v>45410.53125</v>
       </c>
       <c r="E177" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J177">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="K177">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L177">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="M177">
-        <v>1.85</v>
+        <v>7.5</v>
       </c>
       <c r="N177">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="O177">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="P177">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q177">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R177">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S177">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T177">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
         <v>0</v>
@@ -15723,201 +15714,6 @@
         <v>0</v>
       </c>
       <c r="X177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:24">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178" t="s">
-        <v>28</v>
-      </c>
-      <c r="C178" t="s">
-        <v>31</v>
-      </c>
-      <c r="D178" s="2">
-        <v>45409.60416666666</v>
-      </c>
-      <c r="E178" t="s">
-        <v>36</v>
-      </c>
-      <c r="F178" t="s">
-        <v>34</v>
-      </c>
-      <c r="J178">
-        <v>1.75</v>
-      </c>
-      <c r="K178">
-        <v>3.6</v>
-      </c>
-      <c r="L178">
-        <v>4</v>
-      </c>
-      <c r="M178">
-        <v>1.75</v>
-      </c>
-      <c r="N178">
-        <v>3.75</v>
-      </c>
-      <c r="O178">
-        <v>4.2</v>
-      </c>
-      <c r="P178">
-        <v>-0.75</v>
-      </c>
-      <c r="Q178">
-        <v>2.025</v>
-      </c>
-      <c r="R178">
-        <v>1.825</v>
-      </c>
-      <c r="S178">
-        <v>2.75</v>
-      </c>
-      <c r="T178">
-        <v>1.925</v>
-      </c>
-      <c r="U178">
-        <v>1.925</v>
-      </c>
-      <c r="V178">
-        <v>0</v>
-      </c>
-      <c r="W178">
-        <v>0</v>
-      </c>
-      <c r="X178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:24">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179" t="s">
-        <v>29</v>
-      </c>
-      <c r="C179" t="s">
-        <v>31</v>
-      </c>
-      <c r="D179" s="2">
-        <v>45410.42708333334</v>
-      </c>
-      <c r="E179" t="s">
-        <v>43</v>
-      </c>
-      <c r="F179" t="s">
-        <v>39</v>
-      </c>
-      <c r="J179">
-        <v>2.6</v>
-      </c>
-      <c r="K179">
-        <v>3.25</v>
-      </c>
-      <c r="L179">
-        <v>2.5</v>
-      </c>
-      <c r="M179">
-        <v>2.9</v>
-      </c>
-      <c r="N179">
-        <v>3.25</v>
-      </c>
-      <c r="O179">
-        <v>2.3</v>
-      </c>
-      <c r="P179">
-        <v>0.25</v>
-      </c>
-      <c r="Q179">
-        <v>1.825</v>
-      </c>
-      <c r="R179">
-        <v>2.025</v>
-      </c>
-      <c r="S179">
-        <v>2.5</v>
-      </c>
-      <c r="T179">
-        <v>1.925</v>
-      </c>
-      <c r="U179">
-        <v>1.925</v>
-      </c>
-      <c r="V179">
-        <v>0</v>
-      </c>
-      <c r="W179">
-        <v>0</v>
-      </c>
-      <c r="X179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:24">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="B180" t="s">
-        <v>30</v>
-      </c>
-      <c r="C180" t="s">
-        <v>31</v>
-      </c>
-      <c r="D180" s="2">
-        <v>45410.53125</v>
-      </c>
-      <c r="E180" t="s">
-        <v>32</v>
-      </c>
-      <c r="F180" t="s">
-        <v>41</v>
-      </c>
-      <c r="J180">
-        <v>4.333</v>
-      </c>
-      <c r="K180">
-        <v>3.75</v>
-      </c>
-      <c r="L180">
-        <v>1.666</v>
-      </c>
-      <c r="M180">
-        <v>5.75</v>
-      </c>
-      <c r="N180">
-        <v>4.2</v>
-      </c>
-      <c r="O180">
-        <v>1.5</v>
-      </c>
-      <c r="P180">
-        <v>1</v>
-      </c>
-      <c r="Q180">
-        <v>2.025</v>
-      </c>
-      <c r="R180">
-        <v>1.825</v>
-      </c>
-      <c r="S180">
-        <v>3</v>
-      </c>
-      <c r="T180">
-        <v>1.975</v>
-      </c>
-      <c r="U180">
-        <v>1.875</v>
-      </c>
-      <c r="V180">
-        <v>0</v>
-      </c>
-      <c r="W180">
-        <v>0</v>
-      </c>
-      <c r="X180">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -100,13 +100,13 @@
     <t>8156232</t>
   </si>
   <si>
-    <t>6994491</t>
+    <t>7005341</t>
   </si>
   <si>
     <t>6993966</t>
   </si>
   <si>
-    <t>7005341</t>
+    <t>6994491</t>
   </si>
   <si>
     <t>7016849</t>
@@ -1224,85 +1224,85 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6818202</v>
+        <v>6818206</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="2">
-        <v>45144.625</v>
+        <v>45144.53125</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="K9">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L9">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="M9">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="N9">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="P9">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q9">
+        <v>1.875</v>
+      </c>
+      <c r="R9">
         <v>1.975</v>
-      </c>
-      <c r="R9">
-        <v>1.875</v>
       </c>
       <c r="S9">
         <v>2.75</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y9">
+        <v>-1</v>
+      </c>
+      <c r="Z9">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z9">
-        <v>-1</v>
-      </c>
       <c r="AA9">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1310,85 +1310,85 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6818206</v>
+        <v>6818202</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="2">
-        <v>45144.53125</v>
+        <v>45144.625</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10">
+        <v>2.05</v>
+      </c>
+      <c r="K10">
+        <v>3.1</v>
+      </c>
+      <c r="L10">
         <v>3.5</v>
       </c>
-      <c r="K10">
+      <c r="M10">
+        <v>2.25</v>
+      </c>
+      <c r="N10">
         <v>3.5</v>
       </c>
-      <c r="L10">
-        <v>1.909</v>
-      </c>
-      <c r="M10">
-        <v>4.75</v>
-      </c>
-      <c r="N10">
-        <v>3.8</v>
-      </c>
       <c r="O10">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q10">
+        <v>1.975</v>
+      </c>
+      <c r="R10">
         <v>1.875</v>
-      </c>
-      <c r="R10">
-        <v>1.975</v>
       </c>
       <c r="S10">
         <v>2.75</v>
       </c>
       <c r="T10">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U10">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V10">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z10">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1568,19 +1568,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6818209</v>
+        <v>6818210</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="2">
-        <v>45150.54166666666</v>
+        <v>45150.63541666666</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1592,34 +1592,34 @@
         <v>48</v>
       </c>
       <c r="J13">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="K13">
+        <v>3.25</v>
+      </c>
+      <c r="L13">
+        <v>2.55</v>
+      </c>
+      <c r="M13">
+        <v>2.3</v>
+      </c>
+      <c r="N13">
         <v>3.5</v>
       </c>
-      <c r="L13">
-        <v>4.333</v>
-      </c>
-      <c r="M13">
-        <v>1.65</v>
-      </c>
-      <c r="N13">
-        <v>3.6</v>
-      </c>
       <c r="O13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
         <v>1.85</v>
       </c>
-      <c r="R13">
-        <v>2</v>
-      </c>
       <c r="S13">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T13">
         <v>1.875</v>
@@ -1631,16 +1631,16 @@
         <v>-1</v>
       </c>
       <c r="W13">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AA13">
         <v>-1</v>
@@ -1654,19 +1654,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6818210</v>
+        <v>6818209</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="2">
-        <v>45150.63541666666</v>
+        <v>45150.54166666666</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1678,34 +1678,34 @@
         <v>48</v>
       </c>
       <c r="J14">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="K14">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L14">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="M14">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="N14">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P14">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q14">
+        <v>1.85</v>
+      </c>
+      <c r="R14">
         <v>2</v>
       </c>
-      <c r="R14">
-        <v>1.85</v>
-      </c>
       <c r="S14">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T14">
         <v>1.875</v>
@@ -1717,16 +1717,16 @@
         <v>-1</v>
       </c>
       <c r="W14">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <v>-1</v>
@@ -1998,82 +1998,82 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6818219</v>
+        <v>6818216</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="2">
-        <v>45156.54166666666</v>
+        <v>45156.63541666666</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J18">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="K18">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L18">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M18">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="N18">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O18">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P18">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q18">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T18">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
         <v>-1</v>
       </c>
       <c r="W18">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA18">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB18">
         <v>-1</v>
@@ -2084,82 +2084,82 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6818216</v>
+        <v>6818219</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="2">
-        <v>45156.63541666666</v>
+        <v>45156.54166666666</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19">
+        <v>1.85</v>
+      </c>
+      <c r="K19">
+        <v>3.5</v>
+      </c>
+      <c r="L19">
+        <v>3.8</v>
+      </c>
+      <c r="M19">
+        <v>1.833</v>
+      </c>
+      <c r="N19">
+        <v>3.6</v>
+      </c>
+      <c r="O19">
+        <v>4.2</v>
+      </c>
+      <c r="P19">
+        <v>-0.5</v>
+      </c>
+      <c r="Q19">
+        <v>1.85</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>2.75</v>
+      </c>
+      <c r="T19">
+        <v>1.95</v>
+      </c>
+      <c r="U19">
+        <v>1.9</v>
+      </c>
+      <c r="V19">
+        <v>-1</v>
+      </c>
+      <c r="W19">
+        <v>2.6</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
+        <v>-1</v>
+      </c>
+      <c r="Z19">
         <v>1</v>
       </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19">
-        <v>2.15</v>
-      </c>
-      <c r="K19">
-        <v>3.25</v>
-      </c>
-      <c r="L19">
-        <v>3.1</v>
-      </c>
-      <c r="M19">
-        <v>2.2</v>
-      </c>
-      <c r="N19">
-        <v>3.4</v>
-      </c>
-      <c r="O19">
-        <v>3.3</v>
-      </c>
-      <c r="P19">
-        <v>-0.25</v>
-      </c>
-      <c r="Q19">
-        <v>1.975</v>
-      </c>
-      <c r="R19">
-        <v>1.875</v>
-      </c>
-      <c r="S19">
-        <v>2.5</v>
-      </c>
-      <c r="T19">
-        <v>1.925</v>
-      </c>
-      <c r="U19">
-        <v>1.925</v>
-      </c>
-      <c r="V19">
-        <v>-1</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>2.3</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
-      <c r="Z19">
-        <v>0.875</v>
-      </c>
       <c r="AA19">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
         <v>-1</v>
@@ -2170,22 +2170,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6818217</v>
+        <v>6818214</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="2">
-        <v>45157.625</v>
+        <v>45157.53125</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2194,43 +2194,43 @@
         <v>49</v>
       </c>
       <c r="J20">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L20">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="M20">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N20">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="P20">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S20">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V20">
-        <v>0.909</v>
+        <v>1.5</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2239,16 +2239,16 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2256,22 +2256,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6818214</v>
+        <v>6818217</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="2">
-        <v>45157.53125</v>
+        <v>45157.625</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2280,43 +2280,43 @@
         <v>49</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="K21">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L21">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="M21">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="N21">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>-0.5</v>
+      </c>
+      <c r="Q21">
+        <v>1.9</v>
+      </c>
+      <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
         <v>2.75</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>1.825</v>
-      </c>
-      <c r="R21">
-        <v>2.025</v>
-      </c>
-      <c r="S21">
-        <v>2.5</v>
-      </c>
       <c r="T21">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U21">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1.5</v>
+        <v>0.909</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2325,16 +2325,16 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB21">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2428,22 +2428,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6818221</v>
+        <v>6818225</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="2">
-        <v>45164.625</v>
+        <v>45164.4375</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2452,43 +2452,43 @@
         <v>49</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K23">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="M23">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N23">
         <v>3.4</v>
       </c>
       <c r="O23">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P23">
         <v>-0.25</v>
       </c>
       <c r="Q23">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R23">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
         <v>2.5</v>
       </c>
       <c r="T23">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U23">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V23">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="W23">
         <v>-1</v>
@@ -2497,13 +2497,13 @@
         <v>-1</v>
       </c>
       <c r="Y23">
+        <v>1.05</v>
+      </c>
+      <c r="Z23">
+        <v>-1</v>
+      </c>
+      <c r="AA23">
         <v>0.925</v>
-      </c>
-      <c r="Z23">
-        <v>-1</v>
-      </c>
-      <c r="AA23">
-        <v>1.025</v>
       </c>
       <c r="AB23">
         <v>-1</v>
@@ -2600,22 +2600,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6818225</v>
+        <v>6818221</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="2">
-        <v>45164.4375</v>
+        <v>45164.625</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2624,43 +2624,43 @@
         <v>49</v>
       </c>
       <c r="J25">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="K25">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L25">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N25">
         <v>3.4</v>
       </c>
       <c r="O25">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P25">
         <v>-0.25</v>
       </c>
       <c r="Q25">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R25">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S25">
         <v>2.5</v>
       </c>
       <c r="T25">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V25">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2669,13 +2669,13 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB25">
         <v>-1</v>
@@ -2686,85 +2686,85 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6818223</v>
+        <v>6818224</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="2">
-        <v>45165.4375</v>
+        <v>45165.60416666666</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J26">
+        <v>1.95</v>
+      </c>
+      <c r="K26">
+        <v>3.4</v>
+      </c>
+      <c r="L26">
+        <v>3.8</v>
+      </c>
+      <c r="M26">
         <v>1.75</v>
       </c>
-      <c r="K26">
-        <v>3.6</v>
-      </c>
-      <c r="L26">
-        <v>4.75</v>
-      </c>
-      <c r="M26">
-        <v>2.1</v>
-      </c>
       <c r="N26">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O26">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P26">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q26">
+        <v>2.025</v>
+      </c>
+      <c r="R26">
         <v>1.825</v>
-      </c>
-      <c r="R26">
-        <v>2.025</v>
       </c>
       <c r="S26">
         <v>2.5</v>
       </c>
       <c r="T26">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V26">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z26">
+        <v>-1</v>
+      </c>
+      <c r="AA26">
+        <v>-1</v>
+      </c>
+      <c r="AB26">
         <v>1.025</v>
-      </c>
-      <c r="AA26">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB26">
-        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2858,85 +2858,85 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6818224</v>
+        <v>6818223</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="2">
-        <v>45165.60416666666</v>
+        <v>45165.4375</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J28">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="K28">
+        <v>3.6</v>
+      </c>
+      <c r="L28">
+        <v>4.75</v>
+      </c>
+      <c r="M28">
+        <v>2.1</v>
+      </c>
+      <c r="N28">
         <v>3.4</v>
       </c>
-      <c r="L28">
-        <v>3.8</v>
-      </c>
-      <c r="M28">
-        <v>1.75</v>
-      </c>
-      <c r="N28">
-        <v>3.75</v>
-      </c>
       <c r="O28">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q28">
+        <v>1.825</v>
+      </c>
+      <c r="R28">
         <v>2.025</v>
-      </c>
-      <c r="R28">
-        <v>1.825</v>
       </c>
       <c r="S28">
         <v>2.5</v>
       </c>
       <c r="T28">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U28">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y28">
+        <v>-1</v>
+      </c>
+      <c r="Z28">
         <v>1.025</v>
       </c>
-      <c r="Z28">
-        <v>-1</v>
-      </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB28">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -3116,58 +3116,58 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6818231</v>
+        <v>6818229</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="2">
-        <v>45172.38541666666</v>
+        <v>45172.51041666666</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I31" t="s">
         <v>50</v>
       </c>
       <c r="J31">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="K31">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L31">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="M31">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N31">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>1.833</v>
+        <v>1.55</v>
       </c>
       <c r="P31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S31">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T31">
         <v>1.975</v>
@@ -3182,13 +3182,13 @@
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>0.833</v>
+        <v>0.55</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA31">
         <v>0.9750000000000001</v>
@@ -3202,58 +3202,58 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6818229</v>
+        <v>6818231</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="2">
-        <v>45172.51041666666</v>
+        <v>45172.38541666666</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I32" t="s">
         <v>50</v>
       </c>
       <c r="J32">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="K32">
+        <v>3.4</v>
+      </c>
+      <c r="L32">
+        <v>2.2</v>
+      </c>
+      <c r="M32">
+        <v>4.2</v>
+      </c>
+      <c r="N32">
         <v>3.75</v>
       </c>
-      <c r="L32">
-        <v>1.571</v>
-      </c>
-      <c r="M32">
-        <v>6</v>
-      </c>
-      <c r="N32">
-        <v>4</v>
-      </c>
       <c r="O32">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q32">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R32">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T32">
         <v>1.975</v>
@@ -3268,13 +3268,13 @@
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>0.55</v>
+        <v>0.833</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA32">
         <v>0.9750000000000001</v>
@@ -3460,19 +3460,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7197409</v>
+        <v>7197408</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
       </c>
       <c r="D35" s="2">
-        <v>45192.39583333334</v>
+        <v>45192.60416666666</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3484,40 +3484,40 @@
         <v>50</v>
       </c>
       <c r="J35">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="K35">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M35">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="N35">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P35">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q35">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S35">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T35">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U35">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V35">
         <v>-1</v>
@@ -3526,19 +3526,19 @@
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3632,19 +3632,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7197408</v>
+        <v>7197409</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
       </c>
       <c r="D37" s="2">
-        <v>45192.60416666666</v>
+        <v>45192.39583333334</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3656,40 +3656,40 @@
         <v>50</v>
       </c>
       <c r="J37">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="K37">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L37">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M37">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="N37">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O37">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P37">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q37">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R37">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
         <v>-1</v>
@@ -3698,19 +3698,19 @@
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3890,22 +3890,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6863234</v>
+        <v>7020194</v>
       </c>
       <c r="C40" t="s">
         <v>33</v>
       </c>
       <c r="D40" s="2">
-        <v>45196.625</v>
+        <v>45196.53125</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -3914,43 +3914,43 @@
         <v>49</v>
       </c>
       <c r="J40">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="K40">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L40">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="M40">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="N40">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="O40">
-        <v>9.5</v>
+        <v>3.1</v>
       </c>
       <c r="P40">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q40">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R40">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S40">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T40">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V40">
-        <v>0.333</v>
+        <v>1.2</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -3959,16 +3959,16 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z40">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -3976,22 +3976,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7020194</v>
+        <v>6863234</v>
       </c>
       <c r="C41" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="2">
-        <v>45196.53125</v>
+        <v>45196.625</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4000,43 +4000,43 @@
         <v>49</v>
       </c>
       <c r="J41">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="K41">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="L41">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="M41">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="N41">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="O41">
-        <v>3.1</v>
+        <v>9.5</v>
       </c>
       <c r="P41">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q41">
+        <v>1.975</v>
+      </c>
+      <c r="R41">
+        <v>1.875</v>
+      </c>
+      <c r="S41">
+        <v>3</v>
+      </c>
+      <c r="T41">
         <v>1.925</v>
       </c>
-      <c r="R41">
+      <c r="U41">
         <v>1.925</v>
       </c>
-      <c r="S41">
-        <v>2.75</v>
-      </c>
-      <c r="T41">
-        <v>1.825</v>
-      </c>
-      <c r="U41">
-        <v>2.025</v>
-      </c>
       <c r="V41">
-        <v>1.2</v>
+        <v>0.333</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4045,16 +4045,16 @@
         <v>-1</v>
       </c>
       <c r="Y41">
+        <v>-1</v>
+      </c>
+      <c r="Z41">
+        <v>0.875</v>
+      </c>
+      <c r="AA41">
+        <v>-1</v>
+      </c>
+      <c r="AB41">
         <v>0.925</v>
-      </c>
-      <c r="Z41">
-        <v>-1</v>
-      </c>
-      <c r="AA41">
-        <v>-1</v>
-      </c>
-      <c r="AB41">
-        <v>1.025</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4406,19 +4406,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6818238</v>
+        <v>6818241</v>
       </c>
       <c r="C46" t="s">
         <v>33</v>
       </c>
       <c r="D46" s="2">
-        <v>45200.52083333334</v>
+        <v>45200.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4430,43 +4430,43 @@
         <v>49</v>
       </c>
       <c r="J46">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="K46">
+        <v>3.3</v>
+      </c>
+      <c r="L46">
+        <v>2.5</v>
+      </c>
+      <c r="M46">
+        <v>2.5</v>
+      </c>
+      <c r="N46">
         <v>3.4</v>
       </c>
-      <c r="L46">
-        <v>3.1</v>
-      </c>
-      <c r="M46">
-        <v>2.05</v>
-      </c>
-      <c r="N46">
-        <v>3.6</v>
-      </c>
       <c r="O46">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="P46">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S46">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T46">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V46">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="W46">
         <v>-1</v>
@@ -4475,13 +4475,13 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4492,19 +4492,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6818241</v>
+        <v>6818238</v>
       </c>
       <c r="C47" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="2">
-        <v>45200.41666666666</v>
+        <v>45200.52083333334</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4516,43 +4516,43 @@
         <v>49</v>
       </c>
       <c r="J47">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="K47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L47">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="M47">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="N47">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O47">
+        <v>3.5</v>
+      </c>
+      <c r="P47">
+        <v>-0.5</v>
+      </c>
+      <c r="Q47">
+        <v>2.05</v>
+      </c>
+      <c r="R47">
+        <v>1.8</v>
+      </c>
+      <c r="S47">
         <v>2.75</v>
       </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>1.825</v>
-      </c>
-      <c r="R47">
-        <v>2.025</v>
-      </c>
-      <c r="S47">
-        <v>2.5</v>
-      </c>
       <c r="T47">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U47">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V47">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4561,13 +4561,13 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB47">
         <v>-1</v>
@@ -4922,85 +4922,85 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6818248</v>
+        <v>6818244</v>
       </c>
       <c r="C52" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="2">
-        <v>45207.33333333334</v>
+        <v>45207.47916666666</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J52">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="K52">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L52">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="M52">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="N52">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="O52">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="P52">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q52">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R52">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T52">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V52">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA52">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB52">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -5008,85 +5008,85 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6818244</v>
+        <v>6818248</v>
       </c>
       <c r="C53" t="s">
         <v>33</v>
       </c>
       <c r="D53" s="2">
-        <v>45207.47916666666</v>
+        <v>45207.33333333334</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J53">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="K53">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M53">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="N53">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="O53">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="P53">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q53">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R53">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S53">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U53">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V53">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W53">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z53">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -5352,85 +5352,85 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6818251</v>
+        <v>6818252</v>
       </c>
       <c r="C57" t="s">
         <v>33</v>
       </c>
       <c r="D57" s="2">
-        <v>45221.53125</v>
+        <v>45221.4375</v>
       </c>
       <c r="E57" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
         <v>1</v>
       </c>
-      <c r="H57">
-        <v>2</v>
-      </c>
       <c r="I57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J57">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="K57">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L57">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="M57">
-        <v>5.75</v>
+        <v>1.75</v>
       </c>
       <c r="N57">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="O57">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="P57">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q57">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S57">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T57">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U57">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V57">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB57">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5438,82 +5438,82 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6818252</v>
+        <v>6818253</v>
       </c>
       <c r="C58" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="2">
-        <v>45221.4375</v>
+        <v>45221.34375</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J58">
+        <v>2.5</v>
+      </c>
+      <c r="K58">
+        <v>3.2</v>
+      </c>
+      <c r="L58">
+        <v>2.6</v>
+      </c>
+      <c r="M58">
+        <v>4</v>
+      </c>
+      <c r="N58">
+        <v>3.6</v>
+      </c>
+      <c r="O58">
         <v>1.909</v>
       </c>
-      <c r="K58">
-        <v>3.1</v>
-      </c>
-      <c r="L58">
-        <v>4</v>
-      </c>
-      <c r="M58">
-        <v>1.75</v>
-      </c>
-      <c r="N58">
-        <v>3.75</v>
-      </c>
-      <c r="O58">
-        <v>4.75</v>
-      </c>
       <c r="P58">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q58">
+        <v>1.9</v>
+      </c>
+      <c r="R58">
         <v>1.95</v>
-      </c>
-      <c r="R58">
-        <v>1.9</v>
       </c>
       <c r="S58">
         <v>2.75</v>
       </c>
       <c r="T58">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U58">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y58">
+        <v>-1</v>
+      </c>
+      <c r="Z58">
         <v>0.95</v>
       </c>
-      <c r="Z58">
-        <v>-1</v>
-      </c>
       <c r="AA58">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB58">
         <v>-1</v>
@@ -5524,65 +5524,65 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6818253</v>
+        <v>6818251</v>
       </c>
       <c r="C59" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="2">
-        <v>45221.34375</v>
+        <v>45221.53125</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I59" t="s">
         <v>50</v>
       </c>
       <c r="J59">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="K59">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L59">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="M59">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="N59">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O59">
-        <v>1.909</v>
+        <v>1.55</v>
       </c>
       <c r="P59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S59">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T59">
+        <v>1.875</v>
+      </c>
+      <c r="U59">
         <v>1.975</v>
       </c>
-      <c r="U59">
-        <v>1.875</v>
-      </c>
       <c r="V59">
         <v>-1</v>
       </c>
@@ -5590,19 +5590,19 @@
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>0.909</v>
+        <v>0.55</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z59">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5610,85 +5610,85 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6818261</v>
+        <v>6818259</v>
       </c>
       <c r="C60" t="s">
         <v>33</v>
       </c>
       <c r="D60" s="2">
-        <v>45227.3125</v>
+        <v>45227.5</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J60">
-        <v>1.666</v>
+        <v>2.35</v>
       </c>
       <c r="K60">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L60">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M60">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="N60">
+        <v>3.4</v>
+      </c>
+      <c r="O60">
         <v>3.5</v>
       </c>
-      <c r="O60">
-        <v>4.5</v>
-      </c>
       <c r="P60">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q60">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S60">
         <v>2.75</v>
       </c>
       <c r="T60">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U60">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V60">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5782,85 +5782,85 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6818259</v>
+        <v>6818261</v>
       </c>
       <c r="C62" t="s">
         <v>33</v>
       </c>
       <c r="D62" s="2">
-        <v>45227.5</v>
+        <v>45227.3125</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J62">
-        <v>2.35</v>
+        <v>1.666</v>
       </c>
       <c r="K62">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L62">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M62">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="N62">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O62">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P62">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q62">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R62">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S62">
         <v>2.75</v>
       </c>
       <c r="T62">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U62">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V62">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W62">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z62">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB62">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -6384,85 +6384,85 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6818266</v>
+        <v>6999361</v>
       </c>
       <c r="C69" t="s">
         <v>33</v>
       </c>
       <c r="D69" s="2">
-        <v>45235.60416666666</v>
+        <v>45235.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J69">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="K69">
+        <v>3.6</v>
+      </c>
+      <c r="L69">
         <v>3.75</v>
       </c>
-      <c r="L69">
-        <v>4.5</v>
-      </c>
       <c r="M69">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="N69">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O69">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q69">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T69">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U69">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V69">
         <v>-1</v>
       </c>
       <c r="W69">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6556,85 +6556,85 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6999361</v>
+        <v>6818266</v>
       </c>
       <c r="C71" t="s">
         <v>33</v>
       </c>
       <c r="D71" s="2">
-        <v>45235.35416666666</v>
+        <v>45235.60416666666</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J71">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="K71">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L71">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M71">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="N71">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P71">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q71">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="R71">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S71">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T71">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U71">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V71">
         <v>-1</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X71">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6900,64 +6900,64 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6818272</v>
+        <v>6818273</v>
       </c>
       <c r="C75" t="s">
         <v>33</v>
       </c>
       <c r="D75" s="2">
-        <v>45242.5</v>
+        <v>45242.39583333334</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="s">
         <v>50</v>
       </c>
       <c r="J75">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="K75">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="L75">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="M75">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="N75">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="O75">
-        <v>8.5</v>
+        <v>2.6</v>
       </c>
       <c r="P75">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T75">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
         <v>-1</v>
@@ -6966,19 +6966,19 @@
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>7.5</v>
+        <v>1.6</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6986,85 +6986,85 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6818269</v>
+        <v>6818272</v>
       </c>
       <c r="C76" t="s">
         <v>33</v>
       </c>
       <c r="D76" s="2">
-        <v>45242.60416666666</v>
+        <v>45242.5</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
         <v>1</v>
       </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
       <c r="I76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J76">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="K76">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L76">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="M76">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="N76">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="O76">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="P76">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q76">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R76">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T76">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Y76">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7072,85 +7072,85 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6818273</v>
+        <v>6818269</v>
       </c>
       <c r="C77" t="s">
         <v>33</v>
       </c>
       <c r="D77" s="2">
-        <v>45242.39583333334</v>
+        <v>45242.60416666666</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J77">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K77">
         <v>3.4</v>
       </c>
       <c r="L77">
+        <v>3.1</v>
+      </c>
+      <c r="M77">
+        <v>2.2</v>
+      </c>
+      <c r="N77">
+        <v>3.5</v>
+      </c>
+      <c r="O77">
         <v>3.2</v>
       </c>
-      <c r="M77">
-        <v>2.8</v>
-      </c>
-      <c r="N77">
-        <v>3.25</v>
-      </c>
-      <c r="O77">
-        <v>2.6</v>
-      </c>
       <c r="P77">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q77">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R77">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S77">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T77">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7244,67 +7244,67 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7448994</v>
+        <v>7448991</v>
       </c>
       <c r="C79" t="s">
         <v>33</v>
       </c>
       <c r="D79" s="2">
-        <v>45255.44791666666</v>
+        <v>45255.64583333334</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="s">
         <v>49</v>
       </c>
       <c r="J79">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="K79">
+        <v>3.6</v>
+      </c>
+      <c r="L79">
+        <v>2.15</v>
+      </c>
+      <c r="M79">
+        <v>3.2</v>
+      </c>
+      <c r="N79">
         <v>3.5</v>
       </c>
-      <c r="L79">
-        <v>2.9</v>
-      </c>
-      <c r="M79">
-        <v>2.3</v>
-      </c>
-      <c r="N79">
-        <v>3.4</v>
-      </c>
       <c r="O79">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="P79">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q79">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R79">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S79">
         <v>2.5</v>
       </c>
       <c r="T79">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V79">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7313,13 +7313,13 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB79">
         <v>-1</v>
@@ -7416,67 +7416,67 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7448991</v>
+        <v>7448994</v>
       </c>
       <c r="C81" t="s">
         <v>33</v>
       </c>
       <c r="D81" s="2">
-        <v>45255.64583333334</v>
+        <v>45255.44791666666</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="s">
         <v>49</v>
       </c>
       <c r="J81">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="K81">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L81">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="M81">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N81">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O81">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="P81">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q81">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R81">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S81">
         <v>2.5</v>
       </c>
       <c r="T81">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="U81">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V81">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7485,13 +7485,13 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB81">
         <v>-1</v>
@@ -7674,85 +7674,85 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7473670</v>
+        <v>6818281</v>
       </c>
       <c r="C84" t="s">
         <v>33</v>
       </c>
       <c r="D84" s="2">
-        <v>45262.375</v>
+        <v>45262.64583333334</v>
       </c>
       <c r="E84" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J84">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="K84">
         <v>3.4</v>
       </c>
       <c r="L84">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="M84">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="N84">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O84">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="P84">
+        <v>0.25</v>
+      </c>
+      <c r="Q84">
+        <v>2.05</v>
+      </c>
+      <c r="R84">
+        <v>1.8</v>
+      </c>
+      <c r="S84">
+        <v>2.25</v>
+      </c>
+      <c r="T84">
+        <v>1.9</v>
+      </c>
+      <c r="U84">
+        <v>1.95</v>
+      </c>
+      <c r="V84">
+        <v>-1</v>
+      </c>
+      <c r="W84">
+        <v>2.25</v>
+      </c>
+      <c r="X84">
+        <v>-1</v>
+      </c>
+      <c r="Y84">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="Z84">
         <v>-0.5</v>
       </c>
-      <c r="Q84">
-        <v>2</v>
-      </c>
-      <c r="R84">
-        <v>1.85</v>
-      </c>
-      <c r="S84">
-        <v>2.75</v>
-      </c>
-      <c r="T84">
-        <v>1.975</v>
-      </c>
-      <c r="U84">
-        <v>1.875</v>
-      </c>
-      <c r="V84">
-        <v>-1</v>
-      </c>
-      <c r="W84">
-        <v>-1</v>
-      </c>
-      <c r="X84">
-        <v>2.75</v>
-      </c>
-      <c r="Y84">
-        <v>-1</v>
-      </c>
-      <c r="Z84">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA84">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7846,85 +7846,85 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6818281</v>
+        <v>7473670</v>
       </c>
       <c r="C86" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="2">
-        <v>45262.64583333334</v>
+        <v>45262.375</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J86">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="K86">
         <v>3.4</v>
       </c>
       <c r="L86">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>3.5</v>
+      </c>
+      <c r="O86">
         <v>3.75</v>
       </c>
-      <c r="N86">
-        <v>3.25</v>
-      </c>
-      <c r="O86">
-        <v>2.1</v>
-      </c>
       <c r="P86">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q86">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T86">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
         <v>-1</v>
       </c>
       <c r="W86">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y86">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA86">
+        <v>0.4875</v>
+      </c>
+      <c r="AB86">
         <v>-0.5</v>
-      </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
-      <c r="AB86">
-        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -8362,85 +8362,85 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6818289</v>
+        <v>6818287</v>
       </c>
       <c r="C92" t="s">
         <v>33</v>
       </c>
       <c r="D92" s="2">
-        <v>45269.38541666666</v>
+        <v>45269.48958333334</v>
       </c>
       <c r="E92" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J92">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="K92">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L92">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="M92">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N92">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O92">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="P92">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S92">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T92">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U92">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8448,85 +8448,85 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6818287</v>
+        <v>6818289</v>
       </c>
       <c r="C93" t="s">
         <v>33</v>
       </c>
       <c r="D93" s="2">
-        <v>45269.48958333334</v>
+        <v>45269.38541666666</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J93">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="K93">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L93">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="M93">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="N93">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O93">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="P93">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R93">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T93">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V93">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="W93">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8620,22 +8620,22 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6818288</v>
+        <v>6818290</v>
       </c>
       <c r="C95" t="s">
         <v>33</v>
       </c>
       <c r="D95" s="2">
-        <v>45270.375</v>
+        <v>45270.47916666666</v>
       </c>
       <c r="E95" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8644,40 +8644,40 @@
         <v>50</v>
       </c>
       <c r="J95">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="K95">
         <v>3.5</v>
       </c>
       <c r="L95">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M95">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N95">
         <v>3.4</v>
       </c>
       <c r="O95">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="P95">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q95">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S95">
         <v>2.5</v>
       </c>
       <c r="T95">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
         <v>-1</v>
@@ -8686,19 +8686,19 @@
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>1.625</v>
+        <v>1.3</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA95">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8706,22 +8706,22 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6818290</v>
+        <v>6818288</v>
       </c>
       <c r="C96" t="s">
         <v>33</v>
       </c>
       <c r="D96" s="2">
-        <v>45270.47916666666</v>
+        <v>45270.375</v>
       </c>
       <c r="E96" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -8730,40 +8730,40 @@
         <v>50</v>
       </c>
       <c r="J96">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K96">
         <v>3.5</v>
       </c>
       <c r="L96">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M96">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N96">
         <v>3.4</v>
       </c>
       <c r="O96">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="P96">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R96">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S96">
         <v>2.5</v>
       </c>
       <c r="T96">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
         <v>-1</v>
@@ -8772,19 +8772,19 @@
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>1.3</v>
+        <v>1.625</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -9050,85 +9050,85 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6818297</v>
+        <v>6818295</v>
       </c>
       <c r="C100" t="s">
         <v>33</v>
       </c>
       <c r="D100" s="2">
-        <v>45277.58333333334</v>
+        <v>45277.5</v>
       </c>
       <c r="E100" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J100">
-        <v>1.727</v>
+        <v>1.2</v>
       </c>
       <c r="K100">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="L100">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M100">
-        <v>1.55</v>
+        <v>1.333</v>
       </c>
       <c r="N100">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="O100">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="P100">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q100">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="R100">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S100">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T100">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U100">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W100">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB100">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9136,85 +9136,85 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6818295</v>
+        <v>6818297</v>
       </c>
       <c r="C101" t="s">
         <v>33</v>
       </c>
       <c r="D101" s="2">
-        <v>45277.5</v>
+        <v>45277.58333333334</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101" t="s">
+        <v>48</v>
+      </c>
+      <c r="J101">
+        <v>1.727</v>
+      </c>
+      <c r="K101">
+        <v>3.5</v>
+      </c>
+      <c r="L101">
+        <v>5</v>
+      </c>
+      <c r="M101">
+        <v>1.55</v>
+      </c>
+      <c r="N101">
+        <v>4</v>
+      </c>
+      <c r="O101">
+        <v>6.5</v>
+      </c>
+      <c r="P101">
+        <v>-1</v>
+      </c>
+      <c r="Q101">
+        <v>1.875</v>
+      </c>
+      <c r="R101">
+        <v>1.975</v>
+      </c>
+      <c r="S101">
+        <v>2.5</v>
+      </c>
+      <c r="T101">
+        <v>1.825</v>
+      </c>
+      <c r="U101">
+        <v>2.025</v>
+      </c>
+      <c r="V101">
+        <v>-1</v>
+      </c>
+      <c r="W101">
         <v>3</v>
       </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101" t="s">
-        <v>49</v>
-      </c>
-      <c r="J101">
-        <v>1.2</v>
-      </c>
-      <c r="K101">
-        <v>6</v>
-      </c>
-      <c r="L101">
-        <v>15</v>
-      </c>
-      <c r="M101">
-        <v>1.333</v>
-      </c>
-      <c r="N101">
-        <v>5.25</v>
-      </c>
-      <c r="O101">
-        <v>9.5</v>
-      </c>
-      <c r="P101">
-        <v>-1.5</v>
-      </c>
-      <c r="Q101">
-        <v>1.925</v>
-      </c>
-      <c r="R101">
-        <v>1.925</v>
-      </c>
-      <c r="S101">
-        <v>3</v>
-      </c>
-      <c r="T101">
-        <v>1.925</v>
-      </c>
-      <c r="U101">
-        <v>1.925</v>
-      </c>
-      <c r="V101">
-        <v>0.333</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9394,82 +9394,82 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7646447</v>
+        <v>7646445</v>
       </c>
       <c r="C104" t="s">
         <v>33</v>
       </c>
       <c r="D104" s="2">
-        <v>45325.35416666666</v>
+        <v>45325.5625</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J104">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L104">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="M104">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="N104">
         <v>3.6</v>
       </c>
       <c r="O104">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P104">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q104">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T104">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U104">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V104">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB104">
         <v>-1</v>
@@ -9480,55 +9480,55 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7646445</v>
+        <v>7646443</v>
       </c>
       <c r="C105" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="2">
-        <v>45325.5625</v>
+        <v>45325.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J105">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="K105">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="L105">
+        <v>1.444</v>
+      </c>
+      <c r="M105">
+        <v>6.5</v>
+      </c>
+      <c r="N105">
         <v>4.2</v>
       </c>
-      <c r="M105">
-        <v>1.909</v>
-      </c>
-      <c r="N105">
-        <v>3.6</v>
-      </c>
       <c r="O105">
-        <v>4.2</v>
+        <v>1.533</v>
       </c>
       <c r="P105">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Q105">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S105">
         <v>2.5</v>
@@ -9543,16 +9543,16 @@
         <v>-1</v>
       </c>
       <c r="W105">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA105">
         <v>0.825</v>
@@ -9566,82 +9566,82 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7646443</v>
+        <v>7646447</v>
       </c>
       <c r="C106" t="s">
         <v>33</v>
       </c>
       <c r="D106" s="2">
-        <v>45325.45833333334</v>
+        <v>45325.35416666666</v>
       </c>
       <c r="E106" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G106">
+        <v>3</v>
+      </c>
+      <c r="H106">
         <v>1</v>
       </c>
-      <c r="H106">
+      <c r="I106" t="s">
+        <v>49</v>
+      </c>
+      <c r="J106">
+        <v>3.2</v>
+      </c>
+      <c r="K106">
+        <v>3.6</v>
+      </c>
+      <c r="L106">
+        <v>2.1</v>
+      </c>
+      <c r="M106">
+        <v>2.2</v>
+      </c>
+      <c r="N106">
+        <v>3.6</v>
+      </c>
+      <c r="O106">
         <v>3</v>
       </c>
-      <c r="I106" t="s">
-        <v>50</v>
-      </c>
-      <c r="J106">
-        <v>7</v>
-      </c>
-      <c r="K106">
-        <v>4.333</v>
-      </c>
-      <c r="L106">
-        <v>1.444</v>
-      </c>
-      <c r="M106">
-        <v>6.5</v>
-      </c>
-      <c r="N106">
-        <v>4.2</v>
-      </c>
-      <c r="O106">
-        <v>1.533</v>
-      </c>
       <c r="P106">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q106">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R106">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T106">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U106">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V106">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z106">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB106">
         <v>-1</v>
@@ -9996,64 +9996,64 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6818307</v>
+        <v>6818308</v>
       </c>
       <c r="C111" t="s">
         <v>33</v>
       </c>
       <c r="D111" s="2">
-        <v>45329.57291666666</v>
+        <v>45329.66666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
         <v>1</v>
-      </c>
-      <c r="H111">
-        <v>2</v>
       </c>
       <c r="I111" t="s">
         <v>50</v>
       </c>
       <c r="J111">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="K111">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L111">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="M111">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="N111">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O111">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P111">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q111">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S111">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T111">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U111">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
         <v>-1</v>
@@ -10062,19 +10062,19 @@
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>2.2</v>
+        <v>4.25</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10082,64 +10082,64 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6818308</v>
+        <v>6818307</v>
       </c>
       <c r="C112" t="s">
         <v>33</v>
       </c>
       <c r="D112" s="2">
-        <v>45329.66666666666</v>
+        <v>45329.57291666666</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="s">
         <v>50</v>
       </c>
       <c r="J112">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="K112">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L112">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="M112">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="N112">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O112">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P112">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q112">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="R112">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T112">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V112">
         <v>-1</v>
@@ -10148,19 +10148,19 @@
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>4.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10340,22 +10340,22 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6818310</v>
+        <v>6818314</v>
       </c>
       <c r="C115" t="s">
         <v>33</v>
       </c>
       <c r="D115" s="2">
-        <v>45332.5625</v>
+        <v>45332.45833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10364,40 +10364,40 @@
         <v>50</v>
       </c>
       <c r="J115">
-        <v>3.9</v>
+        <v>1.909</v>
       </c>
       <c r="K115">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L115">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="M115">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N115">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O115">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="P115">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R115">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S115">
         <v>2.75</v>
       </c>
       <c r="T115">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
         <v>-1</v>
@@ -10406,19 +10406,19 @@
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>0.6499999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="Y115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AA115">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10426,22 +10426,22 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6818314</v>
+        <v>6818310</v>
       </c>
       <c r="C116" t="s">
         <v>33</v>
       </c>
       <c r="D116" s="2">
-        <v>45332.45833333334</v>
+        <v>45332.5625</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10450,40 +10450,40 @@
         <v>50</v>
       </c>
       <c r="J116">
-        <v>1.909</v>
+        <v>3.9</v>
       </c>
       <c r="K116">
+        <v>3.6</v>
+      </c>
+      <c r="L116">
+        <v>1.8</v>
+      </c>
+      <c r="M116">
+        <v>4.5</v>
+      </c>
+      <c r="N116">
         <v>3.75</v>
       </c>
-      <c r="L116">
-        <v>3.25</v>
-      </c>
-      <c r="M116">
-        <v>2.375</v>
-      </c>
-      <c r="N116">
-        <v>3.4</v>
-      </c>
       <c r="O116">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="P116">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R116">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
         <v>2.75</v>
       </c>
       <c r="T116">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V116">
         <v>-1</v>
@@ -10492,19 +10492,19 @@
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>1.6</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z116">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB116">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10598,43 +10598,43 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6818311</v>
+        <v>6818312</v>
       </c>
       <c r="C118" t="s">
         <v>33</v>
       </c>
       <c r="D118" s="2">
-        <v>45333.44791666666</v>
+        <v>45333.65625</v>
       </c>
       <c r="E118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G118">
         <v>1</v>
       </c>
       <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118" t="s">
+        <v>48</v>
+      </c>
+      <c r="J118">
         <v>2</v>
       </c>
-      <c r="I118" t="s">
-        <v>50</v>
-      </c>
-      <c r="J118">
-        <v>1.7</v>
-      </c>
       <c r="K118">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L118">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="M118">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N118">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O118">
         <v>4</v>
@@ -10643,40 +10643,40 @@
         <v>-0.5</v>
       </c>
       <c r="Q118">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R118">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S118">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T118">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
         <v>-1</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X118">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA118">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10684,43 +10684,43 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6818312</v>
+        <v>6818311</v>
       </c>
       <c r="C119" t="s">
         <v>33</v>
       </c>
       <c r="D119" s="2">
-        <v>45333.65625</v>
+        <v>45333.44791666666</v>
       </c>
       <c r="E119" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G119">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J119">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="K119">
+        <v>3.75</v>
+      </c>
+      <c r="L119">
+        <v>4.1</v>
+      </c>
+      <c r="M119">
+        <v>1.8</v>
+      </c>
+      <c r="N119">
         <v>3.5</v>
-      </c>
-      <c r="L119">
-        <v>3.3</v>
-      </c>
-      <c r="M119">
-        <v>1.909</v>
-      </c>
-      <c r="N119">
-        <v>3.25</v>
       </c>
       <c r="O119">
         <v>4</v>
@@ -10729,40 +10729,40 @@
         <v>-0.5</v>
       </c>
       <c r="Q119">
+        <v>1.875</v>
+      </c>
+      <c r="R119">
+        <v>1.975</v>
+      </c>
+      <c r="S119">
+        <v>2.75</v>
+      </c>
+      <c r="T119">
+        <v>1.9</v>
+      </c>
+      <c r="U119">
         <v>1.95</v>
       </c>
-      <c r="R119">
-        <v>1.9</v>
-      </c>
-      <c r="S119">
-        <v>2.5</v>
-      </c>
-      <c r="T119">
-        <v>2.025</v>
-      </c>
-      <c r="U119">
-        <v>1.825</v>
-      </c>
       <c r="V119">
         <v>-1</v>
       </c>
       <c r="W119">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB119">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10942,85 +10942,85 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6818316</v>
+        <v>6818320</v>
       </c>
       <c r="C122" t="s">
         <v>33</v>
       </c>
       <c r="D122" s="2">
-        <v>45339.375</v>
+        <v>45339.47916666666</v>
       </c>
       <c r="E122" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G122">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J122">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="K122">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L122">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M122">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="N122">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="P122">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q122">
+        <v>1.975</v>
+      </c>
+      <c r="R122">
         <v>1.875</v>
       </c>
-      <c r="R122">
-        <v>1.975</v>
-      </c>
       <c r="S122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T122">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V122">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y122">
+        <v>-1</v>
+      </c>
+      <c r="Z122">
         <v>0.875</v>
       </c>
-      <c r="Z122">
-        <v>-1</v>
-      </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11028,85 +11028,85 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6818320</v>
+        <v>6818316</v>
       </c>
       <c r="C123" t="s">
         <v>33</v>
       </c>
       <c r="D123" s="2">
-        <v>45339.47916666666</v>
+        <v>45339.375</v>
       </c>
       <c r="E123" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F123" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G123">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J123">
+        <v>1.909</v>
+      </c>
+      <c r="K123">
+        <v>3.5</v>
+      </c>
+      <c r="L123">
+        <v>3.8</v>
+      </c>
+      <c r="M123">
         <v>2.15</v>
       </c>
-      <c r="K123">
-        <v>3.3</v>
-      </c>
-      <c r="L123">
-        <v>3.3</v>
-      </c>
-      <c r="M123">
-        <v>2.75</v>
-      </c>
       <c r="N123">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O123">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="P123">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q123">
+        <v>1.875</v>
+      </c>
+      <c r="R123">
         <v>1.975</v>
       </c>
-      <c r="R123">
-        <v>1.875</v>
-      </c>
       <c r="S123">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T123">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U123">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V123">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z123">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -11372,67 +11372,67 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6818325</v>
+        <v>6818327</v>
       </c>
       <c r="C127" t="s">
         <v>33</v>
       </c>
       <c r="D127" s="2">
-        <v>45346.5625</v>
+        <v>45346.35416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G127">
+        <v>3</v>
+      </c>
+      <c r="H127">
         <v>1</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
       </c>
       <c r="I127" t="s">
         <v>49</v>
       </c>
       <c r="J127">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="K127">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L127">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M127">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="N127">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O127">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P127">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q127">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="R127">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S127">
         <v>2.25</v>
       </c>
       <c r="T127">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U127">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V127">
-        <v>1.45</v>
+        <v>1.375</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11441,16 +11441,16 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB127">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:28">
@@ -11458,22 +11458,22 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6818326</v>
+        <v>6818325</v>
       </c>
       <c r="C128" t="s">
         <v>33</v>
       </c>
       <c r="D128" s="2">
-        <v>45346.45833333334</v>
+        <v>45346.5625</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G128">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11485,40 +11485,40 @@
         <v>2.25</v>
       </c>
       <c r="K128">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L128">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M128">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="N128">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O128">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P128">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q128">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R128">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S128">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T128">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V128">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11527,16 +11527,16 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11544,49 +11544,49 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6818327</v>
+        <v>6818326</v>
       </c>
       <c r="C129" t="s">
         <v>33</v>
       </c>
       <c r="D129" s="2">
-        <v>45346.35416666666</v>
+        <v>45346.45833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="s">
         <v>49</v>
       </c>
       <c r="J129">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="K129">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L129">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M129">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="N129">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O129">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P129">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q129">
         <v>2.05</v>
@@ -11595,16 +11595,16 @@
         <v>1.8</v>
       </c>
       <c r="S129">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T129">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U129">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V129">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -11619,7 +11619,7 @@
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB129">
         <v>-1</v>
@@ -11802,85 +11802,85 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6818330</v>
+        <v>6818331</v>
       </c>
       <c r="C132" t="s">
         <v>33</v>
       </c>
       <c r="D132" s="2">
-        <v>45353.61458333334</v>
+        <v>45353.35416666666</v>
       </c>
       <c r="E132" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J132">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="K132">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L132">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="M132">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="N132">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="O132">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="P132">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q132">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R132">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S132">
         <v>2.5</v>
       </c>
       <c r="T132">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
         <v>-1</v>
       </c>
       <c r="W132">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y132">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="133" spans="1:28">
@@ -11974,85 +11974,85 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6818331</v>
+        <v>6818330</v>
       </c>
       <c r="C134" t="s">
         <v>33</v>
       </c>
       <c r="D134" s="2">
-        <v>45353.35416666666</v>
+        <v>45353.61458333334</v>
       </c>
       <c r="E134" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J134">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="K134">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L134">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="M134">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="N134">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="O134">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="P134">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q134">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R134">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S134">
         <v>2.5</v>
       </c>
       <c r="T134">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U134">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V134">
         <v>-1</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X134">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z134">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
         <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:28">
@@ -12060,19 +12060,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6818329</v>
+        <v>6818328</v>
       </c>
       <c r="C135" t="s">
         <v>33</v>
       </c>
       <c r="D135" s="2">
-        <v>45354.625</v>
+        <v>45354.52083333334</v>
       </c>
       <c r="E135" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12084,43 +12084,43 @@
         <v>49</v>
       </c>
       <c r="J135">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="K135">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="L135">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="M135">
-        <v>2.1</v>
+        <v>1.222</v>
       </c>
       <c r="N135">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="O135">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="P135">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q135">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R135">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T135">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U135">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.1</v>
+        <v>0.222</v>
       </c>
       <c r="W135">
         <v>-1</v>
@@ -12129,16 +12129,16 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
         <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12146,85 +12146,85 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6818328</v>
+        <v>6818332</v>
       </c>
       <c r="C136" t="s">
         <v>33</v>
       </c>
       <c r="D136" s="2">
-        <v>45354.52083333334</v>
+        <v>45354.41666666666</v>
       </c>
       <c r="E136" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
         <v>2</v>
       </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
       <c r="I136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J136">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="K136">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="L136">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="M136">
-        <v>1.222</v>
+        <v>3.2</v>
       </c>
       <c r="N136">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="O136">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P136">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q136">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S136">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T136">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V136">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y136">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12232,85 +12232,85 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6818332</v>
+        <v>6818329</v>
       </c>
       <c r="C137" t="s">
         <v>33</v>
       </c>
       <c r="D137" s="2">
-        <v>45354.41666666666</v>
+        <v>45354.625</v>
       </c>
       <c r="E137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137" t="s">
+        <v>49</v>
+      </c>
+      <c r="J137">
+        <v>2.3</v>
+      </c>
+      <c r="K137">
+        <v>3.4</v>
+      </c>
+      <c r="L137">
+        <v>2.75</v>
+      </c>
+      <c r="M137">
+        <v>2.1</v>
+      </c>
+      <c r="N137">
+        <v>3.4</v>
+      </c>
+      <c r="O137">
+        <v>3.2</v>
+      </c>
+      <c r="P137">
+        <v>-0.25</v>
+      </c>
+      <c r="Q137">
+        <v>1.85</v>
+      </c>
+      <c r="R137">
         <v>2</v>
-      </c>
-      <c r="I137" t="s">
-        <v>50</v>
-      </c>
-      <c r="J137">
-        <v>2.75</v>
-      </c>
-      <c r="K137">
-        <v>3.5</v>
-      </c>
-      <c r="L137">
-        <v>2.25</v>
-      </c>
-      <c r="M137">
-        <v>3.2</v>
-      </c>
-      <c r="N137">
-        <v>3.6</v>
-      </c>
-      <c r="O137">
-        <v>2</v>
-      </c>
-      <c r="P137">
-        <v>0.5</v>
-      </c>
-      <c r="Q137">
-        <v>1.8</v>
-      </c>
-      <c r="R137">
-        <v>2.05</v>
       </c>
       <c r="S137">
         <v>2.75</v>
       </c>
       <c r="T137">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U137">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z137">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12404,82 +12404,82 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6818336</v>
+        <v>6818339</v>
       </c>
       <c r="C139" t="s">
         <v>33</v>
       </c>
       <c r="D139" s="2">
-        <v>45360.36458333334</v>
+        <v>45360.46875</v>
       </c>
       <c r="E139" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G139">
+        <v>3</v>
+      </c>
+      <c r="H139">
         <v>1</v>
       </c>
-      <c r="H139">
-        <v>2</v>
-      </c>
       <c r="I139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J139">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="K139">
+        <v>3.2</v>
+      </c>
+      <c r="L139">
+        <v>3.4</v>
+      </c>
+      <c r="M139">
+        <v>2.15</v>
+      </c>
+      <c r="N139">
+        <v>3.2</v>
+      </c>
+      <c r="O139">
         <v>3.5</v>
       </c>
-      <c r="L139">
+      <c r="P139">
+        <v>-0.25</v>
+      </c>
+      <c r="Q139">
+        <v>1.875</v>
+      </c>
+      <c r="R139">
+        <v>1.975</v>
+      </c>
+      <c r="S139">
         <v>2.25</v>
       </c>
-      <c r="M139">
-        <v>3.1</v>
-      </c>
-      <c r="N139">
-        <v>3.5</v>
-      </c>
-      <c r="O139">
-        <v>2.15</v>
-      </c>
-      <c r="P139">
-        <v>0.25</v>
-      </c>
-      <c r="Q139">
+      <c r="T139">
+        <v>1.9</v>
+      </c>
+      <c r="U139">
         <v>1.95</v>
       </c>
-      <c r="R139">
-        <v>1.9</v>
-      </c>
-      <c r="S139">
-        <v>2.5</v>
-      </c>
-      <c r="T139">
-        <v>1.85</v>
-      </c>
-      <c r="U139">
-        <v>2</v>
-      </c>
       <c r="V139">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z139">
+        <v>-1</v>
+      </c>
+      <c r="AA139">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA139">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AB139">
         <v>-1</v>
@@ -12490,82 +12490,82 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6818339</v>
+        <v>6818336</v>
       </c>
       <c r="C140" t="s">
         <v>33</v>
       </c>
       <c r="D140" s="2">
-        <v>45360.46875</v>
+        <v>45360.36458333334</v>
       </c>
       <c r="E140" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F140" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J140">
+        <v>2.9</v>
+      </c>
+      <c r="K140">
+        <v>3.5</v>
+      </c>
+      <c r="L140">
+        <v>2.25</v>
+      </c>
+      <c r="M140">
+        <v>3.1</v>
+      </c>
+      <c r="N140">
+        <v>3.5</v>
+      </c>
+      <c r="O140">
         <v>2.15</v>
       </c>
-      <c r="K140">
-        <v>3.2</v>
-      </c>
-      <c r="L140">
-        <v>3.4</v>
-      </c>
-      <c r="M140">
-        <v>2.15</v>
-      </c>
-      <c r="N140">
-        <v>3.2</v>
-      </c>
-      <c r="O140">
-        <v>3.5</v>
-      </c>
       <c r="P140">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q140">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S140">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T140">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V140">
+        <v>-1</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
         <v>1.15</v>
       </c>
-      <c r="W140">
-        <v>-1</v>
-      </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
       <c r="Y140">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA140">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB140">
         <v>-1</v>
@@ -12576,85 +12576,85 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6818335</v>
+        <v>6818338</v>
       </c>
       <c r="C141" t="s">
         <v>33</v>
       </c>
       <c r="D141" s="2">
-        <v>45361.375</v>
+        <v>45361.47916666666</v>
       </c>
       <c r="E141" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J141">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="K141">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L141">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="M141">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="N141">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O141">
-        <v>3.6</v>
+        <v>1.444</v>
       </c>
       <c r="P141">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q141">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S141">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T141">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V141">
         <v>-1</v>
       </c>
       <c r="W141">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -12662,85 +12662,85 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6818338</v>
+        <v>6818334</v>
       </c>
       <c r="C142" t="s">
         <v>33</v>
       </c>
       <c r="D142" s="2">
-        <v>45361.47916666666</v>
+        <v>45361.66666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J142">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="K142">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L142">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="M142">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="N142">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O142">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="P142">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q142">
+        <v>1.95</v>
+      </c>
+      <c r="R142">
         <v>1.9</v>
       </c>
-      <c r="R142">
-        <v>1.95</v>
-      </c>
       <c r="S142">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T142">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
         <v>-1</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X142">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z142">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12748,64 +12748,64 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6818334</v>
+        <v>6818335</v>
       </c>
       <c r="C143" t="s">
         <v>33</v>
       </c>
       <c r="D143" s="2">
-        <v>45361.66666666666</v>
+        <v>45361.375</v>
       </c>
       <c r="E143" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="s">
         <v>48</v>
       </c>
       <c r="J143">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K143">
         <v>3.4</v>
       </c>
       <c r="L143">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N143">
         <v>3.4</v>
       </c>
       <c r="O143">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q143">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="R143">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S143">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T143">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V143">
         <v>-1</v>
@@ -12817,16 +12817,16 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12834,85 +12834,85 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6818342</v>
+        <v>6818341</v>
       </c>
       <c r="C144" t="s">
         <v>33</v>
       </c>
       <c r="D144" s="2">
-        <v>45367.47916666666</v>
+        <v>45367.375</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F144" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G144">
         <v>2</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J144">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="K144">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L144">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="N144">
         <v>3.4</v>
       </c>
       <c r="O144">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="P144">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q144">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R144">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T144">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U144">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA144">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AB144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12920,85 +12920,85 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6818345</v>
+        <v>6818342</v>
       </c>
       <c r="C145" t="s">
         <v>33</v>
       </c>
       <c r="D145" s="2">
-        <v>45367.57291666666</v>
+        <v>45367.47916666666</v>
       </c>
       <c r="E145" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H145">
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J145">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="K145">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L145">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="M145">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="N145">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O145">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="P145">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q145">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S145">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T145">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U145">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V145">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB145">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13006,55 +13006,55 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6818341</v>
+        <v>6818345</v>
       </c>
       <c r="C146" t="s">
         <v>33</v>
       </c>
       <c r="D146" s="2">
-        <v>45367.375</v>
+        <v>45367.57291666666</v>
       </c>
       <c r="E146" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J146">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="K146">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L146">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M146">
+        <v>2.25</v>
+      </c>
+      <c r="N146">
+        <v>3.3</v>
+      </c>
+      <c r="O146">
+        <v>2.8</v>
+      </c>
+      <c r="P146">
+        <v>-0.25</v>
+      </c>
+      <c r="Q146">
+        <v>2.05</v>
+      </c>
+      <c r="R146">
         <v>1.8</v>
-      </c>
-      <c r="N146">
-        <v>3.4</v>
-      </c>
-      <c r="O146">
-        <v>3.8</v>
-      </c>
-      <c r="P146">
-        <v>-0.5</v>
-      </c>
-      <c r="Q146">
-        <v>1.9</v>
-      </c>
-      <c r="R146">
-        <v>1.95</v>
       </c>
       <c r="S146">
         <v>2.5</v>
@@ -13069,22 +13069,22 @@
         <v>-1</v>
       </c>
       <c r="W146">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA146">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:28">
@@ -13092,85 +13092,85 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6818340</v>
+        <v>6818343</v>
       </c>
       <c r="C147" t="s">
         <v>33</v>
       </c>
       <c r="D147" s="2">
-        <v>45368.44791666666</v>
+        <v>45368.35416666666</v>
       </c>
       <c r="E147" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J147">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="K147">
+        <v>3.6</v>
+      </c>
+      <c r="L147">
         <v>4</v>
       </c>
-      <c r="L147">
-        <v>5.5</v>
-      </c>
       <c r="M147">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="N147">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O147">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P147">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q147">
+        <v>2</v>
+      </c>
+      <c r="R147">
+        <v>1.85</v>
+      </c>
+      <c r="S147">
+        <v>2.5</v>
+      </c>
+      <c r="T147">
+        <v>1.825</v>
+      </c>
+      <c r="U147">
         <v>2.025</v>
       </c>
-      <c r="R147">
-        <v>1.825</v>
-      </c>
-      <c r="S147">
-        <v>2.75</v>
-      </c>
-      <c r="T147">
-        <v>1.925</v>
-      </c>
-      <c r="U147">
-        <v>1.925</v>
-      </c>
       <c r="V147">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W147">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z147">
+        <v>-1</v>
+      </c>
+      <c r="AA147">
         <v>0.825</v>
       </c>
-      <c r="AA147">
-        <v>-1</v>
-      </c>
       <c r="AB147">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:28">
@@ -13178,22 +13178,22 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6818343</v>
+        <v>6818344</v>
       </c>
       <c r="C148" t="s">
         <v>33</v>
       </c>
       <c r="D148" s="2">
-        <v>45368.35416666666</v>
+        <v>45368.5625</v>
       </c>
       <c r="E148" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G148">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13205,40 +13205,40 @@
         <v>1.727</v>
       </c>
       <c r="K148">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="L148">
         <v>4</v>
       </c>
       <c r="M148">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="N148">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O148">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P148">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q148">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R148">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S148">
         <v>2.5</v>
       </c>
       <c r="T148">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U148">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V148">
-        <v>0.6659999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13247,13 +13247,13 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB148">
         <v>-1</v>
@@ -13264,85 +13264,85 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6818344</v>
+        <v>6818340</v>
       </c>
       <c r="C149" t="s">
         <v>33</v>
       </c>
       <c r="D149" s="2">
-        <v>45368.5625</v>
+        <v>45368.44791666666</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J149">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="K149">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M149">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="N149">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O149">
+        <v>6.5</v>
+      </c>
+      <c r="P149">
+        <v>-1.25</v>
+      </c>
+      <c r="Q149">
+        <v>2.025</v>
+      </c>
+      <c r="R149">
+        <v>1.825</v>
+      </c>
+      <c r="S149">
+        <v>2.75</v>
+      </c>
+      <c r="T149">
+        <v>1.925</v>
+      </c>
+      <c r="U149">
+        <v>1.925</v>
+      </c>
+      <c r="V149">
+        <v>-1</v>
+      </c>
+      <c r="W149">
         <v>3.2</v>
       </c>
-      <c r="P149">
-        <v>-0.25</v>
-      </c>
-      <c r="Q149">
-        <v>1.825</v>
-      </c>
-      <c r="R149">
-        <v>2.025</v>
-      </c>
-      <c r="S149">
-        <v>2.5</v>
-      </c>
-      <c r="T149">
-        <v>1.975</v>
-      </c>
-      <c r="U149">
-        <v>1.875</v>
-      </c>
-      <c r="V149">
-        <v>1.05</v>
-      </c>
-      <c r="W149">
-        <v>-1</v>
-      </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
+        <v>-1</v>
+      </c>
+      <c r="Z149">
         <v>0.825</v>
       </c>
-      <c r="Z149">
-        <v>-1</v>
-      </c>
       <c r="AA149">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -13694,64 +13694,64 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6818349</v>
+        <v>6818350</v>
       </c>
       <c r="C154" t="s">
         <v>33</v>
       </c>
       <c r="D154" s="2">
-        <v>45382.4375</v>
+        <v>45382.54166666666</v>
       </c>
       <c r="E154" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I154" t="s">
         <v>50</v>
       </c>
       <c r="J154">
-        <v>1.666</v>
+        <v>7.5</v>
       </c>
       <c r="K154">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="L154">
-        <v>4.333</v>
+        <v>1.333</v>
       </c>
       <c r="M154">
-        <v>1.666</v>
+        <v>9.5</v>
       </c>
       <c r="N154">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O154">
-        <v>4.2</v>
+        <v>1.25</v>
       </c>
       <c r="P154">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q154">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R154">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S154">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T154">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U154">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V154">
         <v>-1</v>
@@ -13760,19 +13760,19 @@
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>3.2</v>
+        <v>0.25</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA154">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AB154">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -13780,64 +13780,64 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6818350</v>
+        <v>6818349</v>
       </c>
       <c r="C155" t="s">
         <v>33</v>
       </c>
       <c r="D155" s="2">
-        <v>45382.54166666666</v>
+        <v>45382.4375</v>
       </c>
       <c r="E155" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="s">
         <v>50</v>
       </c>
       <c r="J155">
-        <v>7.5</v>
+        <v>1.666</v>
       </c>
       <c r="K155">
+        <v>3.5</v>
+      </c>
+      <c r="L155">
         <v>4.333</v>
       </c>
-      <c r="L155">
-        <v>1.333</v>
-      </c>
       <c r="M155">
-        <v>9.5</v>
+        <v>1.666</v>
       </c>
       <c r="N155">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="O155">
-        <v>1.25</v>
+        <v>4.2</v>
       </c>
       <c r="P155">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q155">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R155">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S155">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T155">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U155">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V155">
         <v>-1</v>
@@ -13846,19 +13846,19 @@
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>0.25</v>
+        <v>3.2</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA155">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB155">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="156" spans="1:28">
@@ -13952,85 +13952,85 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6818356</v>
+        <v>6818355</v>
       </c>
       <c r="C157" t="s">
         <v>33</v>
       </c>
       <c r="D157" s="2">
-        <v>45388.38541666666</v>
+        <v>45388.60416666666</v>
       </c>
       <c r="E157" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G157">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J157">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="K157">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L157">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M157">
         <v>1.666</v>
       </c>
       <c r="N157">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O157">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P157">
         <v>-0.75</v>
       </c>
       <c r="Q157">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="R157">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T157">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U157">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V157">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y157">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA157">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14124,85 +14124,85 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6818355</v>
+        <v>6818356</v>
       </c>
       <c r="C159" t="s">
         <v>33</v>
       </c>
       <c r="D159" s="2">
-        <v>45388.60416666666</v>
+        <v>45388.38541666666</v>
       </c>
       <c r="E159" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J159">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="K159">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L159">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M159">
         <v>1.666</v>
       </c>
       <c r="N159">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O159">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P159">
         <v>-0.75</v>
       </c>
       <c r="Q159">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R159">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S159">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T159">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V159">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z159">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AB159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:28">
@@ -14210,85 +14210,85 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6818352</v>
+        <v>6818357</v>
       </c>
       <c r="C160" t="s">
         <v>33</v>
       </c>
       <c r="D160" s="2">
-        <v>45389.40625</v>
+        <v>45389.52083333334</v>
       </c>
       <c r="E160" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F160" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G160">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J160">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="K160">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L160">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="M160">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="N160">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O160">
-        <v>7</v>
+        <v>1.833</v>
       </c>
       <c r="P160">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q160">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R160">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S160">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T160">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U160">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V160">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB160">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -14296,85 +14296,85 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6818357</v>
+        <v>6818352</v>
       </c>
       <c r="C161" t="s">
         <v>33</v>
       </c>
       <c r="D161" s="2">
-        <v>45389.52083333334</v>
+        <v>45389.40625</v>
       </c>
       <c r="E161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G161">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J161">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="K161">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L161">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="M161">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="N161">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="O161">
-        <v>1.833</v>
+        <v>7</v>
       </c>
       <c r="P161">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q161">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R161">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S161">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T161">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U161">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V161">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z161">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AA161">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:28">
@@ -14812,85 +14812,85 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6818361</v>
+        <v>6820520</v>
       </c>
       <c r="C167" t="s">
         <v>33</v>
       </c>
       <c r="D167" s="2">
-        <v>45396.57291666666</v>
+        <v>45396.375</v>
       </c>
       <c r="E167" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J167">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="K167">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L167">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="M167">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="N167">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O167">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="P167">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q167">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S167">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T167">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U167">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V167">
         <v>-1</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X167">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z167">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AA167">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="168" spans="1:28">
@@ -14984,85 +14984,85 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6820520</v>
+        <v>6818361</v>
       </c>
       <c r="C169" t="s">
         <v>33</v>
       </c>
       <c r="D169" s="2">
-        <v>45396.375</v>
+        <v>45396.57291666666</v>
       </c>
       <c r="E169" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>4</v>
+      </c>
+      <c r="I169" t="s">
+        <v>50</v>
+      </c>
+      <c r="J169">
+        <v>5.5</v>
+      </c>
+      <c r="K169">
+        <v>3.5</v>
+      </c>
+      <c r="L169">
+        <v>1.666</v>
+      </c>
+      <c r="M169">
+        <v>6.5</v>
+      </c>
+      <c r="N169">
+        <v>3.75</v>
+      </c>
+      <c r="O169">
+        <v>1.55</v>
+      </c>
+      <c r="P169">
         <v>1</v>
       </c>
-      <c r="H169">
-        <v>1</v>
-      </c>
-      <c r="I169" t="s">
-        <v>48</v>
-      </c>
-      <c r="J169">
-        <v>1.727</v>
-      </c>
-      <c r="K169">
-        <v>3.4</v>
-      </c>
-      <c r="L169">
-        <v>4.5</v>
-      </c>
-      <c r="M169">
-        <v>2.2</v>
-      </c>
-      <c r="N169">
-        <v>3.2</v>
-      </c>
-      <c r="O169">
-        <v>2.9</v>
-      </c>
-      <c r="P169">
-        <v>-0.25</v>
-      </c>
       <c r="Q169">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R169">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S169">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T169">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U169">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V169">
         <v>-1</v>
       </c>
       <c r="W169">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB169">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:28">
@@ -15070,67 +15070,67 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6818364</v>
+        <v>6818365</v>
       </c>
       <c r="C170" t="s">
         <v>33</v>
       </c>
       <c r="D170" s="2">
-        <v>45402.60416666666</v>
+        <v>45402.39583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G170">
         <v>5</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="s">
         <v>49</v>
       </c>
       <c r="J170">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K170">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L170">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="M170">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="N170">
         <v>3.25</v>
       </c>
       <c r="O170">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="P170">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q170">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R170">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S170">
         <v>2.75</v>
       </c>
       <c r="T170">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U170">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V170">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15139,13 +15139,13 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB170">
         <v>-1</v>
@@ -15156,85 +15156,85 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6818365</v>
+        <v>6818362</v>
       </c>
       <c r="C171" t="s">
         <v>33</v>
       </c>
       <c r="D171" s="2">
-        <v>45402.39583333334</v>
+        <v>45402.5</v>
       </c>
       <c r="E171" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G171">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H171">
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J171">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="K171">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="L171">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="M171">
-        <v>2.05</v>
+        <v>1.125</v>
       </c>
       <c r="N171">
+        <v>7</v>
+      </c>
+      <c r="O171">
+        <v>17</v>
+      </c>
+      <c r="P171">
+        <v>-2.25</v>
+      </c>
+      <c r="Q171">
+        <v>1.95</v>
+      </c>
+      <c r="R171">
+        <v>1.9</v>
+      </c>
+      <c r="S171">
         <v>3.25</v>
       </c>
-      <c r="O171">
-        <v>3.3</v>
-      </c>
-      <c r="P171">
-        <v>-0.25</v>
-      </c>
-      <c r="Q171">
-        <v>1.85</v>
-      </c>
-      <c r="R171">
-        <v>2</v>
-      </c>
-      <c r="S171">
-        <v>2.75</v>
-      </c>
       <c r="T171">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U171">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V171">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA171">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="172" spans="1:28">
@@ -15242,58 +15242,58 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6818362</v>
+        <v>6818364</v>
       </c>
       <c r="C172" t="s">
         <v>33</v>
       </c>
       <c r="D172" s="2">
-        <v>45402.5</v>
+        <v>45402.60416666666</v>
       </c>
       <c r="E172" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F172" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G172">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J172">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="K172">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="L172">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="M172">
-        <v>1.125</v>
+        <v>2.7</v>
       </c>
       <c r="N172">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="O172">
-        <v>17</v>
+        <v>2.4</v>
       </c>
       <c r="P172">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="Q172">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R172">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S172">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T172">
         <v>1.975</v>
@@ -15302,25 +15302,25 @@
         <v>1.875</v>
       </c>
       <c r="V172">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="W172">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z172">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB172">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:28">
@@ -15328,58 +15328,58 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6818363</v>
+        <v>6818366</v>
       </c>
       <c r="C173" t="s">
         <v>33</v>
       </c>
       <c r="D173" s="2">
-        <v>45403.5625</v>
+        <v>45403.45833333334</v>
       </c>
       <c r="E173" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G173">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J173">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K173">
         <v>3.4</v>
       </c>
       <c r="L173">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M173">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="N173">
         <v>3.4</v>
       </c>
       <c r="O173">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P173">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q173">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R173">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T173">
         <v>2.025</v>
@@ -15391,22 +15391,22 @@
         <v>-1</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X173">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA173">
+        <v>-1</v>
+      </c>
+      <c r="AB173">
         <v>0.825</v>
-      </c>
-      <c r="AA173">
-        <v>0</v>
-      </c>
-      <c r="AB173">
-        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:28">
@@ -15414,85 +15414,85 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6818366</v>
+        <v>6818367</v>
       </c>
       <c r="C174" t="s">
         <v>33</v>
       </c>
       <c r="D174" s="2">
-        <v>45403.45833333334</v>
+        <v>45403.37847222222</v>
       </c>
       <c r="E174" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H174">
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J174">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="K174">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L174">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M174">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="N174">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O174">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P174">
+        <v>-1.25</v>
+      </c>
+      <c r="Q174">
+        <v>1.975</v>
+      </c>
+      <c r="R174">
+        <v>1.875</v>
+      </c>
+      <c r="S174">
+        <v>2.5</v>
+      </c>
+      <c r="T174">
+        <v>1.975</v>
+      </c>
+      <c r="U174">
+        <v>1.875</v>
+      </c>
+      <c r="V174">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="W174">
+        <v>-1</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
         <v>-0.5</v>
       </c>
-      <c r="Q174">
-        <v>2</v>
-      </c>
-      <c r="R174">
-        <v>1.85</v>
-      </c>
-      <c r="S174">
-        <v>2.75</v>
-      </c>
-      <c r="T174">
-        <v>2.025</v>
-      </c>
-      <c r="U174">
-        <v>1.825</v>
-      </c>
-      <c r="V174">
-        <v>-1</v>
-      </c>
-      <c r="W174">
-        <v>2.4</v>
-      </c>
-      <c r="X174">
-        <v>-1</v>
-      </c>
-      <c r="Y174">
-        <v>-1</v>
-      </c>
       <c r="Z174">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB174">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:28">
@@ -15500,85 +15500,85 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6818367</v>
+        <v>6818363</v>
       </c>
       <c r="C175" t="s">
         <v>33</v>
       </c>
       <c r="D175" s="2">
-        <v>45403.37847222222</v>
+        <v>45403.5625</v>
       </c>
       <c r="E175" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
         <v>2</v>
       </c>
-      <c r="H175">
-        <v>1</v>
-      </c>
       <c r="I175" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J175">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="K175">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L175">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M175">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="N175">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O175">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="P175">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q175">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="R175">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S175">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T175">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U175">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V175">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AA175">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:28">
@@ -15930,85 +15930,85 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6885578</v>
+        <v>6818370</v>
       </c>
       <c r="C180" t="s">
         <v>33</v>
       </c>
       <c r="D180" s="2">
-        <v>45410.53125</v>
+        <v>45410.42708333334</v>
       </c>
       <c r="E180" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F180" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G180">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J180">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="K180">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L180">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="M180">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="N180">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="O180">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="P180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q180">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R180">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S180">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T180">
+        <v>1.875</v>
+      </c>
+      <c r="U180">
         <v>1.975</v>
       </c>
-      <c r="U180">
-        <v>1.875</v>
-      </c>
       <c r="V180">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -16016,85 +16016,85 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6818370</v>
+        <v>6885578</v>
       </c>
       <c r="C181" t="s">
         <v>33</v>
       </c>
       <c r="D181" s="2">
-        <v>45410.42708333334</v>
+        <v>45410.53125</v>
       </c>
       <c r="E181" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G181">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J181">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="K181">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L181">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="M181">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N181">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="O181">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="P181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q181">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R181">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S181">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T181">
+        <v>1.975</v>
+      </c>
+      <c r="U181">
         <v>1.875</v>
       </c>
-      <c r="U181">
-        <v>1.975</v>
-      </c>
       <c r="V181">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y181">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB181">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:28">
@@ -16173,34 +16173,34 @@
         <v>33</v>
       </c>
       <c r="D183" s="2">
-        <v>45416.59375</v>
+        <v>45416.33333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J183">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="K183">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L183">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="M183">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N183">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O183">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="P183">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q183">
         <v>2.025</v>
@@ -16212,10 +16212,10 @@
         <v>2.75</v>
       </c>
       <c r="T183">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U183">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V183">
         <v>0</v>
@@ -16303,34 +16303,34 @@
         <v>33</v>
       </c>
       <c r="D185" s="2">
-        <v>45416.33333333334</v>
+        <v>45416.59375</v>
       </c>
       <c r="E185" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J185">
+        <v>2.5</v>
+      </c>
+      <c r="K185">
+        <v>3.4</v>
+      </c>
+      <c r="L185">
+        <v>2.6</v>
+      </c>
+      <c r="M185">
+        <v>2.3</v>
+      </c>
+      <c r="N185">
         <v>3.5</v>
       </c>
-      <c r="K185">
-        <v>3.5</v>
-      </c>
-      <c r="L185">
-        <v>2</v>
-      </c>
-      <c r="M185">
-        <v>3.2</v>
-      </c>
-      <c r="N185">
-        <v>3.6</v>
-      </c>
       <c r="O185">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="P185">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q185">
         <v>2.025</v>
@@ -16342,10 +16342,10 @@
         <v>2.75</v>
       </c>
       <c r="T185">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U185">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V185">
         <v>0</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -16126,31 +16126,31 @@
         <v>3</v>
       </c>
       <c r="M182">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="N182">
         <v>4</v>
       </c>
       <c r="O182">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P182">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q182">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R182">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S182">
         <v>2.75</v>
       </c>
       <c r="T182">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U182">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V182">
         <v>0</v>
@@ -16212,10 +16212,10 @@
         <v>2.75</v>
       </c>
       <c r="T183">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V183">
         <v>0</v>
@@ -16277,10 +16277,10 @@
         <v>2.5</v>
       </c>
       <c r="T184">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U184">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V184">
         <v>0</v>
@@ -16342,10 +16342,10 @@
         <v>2.75</v>
       </c>
       <c r="T185">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V185">
         <v>0</v>
@@ -16457,25 +16457,25 @@
         <v>4.75</v>
       </c>
       <c r="O187">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="P187">
         <v>-1.25</v>
       </c>
       <c r="Q187">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R187">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S187">
         <v>2.5</v>
       </c>
       <c r="T187">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U187">
-        <v>2.025</v>
+        <v>2.125</v>
       </c>
       <c r="V187">
         <v>0</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>8156232</t>
   </si>
   <si>
     <t>7005341</t>
@@ -528,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB187"/>
+  <dimension ref="A1:AB186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,16 +622,16 @@
         <v>6863238</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>45135.625</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -643,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2">
         <v>2.625</v>
@@ -711,16 +708,16 @@
         <v>6863236</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>45136.54166666666</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -729,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J3">
         <v>3.2</v>
@@ -797,16 +794,16 @@
         <v>6863235</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>45136.63541666666</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -815,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J4">
         <v>2.375</v>
@@ -883,16 +880,16 @@
         <v>6818267</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>45137.625</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -901,7 +898,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5">
         <v>2.9</v>
@@ -969,16 +966,16 @@
         <v>6863237</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>45138.625</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -987,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6">
         <v>1.833</v>
@@ -1055,16 +1052,16 @@
         <v>6818205</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>45142.625</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1073,7 +1070,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7">
         <v>2.05</v>
@@ -1141,16 +1138,16 @@
         <v>6818204</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>45143.53125</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1159,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <v>1.666</v>
@@ -1227,16 +1224,16 @@
         <v>6818206</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>45144.53125</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1245,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9">
         <v>3.5</v>
@@ -1313,16 +1310,16 @@
         <v>6818202</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>45144.625</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1331,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10">
         <v>2.05</v>
@@ -1399,16 +1396,16 @@
         <v>6818207</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2">
         <v>45145.625</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1417,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J11">
         <v>2.2</v>
@@ -1485,16 +1482,16 @@
         <v>6818212</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
         <v>45149.625</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1503,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J12">
         <v>2.7</v>
@@ -1571,16 +1568,16 @@
         <v>6818209</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>45150.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1589,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13">
         <v>1.727</v>
@@ -1657,16 +1654,16 @@
         <v>6818210</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>45150.63541666666</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1675,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J14">
         <v>2.55</v>
@@ -1743,16 +1740,16 @@
         <v>6818211</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>45151.47916666666</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1761,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J15">
         <v>1.85</v>
@@ -1829,16 +1826,16 @@
         <v>6818208</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2">
         <v>45151.57291666666</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1847,7 +1844,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J16">
         <v>1.5</v>
@@ -1915,16 +1912,16 @@
         <v>6818213</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>45151.66666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1933,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J17">
         <v>2.05</v>
@@ -2001,16 +1998,16 @@
         <v>6818219</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2019,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18">
         <v>1.85</v>
@@ -2087,16 +2084,16 @@
         <v>6818216</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2">
         <v>45156.63541666666</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2105,7 +2102,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J19">
         <v>2.15</v>
@@ -2173,16 +2170,16 @@
         <v>6818214</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2">
         <v>45157.53125</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2191,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -2259,16 +2256,16 @@
         <v>6818217</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2">
         <v>45157.625</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2277,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J21">
         <v>2.25</v>
@@ -2345,16 +2342,16 @@
         <v>6818215</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
         <v>45159.63541666666</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -2363,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J22">
         <v>2.7</v>
@@ -2431,16 +2428,16 @@
         <v>6818225</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2">
         <v>45164.4375</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -2449,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J23">
         <v>2.4</v>
@@ -2517,16 +2514,16 @@
         <v>6818222</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>45164.53125</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2535,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J24">
         <v>2.3</v>
@@ -2603,16 +2600,16 @@
         <v>6818221</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
         <v>45164.625</v>
       </c>
       <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
         <v>36</v>
-      </c>
-      <c r="F25" t="s">
-        <v>37</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2621,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -2689,16 +2686,16 @@
         <v>6818223</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>45165.4375</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2707,7 +2704,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J26">
         <v>1.75</v>
@@ -2775,16 +2772,16 @@
         <v>6818220</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" t="s">
         <v>43</v>
-      </c>
-      <c r="F27" t="s">
-        <v>44</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -2793,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J27">
         <v>1.4</v>
@@ -2861,16 +2858,16 @@
         <v>6818224</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2">
         <v>45165.60416666666</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2879,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J28">
         <v>1.95</v>
@@ -2947,16 +2944,16 @@
         <v>6818227</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2">
         <v>45171.42708333334</v>
       </c>
       <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
         <v>34</v>
-      </c>
-      <c r="F29" t="s">
-        <v>35</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2965,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J29">
         <v>2.3</v>
@@ -3033,16 +3030,16 @@
         <v>6818230</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2">
         <v>45171.60416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3051,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3119,16 +3116,16 @@
         <v>6818231</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2">
         <v>45172.38541666666</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3137,7 +3134,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J31">
         <v>2.9</v>
@@ -3205,16 +3202,16 @@
         <v>6818229</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2">
         <v>45172.51041666666</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3223,7 +3220,7 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J32">
         <v>5.25</v>
@@ -3291,16 +3288,16 @@
         <v>6818226</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
         <v>45172.60416666666</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3309,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J33">
         <v>2.25</v>
@@ -3377,16 +3374,16 @@
         <v>7197411</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2">
         <v>45191.625</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3395,7 +3392,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J34">
         <v>1.8</v>
@@ -3463,16 +3460,16 @@
         <v>7197409</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2">
         <v>45192.39583333334</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3481,7 +3478,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J35">
         <v>1.9</v>
@@ -3549,16 +3546,16 @@
         <v>6818234</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2">
         <v>45192.5</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3567,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3635,16 +3632,16 @@
         <v>7197408</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2">
         <v>45192.60416666666</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3653,7 +3650,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J37">
         <v>2.2</v>
@@ -3721,16 +3718,16 @@
         <v>7197410</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3739,7 +3736,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J38">
         <v>2.2</v>
@@ -3807,16 +3804,16 @@
         <v>7197407</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3825,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J39">
         <v>1.363</v>
@@ -3893,16 +3890,16 @@
         <v>7020194</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2">
         <v>45196.53125</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3911,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J40">
         <v>2.1</v>
@@ -3979,16 +3976,16 @@
         <v>6863234</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2">
         <v>45196.625</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3997,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4065,16 +4062,16 @@
         <v>6818242</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2">
         <v>45198.625</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4083,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J42">
         <v>3</v>
@@ -4151,16 +4148,16 @@
         <v>6818243</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2">
         <v>45199.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4169,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J43">
         <v>1.615</v>
@@ -4237,16 +4234,16 @@
         <v>6818240</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2">
         <v>45199.5</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4255,7 +4252,7 @@
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J44">
         <v>4.75</v>
@@ -4323,16 +4320,16 @@
         <v>6818239</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2">
         <v>45199.60416666666</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4341,7 +4338,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J45">
         <v>1.8</v>
@@ -4409,16 +4406,16 @@
         <v>6818241</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4427,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J46">
         <v>2.6</v>
@@ -4495,16 +4492,16 @@
         <v>6818238</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4513,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J47">
         <v>2.25</v>
@@ -4581,16 +4578,16 @@
         <v>6818247</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2">
         <v>45205.64583333334</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4599,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J48">
         <v>1.8</v>
@@ -4667,16 +4664,16 @@
         <v>6818246</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D49" s="2">
         <v>45206.32291666666</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4685,7 +4682,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J49">
         <v>2.25</v>
@@ -4753,16 +4750,16 @@
         <v>6818245</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2">
         <v>45206.46875</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4771,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J50">
         <v>2.4</v>
@@ -4839,16 +4836,16 @@
         <v>6818249</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2">
         <v>45206.64583333334</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4857,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J51">
         <v>2.4</v>
@@ -4925,16 +4922,16 @@
         <v>6818248</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D52" s="2">
         <v>45207.33333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4943,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J52">
         <v>2.5</v>
@@ -5011,16 +5008,16 @@
         <v>6818244</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2">
         <v>45207.47916666666</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5029,7 +5026,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J53">
         <v>1.8</v>
@@ -5097,16 +5094,16 @@
         <v>6818254</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2">
         <v>45220.3125</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5115,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J54">
         <v>2.1</v>
@@ -5183,16 +5180,16 @@
         <v>6818255</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55" s="2">
         <v>45220.40625</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5201,7 +5198,7 @@
         <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J55">
         <v>2.5</v>
@@ -5269,16 +5266,16 @@
         <v>6818250</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D56" s="2">
         <v>45220.5</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G56">
         <v>5</v>
@@ -5287,7 +5284,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J56">
         <v>1.909</v>
@@ -5355,16 +5352,16 @@
         <v>6818253</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D57" s="2">
         <v>45221.34375</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5373,7 +5370,7 @@
         <v>5</v>
       </c>
       <c r="I57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J57">
         <v>2.5</v>
@@ -5441,16 +5438,16 @@
         <v>6818252</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D58" s="2">
         <v>45221.4375</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5459,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J58">
         <v>1.909</v>
@@ -5527,16 +5524,16 @@
         <v>6818251</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D59" s="2">
         <v>45221.53125</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5545,7 +5542,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J59">
         <v>7.5</v>
@@ -5613,16 +5610,16 @@
         <v>6818261</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D60" s="2">
         <v>45227.3125</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -5631,7 +5628,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J60">
         <v>1.666</v>
@@ -5699,16 +5696,16 @@
         <v>6818260</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2">
         <v>45227.40625</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G61">
         <v>4</v>
@@ -5717,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J61">
         <v>2.5</v>
@@ -5785,16 +5782,16 @@
         <v>6818259</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D62" s="2">
         <v>45227.5</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5803,7 +5800,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J62">
         <v>2.35</v>
@@ -5871,16 +5868,16 @@
         <v>6818258</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D63" s="2">
         <v>45228.38541666666</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5889,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J63">
         <v>2.7</v>
@@ -5957,16 +5954,16 @@
         <v>6818257</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D64" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
         <v>44</v>
-      </c>
-      <c r="F64" t="s">
-        <v>45</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -5975,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J64">
         <v>1.571</v>
@@ -6043,16 +6040,16 @@
         <v>6818256</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D65" s="2">
         <v>45228.58333333334</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6061,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J65">
         <v>1.25</v>
@@ -6129,16 +6126,16 @@
         <v>6818265</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2">
         <v>45234.35416666666</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6147,7 +6144,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J66">
         <v>3.3</v>
@@ -6215,16 +6212,16 @@
         <v>6818264</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D67" s="2">
         <v>45234.48958333334</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6233,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J67">
         <v>1.8</v>
@@ -6301,16 +6298,16 @@
         <v>6818263</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D68" s="2">
         <v>45234.58333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6319,7 +6316,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J68">
         <v>2.4</v>
@@ -6387,16 +6384,16 @@
         <v>6999361</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D69" s="2">
         <v>45235.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6405,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J69">
         <v>1.909</v>
@@ -6473,16 +6470,16 @@
         <v>6818262</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D70" s="2">
         <v>45235.44791666666</v>
       </c>
       <c r="E70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s">
         <v>42</v>
-      </c>
-      <c r="F70" t="s">
-        <v>43</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6491,7 +6488,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J70">
         <v>5.75</v>
@@ -6559,16 +6556,16 @@
         <v>6818266</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D71" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6577,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J71">
         <v>1.75</v>
@@ -6645,16 +6642,16 @@
         <v>6818268</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D72" s="2">
         <v>45240.66666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6663,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J72">
         <v>2.2</v>
@@ -6731,16 +6728,16 @@
         <v>6818270</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D73" s="2">
         <v>45241.42708333334</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6749,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J73">
         <v>1.727</v>
@@ -6817,16 +6814,16 @@
         <v>6818271</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D74" s="2">
         <v>45241.64583333334</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6835,7 +6832,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J74">
         <v>2.375</v>
@@ -6903,16 +6900,16 @@
         <v>6818273</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D75" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6921,7 +6918,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J75">
         <v>2.2</v>
@@ -6989,16 +6986,16 @@
         <v>6818272</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D76" s="2">
         <v>45242.5</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7007,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J76">
         <v>1.333</v>
@@ -7075,16 +7072,16 @@
         <v>6818269</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D77" s="2">
         <v>45242.60416666666</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7093,7 +7090,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J77">
         <v>2.25</v>
@@ -7161,16 +7158,16 @@
         <v>7448992</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D78" s="2">
         <v>45254.66666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G78">
         <v>4</v>
@@ -7179,7 +7176,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J78">
         <v>1.85</v>
@@ -7247,16 +7244,16 @@
         <v>7448994</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D79" s="2">
         <v>45255.44791666666</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7265,7 +7262,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7333,16 +7330,16 @@
         <v>7448993</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D80" s="2">
         <v>45255.54166666666</v>
       </c>
       <c r="E80" t="s">
+        <v>36</v>
+      </c>
+      <c r="F80" t="s">
         <v>37</v>
-      </c>
-      <c r="F80" t="s">
-        <v>38</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7351,7 +7348,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7419,16 +7416,16 @@
         <v>7448991</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D81" s="2">
         <v>45255.64583333334</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G81">
         <v>4</v>
@@ -7437,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J81">
         <v>3.1</v>
@@ -7505,16 +7502,16 @@
         <v>7448990</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D82" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7523,7 +7520,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J82">
         <v>3.75</v>
@@ -7591,16 +7588,16 @@
         <v>6818277</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D83" s="2">
         <v>45256.64583333334</v>
       </c>
       <c r="E83" t="s">
+        <v>40</v>
+      </c>
+      <c r="F83" t="s">
         <v>41</v>
-      </c>
-      <c r="F83" t="s">
-        <v>42</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7609,7 +7606,7 @@
         <v>3</v>
       </c>
       <c r="I83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J83">
         <v>2.3</v>
@@ -7677,16 +7674,16 @@
         <v>7473670</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D84" s="2">
         <v>45262.375</v>
       </c>
       <c r="E84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7695,7 +7692,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J84">
         <v>2.3</v>
@@ -7763,16 +7760,16 @@
         <v>7473671</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D85" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -7781,7 +7778,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J85">
         <v>2.3</v>
@@ -7849,16 +7846,16 @@
         <v>6818281</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D86" s="2">
         <v>45262.64583333334</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7867,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J86">
         <v>2.875</v>
@@ -7935,16 +7932,16 @@
         <v>7473672</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D87" s="2">
         <v>45263.36458333334</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7953,7 +7950,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J87">
         <v>2.6</v>
@@ -8021,16 +8018,16 @@
         <v>7473673</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D88" s="2">
         <v>45263.46875</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8039,7 +8036,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J88">
         <v>1.833</v>
@@ -8107,16 +8104,16 @@
         <v>7473674</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D89" s="2">
         <v>45263.57291666666</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8125,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J89">
         <v>1.285</v>
@@ -8193,16 +8190,16 @@
         <v>7088570</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D90" s="2">
         <v>45266.64583333334</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8211,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J90">
         <v>6.5</v>
@@ -8279,16 +8276,16 @@
         <v>6818291</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D91" s="2">
         <v>45268.66666666666</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8297,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J91">
         <v>1.8</v>
@@ -8365,16 +8362,16 @@
         <v>6818289</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D92" s="2">
         <v>45269.38541666666</v>
       </c>
       <c r="E92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8383,7 +8380,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J92">
         <v>3.2</v>
@@ -8451,16 +8448,16 @@
         <v>6818287</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D93" s="2">
         <v>45269.48958333334</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8469,7 +8466,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J93">
         <v>2.45</v>
@@ -8537,16 +8534,16 @@
         <v>6818288</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D94" s="2">
         <v>45270.375</v>
       </c>
       <c r="E94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8555,7 +8552,7 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8623,16 +8620,16 @@
         <v>6818290</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D95" s="2">
         <v>45270.47916666666</v>
       </c>
       <c r="E95" t="s">
+        <v>39</v>
+      </c>
+      <c r="F95" t="s">
         <v>40</v>
-      </c>
-      <c r="F95" t="s">
-        <v>41</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8641,7 +8638,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J95">
         <v>3.6</v>
@@ -8709,16 +8706,16 @@
         <v>6818286</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D96" s="2">
         <v>45270.58333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8727,7 +8724,7 @@
         <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J96">
         <v>3.2</v>
@@ -8795,16 +8792,16 @@
         <v>6818296</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D97" s="2">
         <v>45276.35416666666</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8813,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J97">
         <v>2.1</v>
@@ -8881,16 +8878,16 @@
         <v>6818294</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D98" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8899,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J98">
         <v>2.25</v>
@@ -8967,16 +8964,16 @@
         <v>6818293</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D99" s="2">
         <v>45276.5625</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8985,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J99">
         <v>2</v>
@@ -9053,16 +9050,16 @@
         <v>6818292</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D100" s="2">
         <v>45277.39583333334</v>
       </c>
       <c r="E100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9071,7 +9068,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J100">
         <v>2.375</v>
@@ -9139,16 +9136,16 @@
         <v>6818295</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D101" s="2">
         <v>45277.5</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9157,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J101">
         <v>1.2</v>
@@ -9225,16 +9222,16 @@
         <v>6818297</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D102" s="2">
         <v>45277.58333333334</v>
       </c>
       <c r="E102" t="s">
+        <v>38</v>
+      </c>
+      <c r="F102" t="s">
         <v>39</v>
-      </c>
-      <c r="F102" t="s">
-        <v>40</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9243,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J102">
         <v>1.727</v>
@@ -9311,16 +9308,16 @@
         <v>7646444</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D103" s="2">
         <v>45324.66666666666</v>
       </c>
       <c r="E103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9329,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J103">
         <v>2.3</v>
@@ -9397,16 +9394,16 @@
         <v>7646447</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D104" s="2">
         <v>45325.35416666666</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -9415,7 +9412,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J104">
         <v>3.2</v>
@@ -9483,16 +9480,16 @@
         <v>7646443</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D105" s="2">
         <v>45325.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9501,7 +9498,7 @@
         <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J105">
         <v>7</v>
@@ -9569,16 +9566,16 @@
         <v>7646445</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D106" s="2">
         <v>45325.5625</v>
       </c>
       <c r="E106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9587,7 +9584,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J106">
         <v>1.8</v>
@@ -9655,16 +9652,16 @@
         <v>7646448</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D107" s="2">
         <v>45326.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9673,7 +9670,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9741,16 +9738,16 @@
         <v>7646446</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D108" s="2">
         <v>45326.5625</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9759,7 +9756,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J108">
         <v>2.1</v>
@@ -9827,16 +9824,16 @@
         <v>6818305</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D109" s="2">
         <v>45328.57291666666</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9845,7 +9842,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J109">
         <v>2.8</v>
@@ -9913,16 +9910,16 @@
         <v>6818306</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D110" s="2">
         <v>45328.66666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G110">
         <v>5</v>
@@ -9931,7 +9928,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J110">
         <v>1.333</v>
@@ -9999,16 +9996,16 @@
         <v>6818307</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D111" s="2">
         <v>45329.57291666666</v>
       </c>
       <c r="E111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10017,7 +10014,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J111">
         <v>2.45</v>
@@ -10085,16 +10082,16 @@
         <v>6818308</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D112" s="2">
         <v>45329.66666666666</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10103,7 +10100,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J112">
         <v>1.5</v>
@@ -10171,16 +10168,16 @@
         <v>6818309</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D113" s="2">
         <v>45330.5</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10189,7 +10186,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J113">
         <v>3.75</v>
@@ -10257,16 +10254,16 @@
         <v>6818304</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D114" s="2">
         <v>45330.66666666666</v>
       </c>
       <c r="E114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10275,7 +10272,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J114">
         <v>2.15</v>
@@ -10343,16 +10340,16 @@
         <v>6818313</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D115" s="2">
         <v>45332.35416666666</v>
       </c>
       <c r="E115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10361,7 +10358,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J115">
         <v>2.75</v>
@@ -10429,16 +10426,16 @@
         <v>6818314</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D116" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10447,7 +10444,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J116">
         <v>1.909</v>
@@ -10515,16 +10512,16 @@
         <v>6818310</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D117" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10533,7 +10530,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J117">
         <v>3.9</v>
@@ -10601,16 +10598,16 @@
         <v>6818315</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D118" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10619,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J118">
         <v>1.55</v>
@@ -10687,16 +10684,16 @@
         <v>6818311</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D119" s="2">
         <v>45333.44791666666</v>
       </c>
       <c r="E119" t="s">
+        <v>34</v>
+      </c>
+      <c r="F119" t="s">
         <v>35</v>
-      </c>
-      <c r="F119" t="s">
-        <v>36</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10705,7 +10702,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J119">
         <v>1.7</v>
@@ -10773,16 +10770,16 @@
         <v>6818312</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D120" s="2">
         <v>45333.65625</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10791,7 +10788,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J120">
         <v>2</v>
@@ -10859,16 +10856,16 @@
         <v>6818321</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D121" s="2">
         <v>45338.66666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10877,7 +10874,7 @@
         <v>4</v>
       </c>
       <c r="I121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J121">
         <v>1.55</v>
@@ -10945,16 +10942,16 @@
         <v>6818316</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D122" s="2">
         <v>45339.375</v>
       </c>
       <c r="E122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10963,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J122">
         <v>1.909</v>
@@ -11031,16 +11028,16 @@
         <v>6818320</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D123" s="2">
         <v>45339.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11049,7 +11046,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J123">
         <v>2.15</v>
@@ -11117,16 +11114,16 @@
         <v>6818318</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D124" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11135,7 +11132,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J124">
         <v>2.6</v>
@@ -11203,16 +11200,16 @@
         <v>6818319</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D125" s="2">
         <v>45340.5625</v>
       </c>
       <c r="E125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G125">
         <v>6</v>
@@ -11221,7 +11218,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J125">
         <v>1.65</v>
@@ -11289,16 +11286,16 @@
         <v>6818324</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D126" s="2">
         <v>45345.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G126">
         <v>3</v>
@@ -11307,7 +11304,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J126">
         <v>1.8</v>
@@ -11375,16 +11372,16 @@
         <v>6818327</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D127" s="2">
         <v>45346.35416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11393,7 +11390,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J127">
         <v>2.4</v>
@@ -11461,16 +11458,16 @@
         <v>6818326</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D128" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11479,7 +11476,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J128">
         <v>2.25</v>
@@ -11547,16 +11544,16 @@
         <v>6818325</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D129" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F129" t="s">
         <v>38</v>
-      </c>
-      <c r="F129" t="s">
-        <v>39</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11565,7 +11562,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J129">
         <v>2.25</v>
@@ -11633,16 +11630,16 @@
         <v>6818323</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D130" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11651,7 +11648,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J130">
         <v>3.5</v>
@@ -11719,16 +11716,16 @@
         <v>6818322</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D131" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11737,7 +11734,7 @@
         <v>5</v>
       </c>
       <c r="I131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J131">
         <v>5.2</v>
@@ -11805,16 +11802,16 @@
         <v>6818331</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D132" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11823,7 +11820,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J132">
         <v>1.5</v>
@@ -11891,16 +11888,16 @@
         <v>6818333</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D133" s="2">
         <v>45353.4375</v>
       </c>
       <c r="E133" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11909,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J133">
         <v>2.25</v>
@@ -11977,16 +11974,16 @@
         <v>6818330</v>
       </c>
       <c r="C134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D134" s="2">
         <v>45353.61458333334</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11995,7 +11992,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J134">
         <v>2.9</v>
@@ -12063,16 +12060,16 @@
         <v>6818332</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D135" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12081,7 +12078,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J135">
         <v>2.75</v>
@@ -12149,16 +12146,16 @@
         <v>6818328</v>
       </c>
       <c r="C136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D136" s="2">
         <v>45354.52083333334</v>
       </c>
       <c r="E136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12167,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J136">
         <v>1.25</v>
@@ -12235,16 +12232,16 @@
         <v>6818329</v>
       </c>
       <c r="C137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D137" s="2">
         <v>45354.625</v>
       </c>
       <c r="E137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12253,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J137">
         <v>2.3</v>
@@ -12321,16 +12318,16 @@
         <v>6818337</v>
       </c>
       <c r="C138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D138" s="2">
         <v>45359.66666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -12339,7 +12336,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J138">
         <v>1.727</v>
@@ -12407,16 +12404,16 @@
         <v>6818336</v>
       </c>
       <c r="C139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D139" s="2">
         <v>45360.36458333334</v>
       </c>
       <c r="E139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12425,7 +12422,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J139">
         <v>2.9</v>
@@ -12493,16 +12490,16 @@
         <v>6818339</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D140" s="2">
         <v>45360.46875</v>
       </c>
       <c r="E140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12511,7 +12508,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J140">
         <v>2.15</v>
@@ -12579,16 +12576,16 @@
         <v>6818335</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D141" s="2">
         <v>45361.375</v>
       </c>
       <c r="E141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12597,7 +12594,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12665,16 +12662,16 @@
         <v>6818338</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D142" s="2">
         <v>45361.47916666666</v>
       </c>
       <c r="E142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12683,7 +12680,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J142">
         <v>5.25</v>
@@ -12751,16 +12748,16 @@
         <v>6818334</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D143" s="2">
         <v>45361.66666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12769,7 +12766,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J143">
         <v>2.2</v>
@@ -12837,16 +12834,16 @@
         <v>6818341</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D144" s="2">
         <v>45367.375</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12855,7 +12852,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J144">
         <v>1.833</v>
@@ -12923,16 +12920,16 @@
         <v>6818342</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D145" s="2">
         <v>45367.47916666666</v>
       </c>
       <c r="E145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F145" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12941,7 +12938,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J145">
         <v>2.5</v>
@@ -13009,16 +13006,16 @@
         <v>6818345</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D146" s="2">
         <v>45367.57291666666</v>
       </c>
       <c r="E146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13027,7 +13024,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J146">
         <v>1.909</v>
@@ -13095,16 +13092,16 @@
         <v>6818343</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D147" s="2">
         <v>45368.35416666666</v>
       </c>
       <c r="E147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G147">
         <v>5</v>
@@ -13113,7 +13110,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J147">
         <v>1.727</v>
@@ -13181,16 +13178,16 @@
         <v>6818340</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D148" s="2">
         <v>45368.44791666666</v>
       </c>
       <c r="E148" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13199,7 +13196,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J148">
         <v>1.5</v>
@@ -13267,16 +13264,16 @@
         <v>6818344</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D149" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13285,7 +13282,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J149">
         <v>1.727</v>
@@ -13353,16 +13350,16 @@
         <v>6818351</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D150" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13371,7 +13368,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J150">
         <v>2.45</v>
@@ -13439,16 +13436,16 @@
         <v>6818347</v>
       </c>
       <c r="C151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D151" s="2">
         <v>45381.4375</v>
       </c>
       <c r="E151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13457,7 +13454,7 @@
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J151">
         <v>2.75</v>
@@ -13525,16 +13522,16 @@
         <v>6818346</v>
       </c>
       <c r="C152" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D152" s="2">
         <v>45381.54166666666</v>
       </c>
       <c r="E152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13543,7 +13540,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J152">
         <v>2.3</v>
@@ -13611,16 +13608,16 @@
         <v>6818348</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D153" s="2">
         <v>45381.64583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G153">
         <v>5</v>
@@ -13629,7 +13626,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J153">
         <v>2.45</v>
@@ -13697,16 +13694,16 @@
         <v>6818349</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D154" s="2">
         <v>45382.4375</v>
       </c>
       <c r="E154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13715,7 +13712,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J154">
         <v>1.666</v>
@@ -13783,16 +13780,16 @@
         <v>6818350</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D155" s="2">
         <v>45382.54166666666</v>
       </c>
       <c r="E155" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13801,7 +13798,7 @@
         <v>3</v>
       </c>
       <c r="I155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J155">
         <v>7.5</v>
@@ -13869,16 +13866,16 @@
         <v>6818353</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D156" s="2">
         <v>45387.625</v>
       </c>
       <c r="E156" t="s">
+        <v>35</v>
+      </c>
+      <c r="F156" t="s">
         <v>36</v>
-      </c>
-      <c r="F156" t="s">
-        <v>37</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13887,7 +13884,7 @@
         <v>5</v>
       </c>
       <c r="I156" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J156">
         <v>1.909</v>
@@ -13955,16 +13952,16 @@
         <v>6818356</v>
       </c>
       <c r="C157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D157" s="2">
         <v>45388.38541666666</v>
       </c>
       <c r="E157" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G157">
         <v>5</v>
@@ -13973,7 +13970,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J157">
         <v>1.571</v>
@@ -14041,16 +14038,16 @@
         <v>6818354</v>
       </c>
       <c r="C158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D158" s="2">
         <v>45388.47916666666</v>
       </c>
       <c r="E158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14059,7 +14056,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J158">
         <v>1.727</v>
@@ -14127,16 +14124,16 @@
         <v>6818355</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D159" s="2">
         <v>45388.60416666666</v>
       </c>
       <c r="E159" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14145,7 +14142,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J159">
         <v>2</v>
@@ -14213,16 +14210,16 @@
         <v>6818352</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D160" s="2">
         <v>45389.40625</v>
       </c>
       <c r="E160" t="s">
+        <v>42</v>
+      </c>
+      <c r="F160" t="s">
         <v>43</v>
-      </c>
-      <c r="F160" t="s">
-        <v>44</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14231,7 +14228,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J160">
         <v>1.444</v>
@@ -14299,16 +14296,16 @@
         <v>6818357</v>
       </c>
       <c r="C161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D161" s="2">
         <v>45389.52083333334</v>
       </c>
       <c r="E161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14317,7 +14314,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J161">
         <v>2.4</v>
@@ -14385,16 +14382,16 @@
         <v>8074943</v>
       </c>
       <c r="C162" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D162" s="2">
         <v>45391.53819444445</v>
       </c>
       <c r="E162" t="s">
+        <v>45</v>
+      </c>
+      <c r="F162" t="s">
         <v>46</v>
-      </c>
-      <c r="F162" t="s">
-        <v>47</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14403,7 +14400,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J162">
         <v>8.5</v>
@@ -14471,16 +14468,16 @@
         <v>7939469</v>
       </c>
       <c r="C163" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D163" s="2">
         <v>45392.54166666666</v>
       </c>
       <c r="E163" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14489,7 +14486,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J163">
         <v>1.3</v>
@@ -14557,16 +14554,16 @@
         <v>6818359</v>
       </c>
       <c r="C164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D164" s="2">
         <v>45395.39583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G164">
         <v>4</v>
@@ -14575,7 +14572,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J164">
         <v>2.6</v>
@@ -14643,16 +14640,16 @@
         <v>6818358</v>
       </c>
       <c r="C165" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D165" s="2">
         <v>45395.5</v>
       </c>
       <c r="E165" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F165" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14661,7 +14658,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J165">
         <v>1.666</v>
@@ -14729,16 +14726,16 @@
         <v>6818360</v>
       </c>
       <c r="C166" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D166" s="2">
         <v>45395.60416666666</v>
       </c>
       <c r="E166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14747,7 +14744,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J166">
         <v>1.666</v>
@@ -14815,16 +14812,16 @@
         <v>6820520</v>
       </c>
       <c r="C167" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D167" s="2">
         <v>45396.375</v>
       </c>
       <c r="E167" t="s">
+        <v>33</v>
+      </c>
+      <c r="F167" t="s">
         <v>34</v>
-      </c>
-      <c r="F167" t="s">
-        <v>35</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14833,7 +14830,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J167">
         <v>1.727</v>
@@ -14901,16 +14898,16 @@
         <v>6860904</v>
       </c>
       <c r="C168" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D168" s="2">
         <v>45396.47916666666</v>
       </c>
       <c r="E168" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F168" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14919,7 +14916,7 @@
         <v>3</v>
       </c>
       <c r="I168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J168">
         <v>5.5</v>
@@ -14987,16 +14984,16 @@
         <v>6818361</v>
       </c>
       <c r="C169" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D169" s="2">
         <v>45396.57291666666</v>
       </c>
       <c r="E169" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F169" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -15005,7 +15002,7 @@
         <v>4</v>
       </c>
       <c r="I169" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J169">
         <v>5.5</v>
@@ -15073,16 +15070,16 @@
         <v>6818365</v>
       </c>
       <c r="C170" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D170" s="2">
         <v>45402.39583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G170">
         <v>5</v>
@@ -15091,7 +15088,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J170">
         <v>2</v>
@@ -15159,16 +15156,16 @@
         <v>6818362</v>
       </c>
       <c r="C171" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D171" s="2">
         <v>45402.5</v>
       </c>
       <c r="E171" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15177,7 +15174,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J171">
         <v>1.25</v>
@@ -15245,16 +15242,16 @@
         <v>6818364</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D172" s="2">
         <v>45402.60416666666</v>
       </c>
       <c r="E172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G172">
         <v>5</v>
@@ -15263,7 +15260,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J172">
         <v>2.5</v>
@@ -15331,16 +15328,16 @@
         <v>6818367</v>
       </c>
       <c r="C173" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D173" s="2">
         <v>45403.37847222222</v>
       </c>
       <c r="E173" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15349,7 +15346,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J173">
         <v>1.727</v>
@@ -15417,16 +15414,16 @@
         <v>6818366</v>
       </c>
       <c r="C174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D174" s="2">
         <v>45403.45833333334</v>
       </c>
       <c r="E174" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15435,7 +15432,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J174">
         <v>1.909</v>
@@ -15503,16 +15500,16 @@
         <v>6818363</v>
       </c>
       <c r="C175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D175" s="2">
         <v>45403.5625</v>
       </c>
       <c r="E175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15521,7 +15518,7 @@
         <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J175">
         <v>2</v>
@@ -15589,16 +15586,16 @@
         <v>6943666</v>
       </c>
       <c r="C176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D176" s="2">
         <v>45408.625</v>
       </c>
       <c r="E176" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15607,7 +15604,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J176">
         <v>3.6</v>
@@ -15675,16 +15672,16 @@
         <v>6818371</v>
       </c>
       <c r="C177" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D177" s="2">
         <v>45409.39583333334</v>
       </c>
       <c r="E177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15693,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J177">
         <v>1.4</v>
@@ -15761,16 +15758,16 @@
         <v>6818368</v>
       </c>
       <c r="C178" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D178" s="2">
         <v>45409.5</v>
       </c>
       <c r="E178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -15779,7 +15776,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J178">
         <v>2</v>
@@ -15847,16 +15844,16 @@
         <v>6818369</v>
       </c>
       <c r="C179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D179" s="2">
         <v>45409.60416666666</v>
       </c>
       <c r="E179" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15865,7 +15862,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J179">
         <v>1.75</v>
@@ -15933,16 +15930,16 @@
         <v>6818370</v>
       </c>
       <c r="C180" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D180" s="2">
         <v>45410.42708333334</v>
       </c>
       <c r="E180" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15951,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J180">
         <v>2.6</v>
@@ -16019,16 +16016,16 @@
         <v>6885578</v>
       </c>
       <c r="C181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D181" s="2">
         <v>45410.53125</v>
       </c>
       <c r="E181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F181" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16037,7 +16034,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J181">
         <v>4.333</v>
@@ -16105,52 +16102,52 @@
         <v>27</v>
       </c>
       <c r="C182" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D182" s="2">
-        <v>45415.625</v>
+        <v>45416.33333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J182">
+        <v>3.5</v>
+      </c>
+      <c r="K182">
+        <v>3.5</v>
+      </c>
+      <c r="L182">
         <v>2</v>
       </c>
-      <c r="K182">
-        <v>4</v>
-      </c>
-      <c r="L182">
+      <c r="M182">
         <v>3</v>
       </c>
-      <c r="M182">
+      <c r="N182">
+        <v>3.5</v>
+      </c>
+      <c r="O182">
+        <v>2.2</v>
+      </c>
+      <c r="P182">
+        <v>0.25</v>
+      </c>
+      <c r="Q182">
+        <v>1.85</v>
+      </c>
+      <c r="R182">
         <v>2</v>
-      </c>
-      <c r="N182">
-        <v>4</v>
-      </c>
-      <c r="O182">
-        <v>2.875</v>
-      </c>
-      <c r="P182">
-        <v>-0.25</v>
-      </c>
-      <c r="Q182">
-        <v>1.825</v>
-      </c>
-      <c r="R182">
-        <v>2.025</v>
       </c>
       <c r="S182">
         <v>2.75</v>
       </c>
       <c r="T182">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U182">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V182">
         <v>0</v>
@@ -16170,37 +16167,37 @@
         <v>28</v>
       </c>
       <c r="C183" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D183" s="2">
-        <v>45416.33333333334</v>
+        <v>45416.4375</v>
       </c>
       <c r="E183" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J183">
-        <v>3.5</v>
+        <v>1.55</v>
       </c>
       <c r="K183">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L183">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="M183">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="N183">
         <v>3.6</v>
       </c>
       <c r="O183">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="P183">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q183">
         <v>2.025</v>
@@ -16209,13 +16206,13 @@
         <v>1.825</v>
       </c>
       <c r="S183">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T183">
+        <v>1.875</v>
+      </c>
+      <c r="U183">
         <v>1.975</v>
-      </c>
-      <c r="U183">
-        <v>1.875</v>
       </c>
       <c r="V183">
         <v>0</v>
@@ -16235,52 +16232,52 @@
         <v>29</v>
       </c>
       <c r="C184" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D184" s="2">
-        <v>45416.4375</v>
+        <v>45416.59375</v>
       </c>
       <c r="E184" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F184" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J184">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="K184">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L184">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="M184">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="N184">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O184">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="P184">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q184">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R184">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S184">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T184">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U184">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V184">
         <v>0</v>
@@ -16300,37 +16297,37 @@
         <v>30</v>
       </c>
       <c r="C185" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D185" s="2">
-        <v>45416.59375</v>
+        <v>45417.45833333334</v>
       </c>
       <c r="E185" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J185">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="K185">
         <v>3.4</v>
       </c>
       <c r="L185">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="M185">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N185">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O185">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="P185">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q185">
         <v>2.025</v>
@@ -16342,10 +16339,10 @@
         <v>2.75</v>
       </c>
       <c r="T185">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U185">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V185">
         <v>0</v>
@@ -16365,52 +16362,52 @@
         <v>31</v>
       </c>
       <c r="C186" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D186" s="2">
-        <v>45417.45833333334</v>
+        <v>45417.5625</v>
       </c>
       <c r="E186" t="s">
         <v>42</v>
       </c>
       <c r="F186" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J186">
-        <v>3.25</v>
+        <v>1.363</v>
       </c>
       <c r="K186">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L186">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="M186">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="N186">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="O186">
-        <v>2.05</v>
+        <v>7</v>
       </c>
       <c r="P186">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q186">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S186">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T186">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U186">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V186">
         <v>0</v>
@@ -16419,71 +16416,6 @@
         <v>0</v>
       </c>
       <c r="X186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:28">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-      <c r="B187" t="s">
-        <v>32</v>
-      </c>
-      <c r="C187" t="s">
-        <v>33</v>
-      </c>
-      <c r="D187" s="2">
-        <v>45417.5625</v>
-      </c>
-      <c r="E187" t="s">
-        <v>43</v>
-      </c>
-      <c r="F187" t="s">
-        <v>38</v>
-      </c>
-      <c r="J187">
-        <v>1.363</v>
-      </c>
-      <c r="K187">
-        <v>5</v>
-      </c>
-      <c r="L187">
-        <v>7</v>
-      </c>
-      <c r="M187">
-        <v>1.4</v>
-      </c>
-      <c r="N187">
-        <v>4.75</v>
-      </c>
-      <c r="O187">
-        <v>7</v>
-      </c>
-      <c r="P187">
-        <v>-1.25</v>
-      </c>
-      <c r="Q187">
-        <v>1.925</v>
-      </c>
-      <c r="R187">
-        <v>1.925</v>
-      </c>
-      <c r="S187">
-        <v>2.5</v>
-      </c>
-      <c r="T187">
-        <v>1.75</v>
-      </c>
-      <c r="U187">
-        <v>2.125</v>
-      </c>
-      <c r="V187">
-        <v>0</v>
-      </c>
-      <c r="W187">
-        <v>0</v>
-      </c>
-      <c r="X187">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -97,19 +97,22 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7005341</t>
+    <t>7021685</t>
   </si>
   <si>
-    <t>6993966</t>
+    <t>7021686</t>
   </si>
   <si>
-    <t>6994491</t>
+    <t>7028360</t>
   </si>
   <si>
-    <t>6990294</t>
+    <t>7024477</t>
   </si>
   <si>
-    <t>7016849</t>
+    <t>7024498</t>
+  </si>
+  <si>
+    <t>7028515</t>
   </si>
   <si>
     <t>Hungary NB I</t>
@@ -525,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB186"/>
+  <dimension ref="A1:AB193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,16 +625,16 @@
         <v>6863238</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>45135.625</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -640,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2">
         <v>2.625</v>
@@ -708,16 +711,16 @@
         <v>6863236</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>45136.54166666666</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -726,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J3">
         <v>3.2</v>
@@ -794,16 +797,16 @@
         <v>6863235</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>45136.63541666666</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -812,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4">
         <v>2.375</v>
@@ -880,16 +883,16 @@
         <v>6818267</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
         <v>45137.625</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -898,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5">
         <v>2.9</v>
@@ -966,16 +969,16 @@
         <v>6863237</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>45138.625</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -984,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J6">
         <v>1.833</v>
@@ -1052,16 +1055,16 @@
         <v>6818205</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>45142.625</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1070,7 +1073,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J7">
         <v>2.05</v>
@@ -1138,16 +1141,16 @@
         <v>6818204</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2">
         <v>45143.53125</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1156,7 +1159,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8">
         <v>1.666</v>
@@ -1224,16 +1227,16 @@
         <v>6818206</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>45144.53125</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1242,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9">
         <v>3.5</v>
@@ -1310,16 +1313,16 @@
         <v>6818202</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>45144.625</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1328,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J10">
         <v>2.05</v>
@@ -1396,16 +1399,16 @@
         <v>6818207</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
         <v>45145.625</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1414,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J11">
         <v>2.2</v>
@@ -1482,16 +1485,16 @@
         <v>6818212</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>45149.625</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1500,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J12">
         <v>2.7</v>
@@ -1568,16 +1571,16 @@
         <v>6818209</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>45150.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1586,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J13">
         <v>1.727</v>
@@ -1654,16 +1657,16 @@
         <v>6818210</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>45150.63541666666</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1672,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J14">
         <v>2.55</v>
@@ -1740,16 +1743,16 @@
         <v>6818211</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>45151.47916666666</v>
       </c>
       <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
         <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1758,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J15">
         <v>1.85</v>
@@ -1826,16 +1829,16 @@
         <v>6818208</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>45151.57291666666</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1844,7 +1847,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J16">
         <v>1.5</v>
@@ -1912,16 +1915,16 @@
         <v>6818213</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
         <v>45151.66666666666</v>
       </c>
       <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
         <v>41</v>
-      </c>
-      <c r="F17" t="s">
-        <v>40</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1930,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J17">
         <v>2.05</v>
@@ -1998,16 +2001,16 @@
         <v>6818219</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2016,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J18">
         <v>1.85</v>
@@ -2084,16 +2087,16 @@
         <v>6818216</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>45156.63541666666</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2102,7 +2105,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J19">
         <v>2.15</v>
@@ -2170,16 +2173,16 @@
         <v>6818214</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <v>45157.53125</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2188,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -2256,16 +2259,16 @@
         <v>6818217</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>45157.625</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2274,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J21">
         <v>2.25</v>
@@ -2342,16 +2345,16 @@
         <v>6818215</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2">
         <v>45159.63541666666</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -2360,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J22">
         <v>2.7</v>
@@ -2428,16 +2431,16 @@
         <v>6818225</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2">
         <v>45164.4375</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -2446,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J23">
         <v>2.4</v>
@@ -2514,16 +2517,16 @@
         <v>6818222</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>45164.53125</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2532,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J24">
         <v>2.3</v>
@@ -2600,16 +2603,16 @@
         <v>6818221</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
         <v>45164.625</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2618,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -2686,16 +2689,16 @@
         <v>6818223</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2">
         <v>45165.4375</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2704,7 +2707,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J26">
         <v>1.75</v>
@@ -2772,16 +2775,16 @@
         <v>6818220</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -2790,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J27">
         <v>1.4</v>
@@ -2858,16 +2861,16 @@
         <v>6818224</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2">
         <v>45165.60416666666</v>
       </c>
       <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
         <v>40</v>
-      </c>
-      <c r="F28" t="s">
-        <v>39</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2876,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J28">
         <v>1.95</v>
@@ -2944,16 +2947,16 @@
         <v>6818227</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2">
         <v>45171.42708333334</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2962,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J29">
         <v>2.3</v>
@@ -3030,16 +3033,16 @@
         <v>6818230</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2">
         <v>45171.60416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3048,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3116,16 +3119,16 @@
         <v>6818231</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2">
         <v>45172.38541666666</v>
       </c>
       <c r="E31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" t="s">
         <v>39</v>
-      </c>
-      <c r="F31" t="s">
-        <v>38</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3134,7 +3137,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J31">
         <v>2.9</v>
@@ -3202,16 +3205,16 @@
         <v>6818229</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
         <v>45172.51041666666</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3220,7 +3223,7 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J32">
         <v>5.25</v>
@@ -3288,16 +3291,16 @@
         <v>6818226</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2">
         <v>45172.60416666666</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3306,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J33">
         <v>2.25</v>
@@ -3374,16 +3377,16 @@
         <v>7197411</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
         <v>45191.625</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3392,7 +3395,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J34">
         <v>1.8</v>
@@ -3460,16 +3463,16 @@
         <v>7197409</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2">
         <v>45192.39583333334</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3478,7 +3481,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J35">
         <v>1.9</v>
@@ -3546,16 +3549,16 @@
         <v>6818234</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2">
         <v>45192.5</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3564,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3632,16 +3635,16 @@
         <v>7197408</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2">
         <v>45192.60416666666</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3650,7 +3653,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J37">
         <v>2.2</v>
@@ -3718,16 +3721,16 @@
         <v>7197410</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3736,7 +3739,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J38">
         <v>2.2</v>
@@ -3804,16 +3807,16 @@
         <v>7197407</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3822,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J39">
         <v>1.363</v>
@@ -3890,16 +3893,16 @@
         <v>7020194</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2">
         <v>45196.53125</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3908,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J40">
         <v>2.1</v>
@@ -3976,16 +3979,16 @@
         <v>6863234</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2">
         <v>45196.625</v>
       </c>
       <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
         <v>42</v>
-      </c>
-      <c r="F41" t="s">
-        <v>41</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3994,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4062,16 +4065,16 @@
         <v>6818242</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2">
         <v>45198.625</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4080,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J42">
         <v>3</v>
@@ -4148,16 +4151,16 @@
         <v>6818243</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2">
         <v>45199.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4166,7 +4169,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J43">
         <v>1.615</v>
@@ -4234,16 +4237,16 @@
         <v>6818240</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2">
         <v>45199.5</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4252,7 +4255,7 @@
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J44">
         <v>4.75</v>
@@ -4320,16 +4323,16 @@
         <v>6818239</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2">
         <v>45199.60416666666</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4338,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J45">
         <v>1.8</v>
@@ -4406,16 +4409,16 @@
         <v>6818241</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4424,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J46">
         <v>2.6</v>
@@ -4492,16 +4495,16 @@
         <v>6818238</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4510,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J47">
         <v>2.25</v>
@@ -4578,16 +4581,16 @@
         <v>6818247</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2">
         <v>45205.64583333334</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4596,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J48">
         <v>1.8</v>
@@ -4664,16 +4667,16 @@
         <v>6818246</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2">
         <v>45206.32291666666</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4682,7 +4685,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J49">
         <v>2.25</v>
@@ -4750,16 +4753,16 @@
         <v>6818245</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2">
         <v>45206.46875</v>
       </c>
       <c r="E50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" t="s">
         <v>35</v>
-      </c>
-      <c r="F50" t="s">
-        <v>34</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4768,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J50">
         <v>2.4</v>
@@ -4836,16 +4839,16 @@
         <v>6818249</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2">
         <v>45206.64583333334</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4854,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J51">
         <v>2.4</v>
@@ -4922,16 +4925,16 @@
         <v>6818248</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2">
         <v>45207.33333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4940,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J52">
         <v>2.5</v>
@@ -5008,16 +5011,16 @@
         <v>6818244</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2">
         <v>45207.47916666666</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5026,7 +5029,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J53">
         <v>1.8</v>
@@ -5094,16 +5097,16 @@
         <v>6818254</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2">
         <v>45220.3125</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5112,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J54">
         <v>2.1</v>
@@ -5180,16 +5183,16 @@
         <v>6818255</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2">
         <v>45220.40625</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5198,7 +5201,7 @@
         <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J55">
         <v>2.5</v>
@@ -5266,16 +5269,16 @@
         <v>6818250</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2">
         <v>45220.5</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G56">
         <v>5</v>
@@ -5284,7 +5287,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J56">
         <v>1.909</v>
@@ -5352,16 +5355,16 @@
         <v>6818253</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2">
         <v>45221.34375</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5370,7 +5373,7 @@
         <v>5</v>
       </c>
       <c r="I57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J57">
         <v>2.5</v>
@@ -5438,16 +5441,16 @@
         <v>6818252</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2">
         <v>45221.4375</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5456,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J58">
         <v>1.909</v>
@@ -5524,16 +5527,16 @@
         <v>6818251</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2">
         <v>45221.53125</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5542,7 +5545,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J59">
         <v>7.5</v>
@@ -5610,16 +5613,16 @@
         <v>6818261</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2">
         <v>45227.3125</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -5628,7 +5631,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J60">
         <v>1.666</v>
@@ -5696,16 +5699,16 @@
         <v>6818260</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2">
         <v>45227.40625</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G61">
         <v>4</v>
@@ -5714,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J61">
         <v>2.5</v>
@@ -5782,16 +5785,16 @@
         <v>6818259</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2">
         <v>45227.5</v>
       </c>
       <c r="E62" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" t="s">
         <v>38</v>
-      </c>
-      <c r="F62" t="s">
-        <v>37</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5800,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J62">
         <v>2.35</v>
@@ -5868,16 +5871,16 @@
         <v>6818258</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2">
         <v>45228.38541666666</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5886,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J63">
         <v>2.7</v>
@@ -5954,16 +5957,16 @@
         <v>6818257</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -5972,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J64">
         <v>1.571</v>
@@ -6040,16 +6043,16 @@
         <v>6818256</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2">
         <v>45228.58333333334</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6058,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J65">
         <v>1.25</v>
@@ -6126,16 +6129,16 @@
         <v>6818265</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2">
         <v>45234.35416666666</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6144,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J66">
         <v>3.3</v>
@@ -6212,16 +6215,16 @@
         <v>6818264</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2">
         <v>45234.48958333334</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6230,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J67">
         <v>1.8</v>
@@ -6298,16 +6301,16 @@
         <v>6818263</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2">
         <v>45234.58333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6316,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J68">
         <v>2.4</v>
@@ -6384,16 +6387,16 @@
         <v>6999361</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2">
         <v>45235.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6402,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J69">
         <v>1.909</v>
@@ -6470,16 +6473,16 @@
         <v>6818262</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2">
         <v>45235.44791666666</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6488,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J70">
         <v>5.75</v>
@@ -6556,16 +6559,16 @@
         <v>6818266</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D71" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6574,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J71">
         <v>1.75</v>
@@ -6642,16 +6645,16 @@
         <v>6818268</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2">
         <v>45240.66666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6660,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J72">
         <v>2.2</v>
@@ -6728,16 +6731,16 @@
         <v>6818270</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2">
         <v>45241.42708333334</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6746,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J73">
         <v>1.727</v>
@@ -6814,16 +6817,16 @@
         <v>6818271</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2">
         <v>45241.64583333334</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6832,7 +6835,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J74">
         <v>2.375</v>
@@ -6900,16 +6903,16 @@
         <v>6818273</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6918,7 +6921,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J75">
         <v>2.2</v>
@@ -6986,16 +6989,16 @@
         <v>6818272</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2">
         <v>45242.5</v>
       </c>
       <c r="E76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7004,7 +7007,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J76">
         <v>1.333</v>
@@ -7072,16 +7075,16 @@
         <v>6818269</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2">
         <v>45242.60416666666</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7090,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J77">
         <v>2.25</v>
@@ -7158,16 +7161,16 @@
         <v>7448992</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D78" s="2">
         <v>45254.66666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G78">
         <v>4</v>
@@ -7176,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J78">
         <v>1.85</v>
@@ -7244,16 +7247,16 @@
         <v>7448994</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2">
         <v>45255.44791666666</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7262,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7330,16 +7333,16 @@
         <v>7448993</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2">
         <v>45255.54166666666</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7348,7 +7351,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7416,16 +7419,16 @@
         <v>7448991</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2">
         <v>45255.64583333334</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G81">
         <v>4</v>
@@ -7434,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J81">
         <v>3.1</v>
@@ -7502,16 +7505,16 @@
         <v>7448990</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7520,7 +7523,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J82">
         <v>3.75</v>
@@ -7588,16 +7591,16 @@
         <v>6818277</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2">
         <v>45256.64583333334</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7606,7 +7609,7 @@
         <v>3</v>
       </c>
       <c r="I83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J83">
         <v>2.3</v>
@@ -7674,16 +7677,16 @@
         <v>7473670</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2">
         <v>45262.375</v>
       </c>
       <c r="E84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7692,7 +7695,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J84">
         <v>2.3</v>
@@ -7760,16 +7763,16 @@
         <v>7473671</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -7778,7 +7781,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J85">
         <v>2.3</v>
@@ -7846,16 +7849,16 @@
         <v>6818281</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2">
         <v>45262.64583333334</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7864,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J86">
         <v>2.875</v>
@@ -7932,16 +7935,16 @@
         <v>7473672</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2">
         <v>45263.36458333334</v>
       </c>
       <c r="E87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7950,7 +7953,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J87">
         <v>2.6</v>
@@ -8018,16 +8021,16 @@
         <v>7473673</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2">
         <v>45263.46875</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8036,7 +8039,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J88">
         <v>1.833</v>
@@ -8104,16 +8107,16 @@
         <v>7473674</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D89" s="2">
         <v>45263.57291666666</v>
       </c>
       <c r="E89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8122,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J89">
         <v>1.285</v>
@@ -8190,16 +8193,16 @@
         <v>7088570</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2">
         <v>45266.64583333334</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8208,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J90">
         <v>6.5</v>
@@ -8276,16 +8279,16 @@
         <v>6818291</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D91" s="2">
         <v>45268.66666666666</v>
       </c>
       <c r="E91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8294,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J91">
         <v>1.8</v>
@@ -8362,16 +8365,16 @@
         <v>6818289</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D92" s="2">
         <v>45269.38541666666</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8380,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J92">
         <v>3.2</v>
@@ -8448,16 +8451,16 @@
         <v>6818287</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2">
         <v>45269.48958333334</v>
       </c>
       <c r="E93" t="s">
+        <v>37</v>
+      </c>
+      <c r="F93" t="s">
         <v>36</v>
-      </c>
-      <c r="F93" t="s">
-        <v>35</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8466,7 +8469,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J93">
         <v>2.45</v>
@@ -8534,16 +8537,16 @@
         <v>6818288</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2">
         <v>45270.375</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8552,7 +8555,7 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8620,16 +8623,16 @@
         <v>6818290</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D95" s="2">
         <v>45270.47916666666</v>
       </c>
       <c r="E95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8638,7 +8641,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J95">
         <v>3.6</v>
@@ -8706,16 +8709,16 @@
         <v>6818286</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2">
         <v>45270.58333333334</v>
       </c>
       <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
         <v>43</v>
-      </c>
-      <c r="F96" t="s">
-        <v>42</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8724,7 +8727,7 @@
         <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J96">
         <v>3.2</v>
@@ -8792,16 +8795,16 @@
         <v>6818296</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D97" s="2">
         <v>45276.35416666666</v>
       </c>
       <c r="E97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8810,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J97">
         <v>2.1</v>
@@ -8878,16 +8881,16 @@
         <v>6818294</v>
       </c>
       <c r="C98" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D98" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8896,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J98">
         <v>2.25</v>
@@ -8964,16 +8967,16 @@
         <v>6818293</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D99" s="2">
         <v>45276.5625</v>
       </c>
       <c r="E99" t="s">
+        <v>35</v>
+      </c>
+      <c r="F99" t="s">
         <v>34</v>
-      </c>
-      <c r="F99" t="s">
-        <v>33</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8982,7 +8985,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J99">
         <v>2</v>
@@ -9050,16 +9053,16 @@
         <v>6818292</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D100" s="2">
         <v>45277.39583333334</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9068,7 +9071,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J100">
         <v>2.375</v>
@@ -9136,16 +9139,16 @@
         <v>6818295</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D101" s="2">
         <v>45277.5</v>
       </c>
       <c r="E101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9154,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J101">
         <v>1.2</v>
@@ -9222,16 +9225,16 @@
         <v>6818297</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D102" s="2">
         <v>45277.58333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9240,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J102">
         <v>1.727</v>
@@ -9308,16 +9311,16 @@
         <v>7646444</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D103" s="2">
         <v>45324.66666666666</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9326,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J103">
         <v>2.3</v>
@@ -9394,16 +9397,16 @@
         <v>7646447</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D104" s="2">
         <v>45325.35416666666</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -9412,7 +9415,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J104">
         <v>3.2</v>
@@ -9480,16 +9483,16 @@
         <v>7646443</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D105" s="2">
         <v>45325.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9498,7 +9501,7 @@
         <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J105">
         <v>7</v>
@@ -9566,16 +9569,16 @@
         <v>7646445</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D106" s="2">
         <v>45325.5625</v>
       </c>
       <c r="E106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9584,7 +9587,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J106">
         <v>1.8</v>
@@ -9652,16 +9655,16 @@
         <v>7646448</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D107" s="2">
         <v>45326.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9670,7 +9673,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9738,16 +9741,16 @@
         <v>7646446</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D108" s="2">
         <v>45326.5625</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9756,7 +9759,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J108">
         <v>2.1</v>
@@ -9824,16 +9827,16 @@
         <v>6818305</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D109" s="2">
         <v>45328.57291666666</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9842,7 +9845,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J109">
         <v>2.8</v>
@@ -9910,16 +9913,16 @@
         <v>6818306</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D110" s="2">
         <v>45328.66666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G110">
         <v>5</v>
@@ -9928,7 +9931,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J110">
         <v>1.333</v>
@@ -9996,16 +9999,16 @@
         <v>6818307</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D111" s="2">
         <v>45329.57291666666</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10014,7 +10017,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J111">
         <v>2.45</v>
@@ -10082,16 +10085,16 @@
         <v>6818308</v>
       </c>
       <c r="C112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D112" s="2">
         <v>45329.66666666666</v>
       </c>
       <c r="E112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10100,7 +10103,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J112">
         <v>1.5</v>
@@ -10168,16 +10171,16 @@
         <v>6818309</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D113" s="2">
         <v>45330.5</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10186,7 +10189,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J113">
         <v>3.75</v>
@@ -10254,16 +10257,16 @@
         <v>6818304</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D114" s="2">
         <v>45330.66666666666</v>
       </c>
       <c r="E114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10272,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J114">
         <v>2.15</v>
@@ -10340,16 +10343,16 @@
         <v>6818313</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D115" s="2">
         <v>45332.35416666666</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10358,7 +10361,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J115">
         <v>2.75</v>
@@ -10426,16 +10429,16 @@
         <v>6818314</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D116" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10444,7 +10447,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J116">
         <v>1.909</v>
@@ -10512,16 +10515,16 @@
         <v>6818310</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D117" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E117" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10530,7 +10533,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J117">
         <v>3.9</v>
@@ -10598,16 +10601,16 @@
         <v>6818315</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D118" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E118" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10616,7 +10619,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J118">
         <v>1.55</v>
@@ -10684,16 +10687,16 @@
         <v>6818311</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D119" s="2">
         <v>45333.44791666666</v>
       </c>
       <c r="E119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10702,7 +10705,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J119">
         <v>1.7</v>
@@ -10770,16 +10773,16 @@
         <v>6818312</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D120" s="2">
         <v>45333.65625</v>
       </c>
       <c r="E120" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10788,7 +10791,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J120">
         <v>2</v>
@@ -10856,16 +10859,16 @@
         <v>6818321</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D121" s="2">
         <v>45338.66666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10874,7 +10877,7 @@
         <v>4</v>
       </c>
       <c r="I121" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J121">
         <v>1.55</v>
@@ -10942,16 +10945,16 @@
         <v>6818316</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D122" s="2">
         <v>45339.375</v>
       </c>
       <c r="E122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10960,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J122">
         <v>1.909</v>
@@ -11028,16 +11031,16 @@
         <v>6818320</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D123" s="2">
         <v>45339.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11046,7 +11049,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J123">
         <v>2.15</v>
@@ -11114,16 +11117,16 @@
         <v>6818318</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D124" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11132,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J124">
         <v>2.6</v>
@@ -11200,16 +11203,16 @@
         <v>6818319</v>
       </c>
       <c r="C125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D125" s="2">
         <v>45340.5625</v>
       </c>
       <c r="E125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G125">
         <v>6</v>
@@ -11218,7 +11221,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J125">
         <v>1.65</v>
@@ -11286,16 +11289,16 @@
         <v>6818324</v>
       </c>
       <c r="C126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D126" s="2">
         <v>45345.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G126">
         <v>3</v>
@@ -11304,7 +11307,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J126">
         <v>1.8</v>
@@ -11372,16 +11375,16 @@
         <v>6818327</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D127" s="2">
         <v>45346.35416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11390,7 +11393,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J127">
         <v>2.4</v>
@@ -11458,16 +11461,16 @@
         <v>6818326</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D128" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11476,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J128">
         <v>2.25</v>
@@ -11544,16 +11547,16 @@
         <v>6818325</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D129" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E129" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11562,7 +11565,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J129">
         <v>2.25</v>
@@ -11630,16 +11633,16 @@
         <v>6818323</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D130" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E130" t="s">
+        <v>45</v>
+      </c>
+      <c r="F130" t="s">
         <v>44</v>
-      </c>
-      <c r="F130" t="s">
-        <v>43</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11648,7 +11651,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J130">
         <v>3.5</v>
@@ -11716,16 +11719,16 @@
         <v>6818322</v>
       </c>
       <c r="C131" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D131" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11734,7 +11737,7 @@
         <v>5</v>
       </c>
       <c r="I131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J131">
         <v>5.2</v>
@@ -11802,16 +11805,16 @@
         <v>6818331</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D132" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E132" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11820,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J132">
         <v>1.5</v>
@@ -11888,16 +11891,16 @@
         <v>6818333</v>
       </c>
       <c r="C133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D133" s="2">
         <v>45353.4375</v>
       </c>
       <c r="E133" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11906,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J133">
         <v>2.25</v>
@@ -11974,16 +11977,16 @@
         <v>6818330</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D134" s="2">
         <v>45353.61458333334</v>
       </c>
       <c r="E134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11992,7 +11995,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J134">
         <v>2.9</v>
@@ -12060,16 +12063,16 @@
         <v>6818332</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D135" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12078,7 +12081,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J135">
         <v>2.75</v>
@@ -12146,16 +12149,16 @@
         <v>6818328</v>
       </c>
       <c r="C136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D136" s="2">
         <v>45354.52083333334</v>
       </c>
       <c r="E136" t="s">
+        <v>43</v>
+      </c>
+      <c r="F136" t="s">
         <v>42</v>
-      </c>
-      <c r="F136" t="s">
-        <v>41</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12164,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J136">
         <v>1.25</v>
@@ -12232,16 +12235,16 @@
         <v>6818329</v>
       </c>
       <c r="C137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D137" s="2">
         <v>45354.625</v>
       </c>
       <c r="E137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12250,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J137">
         <v>2.3</v>
@@ -12318,16 +12321,16 @@
         <v>6818337</v>
       </c>
       <c r="C138" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D138" s="2">
         <v>45359.66666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -12336,7 +12339,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J138">
         <v>1.727</v>
@@ -12404,16 +12407,16 @@
         <v>6818336</v>
       </c>
       <c r="C139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D139" s="2">
         <v>45360.36458333334</v>
       </c>
       <c r="E139" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12422,7 +12425,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J139">
         <v>2.9</v>
@@ -12490,16 +12493,16 @@
         <v>6818339</v>
       </c>
       <c r="C140" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D140" s="2">
         <v>45360.46875</v>
       </c>
       <c r="E140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12508,7 +12511,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J140">
         <v>2.15</v>
@@ -12576,16 +12579,16 @@
         <v>6818335</v>
       </c>
       <c r="C141" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D141" s="2">
         <v>45361.375</v>
       </c>
       <c r="E141" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12594,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12662,16 +12665,16 @@
         <v>6818338</v>
       </c>
       <c r="C142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D142" s="2">
         <v>45361.47916666666</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12680,7 +12683,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J142">
         <v>5.25</v>
@@ -12748,16 +12751,16 @@
         <v>6818334</v>
       </c>
       <c r="C143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D143" s="2">
         <v>45361.66666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12766,7 +12769,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J143">
         <v>2.2</v>
@@ -12834,16 +12837,16 @@
         <v>6818341</v>
       </c>
       <c r="C144" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D144" s="2">
         <v>45367.375</v>
       </c>
       <c r="E144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12852,7 +12855,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J144">
         <v>1.833</v>
@@ -12920,16 +12923,16 @@
         <v>6818342</v>
       </c>
       <c r="C145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D145" s="2">
         <v>45367.47916666666</v>
       </c>
       <c r="E145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12938,7 +12941,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J145">
         <v>2.5</v>
@@ -13006,16 +13009,16 @@
         <v>6818345</v>
       </c>
       <c r="C146" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D146" s="2">
         <v>45367.57291666666</v>
       </c>
       <c r="E146" t="s">
+        <v>42</v>
+      </c>
+      <c r="F146" t="s">
         <v>41</v>
-      </c>
-      <c r="F146" t="s">
-        <v>40</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13024,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J146">
         <v>1.909</v>
@@ -13092,16 +13095,16 @@
         <v>6818343</v>
       </c>
       <c r="C147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D147" s="2">
         <v>45368.35416666666</v>
       </c>
       <c r="E147" t="s">
+        <v>38</v>
+      </c>
+      <c r="F147" t="s">
         <v>37</v>
-      </c>
-      <c r="F147" t="s">
-        <v>36</v>
       </c>
       <c r="G147">
         <v>5</v>
@@ -13110,7 +13113,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J147">
         <v>1.727</v>
@@ -13178,16 +13181,16 @@
         <v>6818340</v>
       </c>
       <c r="C148" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D148" s="2">
         <v>45368.44791666666</v>
       </c>
       <c r="E148" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13196,7 +13199,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J148">
         <v>1.5</v>
@@ -13264,16 +13267,16 @@
         <v>6818344</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D149" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E149" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13282,7 +13285,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J149">
         <v>1.727</v>
@@ -13350,16 +13353,16 @@
         <v>6818351</v>
       </c>
       <c r="C150" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D150" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E150" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13368,7 +13371,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J150">
         <v>2.45</v>
@@ -13436,16 +13439,16 @@
         <v>6818347</v>
       </c>
       <c r="C151" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D151" s="2">
         <v>45381.4375</v>
       </c>
       <c r="E151" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13454,7 +13457,7 @@
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J151">
         <v>2.75</v>
@@ -13522,16 +13525,16 @@
         <v>6818346</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D152" s="2">
         <v>45381.54166666666</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13540,7 +13543,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J152">
         <v>2.3</v>
@@ -13608,16 +13611,16 @@
         <v>6818348</v>
       </c>
       <c r="C153" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D153" s="2">
         <v>45381.64583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G153">
         <v>5</v>
@@ -13626,7 +13629,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J153">
         <v>2.45</v>
@@ -13694,16 +13697,16 @@
         <v>6818349</v>
       </c>
       <c r="C154" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D154" s="2">
         <v>45382.4375</v>
       </c>
       <c r="E154" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13712,7 +13715,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J154">
         <v>1.666</v>
@@ -13780,16 +13783,16 @@
         <v>6818350</v>
       </c>
       <c r="C155" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D155" s="2">
         <v>45382.54166666666</v>
       </c>
       <c r="E155" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13798,7 +13801,7 @@
         <v>3</v>
       </c>
       <c r="I155" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J155">
         <v>7.5</v>
@@ -13866,16 +13869,16 @@
         <v>6818353</v>
       </c>
       <c r="C156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D156" s="2">
         <v>45387.625</v>
       </c>
       <c r="E156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13884,7 +13887,7 @@
         <v>5</v>
       </c>
       <c r="I156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J156">
         <v>1.909</v>
@@ -13952,16 +13955,16 @@
         <v>6818356</v>
       </c>
       <c r="C157" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D157" s="2">
         <v>45388.38541666666</v>
       </c>
       <c r="E157" t="s">
+        <v>41</v>
+      </c>
+      <c r="F157" t="s">
         <v>40</v>
-      </c>
-      <c r="F157" t="s">
-        <v>39</v>
       </c>
       <c r="G157">
         <v>5</v>
@@ -13970,7 +13973,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J157">
         <v>1.571</v>
@@ -14038,16 +14041,16 @@
         <v>6818354</v>
       </c>
       <c r="C158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D158" s="2">
         <v>45388.47916666666</v>
       </c>
       <c r="E158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F158" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14056,7 +14059,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J158">
         <v>1.727</v>
@@ -14124,16 +14127,16 @@
         <v>6818355</v>
       </c>
       <c r="C159" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D159" s="2">
         <v>45388.60416666666</v>
       </c>
       <c r="E159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14142,7 +14145,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J159">
         <v>2</v>
@@ -14210,16 +14213,16 @@
         <v>6818352</v>
       </c>
       <c r="C160" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D160" s="2">
         <v>45389.40625</v>
       </c>
       <c r="E160" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14228,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J160">
         <v>1.444</v>
@@ -14296,16 +14299,16 @@
         <v>6818357</v>
       </c>
       <c r="C161" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D161" s="2">
         <v>45389.52083333334</v>
       </c>
       <c r="E161" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14314,7 +14317,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J161">
         <v>2.4</v>
@@ -14382,16 +14385,16 @@
         <v>8074943</v>
       </c>
       <c r="C162" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D162" s="2">
         <v>45391.53819444445</v>
       </c>
       <c r="E162" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F162" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14400,7 +14403,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J162">
         <v>8.5</v>
@@ -14468,16 +14471,16 @@
         <v>7939469</v>
       </c>
       <c r="C163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D163" s="2">
         <v>45392.54166666666</v>
       </c>
       <c r="E163" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14486,7 +14489,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J163">
         <v>1.3</v>
@@ -14554,16 +14557,16 @@
         <v>6818359</v>
       </c>
       <c r="C164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D164" s="2">
         <v>45395.39583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G164">
         <v>4</v>
@@ -14572,7 +14575,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J164">
         <v>2.6</v>
@@ -14640,16 +14643,16 @@
         <v>6818358</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D165" s="2">
         <v>45395.5</v>
       </c>
       <c r="E165" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14658,7 +14661,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J165">
         <v>1.666</v>
@@ -14726,16 +14729,16 @@
         <v>6818360</v>
       </c>
       <c r="C166" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D166" s="2">
         <v>45395.60416666666</v>
       </c>
       <c r="E166" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14744,7 +14747,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J166">
         <v>1.666</v>
@@ -14812,16 +14815,16 @@
         <v>6820520</v>
       </c>
       <c r="C167" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D167" s="2">
         <v>45396.375</v>
       </c>
       <c r="E167" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14830,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J167">
         <v>1.727</v>
@@ -14898,16 +14901,16 @@
         <v>6860904</v>
       </c>
       <c r="C168" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D168" s="2">
         <v>45396.47916666666</v>
       </c>
       <c r="E168" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F168" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14916,7 +14919,7 @@
         <v>3</v>
       </c>
       <c r="I168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J168">
         <v>5.5</v>
@@ -14984,16 +14987,16 @@
         <v>6818361</v>
       </c>
       <c r="C169" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D169" s="2">
         <v>45396.57291666666</v>
       </c>
       <c r="E169" t="s">
+        <v>40</v>
+      </c>
+      <c r="F169" t="s">
         <v>39</v>
-      </c>
-      <c r="F169" t="s">
-        <v>38</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -15002,7 +15005,7 @@
         <v>4</v>
       </c>
       <c r="I169" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J169">
         <v>5.5</v>
@@ -15070,16 +15073,16 @@
         <v>6818365</v>
       </c>
       <c r="C170" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D170" s="2">
         <v>45402.39583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F170" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G170">
         <v>5</v>
@@ -15088,7 +15091,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J170">
         <v>2</v>
@@ -15156,16 +15159,16 @@
         <v>6818362</v>
       </c>
       <c r="C171" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D171" s="2">
         <v>45402.5</v>
       </c>
       <c r="E171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15174,7 +15177,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J171">
         <v>1.25</v>
@@ -15242,16 +15245,16 @@
         <v>6818364</v>
       </c>
       <c r="C172" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D172" s="2">
         <v>45402.60416666666</v>
       </c>
       <c r="E172" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G172">
         <v>5</v>
@@ -15260,7 +15263,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J172">
         <v>2.5</v>
@@ -15328,16 +15331,16 @@
         <v>6818367</v>
       </c>
       <c r="C173" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D173" s="2">
         <v>45403.37847222222</v>
       </c>
       <c r="E173" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15346,7 +15349,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J173">
         <v>1.727</v>
@@ -15414,16 +15417,16 @@
         <v>6818366</v>
       </c>
       <c r="C174" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D174" s="2">
         <v>45403.45833333334</v>
       </c>
       <c r="E174" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15432,7 +15435,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J174">
         <v>1.909</v>
@@ -15500,16 +15503,16 @@
         <v>6818363</v>
       </c>
       <c r="C175" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D175" s="2">
         <v>45403.5625</v>
       </c>
       <c r="E175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15518,7 +15521,7 @@
         <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J175">
         <v>2</v>
@@ -15586,16 +15589,16 @@
         <v>6943666</v>
       </c>
       <c r="C176" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D176" s="2">
         <v>45408.625</v>
       </c>
       <c r="E176" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F176" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15604,7 +15607,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J176">
         <v>3.6</v>
@@ -15672,16 +15675,16 @@
         <v>6818371</v>
       </c>
       <c r="C177" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D177" s="2">
         <v>45409.39583333334</v>
       </c>
       <c r="E177" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15690,7 +15693,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J177">
         <v>1.4</v>
@@ -15758,16 +15761,16 @@
         <v>6818368</v>
       </c>
       <c r="C178" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D178" s="2">
         <v>45409.5</v>
       </c>
       <c r="E178" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F178" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -15776,7 +15779,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J178">
         <v>2</v>
@@ -15844,16 +15847,16 @@
         <v>6818369</v>
       </c>
       <c r="C179" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D179" s="2">
         <v>45409.60416666666</v>
       </c>
       <c r="E179" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15862,7 +15865,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J179">
         <v>1.75</v>
@@ -15930,16 +15933,16 @@
         <v>6818370</v>
       </c>
       <c r="C180" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D180" s="2">
         <v>45410.42708333334</v>
       </c>
       <c r="E180" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F180" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15948,7 +15951,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J180">
         <v>2.6</v>
@@ -16016,16 +16019,16 @@
         <v>6885578</v>
       </c>
       <c r="C181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D181" s="2">
         <v>45410.53125</v>
       </c>
       <c r="E181" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F181" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16034,7 +16037,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J181">
         <v>4.333</v>
@@ -16098,324 +16101,905 @@
       <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="s">
-        <v>27</v>
+      <c r="B182">
+        <v>8156232</v>
       </c>
       <c r="C182" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D182" s="2">
-        <v>45416.33333333334</v>
+        <v>45415.625</v>
       </c>
       <c r="E182" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="G182">
+        <v>4</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182" t="s">
+        <v>50</v>
       </c>
       <c r="J182">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="K182">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L182">
+        <v>3</v>
+      </c>
+      <c r="M182">
+        <v>1.85</v>
+      </c>
+      <c r="N182">
+        <v>4.2</v>
+      </c>
+      <c r="O182">
+        <v>3.1</v>
+      </c>
+      <c r="P182">
+        <v>-0.5</v>
+      </c>
+      <c r="Q182">
+        <v>1.925</v>
+      </c>
+      <c r="R182">
+        <v>1.925</v>
+      </c>
+      <c r="S182">
+        <v>3</v>
+      </c>
+      <c r="T182">
         <v>2</v>
       </c>
-      <c r="M182">
-        <v>3</v>
-      </c>
-      <c r="N182">
-        <v>3.5</v>
-      </c>
-      <c r="O182">
-        <v>2.2</v>
-      </c>
-      <c r="P182">
-        <v>0.25</v>
-      </c>
-      <c r="Q182">
+      <c r="U182">
         <v>1.85</v>
       </c>
-      <c r="R182">
-        <v>2</v>
-      </c>
-      <c r="S182">
-        <v>2.75</v>
-      </c>
-      <c r="T182">
-        <v>1.975</v>
-      </c>
-      <c r="U182">
-        <v>1.875</v>
-      </c>
       <c r="V182">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X182">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y182">
+        <v>0.925</v>
+      </c>
+      <c r="Z182">
+        <v>-1</v>
+      </c>
+      <c r="AA182">
+        <v>1</v>
+      </c>
+      <c r="AB182">
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:28">
       <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="s">
-        <v>28</v>
+      <c r="B183">
+        <v>7005341</v>
       </c>
       <c r="C183" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D183" s="2">
-        <v>45416.4375</v>
+        <v>45416.33333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F183" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>2</v>
+      </c>
+      <c r="I183" t="s">
+        <v>49</v>
       </c>
       <c r="J183">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="K183">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L183">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="M183">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="N183">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O183">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="P183">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q183">
+        <v>1.925</v>
+      </c>
+      <c r="R183">
+        <v>1.925</v>
+      </c>
+      <c r="S183">
+        <v>2.75</v>
+      </c>
+      <c r="T183">
+        <v>1.825</v>
+      </c>
+      <c r="U183">
         <v>2.025</v>
       </c>
-      <c r="R183">
-        <v>1.825</v>
-      </c>
-      <c r="S183">
-        <v>2.5</v>
-      </c>
-      <c r="T183">
-        <v>1.875</v>
-      </c>
-      <c r="U183">
-        <v>1.975</v>
-      </c>
       <c r="V183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>0</v>
+        <v>0.909</v>
+      </c>
+      <c r="Y183">
+        <v>-1</v>
+      </c>
+      <c r="Z183">
+        <v>0.925</v>
+      </c>
+      <c r="AA183">
+        <v>0.4125</v>
+      </c>
+      <c r="AB183">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="184" spans="1:28">
       <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="s">
-        <v>29</v>
+      <c r="B184">
+        <v>6993966</v>
       </c>
       <c r="C184" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D184" s="2">
-        <v>45416.59375</v>
+        <v>45416.4375</v>
       </c>
       <c r="E184" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="G184">
+        <v>4</v>
+      </c>
+      <c r="H184">
+        <v>2</v>
+      </c>
+      <c r="I184" t="s">
+        <v>50</v>
       </c>
       <c r="J184">
+        <v>1.55</v>
+      </c>
+      <c r="K184">
+        <v>4</v>
+      </c>
+      <c r="L184">
+        <v>5.5</v>
+      </c>
+      <c r="M184">
+        <v>1.615</v>
+      </c>
+      <c r="N184">
+        <v>3.8</v>
+      </c>
+      <c r="O184">
+        <v>5</v>
+      </c>
+      <c r="P184">
+        <v>-0.75</v>
+      </c>
+      <c r="Q184">
+        <v>1.925</v>
+      </c>
+      <c r="R184">
+        <v>1.925</v>
+      </c>
+      <c r="S184">
         <v>2.5</v>
       </c>
-      <c r="K184">
-        <v>3.4</v>
-      </c>
-      <c r="L184">
-        <v>2.6</v>
-      </c>
-      <c r="M184">
-        <v>2.3</v>
-      </c>
-      <c r="N184">
-        <v>3.5</v>
-      </c>
-      <c r="O184">
-        <v>2.8</v>
-      </c>
-      <c r="P184">
-        <v>-0.25</v>
-      </c>
-      <c r="Q184">
-        <v>2.025</v>
-      </c>
-      <c r="R184">
-        <v>1.825</v>
-      </c>
-      <c r="S184">
-        <v>2.75</v>
-      </c>
       <c r="T184">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U184">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V184">
-        <v>0</v>
+        <v>0.615</v>
       </c>
       <c r="W184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y184">
+        <v>0.925</v>
+      </c>
+      <c r="Z184">
+        <v>-1</v>
+      </c>
+      <c r="AA184">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB184">
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:28">
       <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="s">
-        <v>30</v>
+      <c r="B185">
+        <v>6994491</v>
       </c>
       <c r="C185" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D185" s="2">
-        <v>45417.45833333334</v>
+        <v>45416.59375</v>
       </c>
       <c r="E185" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F185" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="G185">
+        <v>7</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185" t="s">
+        <v>50</v>
       </c>
       <c r="J185">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="K185">
         <v>3.4</v>
       </c>
       <c r="L185">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="M185">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="N185">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O185">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="P185">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q185">
+        <v>1.825</v>
+      </c>
+      <c r="R185">
         <v>2.025</v>
       </c>
-      <c r="R185">
+      <c r="S185">
+        <v>3</v>
+      </c>
+      <c r="T185">
+        <v>2.025</v>
+      </c>
+      <c r="U185">
         <v>1.825</v>
       </c>
-      <c r="S185">
-        <v>2.75</v>
-      </c>
-      <c r="T185">
-        <v>2</v>
-      </c>
-      <c r="U185">
-        <v>1.85</v>
-      </c>
       <c r="V185">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X185">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y185">
+        <v>0.825</v>
+      </c>
+      <c r="Z185">
+        <v>-1</v>
+      </c>
+      <c r="AA185">
+        <v>1.025</v>
+      </c>
+      <c r="AB185">
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:28">
       <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="s">
-        <v>31</v>
+      <c r="B186">
+        <v>6990294</v>
       </c>
       <c r="C186" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D186" s="2">
-        <v>45417.5625</v>
+        <v>45417.45833333334</v>
       </c>
       <c r="E186" t="s">
         <v>42</v>
       </c>
       <c r="F186" t="s">
+        <v>44</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186" t="s">
+        <v>48</v>
+      </c>
+      <c r="J186">
+        <v>3.25</v>
+      </c>
+      <c r="K186">
+        <v>3.4</v>
+      </c>
+      <c r="L186">
+        <v>2.1</v>
+      </c>
+      <c r="M186">
+        <v>2.7</v>
+      </c>
+      <c r="N186">
+        <v>3.4</v>
+      </c>
+      <c r="O186">
+        <v>2.55</v>
+      </c>
+      <c r="P186">
+        <v>0</v>
+      </c>
+      <c r="Q186">
+        <v>1.975</v>
+      </c>
+      <c r="R186">
+        <v>1.875</v>
+      </c>
+      <c r="S186">
+        <v>2.75</v>
+      </c>
+      <c r="T186">
+        <v>1.925</v>
+      </c>
+      <c r="U186">
+        <v>1.925</v>
+      </c>
+      <c r="V186">
+        <v>-1</v>
+      </c>
+      <c r="W186">
+        <v>2.4</v>
+      </c>
+      <c r="X186">
+        <v>-1</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
+      </c>
+      <c r="Z186">
+        <v>0</v>
+      </c>
+      <c r="AA186">
+        <v>-1</v>
+      </c>
+      <c r="AB186">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="187" spans="1:28">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>7016849</v>
+      </c>
+      <c r="C187" t="s">
+        <v>33</v>
+      </c>
+      <c r="D187" s="2">
+        <v>45417.5625</v>
+      </c>
+      <c r="E187" t="s">
+        <v>43</v>
+      </c>
+      <c r="F187" t="s">
+        <v>38</v>
+      </c>
+      <c r="G187">
+        <v>5</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187" t="s">
+        <v>50</v>
+      </c>
+      <c r="J187">
+        <v>1.363</v>
+      </c>
+      <c r="K187">
+        <v>5</v>
+      </c>
+      <c r="L187">
+        <v>7</v>
+      </c>
+      <c r="M187">
+        <v>1.4</v>
+      </c>
+      <c r="N187">
+        <v>5.25</v>
+      </c>
+      <c r="O187">
+        <v>6</v>
+      </c>
+      <c r="P187">
+        <v>-1.25</v>
+      </c>
+      <c r="Q187">
+        <v>1.875</v>
+      </c>
+      <c r="R187">
+        <v>1.975</v>
+      </c>
+      <c r="S187">
+        <v>3</v>
+      </c>
+      <c r="T187">
+        <v>1.925</v>
+      </c>
+      <c r="U187">
+        <v>1.925</v>
+      </c>
+      <c r="V187">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="W187">
+        <v>-1</v>
+      </c>
+      <c r="X187">
+        <v>-1</v>
+      </c>
+      <c r="Y187">
+        <v>0.875</v>
+      </c>
+      <c r="Z187">
+        <v>-1</v>
+      </c>
+      <c r="AA187">
+        <v>0.925</v>
+      </c>
+      <c r="AB187">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:28">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>27</v>
+      </c>
+      <c r="C188" t="s">
+        <v>33</v>
+      </c>
+      <c r="D188" s="2">
+        <v>45422.63541666666</v>
+      </c>
+      <c r="E188" t="s">
+        <v>36</v>
+      </c>
+      <c r="F188" t="s">
+        <v>42</v>
+      </c>
+      <c r="J188">
+        <v>2.2</v>
+      </c>
+      <c r="K188">
+        <v>3.4</v>
+      </c>
+      <c r="L188">
+        <v>3.2</v>
+      </c>
+      <c r="M188">
+        <v>2.1</v>
+      </c>
+      <c r="N188">
+        <v>3.4</v>
+      </c>
+      <c r="O188">
+        <v>3.4</v>
+      </c>
+      <c r="P188">
+        <v>-0.25</v>
+      </c>
+      <c r="Q188">
+        <v>1.825</v>
+      </c>
+      <c r="R188">
+        <v>2.025</v>
+      </c>
+      <c r="S188">
+        <v>2.5</v>
+      </c>
+      <c r="T188">
+        <v>1.85</v>
+      </c>
+      <c r="U188">
+        <v>2</v>
+      </c>
+      <c r="V188">
+        <v>0</v>
+      </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:28">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>28</v>
+      </c>
+      <c r="C189" t="s">
+        <v>33</v>
+      </c>
+      <c r="D189" s="2">
+        <v>45423.4375</v>
+      </c>
+      <c r="E189" t="s">
+        <v>34</v>
+      </c>
+      <c r="F189" t="s">
+        <v>39</v>
+      </c>
+      <c r="J189">
+        <v>3.6</v>
+      </c>
+      <c r="K189">
+        <v>4</v>
+      </c>
+      <c r="L189">
+        <v>1.85</v>
+      </c>
+      <c r="M189">
+        <v>3.8</v>
+      </c>
+      <c r="N189">
+        <v>4.2</v>
+      </c>
+      <c r="O189">
+        <v>1.75</v>
+      </c>
+      <c r="P189">
+        <v>0.75</v>
+      </c>
+      <c r="Q189">
+        <v>1.825</v>
+      </c>
+      <c r="R189">
+        <v>2.025</v>
+      </c>
+      <c r="S189">
+        <v>2.75</v>
+      </c>
+      <c r="T189">
+        <v>1.925</v>
+      </c>
+      <c r="U189">
+        <v>1.925</v>
+      </c>
+      <c r="V189">
+        <v>0</v>
+      </c>
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:28">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>29</v>
+      </c>
+      <c r="C190" t="s">
+        <v>33</v>
+      </c>
+      <c r="D190" s="2">
+        <v>45423.52083333334</v>
+      </c>
+      <c r="E190" t="s">
         <v>37</v>
       </c>
-      <c r="J186">
-        <v>1.363</v>
-      </c>
-      <c r="K186">
-        <v>5</v>
-      </c>
-      <c r="L186">
-        <v>7</v>
-      </c>
-      <c r="M186">
-        <v>1.4</v>
-      </c>
-      <c r="N186">
-        <v>4.75</v>
-      </c>
-      <c r="O186">
-        <v>7</v>
-      </c>
-      <c r="P186">
-        <v>-1.25</v>
-      </c>
-      <c r="Q186">
+      <c r="F190" t="s">
+        <v>44</v>
+      </c>
+      <c r="J190">
+        <v>2.6</v>
+      </c>
+      <c r="K190">
+        <v>3.4</v>
+      </c>
+      <c r="L190">
+        <v>2.6</v>
+      </c>
+      <c r="M190">
+        <v>3.2</v>
+      </c>
+      <c r="N190">
+        <v>3.5</v>
+      </c>
+      <c r="O190">
+        <v>2.15</v>
+      </c>
+      <c r="P190">
+        <v>0.25</v>
+      </c>
+      <c r="Q190">
+        <v>1.975</v>
+      </c>
+      <c r="R190">
+        <v>1.875</v>
+      </c>
+      <c r="S190">
+        <v>3</v>
+      </c>
+      <c r="T190">
+        <v>2.025</v>
+      </c>
+      <c r="U190">
+        <v>1.825</v>
+      </c>
+      <c r="V190">
+        <v>0</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>30</v>
+      </c>
+      <c r="C191" t="s">
+        <v>33</v>
+      </c>
+      <c r="D191" s="2">
+        <v>45423.60416666666</v>
+      </c>
+      <c r="E191" t="s">
+        <v>35</v>
+      </c>
+      <c r="F191" t="s">
+        <v>43</v>
+      </c>
+      <c r="J191">
+        <v>4.5</v>
+      </c>
+      <c r="K191">
+        <v>4.2</v>
+      </c>
+      <c r="L191">
+        <v>1.65</v>
+      </c>
+      <c r="M191">
+        <v>5.25</v>
+      </c>
+      <c r="N191">
+        <v>4.333</v>
+      </c>
+      <c r="O191">
+        <v>1.533</v>
+      </c>
+      <c r="P191">
+        <v>1</v>
+      </c>
+      <c r="Q191">
+        <v>1.925</v>
+      </c>
+      <c r="R191">
+        <v>1.925</v>
+      </c>
+      <c r="S191">
+        <v>3</v>
+      </c>
+      <c r="T191">
+        <v>1.875</v>
+      </c>
+      <c r="U191">
+        <v>1.975</v>
+      </c>
+      <c r="V191">
+        <v>0</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>31</v>
+      </c>
+      <c r="C192" t="s">
+        <v>33</v>
+      </c>
+      <c r="D192" s="2">
+        <v>45424.38541666666</v>
+      </c>
+      <c r="E192" t="s">
+        <v>45</v>
+      </c>
+      <c r="F192" t="s">
+        <v>40</v>
+      </c>
+      <c r="J192">
         <v>1.95</v>
       </c>
-      <c r="R186">
-        <v>1.9</v>
-      </c>
-      <c r="S186">
-        <v>2.5</v>
-      </c>
-      <c r="T186">
+      <c r="K192">
+        <v>3.9</v>
+      </c>
+      <c r="L192">
+        <v>3.4</v>
+      </c>
+      <c r="M192">
+        <v>1.6</v>
+      </c>
+      <c r="N192">
+        <v>4.2</v>
+      </c>
+      <c r="O192">
+        <v>5.25</v>
+      </c>
+      <c r="P192">
+        <v>-1</v>
+      </c>
+      <c r="Q192">
+        <v>2.05</v>
+      </c>
+      <c r="R192">
+        <v>1.8</v>
+      </c>
+      <c r="S192">
+        <v>2.75</v>
+      </c>
+      <c r="T192">
+        <v>2.025</v>
+      </c>
+      <c r="U192">
+        <v>1.825</v>
+      </c>
+      <c r="V192">
+        <v>0</v>
+      </c>
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>32</v>
+      </c>
+      <c r="C193" t="s">
+        <v>33</v>
+      </c>
+      <c r="D193" s="2">
+        <v>45424.60416666666</v>
+      </c>
+      <c r="E193" t="s">
+        <v>38</v>
+      </c>
+      <c r="F193" t="s">
+        <v>41</v>
+      </c>
+      <c r="J193">
+        <v>2.6</v>
+      </c>
+      <c r="K193">
+        <v>3.4</v>
+      </c>
+      <c r="L193">
+        <v>2.6</v>
+      </c>
+      <c r="M193">
+        <v>1.95</v>
+      </c>
+      <c r="N193">
+        <v>3.5</v>
+      </c>
+      <c r="O193">
+        <v>3.5</v>
+      </c>
+      <c r="P193">
+        <v>-0.5</v>
+      </c>
+      <c r="Q193">
+        <v>2</v>
+      </c>
+      <c r="R193">
         <v>1.85</v>
       </c>
-      <c r="U186">
+      <c r="S193">
+        <v>2.75</v>
+      </c>
+      <c r="T193">
         <v>2</v>
       </c>
-      <c r="V186">
-        <v>0</v>
-      </c>
-      <c r="W186">
-        <v>0</v>
-      </c>
-      <c r="X186">
+      <c r="U193">
+        <v>1.85</v>
+      </c>
+      <c r="V193">
+        <v>0</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -16642,22 +16642,22 @@
         <v>3.2</v>
       </c>
       <c r="M188">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N188">
         <v>3.4</v>
       </c>
       <c r="O188">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P188">
         <v>-0.25</v>
       </c>
       <c r="Q188">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R188">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
         <v>2.5</v>
@@ -16707,31 +16707,31 @@
         <v>1.85</v>
       </c>
       <c r="M189">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N189">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O189">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="P189">
         <v>0.75</v>
       </c>
       <c r="Q189">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R189">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S189">
         <v>2.75</v>
       </c>
       <c r="T189">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U189">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V189">
         <v>0</v>
@@ -16784,10 +16784,10 @@
         <v>0.25</v>
       </c>
       <c r="Q190">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R190">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S190">
         <v>3</v>
@@ -16849,10 +16849,10 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R191">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S191">
         <v>3</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -16642,22 +16642,22 @@
         <v>3.2</v>
       </c>
       <c r="M188">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N188">
         <v>3.4</v>
       </c>
       <c r="O188">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P188">
         <v>-0.25</v>
       </c>
       <c r="Q188">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="R188">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S188">
         <v>2.5</v>
@@ -16707,31 +16707,31 @@
         <v>1.85</v>
       </c>
       <c r="M189">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N189">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O189">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="P189">
         <v>0.75</v>
       </c>
       <c r="Q189">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R189">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S189">
         <v>2.75</v>
       </c>
       <c r="T189">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V189">
         <v>0</v>
@@ -16772,13 +16772,13 @@
         <v>2.6</v>
       </c>
       <c r="M190">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N190">
         <v>3.5</v>
       </c>
       <c r="O190">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P190">
         <v>0.25</v>
@@ -16793,10 +16793,10 @@
         <v>3</v>
       </c>
       <c r="T190">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U190">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V190">
         <v>0</v>
@@ -16837,31 +16837,31 @@
         <v>1.65</v>
       </c>
       <c r="M191">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="N191">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="O191">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="P191">
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R191">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S191">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T191">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U191">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
         <v>0</v>
@@ -16979,10 +16979,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q193">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R193">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S193">
         <v>2.75</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -95,24 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7021685</t>
-  </si>
-  <si>
-    <t>7021686</t>
-  </si>
-  <si>
-    <t>7028360</t>
-  </si>
-  <si>
-    <t>7024477</t>
-  </si>
-  <si>
-    <t>7024498</t>
-  </si>
-  <si>
-    <t>7028515</t>
   </si>
   <si>
     <t>Hungary NB I</t>
@@ -528,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB193"/>
+  <dimension ref="A1:AB187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,16 +607,16 @@
         <v>6863238</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45135.625</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -643,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>2.625</v>
@@ -711,16 +693,16 @@
         <v>6863236</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45136.54166666666</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -729,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J3">
         <v>3.2</v>
@@ -797,16 +779,16 @@
         <v>6863235</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45136.63541666666</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -815,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>2.375</v>
@@ -883,16 +865,16 @@
         <v>6818267</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45137.625</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -901,7 +883,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J5">
         <v>2.9</v>
@@ -969,16 +951,16 @@
         <v>6863237</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45138.625</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -987,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>1.833</v>
@@ -1055,16 +1037,16 @@
         <v>6818205</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45142.625</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1073,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>2.05</v>
@@ -1141,16 +1123,16 @@
         <v>6818204</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45143.53125</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1159,7 +1141,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J8">
         <v>1.666</v>
@@ -1227,16 +1209,16 @@
         <v>6818206</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45144.53125</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1245,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J9">
         <v>3.5</v>
@@ -1313,16 +1295,16 @@
         <v>6818202</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45144.625</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1331,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>2.05</v>
@@ -1399,16 +1381,16 @@
         <v>6818207</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45145.625</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1417,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>2.2</v>
@@ -1485,16 +1467,16 @@
         <v>6818212</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45149.625</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1503,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>2.7</v>
@@ -1571,16 +1553,16 @@
         <v>6818209</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45150.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1589,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>1.727</v>
@@ -1657,16 +1639,16 @@
         <v>6818210</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45150.63541666666</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1675,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>2.55</v>
@@ -1743,16 +1725,16 @@
         <v>6818211</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45151.47916666666</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1761,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J15">
         <v>1.85</v>
@@ -1829,16 +1811,16 @@
         <v>6818208</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45151.57291666666</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1847,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J16">
         <v>1.5</v>
@@ -1915,16 +1897,16 @@
         <v>6818213</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45151.66666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1933,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>2.05</v>
@@ -2001,16 +1983,16 @@
         <v>6818219</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2019,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>1.85</v>
@@ -2087,16 +2069,16 @@
         <v>6818216</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45156.63541666666</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2105,7 +2087,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J19">
         <v>2.15</v>
@@ -2173,16 +2155,16 @@
         <v>6818214</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45157.53125</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2191,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -2259,16 +2241,16 @@
         <v>6818217</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45157.625</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2277,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>2.25</v>
@@ -2345,16 +2327,16 @@
         <v>6818215</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45159.63541666666</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -2363,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>2.7</v>
@@ -2431,16 +2413,16 @@
         <v>6818225</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45164.4375</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -2449,7 +2431,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J23">
         <v>2.4</v>
@@ -2517,16 +2499,16 @@
         <v>6818222</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45164.53125</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2535,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <v>2.3</v>
@@ -2603,16 +2585,16 @@
         <v>6818221</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45164.625</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2621,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -2689,16 +2671,16 @@
         <v>6818223</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45165.4375</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2707,7 +2689,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J26">
         <v>1.75</v>
@@ -2775,16 +2757,16 @@
         <v>6818220</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -2793,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J27">
         <v>1.4</v>
@@ -2861,16 +2843,16 @@
         <v>6818224</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45165.60416666666</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2879,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J28">
         <v>1.95</v>
@@ -2947,16 +2929,16 @@
         <v>6818227</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45171.42708333334</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2965,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J29">
         <v>2.3</v>
@@ -3033,16 +3015,16 @@
         <v>6818230</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45171.60416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3051,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3119,16 +3101,16 @@
         <v>6818231</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45172.38541666666</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3137,7 +3119,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J31">
         <v>2.9</v>
@@ -3205,16 +3187,16 @@
         <v>6818229</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45172.51041666666</v>
       </c>
       <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
         <v>37</v>
-      </c>
-      <c r="F32" t="s">
-        <v>43</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3223,7 +3205,7 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J32">
         <v>5.25</v>
@@ -3291,16 +3273,16 @@
         <v>6818226</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45172.60416666666</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3309,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J33">
         <v>2.25</v>
@@ -3377,16 +3359,16 @@
         <v>7197411</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45191.625</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3395,7 +3377,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J34">
         <v>1.8</v>
@@ -3463,16 +3445,16 @@
         <v>7197409</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45192.39583333334</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3481,7 +3463,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J35">
         <v>1.9</v>
@@ -3549,16 +3531,16 @@
         <v>6818234</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45192.5</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3567,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3635,16 +3617,16 @@
         <v>7197408</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45192.60416666666</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3653,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J37">
         <v>2.2</v>
@@ -3721,16 +3703,16 @@
         <v>7197410</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3739,7 +3721,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>2.2</v>
@@ -3807,16 +3789,16 @@
         <v>7197407</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3825,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J39">
         <v>1.363</v>
@@ -3893,16 +3875,16 @@
         <v>7020194</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45196.53125</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3911,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J40">
         <v>2.1</v>
@@ -3979,16 +3961,16 @@
         <v>6863234</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45196.625</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3997,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4065,16 +4047,16 @@
         <v>6818242</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45198.625</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4083,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>3</v>
@@ -4151,16 +4133,16 @@
         <v>6818243</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45199.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4169,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J43">
         <v>1.615</v>
@@ -4237,16 +4219,16 @@
         <v>6818240</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45199.5</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4255,7 +4237,7 @@
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J44">
         <v>4.75</v>
@@ -4323,16 +4305,16 @@
         <v>6818239</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45199.60416666666</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4341,7 +4323,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J45">
         <v>1.8</v>
@@ -4409,16 +4391,16 @@
         <v>6818241</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4427,7 +4409,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J46">
         <v>2.6</v>
@@ -4495,16 +4477,16 @@
         <v>6818238</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4513,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J47">
         <v>2.25</v>
@@ -4581,16 +4563,16 @@
         <v>6818247</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45205.64583333334</v>
       </c>
       <c r="E48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" t="s">
         <v>39</v>
-      </c>
-      <c r="F48" t="s">
-        <v>45</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4599,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J48">
         <v>1.8</v>
@@ -4667,16 +4649,16 @@
         <v>6818246</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45206.32291666666</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4685,7 +4667,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J49">
         <v>2.25</v>
@@ -4753,16 +4735,16 @@
         <v>6818245</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45206.46875</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4771,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J50">
         <v>2.4</v>
@@ -4839,16 +4821,16 @@
         <v>6818249</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45206.64583333334</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4857,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J51">
         <v>2.4</v>
@@ -4925,16 +4907,16 @@
         <v>6818248</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45207.33333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4943,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J52">
         <v>2.5</v>
@@ -5011,16 +4993,16 @@
         <v>6818244</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45207.47916666666</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5029,7 +5011,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J53">
         <v>1.8</v>
@@ -5097,16 +5079,16 @@
         <v>6818254</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45220.3125</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5115,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J54">
         <v>2.1</v>
@@ -5183,16 +5165,16 @@
         <v>6818255</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45220.40625</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5201,7 +5183,7 @@
         <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J55">
         <v>2.5</v>
@@ -5269,16 +5251,16 @@
         <v>6818250</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45220.5</v>
       </c>
       <c r="E56" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" t="s">
         <v>36</v>
-      </c>
-      <c r="F56" t="s">
-        <v>42</v>
       </c>
       <c r="G56">
         <v>5</v>
@@ -5287,7 +5269,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J56">
         <v>1.909</v>
@@ -5355,16 +5337,16 @@
         <v>6818253</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45221.34375</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5373,7 +5355,7 @@
         <v>5</v>
       </c>
       <c r="I57" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J57">
         <v>2.5</v>
@@ -5441,16 +5423,16 @@
         <v>6818252</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45221.4375</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5459,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J58">
         <v>1.909</v>
@@ -5527,16 +5509,16 @@
         <v>6818251</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45221.53125</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5545,7 +5527,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J59">
         <v>7.5</v>
@@ -5613,16 +5595,16 @@
         <v>6818261</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45227.3125</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -5631,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J60">
         <v>1.666</v>
@@ -5699,16 +5681,16 @@
         <v>6818260</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45227.40625</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G61">
         <v>4</v>
@@ -5717,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J61">
         <v>2.5</v>
@@ -5785,16 +5767,16 @@
         <v>6818259</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45227.5</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5803,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J62">
         <v>2.35</v>
@@ -5871,16 +5853,16 @@
         <v>6818258</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45228.38541666666</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5889,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J63">
         <v>2.7</v>
@@ -5957,16 +5939,16 @@
         <v>6818257</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -5975,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J64">
         <v>1.571</v>
@@ -6043,16 +6025,16 @@
         <v>6818256</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45228.58333333334</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6061,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J65">
         <v>1.25</v>
@@ -6129,16 +6111,16 @@
         <v>6818265</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45234.35416666666</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6147,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J66">
         <v>3.3</v>
@@ -6215,16 +6197,16 @@
         <v>6818264</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45234.48958333334</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6233,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J67">
         <v>1.8</v>
@@ -6301,16 +6283,16 @@
         <v>6818263</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45234.58333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6319,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J68">
         <v>2.4</v>
@@ -6387,16 +6369,16 @@
         <v>6999361</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45235.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6405,7 +6387,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J69">
         <v>1.909</v>
@@ -6473,16 +6455,16 @@
         <v>6818262</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45235.44791666666</v>
       </c>
       <c r="E70" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6491,7 +6473,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J70">
         <v>5.75</v>
@@ -6559,16 +6541,16 @@
         <v>6818266</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6577,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J71">
         <v>1.75</v>
@@ -6645,16 +6627,16 @@
         <v>6818268</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45240.66666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6663,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J72">
         <v>2.2</v>
@@ -6731,16 +6713,16 @@
         <v>6818270</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45241.42708333334</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6749,7 +6731,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J73">
         <v>1.727</v>
@@ -6817,16 +6799,16 @@
         <v>6818271</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45241.64583333334</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6835,7 +6817,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J74">
         <v>2.375</v>
@@ -6903,16 +6885,16 @@
         <v>6818273</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6921,7 +6903,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J75">
         <v>2.2</v>
@@ -6989,16 +6971,16 @@
         <v>6818272</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45242.5</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7007,7 +6989,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J76">
         <v>1.333</v>
@@ -7075,16 +7057,16 @@
         <v>6818269</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45242.60416666666</v>
       </c>
       <c r="E77" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" t="s">
         <v>38</v>
-      </c>
-      <c r="F77" t="s">
-        <v>44</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7093,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J77">
         <v>2.25</v>
@@ -7161,16 +7143,16 @@
         <v>7448992</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45254.66666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G78">
         <v>4</v>
@@ -7179,7 +7161,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J78">
         <v>1.85</v>
@@ -7247,16 +7229,16 @@
         <v>7448994</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45255.44791666666</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7265,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7333,16 +7315,16 @@
         <v>7448993</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45255.54166666666</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7351,7 +7333,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7419,16 +7401,16 @@
         <v>7448991</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45255.64583333334</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G81">
         <v>4</v>
@@ -7437,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J81">
         <v>3.1</v>
@@ -7505,16 +7487,16 @@
         <v>7448990</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7523,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J82">
         <v>3.75</v>
@@ -7591,16 +7573,16 @@
         <v>6818277</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45256.64583333334</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7609,7 +7591,7 @@
         <v>3</v>
       </c>
       <c r="I83" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J83">
         <v>2.3</v>
@@ -7677,16 +7659,16 @@
         <v>7473670</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45262.375</v>
       </c>
       <c r="E84" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7695,7 +7677,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J84">
         <v>2.3</v>
@@ -7763,16 +7745,16 @@
         <v>7473671</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -7781,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J85">
         <v>2.3</v>
@@ -7849,16 +7831,16 @@
         <v>6818281</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45262.64583333334</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7867,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J86">
         <v>2.875</v>
@@ -7935,16 +7917,16 @@
         <v>7473672</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45263.36458333334</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7953,7 +7935,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J87">
         <v>2.6</v>
@@ -8021,16 +8003,16 @@
         <v>7473673</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45263.46875</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8039,7 +8021,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J88">
         <v>1.833</v>
@@ -8107,16 +8089,16 @@
         <v>7473674</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45263.57291666666</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8125,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J89">
         <v>1.285</v>
@@ -8193,16 +8175,16 @@
         <v>7088570</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45266.64583333334</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8211,7 +8193,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J90">
         <v>6.5</v>
@@ -8279,16 +8261,16 @@
         <v>6818291</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45268.66666666666</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8297,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J91">
         <v>1.8</v>
@@ -8365,16 +8347,16 @@
         <v>6818289</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45269.38541666666</v>
       </c>
       <c r="E92" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8383,7 +8365,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J92">
         <v>3.2</v>
@@ -8451,16 +8433,16 @@
         <v>6818287</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45269.48958333334</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8469,7 +8451,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J93">
         <v>2.45</v>
@@ -8537,16 +8519,16 @@
         <v>6818288</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45270.375</v>
       </c>
       <c r="E94" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8555,7 +8537,7 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8623,16 +8605,16 @@
         <v>6818290</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45270.47916666666</v>
       </c>
       <c r="E95" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8641,7 +8623,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J95">
         <v>3.6</v>
@@ -8709,16 +8691,16 @@
         <v>6818286</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45270.58333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8727,7 +8709,7 @@
         <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J96">
         <v>3.2</v>
@@ -8795,16 +8777,16 @@
         <v>6818296</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45276.35416666666</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8813,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J97">
         <v>2.1</v>
@@ -8881,16 +8863,16 @@
         <v>6818294</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8899,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J98">
         <v>2.25</v>
@@ -8967,16 +8949,16 @@
         <v>6818293</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45276.5625</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8985,7 +8967,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J99">
         <v>2</v>
@@ -9053,16 +9035,16 @@
         <v>6818292</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45277.39583333334</v>
       </c>
       <c r="E100" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9071,7 +9053,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J100">
         <v>2.375</v>
@@ -9139,16 +9121,16 @@
         <v>6818295</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45277.5</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9157,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J101">
         <v>1.2</v>
@@ -9225,16 +9207,16 @@
         <v>6818297</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45277.58333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9243,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J102">
         <v>1.727</v>
@@ -9311,16 +9293,16 @@
         <v>7646444</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45324.66666666666</v>
       </c>
       <c r="E103" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9329,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J103">
         <v>2.3</v>
@@ -9397,16 +9379,16 @@
         <v>7646447</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45325.35416666666</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -9415,7 +9397,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J104">
         <v>3.2</v>
@@ -9483,16 +9465,16 @@
         <v>7646443</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45325.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9501,7 +9483,7 @@
         <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J105">
         <v>7</v>
@@ -9569,16 +9551,16 @@
         <v>7646445</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45325.5625</v>
       </c>
       <c r="E106" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9587,7 +9569,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J106">
         <v>1.8</v>
@@ -9655,16 +9637,16 @@
         <v>7646448</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45326.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9673,7 +9655,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9741,16 +9723,16 @@
         <v>7646446</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45326.5625</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9759,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J108">
         <v>2.1</v>
@@ -9827,16 +9809,16 @@
         <v>6818305</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45328.57291666666</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9845,7 +9827,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J109">
         <v>2.8</v>
@@ -9913,16 +9895,16 @@
         <v>6818306</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45328.66666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G110">
         <v>5</v>
@@ -9931,7 +9913,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J110">
         <v>1.333</v>
@@ -9999,16 +9981,16 @@
         <v>6818307</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45329.57291666666</v>
       </c>
       <c r="E111" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10017,7 +9999,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J111">
         <v>2.45</v>
@@ -10085,16 +10067,16 @@
         <v>6818308</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45329.66666666666</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10103,7 +10085,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J112">
         <v>1.5</v>
@@ -10171,16 +10153,16 @@
         <v>6818309</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45330.5</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10189,7 +10171,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J113">
         <v>3.75</v>
@@ -10257,16 +10239,16 @@
         <v>6818304</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45330.66666666666</v>
       </c>
       <c r="E114" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10275,7 +10257,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J114">
         <v>2.15</v>
@@ -10343,16 +10325,16 @@
         <v>6818313</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45332.35416666666</v>
       </c>
       <c r="E115" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10361,7 +10343,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J115">
         <v>2.75</v>
@@ -10429,16 +10411,16 @@
         <v>6818314</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10447,7 +10429,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J116">
         <v>1.909</v>
@@ -10515,16 +10497,16 @@
         <v>6818310</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E117" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10533,7 +10515,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J117">
         <v>3.9</v>
@@ -10601,16 +10583,16 @@
         <v>6818315</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10619,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J118">
         <v>1.55</v>
@@ -10687,16 +10669,16 @@
         <v>6818311</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45333.44791666666</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10705,7 +10687,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J119">
         <v>1.7</v>
@@ -10773,16 +10755,16 @@
         <v>6818312</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45333.65625</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10791,7 +10773,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J120">
         <v>2</v>
@@ -10859,16 +10841,16 @@
         <v>6818321</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45338.66666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10877,7 +10859,7 @@
         <v>4</v>
       </c>
       <c r="I121" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J121">
         <v>1.55</v>
@@ -10945,16 +10927,16 @@
         <v>6818316</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45339.375</v>
       </c>
       <c r="E122" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10963,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J122">
         <v>1.909</v>
@@ -11031,16 +11013,16 @@
         <v>6818320</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45339.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11049,7 +11031,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J123">
         <v>2.15</v>
@@ -11117,16 +11099,16 @@
         <v>6818318</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11135,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J124">
         <v>2.6</v>
@@ -11203,16 +11185,16 @@
         <v>6818319</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45340.5625</v>
       </c>
       <c r="E125" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G125">
         <v>6</v>
@@ -11221,7 +11203,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J125">
         <v>1.65</v>
@@ -11289,16 +11271,16 @@
         <v>6818324</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45345.66666666666</v>
       </c>
       <c r="E126" t="s">
+        <v>28</v>
+      </c>
+      <c r="F126" t="s">
         <v>34</v>
-      </c>
-      <c r="F126" t="s">
-        <v>40</v>
       </c>
       <c r="G126">
         <v>3</v>
@@ -11307,7 +11289,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J126">
         <v>1.8</v>
@@ -11375,16 +11357,16 @@
         <v>6818327</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45346.35416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11393,7 +11375,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J127">
         <v>2.4</v>
@@ -11461,16 +11443,16 @@
         <v>6818326</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E128" t="s">
+        <v>29</v>
+      </c>
+      <c r="F128" t="s">
         <v>35</v>
-      </c>
-      <c r="F128" t="s">
-        <v>41</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11479,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J128">
         <v>2.25</v>
@@ -11547,16 +11529,16 @@
         <v>6818325</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E129" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11565,7 +11547,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J129">
         <v>2.25</v>
@@ -11633,16 +11615,16 @@
         <v>6818323</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11651,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J130">
         <v>3.5</v>
@@ -11719,16 +11701,16 @@
         <v>6818322</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E131" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11737,7 +11719,7 @@
         <v>5</v>
       </c>
       <c r="I131" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J131">
         <v>5.2</v>
@@ -11805,16 +11787,16 @@
         <v>6818331</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E132" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11823,7 +11805,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J132">
         <v>1.5</v>
@@ -11891,16 +11873,16 @@
         <v>6818333</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45353.4375</v>
       </c>
       <c r="E133" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11909,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J133">
         <v>2.25</v>
@@ -11977,16 +11959,16 @@
         <v>6818330</v>
       </c>
       <c r="C134" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45353.61458333334</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11995,7 +11977,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J134">
         <v>2.9</v>
@@ -12063,16 +12045,16 @@
         <v>6818332</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12081,7 +12063,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J135">
         <v>2.75</v>
@@ -12149,16 +12131,16 @@
         <v>6818328</v>
       </c>
       <c r="C136" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45354.52083333334</v>
       </c>
       <c r="E136" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12167,7 +12149,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J136">
         <v>1.25</v>
@@ -12235,16 +12217,16 @@
         <v>6818329</v>
       </c>
       <c r="C137" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45354.625</v>
       </c>
       <c r="E137" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12253,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J137">
         <v>2.3</v>
@@ -12321,16 +12303,16 @@
         <v>6818337</v>
       </c>
       <c r="C138" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45359.66666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -12339,7 +12321,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J138">
         <v>1.727</v>
@@ -12407,16 +12389,16 @@
         <v>6818336</v>
       </c>
       <c r="C139" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45360.36458333334</v>
       </c>
       <c r="E139" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12425,7 +12407,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J139">
         <v>2.9</v>
@@ -12493,16 +12475,16 @@
         <v>6818339</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45360.46875</v>
       </c>
       <c r="E140" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F140" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12511,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J140">
         <v>2.15</v>
@@ -12579,16 +12561,16 @@
         <v>6818335</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45361.375</v>
       </c>
       <c r="E141" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12597,7 +12579,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12665,16 +12647,16 @@
         <v>6818338</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45361.47916666666</v>
       </c>
       <c r="E142" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12683,7 +12665,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J142">
         <v>5.25</v>
@@ -12751,16 +12733,16 @@
         <v>6818334</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45361.66666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12769,7 +12751,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J143">
         <v>2.2</v>
@@ -12837,16 +12819,16 @@
         <v>6818341</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45367.375</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12855,7 +12837,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J144">
         <v>1.833</v>
@@ -12923,16 +12905,16 @@
         <v>6818342</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45367.47916666666</v>
       </c>
       <c r="E145" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F145" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12941,7 +12923,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J145">
         <v>2.5</v>
@@ -13009,16 +12991,16 @@
         <v>6818345</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45367.57291666666</v>
       </c>
       <c r="E146" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13027,7 +13009,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J146">
         <v>1.909</v>
@@ -13095,16 +13077,16 @@
         <v>6818343</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45368.35416666666</v>
       </c>
       <c r="E147" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G147">
         <v>5</v>
@@ -13113,7 +13095,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J147">
         <v>1.727</v>
@@ -13181,16 +13163,16 @@
         <v>6818340</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45368.44791666666</v>
       </c>
       <c r="E148" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13199,7 +13181,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J148">
         <v>1.5</v>
@@ -13267,16 +13249,16 @@
         <v>6818344</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13285,7 +13267,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J149">
         <v>1.727</v>
@@ -13353,16 +13335,16 @@
         <v>6818351</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E150" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13371,7 +13353,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J150">
         <v>2.45</v>
@@ -13439,16 +13421,16 @@
         <v>6818347</v>
       </c>
       <c r="C151" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45381.4375</v>
       </c>
       <c r="E151" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13457,7 +13439,7 @@
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J151">
         <v>2.75</v>
@@ -13525,16 +13507,16 @@
         <v>6818346</v>
       </c>
       <c r="C152" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45381.54166666666</v>
       </c>
       <c r="E152" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13543,7 +13525,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J152">
         <v>2.3</v>
@@ -13611,16 +13593,16 @@
         <v>6818348</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45381.64583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G153">
         <v>5</v>
@@ -13629,7 +13611,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J153">
         <v>2.45</v>
@@ -13697,16 +13679,16 @@
         <v>6818349</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45382.4375</v>
       </c>
       <c r="E154" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13715,7 +13697,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J154">
         <v>1.666</v>
@@ -13783,16 +13765,16 @@
         <v>6818350</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45382.54166666666</v>
       </c>
       <c r="E155" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13801,7 +13783,7 @@
         <v>3</v>
       </c>
       <c r="I155" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J155">
         <v>7.5</v>
@@ -13869,16 +13851,16 @@
         <v>6818353</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45387.625</v>
       </c>
       <c r="E156" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13887,7 +13869,7 @@
         <v>5</v>
       </c>
       <c r="I156" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J156">
         <v>1.909</v>
@@ -13955,16 +13937,16 @@
         <v>6818356</v>
       </c>
       <c r="C157" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45388.38541666666</v>
       </c>
       <c r="E157" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G157">
         <v>5</v>
@@ -13973,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J157">
         <v>1.571</v>
@@ -14041,16 +14023,16 @@
         <v>6818354</v>
       </c>
       <c r="C158" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45388.47916666666</v>
       </c>
       <c r="E158" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14059,7 +14041,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J158">
         <v>1.727</v>
@@ -14127,16 +14109,16 @@
         <v>6818355</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45388.60416666666</v>
       </c>
       <c r="E159" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14145,7 +14127,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J159">
         <v>2</v>
@@ -14213,16 +14195,16 @@
         <v>6818352</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45389.40625</v>
       </c>
       <c r="E160" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F160" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14231,7 +14213,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J160">
         <v>1.444</v>
@@ -14299,16 +14281,16 @@
         <v>6818357</v>
       </c>
       <c r="C161" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45389.52083333334</v>
       </c>
       <c r="E161" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14317,7 +14299,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J161">
         <v>2.4</v>
@@ -14385,16 +14367,16 @@
         <v>8074943</v>
       </c>
       <c r="C162" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45391.53819444445</v>
       </c>
       <c r="E162" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F162" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14403,7 +14385,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J162">
         <v>8.5</v>
@@ -14471,16 +14453,16 @@
         <v>7939469</v>
       </c>
       <c r="C163" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45392.54166666666</v>
       </c>
       <c r="E163" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14489,7 +14471,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J163">
         <v>1.3</v>
@@ -14557,16 +14539,16 @@
         <v>6818359</v>
       </c>
       <c r="C164" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45395.39583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G164">
         <v>4</v>
@@ -14575,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J164">
         <v>2.6</v>
@@ -14643,16 +14625,16 @@
         <v>6818358</v>
       </c>
       <c r="C165" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45395.5</v>
       </c>
       <c r="E165" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F165" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14661,7 +14643,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J165">
         <v>1.666</v>
@@ -14729,16 +14711,16 @@
         <v>6818360</v>
       </c>
       <c r="C166" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45395.60416666666</v>
       </c>
       <c r="E166" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14747,7 +14729,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J166">
         <v>1.666</v>
@@ -14815,16 +14797,16 @@
         <v>6820520</v>
       </c>
       <c r="C167" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45396.375</v>
       </c>
       <c r="E167" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14833,7 +14815,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J167">
         <v>1.727</v>
@@ -14901,16 +14883,16 @@
         <v>6860904</v>
       </c>
       <c r="C168" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45396.47916666666</v>
       </c>
       <c r="E168" t="s">
+        <v>31</v>
+      </c>
+      <c r="F168" t="s">
         <v>37</v>
-      </c>
-      <c r="F168" t="s">
-        <v>43</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14919,7 +14901,7 @@
         <v>3</v>
       </c>
       <c r="I168" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J168">
         <v>5.5</v>
@@ -14987,16 +14969,16 @@
         <v>6818361</v>
       </c>
       <c r="C169" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
         <v>45396.57291666666</v>
       </c>
       <c r="E169" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F169" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -15005,7 +14987,7 @@
         <v>4</v>
       </c>
       <c r="I169" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J169">
         <v>5.5</v>
@@ -15073,16 +15055,16 @@
         <v>6818365</v>
       </c>
       <c r="C170" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D170" s="2">
         <v>45402.39583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G170">
         <v>5</v>
@@ -15091,7 +15073,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J170">
         <v>2</v>
@@ -15159,16 +15141,16 @@
         <v>6818362</v>
       </c>
       <c r="C171" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D171" s="2">
         <v>45402.5</v>
       </c>
       <c r="E171" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F171" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15177,7 +15159,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J171">
         <v>1.25</v>
@@ -15245,16 +15227,16 @@
         <v>6818364</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D172" s="2">
         <v>45402.60416666666</v>
       </c>
       <c r="E172" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G172">
         <v>5</v>
@@ -15263,7 +15245,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J172">
         <v>2.5</v>
@@ -15331,16 +15313,16 @@
         <v>6818367</v>
       </c>
       <c r="C173" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D173" s="2">
         <v>45403.37847222222</v>
       </c>
       <c r="E173" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15349,7 +15331,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J173">
         <v>1.727</v>
@@ -15417,16 +15399,16 @@
         <v>6818366</v>
       </c>
       <c r="C174" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D174" s="2">
         <v>45403.45833333334</v>
       </c>
       <c r="E174" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15435,7 +15417,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J174">
         <v>1.909</v>
@@ -15503,16 +15485,16 @@
         <v>6818363</v>
       </c>
       <c r="C175" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D175" s="2">
         <v>45403.5625</v>
       </c>
       <c r="E175" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15521,7 +15503,7 @@
         <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J175">
         <v>2</v>
@@ -15589,16 +15571,16 @@
         <v>6943666</v>
       </c>
       <c r="C176" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D176" s="2">
         <v>45408.625</v>
       </c>
       <c r="E176" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15607,7 +15589,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J176">
         <v>3.6</v>
@@ -15675,16 +15657,16 @@
         <v>6818371</v>
       </c>
       <c r="C177" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D177" s="2">
         <v>45409.39583333334</v>
       </c>
       <c r="E177" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15693,7 +15675,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J177">
         <v>1.4</v>
@@ -15761,16 +15743,16 @@
         <v>6818368</v>
       </c>
       <c r="C178" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D178" s="2">
         <v>45409.5</v>
       </c>
       <c r="E178" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -15779,7 +15761,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J178">
         <v>2</v>
@@ -15847,16 +15829,16 @@
         <v>6818369</v>
       </c>
       <c r="C179" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D179" s="2">
         <v>45409.60416666666</v>
       </c>
       <c r="E179" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15865,7 +15847,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J179">
         <v>1.75</v>
@@ -15933,16 +15915,16 @@
         <v>6818370</v>
       </c>
       <c r="C180" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D180" s="2">
         <v>45410.42708333334</v>
       </c>
       <c r="E180" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15951,7 +15933,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J180">
         <v>2.6</v>
@@ -16019,16 +16001,16 @@
         <v>6885578</v>
       </c>
       <c r="C181" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D181" s="2">
         <v>45410.53125</v>
       </c>
       <c r="E181" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F181" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16037,7 +16019,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J181">
         <v>4.333</v>
@@ -16105,16 +16087,16 @@
         <v>8156232</v>
       </c>
       <c r="C182" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D182" s="2">
         <v>45415.625</v>
       </c>
       <c r="E182" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G182">
         <v>4</v>
@@ -16123,7 +16105,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J182">
         <v>2</v>
@@ -16191,16 +16173,16 @@
         <v>7005341</v>
       </c>
       <c r="C183" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D183" s="2">
         <v>45416.33333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -16209,7 +16191,7 @@
         <v>2</v>
       </c>
       <c r="I183" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J183">
         <v>3.5</v>
@@ -16277,16 +16259,16 @@
         <v>6993966</v>
       </c>
       <c r="C184" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D184" s="2">
         <v>45416.4375</v>
       </c>
       <c r="E184" t="s">
+        <v>33</v>
+      </c>
+      <c r="F184" t="s">
         <v>39</v>
-      </c>
-      <c r="F184" t="s">
-        <v>45</v>
       </c>
       <c r="G184">
         <v>4</v>
@@ -16295,7 +16277,7 @@
         <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J184">
         <v>1.55</v>
@@ -16363,16 +16345,16 @@
         <v>6994491</v>
       </c>
       <c r="C185" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D185" s="2">
         <v>45416.59375</v>
       </c>
       <c r="E185" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G185">
         <v>7</v>
@@ -16381,7 +16363,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J185">
         <v>2.5</v>
@@ -16449,16 +16431,16 @@
         <v>6990294</v>
       </c>
       <c r="C186" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D186" s="2">
         <v>45417.45833333334</v>
       </c>
       <c r="E186" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F186" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16467,7 +16449,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J186">
         <v>3.25</v>
@@ -16535,16 +16517,16 @@
         <v>7016849</v>
       </c>
       <c r="C187" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D187" s="2">
         <v>45417.5625</v>
       </c>
       <c r="E187" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G187">
         <v>5</v>
@@ -16553,7 +16535,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J187">
         <v>1.363</v>
@@ -16611,396 +16593,6 @@
       </c>
       <c r="AB187">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:28">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-      <c r="B188" t="s">
-        <v>27</v>
-      </c>
-      <c r="C188" t="s">
-        <v>33</v>
-      </c>
-      <c r="D188" s="2">
-        <v>45422.63541666666</v>
-      </c>
-      <c r="E188" t="s">
-        <v>36</v>
-      </c>
-      <c r="F188" t="s">
-        <v>42</v>
-      </c>
-      <c r="J188">
-        <v>2.2</v>
-      </c>
-      <c r="K188">
-        <v>3.4</v>
-      </c>
-      <c r="L188">
-        <v>3.2</v>
-      </c>
-      <c r="M188">
-        <v>2.4</v>
-      </c>
-      <c r="N188">
-        <v>3.4</v>
-      </c>
-      <c r="O188">
-        <v>2.9</v>
-      </c>
-      <c r="P188">
-        <v>-0.25</v>
-      </c>
-      <c r="Q188">
-        <v>2.1</v>
-      </c>
-      <c r="R188">
-        <v>1.775</v>
-      </c>
-      <c r="S188">
-        <v>2.5</v>
-      </c>
-      <c r="T188">
-        <v>1.85</v>
-      </c>
-      <c r="U188">
-        <v>2</v>
-      </c>
-      <c r="V188">
-        <v>0</v>
-      </c>
-      <c r="W188">
-        <v>0</v>
-      </c>
-      <c r="X188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:28">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189" t="s">
-        <v>28</v>
-      </c>
-      <c r="C189" t="s">
-        <v>33</v>
-      </c>
-      <c r="D189" s="2">
-        <v>45423.4375</v>
-      </c>
-      <c r="E189" t="s">
-        <v>34</v>
-      </c>
-      <c r="F189" t="s">
-        <v>39</v>
-      </c>
-      <c r="J189">
-        <v>3.6</v>
-      </c>
-      <c r="K189">
-        <v>4</v>
-      </c>
-      <c r="L189">
-        <v>1.85</v>
-      </c>
-      <c r="M189">
-        <v>4.2</v>
-      </c>
-      <c r="N189">
-        <v>4.2</v>
-      </c>
-      <c r="O189">
-        <v>1.7</v>
-      </c>
-      <c r="P189">
-        <v>0.75</v>
-      </c>
-      <c r="Q189">
-        <v>1.925</v>
-      </c>
-      <c r="R189">
-        <v>1.925</v>
-      </c>
-      <c r="S189">
-        <v>2.75</v>
-      </c>
-      <c r="T189">
-        <v>1.875</v>
-      </c>
-      <c r="U189">
-        <v>1.975</v>
-      </c>
-      <c r="V189">
-        <v>0</v>
-      </c>
-      <c r="W189">
-        <v>0</v>
-      </c>
-      <c r="X189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:28">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="B190" t="s">
-        <v>29</v>
-      </c>
-      <c r="C190" t="s">
-        <v>33</v>
-      </c>
-      <c r="D190" s="2">
-        <v>45423.52083333334</v>
-      </c>
-      <c r="E190" t="s">
-        <v>37</v>
-      </c>
-      <c r="F190" t="s">
-        <v>44</v>
-      </c>
-      <c r="J190">
-        <v>2.6</v>
-      </c>
-      <c r="K190">
-        <v>3.4</v>
-      </c>
-      <c r="L190">
-        <v>2.6</v>
-      </c>
-      <c r="M190">
-        <v>3.1</v>
-      </c>
-      <c r="N190">
-        <v>3.5</v>
-      </c>
-      <c r="O190">
-        <v>2.2</v>
-      </c>
-      <c r="P190">
-        <v>0.25</v>
-      </c>
-      <c r="Q190">
-        <v>1.925</v>
-      </c>
-      <c r="R190">
-        <v>1.925</v>
-      </c>
-      <c r="S190">
-        <v>3</v>
-      </c>
-      <c r="T190">
-        <v>2.05</v>
-      </c>
-      <c r="U190">
-        <v>1.8</v>
-      </c>
-      <c r="V190">
-        <v>0</v>
-      </c>
-      <c r="W190">
-        <v>0</v>
-      </c>
-      <c r="X190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:28">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
-      <c r="B191" t="s">
-        <v>30</v>
-      </c>
-      <c r="C191" t="s">
-        <v>33</v>
-      </c>
-      <c r="D191" s="2">
-        <v>45423.60416666666</v>
-      </c>
-      <c r="E191" t="s">
-        <v>35</v>
-      </c>
-      <c r="F191" t="s">
-        <v>43</v>
-      </c>
-      <c r="J191">
-        <v>4.5</v>
-      </c>
-      <c r="K191">
-        <v>4.2</v>
-      </c>
-      <c r="L191">
-        <v>1.65</v>
-      </c>
-      <c r="M191">
-        <v>4.75</v>
-      </c>
-      <c r="N191">
-        <v>4.5</v>
-      </c>
-      <c r="O191">
-        <v>1.571</v>
-      </c>
-      <c r="P191">
-        <v>1</v>
-      </c>
-      <c r="Q191">
-        <v>1.85</v>
-      </c>
-      <c r="R191">
-        <v>2</v>
-      </c>
-      <c r="S191">
-        <v>2.75</v>
-      </c>
-      <c r="T191">
-        <v>1.925</v>
-      </c>
-      <c r="U191">
-        <v>1.925</v>
-      </c>
-      <c r="V191">
-        <v>0</v>
-      </c>
-      <c r="W191">
-        <v>0</v>
-      </c>
-      <c r="X191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:28">
-      <c r="A192" s="1">
-        <v>190</v>
-      </c>
-      <c r="B192" t="s">
-        <v>31</v>
-      </c>
-      <c r="C192" t="s">
-        <v>33</v>
-      </c>
-      <c r="D192" s="2">
-        <v>45424.38541666666</v>
-      </c>
-      <c r="E192" t="s">
-        <v>45</v>
-      </c>
-      <c r="F192" t="s">
-        <v>40</v>
-      </c>
-      <c r="J192">
-        <v>1.95</v>
-      </c>
-      <c r="K192">
-        <v>3.9</v>
-      </c>
-      <c r="L192">
-        <v>3.4</v>
-      </c>
-      <c r="M192">
-        <v>1.6</v>
-      </c>
-      <c r="N192">
-        <v>4.2</v>
-      </c>
-      <c r="O192">
-        <v>5.25</v>
-      </c>
-      <c r="P192">
-        <v>-1</v>
-      </c>
-      <c r="Q192">
-        <v>2.05</v>
-      </c>
-      <c r="R192">
-        <v>1.8</v>
-      </c>
-      <c r="S192">
-        <v>2.75</v>
-      </c>
-      <c r="T192">
-        <v>2.025</v>
-      </c>
-      <c r="U192">
-        <v>1.825</v>
-      </c>
-      <c r="V192">
-        <v>0</v>
-      </c>
-      <c r="W192">
-        <v>0</v>
-      </c>
-      <c r="X192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:24">
-      <c r="A193" s="1">
-        <v>191</v>
-      </c>
-      <c r="B193" t="s">
-        <v>32</v>
-      </c>
-      <c r="C193" t="s">
-        <v>33</v>
-      </c>
-      <c r="D193" s="2">
-        <v>45424.60416666666</v>
-      </c>
-      <c r="E193" t="s">
-        <v>38</v>
-      </c>
-      <c r="F193" t="s">
-        <v>41</v>
-      </c>
-      <c r="J193">
-        <v>2.6</v>
-      </c>
-      <c r="K193">
-        <v>3.4</v>
-      </c>
-      <c r="L193">
-        <v>2.6</v>
-      </c>
-      <c r="M193">
-        <v>1.95</v>
-      </c>
-      <c r="N193">
-        <v>3.5</v>
-      </c>
-      <c r="O193">
-        <v>3.5</v>
-      </c>
-      <c r="P193">
-        <v>-0.5</v>
-      </c>
-      <c r="Q193">
-        <v>1.975</v>
-      </c>
-      <c r="R193">
-        <v>1.875</v>
-      </c>
-      <c r="S193">
-        <v>2.75</v>
-      </c>
-      <c r="T193">
-        <v>2</v>
-      </c>
-      <c r="U193">
-        <v>1.85</v>
-      </c>
-      <c r="V193">
-        <v>0</v>
-      </c>
-      <c r="W193">
-        <v>0</v>
-      </c>
-      <c r="X193">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB187"/>
+  <dimension ref="A1:AB193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16595,6 +16595,522 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="188" spans="1:28">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>7021685</v>
+      </c>
+      <c r="C188" t="s">
+        <v>27</v>
+      </c>
+      <c r="D188" s="2">
+        <v>45422.63541666666</v>
+      </c>
+      <c r="E188" t="s">
+        <v>30</v>
+      </c>
+      <c r="F188" t="s">
+        <v>36</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>3</v>
+      </c>
+      <c r="I188" t="s">
+        <v>43</v>
+      </c>
+      <c r="J188">
+        <v>2.2</v>
+      </c>
+      <c r="K188">
+        <v>3.4</v>
+      </c>
+      <c r="L188">
+        <v>3.2</v>
+      </c>
+      <c r="M188">
+        <v>2.6</v>
+      </c>
+      <c r="N188">
+        <v>3.4</v>
+      </c>
+      <c r="O188">
+        <v>2.625</v>
+      </c>
+      <c r="P188">
+        <v>0</v>
+      </c>
+      <c r="Q188">
+        <v>1.925</v>
+      </c>
+      <c r="R188">
+        <v>1.925</v>
+      </c>
+      <c r="S188">
+        <v>2.5</v>
+      </c>
+      <c r="T188">
+        <v>1.825</v>
+      </c>
+      <c r="U188">
+        <v>2.025</v>
+      </c>
+      <c r="V188">
+        <v>-1</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>1.625</v>
+      </c>
+      <c r="Y188">
+        <v>-1</v>
+      </c>
+      <c r="Z188">
+        <v>0.925</v>
+      </c>
+      <c r="AA188">
+        <v>0.825</v>
+      </c>
+      <c r="AB188">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:28">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>7021686</v>
+      </c>
+      <c r="C189" t="s">
+        <v>27</v>
+      </c>
+      <c r="D189" s="2">
+        <v>45423.4375</v>
+      </c>
+      <c r="E189" t="s">
+        <v>28</v>
+      </c>
+      <c r="F189" t="s">
+        <v>33</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>3</v>
+      </c>
+      <c r="I189" t="s">
+        <v>43</v>
+      </c>
+      <c r="J189">
+        <v>3.6</v>
+      </c>
+      <c r="K189">
+        <v>4</v>
+      </c>
+      <c r="L189">
+        <v>1.85</v>
+      </c>
+      <c r="M189">
+        <v>5.75</v>
+      </c>
+      <c r="N189">
+        <v>5</v>
+      </c>
+      <c r="O189">
+        <v>1.444</v>
+      </c>
+      <c r="P189">
+        <v>1.25</v>
+      </c>
+      <c r="Q189">
+        <v>1.85</v>
+      </c>
+      <c r="R189">
+        <v>2</v>
+      </c>
+      <c r="S189">
+        <v>3</v>
+      </c>
+      <c r="T189">
+        <v>1.925</v>
+      </c>
+      <c r="U189">
+        <v>1.925</v>
+      </c>
+      <c r="V189">
+        <v>-1</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>0.444</v>
+      </c>
+      <c r="Y189">
+        <v>-1</v>
+      </c>
+      <c r="Z189">
+        <v>1</v>
+      </c>
+      <c r="AA189">
+        <v>0.925</v>
+      </c>
+      <c r="AB189">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:28">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>7028360</v>
+      </c>
+      <c r="C190" t="s">
+        <v>27</v>
+      </c>
+      <c r="D190" s="2">
+        <v>45423.52083333334</v>
+      </c>
+      <c r="E190" t="s">
+        <v>31</v>
+      </c>
+      <c r="F190" t="s">
+        <v>38</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190" t="s">
+        <v>42</v>
+      </c>
+      <c r="J190">
+        <v>2.6</v>
+      </c>
+      <c r="K190">
+        <v>3.4</v>
+      </c>
+      <c r="L190">
+        <v>2.6</v>
+      </c>
+      <c r="M190">
+        <v>3.1</v>
+      </c>
+      <c r="N190">
+        <v>3.5</v>
+      </c>
+      <c r="O190">
+        <v>2.2</v>
+      </c>
+      <c r="P190">
+        <v>0.25</v>
+      </c>
+      <c r="Q190">
+        <v>1.925</v>
+      </c>
+      <c r="R190">
+        <v>1.925</v>
+      </c>
+      <c r="S190">
+        <v>3</v>
+      </c>
+      <c r="T190">
+        <v>1.975</v>
+      </c>
+      <c r="U190">
+        <v>1.875</v>
+      </c>
+      <c r="V190">
+        <v>-1</v>
+      </c>
+      <c r="W190">
+        <v>2.5</v>
+      </c>
+      <c r="X190">
+        <v>-1</v>
+      </c>
+      <c r="Y190">
+        <v>0.4625</v>
+      </c>
+      <c r="Z190">
+        <v>-0.5</v>
+      </c>
+      <c r="AA190">
+        <v>-1</v>
+      </c>
+      <c r="AB190">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>7024477</v>
+      </c>
+      <c r="C191" t="s">
+        <v>27</v>
+      </c>
+      <c r="D191" s="2">
+        <v>45423.60416666666</v>
+      </c>
+      <c r="E191" t="s">
+        <v>29</v>
+      </c>
+      <c r="F191" t="s">
+        <v>37</v>
+      </c>
+      <c r="G191">
+        <v>2</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191" t="s">
+        <v>44</v>
+      </c>
+      <c r="J191">
+        <v>4.5</v>
+      </c>
+      <c r="K191">
+        <v>4.2</v>
+      </c>
+      <c r="L191">
+        <v>1.65</v>
+      </c>
+      <c r="M191">
+        <v>4.333</v>
+      </c>
+      <c r="N191">
+        <v>4.75</v>
+      </c>
+      <c r="O191">
+        <v>1.6</v>
+      </c>
+      <c r="P191">
+        <v>1</v>
+      </c>
+      <c r="Q191">
+        <v>1.85</v>
+      </c>
+      <c r="R191">
+        <v>2</v>
+      </c>
+      <c r="S191">
+        <v>3</v>
+      </c>
+      <c r="T191">
+        <v>1.85</v>
+      </c>
+      <c r="U191">
+        <v>2</v>
+      </c>
+      <c r="V191">
+        <v>3.333</v>
+      </c>
+      <c r="W191">
+        <v>-1</v>
+      </c>
+      <c r="X191">
+        <v>-1</v>
+      </c>
+      <c r="Y191">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z191">
+        <v>-1</v>
+      </c>
+      <c r="AA191">
+        <v>-1</v>
+      </c>
+      <c r="AB191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>7024498</v>
+      </c>
+      <c r="C192" t="s">
+        <v>27</v>
+      </c>
+      <c r="D192" s="2">
+        <v>45424.38541666666</v>
+      </c>
+      <c r="E192" t="s">
+        <v>39</v>
+      </c>
+      <c r="F192" t="s">
+        <v>34</v>
+      </c>
+      <c r="G192">
+        <v>4</v>
+      </c>
+      <c r="H192">
+        <v>3</v>
+      </c>
+      <c r="I192" t="s">
+        <v>44</v>
+      </c>
+      <c r="J192">
+        <v>1.95</v>
+      </c>
+      <c r="K192">
+        <v>3.9</v>
+      </c>
+      <c r="L192">
+        <v>3.4</v>
+      </c>
+      <c r="M192">
+        <v>1.6</v>
+      </c>
+      <c r="N192">
+        <v>4.5</v>
+      </c>
+      <c r="O192">
+        <v>4.75</v>
+      </c>
+      <c r="P192">
+        <v>-1</v>
+      </c>
+      <c r="Q192">
+        <v>2.05</v>
+      </c>
+      <c r="R192">
+        <v>1.8</v>
+      </c>
+      <c r="S192">
+        <v>3</v>
+      </c>
+      <c r="T192">
+        <v>1.85</v>
+      </c>
+      <c r="U192">
+        <v>2</v>
+      </c>
+      <c r="V192">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="W192">
+        <v>-1</v>
+      </c>
+      <c r="X192">
+        <v>-1</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB192">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:28">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>7028515</v>
+      </c>
+      <c r="C193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D193" s="2">
+        <v>45424.60416666666</v>
+      </c>
+      <c r="E193" t="s">
+        <v>32</v>
+      </c>
+      <c r="F193" t="s">
+        <v>35</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193" t="s">
+        <v>44</v>
+      </c>
+      <c r="J193">
+        <v>2.6</v>
+      </c>
+      <c r="K193">
+        <v>3.4</v>
+      </c>
+      <c r="L193">
+        <v>2.6</v>
+      </c>
+      <c r="M193">
+        <v>2</v>
+      </c>
+      <c r="N193">
+        <v>3.5</v>
+      </c>
+      <c r="O193">
+        <v>3.25</v>
+      </c>
+      <c r="P193">
+        <v>-0.25</v>
+      </c>
+      <c r="Q193">
+        <v>1.825</v>
+      </c>
+      <c r="R193">
+        <v>2.025</v>
+      </c>
+      <c r="S193">
+        <v>2.75</v>
+      </c>
+      <c r="T193">
+        <v>1.85</v>
+      </c>
+      <c r="U193">
+        <v>2</v>
+      </c>
+      <c r="V193">
+        <v>1</v>
+      </c>
+      <c r="W193">
+        <v>-1</v>
+      </c>
+      <c r="X193">
+        <v>-1</v>
+      </c>
+      <c r="Y193">
+        <v>0.825</v>
+      </c>
+      <c r="Z193">
+        <v>-1</v>
+      </c>
+      <c r="AA193">
+        <v>-1</v>
+      </c>
+      <c r="AB193">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,24 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>8209694</t>
+  </si>
+  <si>
+    <t>8209693</t>
+  </si>
+  <si>
+    <t>8209691</t>
+  </si>
+  <si>
+    <t>8209690</t>
+  </si>
+  <si>
+    <t>8209689</t>
+  </si>
+  <si>
+    <t>8209692</t>
   </si>
   <si>
     <t>Hungary NB I</t>
@@ -510,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB193"/>
+  <dimension ref="A1:AB199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,16 +625,16 @@
         <v>6863238</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>45135.625</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -625,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J2">
         <v>2.625</v>
@@ -693,16 +711,16 @@
         <v>6863236</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>45136.54166666666</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -711,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J3">
         <v>3.2</v>
@@ -779,16 +797,16 @@
         <v>6863235</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>45136.63541666666</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -797,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J4">
         <v>2.375</v>
@@ -865,16 +883,16 @@
         <v>6818267</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
         <v>45137.625</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -883,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J5">
         <v>2.9</v>
@@ -951,16 +969,16 @@
         <v>6863237</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>45138.625</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -969,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J6">
         <v>1.833</v>
@@ -1037,16 +1055,16 @@
         <v>6818205</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>45142.625</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1055,7 +1073,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J7">
         <v>2.05</v>
@@ -1123,16 +1141,16 @@
         <v>6818204</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2">
         <v>45143.53125</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1141,7 +1159,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J8">
         <v>1.666</v>
@@ -1209,16 +1227,16 @@
         <v>6818206</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>45144.53125</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1227,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J9">
         <v>3.5</v>
@@ -1295,16 +1313,16 @@
         <v>6818202</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>45144.625</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1313,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J10">
         <v>2.05</v>
@@ -1381,16 +1399,16 @@
         <v>6818207</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
         <v>45145.625</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1399,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J11">
         <v>2.2</v>
@@ -1467,16 +1485,16 @@
         <v>6818212</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>45149.625</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1485,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J12">
         <v>2.7</v>
@@ -1553,16 +1571,16 @@
         <v>6818209</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>45150.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1571,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J13">
         <v>1.727</v>
@@ -1639,16 +1657,16 @@
         <v>6818210</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>45150.63541666666</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1657,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J14">
         <v>2.55</v>
@@ -1725,16 +1743,16 @@
         <v>6818211</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>45151.47916666666</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1743,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J15">
         <v>1.85</v>
@@ -1811,16 +1829,16 @@
         <v>6818208</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>45151.57291666666</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1829,7 +1847,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J16">
         <v>1.5</v>
@@ -1897,16 +1915,16 @@
         <v>6818213</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
         <v>45151.66666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1915,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J17">
         <v>2.05</v>
@@ -1983,16 +2001,16 @@
         <v>6818219</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2001,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J18">
         <v>1.85</v>
@@ -2069,16 +2087,16 @@
         <v>6818216</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>45156.63541666666</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2087,7 +2105,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J19">
         <v>2.15</v>
@@ -2155,16 +2173,16 @@
         <v>6818214</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <v>45157.53125</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2173,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -2241,16 +2259,16 @@
         <v>6818217</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>45157.625</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2259,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J21">
         <v>2.25</v>
@@ -2327,16 +2345,16 @@
         <v>6818215</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2">
         <v>45159.63541666666</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -2345,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J22">
         <v>2.7</v>
@@ -2413,16 +2431,16 @@
         <v>6818225</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2">
         <v>45164.4375</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -2431,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J23">
         <v>2.4</v>
@@ -2499,16 +2517,16 @@
         <v>6818222</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>45164.53125</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2517,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J24">
         <v>2.3</v>
@@ -2585,16 +2603,16 @@
         <v>6818221</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
         <v>45164.625</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2603,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -2671,16 +2689,16 @@
         <v>6818223</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2">
         <v>45165.4375</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2689,7 +2707,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J26">
         <v>1.75</v>
@@ -2757,16 +2775,16 @@
         <v>6818220</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -2775,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J27">
         <v>1.4</v>
@@ -2843,16 +2861,16 @@
         <v>6818224</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2">
         <v>45165.60416666666</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2861,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J28">
         <v>1.95</v>
@@ -2929,16 +2947,16 @@
         <v>6818227</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2">
         <v>45171.42708333334</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2947,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J29">
         <v>2.3</v>
@@ -3015,16 +3033,16 @@
         <v>6818230</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2">
         <v>45171.60416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3033,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3101,16 +3119,16 @@
         <v>6818231</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2">
         <v>45172.38541666666</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3119,7 +3137,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J31">
         <v>2.9</v>
@@ -3187,16 +3205,16 @@
         <v>6818229</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
         <v>45172.51041666666</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3205,7 +3223,7 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J32">
         <v>5.25</v>
@@ -3273,16 +3291,16 @@
         <v>6818226</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2">
         <v>45172.60416666666</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3291,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J33">
         <v>2.25</v>
@@ -3359,16 +3377,16 @@
         <v>7197411</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
         <v>45191.625</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3377,7 +3395,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J34">
         <v>1.8</v>
@@ -3445,16 +3463,16 @@
         <v>7197409</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2">
         <v>45192.39583333334</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3463,7 +3481,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J35">
         <v>1.9</v>
@@ -3531,16 +3549,16 @@
         <v>6818234</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2">
         <v>45192.5</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3549,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3617,16 +3635,16 @@
         <v>7197408</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2">
         <v>45192.60416666666</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3635,7 +3653,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J37">
         <v>2.2</v>
@@ -3703,16 +3721,16 @@
         <v>7197410</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3721,7 +3739,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J38">
         <v>2.2</v>
@@ -3789,16 +3807,16 @@
         <v>7197407</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3807,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J39">
         <v>1.363</v>
@@ -3875,16 +3893,16 @@
         <v>7020194</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2">
         <v>45196.53125</v>
       </c>
       <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
         <v>38</v>
-      </c>
-      <c r="F40" t="s">
-        <v>32</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3893,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J40">
         <v>2.1</v>
@@ -3961,16 +3979,16 @@
         <v>6863234</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2">
         <v>45196.625</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3979,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4047,16 +4065,16 @@
         <v>6818242</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2">
         <v>45198.625</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4065,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J42">
         <v>3</v>
@@ -4133,16 +4151,16 @@
         <v>6818243</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2">
         <v>45199.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4151,7 +4169,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J43">
         <v>1.615</v>
@@ -4219,16 +4237,16 @@
         <v>6818240</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2">
         <v>45199.5</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4237,7 +4255,7 @@
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J44">
         <v>4.75</v>
@@ -4305,16 +4323,16 @@
         <v>6818239</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2">
         <v>45199.60416666666</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4323,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J45">
         <v>1.8</v>
@@ -4391,16 +4409,16 @@
         <v>6818241</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4409,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J46">
         <v>2.6</v>
@@ -4477,16 +4495,16 @@
         <v>6818238</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4495,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J47">
         <v>2.25</v>
@@ -4563,16 +4581,16 @@
         <v>6818247</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2">
         <v>45205.64583333334</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4581,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J48">
         <v>1.8</v>
@@ -4649,16 +4667,16 @@
         <v>6818246</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2">
         <v>45206.32291666666</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4667,7 +4685,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J49">
         <v>2.25</v>
@@ -4735,16 +4753,16 @@
         <v>6818245</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2">
         <v>45206.46875</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4753,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J50">
         <v>2.4</v>
@@ -4821,16 +4839,16 @@
         <v>6818249</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2">
         <v>45206.64583333334</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4839,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J51">
         <v>2.4</v>
@@ -4907,16 +4925,16 @@
         <v>6818248</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2">
         <v>45207.33333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4925,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J52">
         <v>2.5</v>
@@ -4993,16 +5011,16 @@
         <v>6818244</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2">
         <v>45207.47916666666</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5011,7 +5029,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J53">
         <v>1.8</v>
@@ -5079,16 +5097,16 @@
         <v>6818254</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2">
         <v>45220.3125</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5097,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J54">
         <v>2.1</v>
@@ -5165,16 +5183,16 @@
         <v>6818255</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2">
         <v>45220.40625</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5183,7 +5201,7 @@
         <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J55">
         <v>2.5</v>
@@ -5251,16 +5269,16 @@
         <v>6818250</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2">
         <v>45220.5</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G56">
         <v>5</v>
@@ -5269,7 +5287,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J56">
         <v>1.909</v>
@@ -5337,16 +5355,16 @@
         <v>6818253</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2">
         <v>45221.34375</v>
       </c>
       <c r="E57" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5355,7 +5373,7 @@
         <v>5</v>
       </c>
       <c r="I57" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J57">
         <v>2.5</v>
@@ -5423,16 +5441,16 @@
         <v>6818252</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2">
         <v>45221.4375</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5441,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J58">
         <v>1.909</v>
@@ -5509,16 +5527,16 @@
         <v>6818251</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2">
         <v>45221.53125</v>
       </c>
       <c r="E59" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5527,7 +5545,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J59">
         <v>7.5</v>
@@ -5595,16 +5613,16 @@
         <v>6818261</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2">
         <v>45227.3125</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -5613,7 +5631,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J60">
         <v>1.666</v>
@@ -5681,16 +5699,16 @@
         <v>6818260</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2">
         <v>45227.40625</v>
       </c>
       <c r="E61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" t="s">
         <v>35</v>
-      </c>
-      <c r="F61" t="s">
-        <v>29</v>
       </c>
       <c r="G61">
         <v>4</v>
@@ -5699,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J61">
         <v>2.5</v>
@@ -5767,16 +5785,16 @@
         <v>6818259</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2">
         <v>45227.5</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5785,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J62">
         <v>2.35</v>
@@ -5853,16 +5871,16 @@
         <v>6818258</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2">
         <v>45228.38541666666</v>
       </c>
       <c r="E63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" t="s">
         <v>34</v>
-      </c>
-      <c r="F63" t="s">
-        <v>28</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5871,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J63">
         <v>2.7</v>
@@ -5939,16 +5957,16 @@
         <v>6818257</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -5957,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J64">
         <v>1.571</v>
@@ -6025,16 +6043,16 @@
         <v>6818256</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2">
         <v>45228.58333333334</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6043,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J65">
         <v>1.25</v>
@@ -6111,16 +6129,16 @@
         <v>6818265</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2">
         <v>45234.35416666666</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6129,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J66">
         <v>3.3</v>
@@ -6197,16 +6215,16 @@
         <v>6818264</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2">
         <v>45234.48958333334</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6215,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J67">
         <v>1.8</v>
@@ -6283,16 +6301,16 @@
         <v>6818263</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2">
         <v>45234.58333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6301,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J68">
         <v>2.4</v>
@@ -6369,16 +6387,16 @@
         <v>6999361</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2">
         <v>45235.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6387,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J69">
         <v>1.909</v>
@@ -6455,16 +6473,16 @@
         <v>6818262</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2">
         <v>45235.44791666666</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6473,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J70">
         <v>5.75</v>
@@ -6541,16 +6559,16 @@
         <v>6818266</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D71" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E71" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6559,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J71">
         <v>1.75</v>
@@ -6627,16 +6645,16 @@
         <v>6818268</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2">
         <v>45240.66666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6645,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J72">
         <v>2.2</v>
@@ -6713,16 +6731,16 @@
         <v>6818270</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2">
         <v>45241.42708333334</v>
       </c>
       <c r="E73" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6731,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J73">
         <v>1.727</v>
@@ -6799,16 +6817,16 @@
         <v>6818271</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2">
         <v>45241.64583333334</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6817,7 +6835,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J74">
         <v>2.375</v>
@@ -6885,16 +6903,16 @@
         <v>6818273</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E75" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6903,7 +6921,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J75">
         <v>2.2</v>
@@ -6971,16 +6989,16 @@
         <v>6818272</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2">
         <v>45242.5</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6989,7 +7007,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J76">
         <v>1.333</v>
@@ -7057,16 +7075,16 @@
         <v>6818269</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2">
         <v>45242.60416666666</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7075,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J77">
         <v>2.25</v>
@@ -7143,16 +7161,16 @@
         <v>7448992</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D78" s="2">
         <v>45254.66666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G78">
         <v>4</v>
@@ -7161,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J78">
         <v>1.85</v>
@@ -7229,16 +7247,16 @@
         <v>7448994</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2">
         <v>45255.44791666666</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7247,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7315,16 +7333,16 @@
         <v>7448993</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2">
         <v>45255.54166666666</v>
       </c>
       <c r="E80" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7333,7 +7351,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7401,16 +7419,16 @@
         <v>7448991</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2">
         <v>45255.64583333334</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G81">
         <v>4</v>
@@ -7419,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J81">
         <v>3.1</v>
@@ -7487,16 +7505,16 @@
         <v>7448990</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7505,7 +7523,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J82">
         <v>3.75</v>
@@ -7573,16 +7591,16 @@
         <v>6818277</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2">
         <v>45256.64583333334</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7591,7 +7609,7 @@
         <v>3</v>
       </c>
       <c r="I83" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J83">
         <v>2.3</v>
@@ -7659,16 +7677,16 @@
         <v>7473670</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2">
         <v>45262.375</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F84" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7677,7 +7695,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J84">
         <v>2.3</v>
@@ -7745,16 +7763,16 @@
         <v>7473671</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -7763,7 +7781,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J85">
         <v>2.3</v>
@@ -7831,16 +7849,16 @@
         <v>6818281</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2">
         <v>45262.64583333334</v>
       </c>
       <c r="E86" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7849,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J86">
         <v>2.875</v>
@@ -7917,16 +7935,16 @@
         <v>7473672</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2">
         <v>45263.36458333334</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7935,7 +7953,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J87">
         <v>2.6</v>
@@ -8003,16 +8021,16 @@
         <v>7473673</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2">
         <v>45263.46875</v>
       </c>
       <c r="E88" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8021,7 +8039,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J88">
         <v>1.833</v>
@@ -8089,16 +8107,16 @@
         <v>7473674</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D89" s="2">
         <v>45263.57291666666</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8107,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J89">
         <v>1.285</v>
@@ -8175,16 +8193,16 @@
         <v>7088570</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2">
         <v>45266.64583333334</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8193,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J90">
         <v>6.5</v>
@@ -8261,16 +8279,16 @@
         <v>6818291</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D91" s="2">
         <v>45268.66666666666</v>
       </c>
       <c r="E91" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8279,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J91">
         <v>1.8</v>
@@ -8347,16 +8365,16 @@
         <v>6818289</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D92" s="2">
         <v>45269.38541666666</v>
       </c>
       <c r="E92" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8365,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J92">
         <v>3.2</v>
@@ -8433,16 +8451,16 @@
         <v>6818287</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2">
         <v>45269.48958333334</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8451,7 +8469,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J93">
         <v>2.45</v>
@@ -8519,16 +8537,16 @@
         <v>6818288</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2">
         <v>45270.375</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8537,7 +8555,7 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8605,16 +8623,16 @@
         <v>6818290</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D95" s="2">
         <v>45270.47916666666</v>
       </c>
       <c r="E95" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8623,7 +8641,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J95">
         <v>3.6</v>
@@ -8691,16 +8709,16 @@
         <v>6818286</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2">
         <v>45270.58333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8709,7 +8727,7 @@
         <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J96">
         <v>3.2</v>
@@ -8777,16 +8795,16 @@
         <v>6818296</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D97" s="2">
         <v>45276.35416666666</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8795,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J97">
         <v>2.1</v>
@@ -8863,16 +8881,16 @@
         <v>6818294</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D98" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8881,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J98">
         <v>2.25</v>
@@ -8949,16 +8967,16 @@
         <v>6818293</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D99" s="2">
         <v>45276.5625</v>
       </c>
       <c r="E99" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F99" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8967,7 +8985,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J99">
         <v>2</v>
@@ -9035,16 +9053,16 @@
         <v>6818292</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D100" s="2">
         <v>45277.39583333334</v>
       </c>
       <c r="E100" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9053,7 +9071,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J100">
         <v>2.375</v>
@@ -9121,16 +9139,16 @@
         <v>6818295</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D101" s="2">
         <v>45277.5</v>
       </c>
       <c r="E101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s">
         <v>37</v>
-      </c>
-      <c r="F101" t="s">
-        <v>31</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9139,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J101">
         <v>1.2</v>
@@ -9207,16 +9225,16 @@
         <v>6818297</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D102" s="2">
         <v>45277.58333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9225,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J102">
         <v>1.727</v>
@@ -9293,16 +9311,16 @@
         <v>7646444</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D103" s="2">
         <v>45324.66666666666</v>
       </c>
       <c r="E103" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9311,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J103">
         <v>2.3</v>
@@ -9379,16 +9397,16 @@
         <v>7646447</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D104" s="2">
         <v>45325.35416666666</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -9397,7 +9415,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J104">
         <v>3.2</v>
@@ -9465,16 +9483,16 @@
         <v>7646443</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D105" s="2">
         <v>45325.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9483,7 +9501,7 @@
         <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J105">
         <v>7</v>
@@ -9551,16 +9569,16 @@
         <v>7646445</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D106" s="2">
         <v>45325.5625</v>
       </c>
       <c r="E106" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9569,7 +9587,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J106">
         <v>1.8</v>
@@ -9637,16 +9655,16 @@
         <v>7646448</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D107" s="2">
         <v>45326.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9655,7 +9673,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9723,16 +9741,16 @@
         <v>7646446</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D108" s="2">
         <v>45326.5625</v>
       </c>
       <c r="E108" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9741,7 +9759,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J108">
         <v>2.1</v>
@@ -9809,16 +9827,16 @@
         <v>6818305</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D109" s="2">
         <v>45328.57291666666</v>
       </c>
       <c r="E109" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9827,7 +9845,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J109">
         <v>2.8</v>
@@ -9895,16 +9913,16 @@
         <v>6818306</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D110" s="2">
         <v>45328.66666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F110" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G110">
         <v>5</v>
@@ -9913,7 +9931,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J110">
         <v>1.333</v>
@@ -9981,16 +9999,16 @@
         <v>6818307</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D111" s="2">
         <v>45329.57291666666</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -9999,7 +10017,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J111">
         <v>2.45</v>
@@ -10067,16 +10085,16 @@
         <v>6818308</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D112" s="2">
         <v>45329.66666666666</v>
       </c>
       <c r="E112" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10085,7 +10103,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J112">
         <v>1.5</v>
@@ -10153,16 +10171,16 @@
         <v>6818309</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D113" s="2">
         <v>45330.5</v>
       </c>
       <c r="E113" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10171,7 +10189,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J113">
         <v>3.75</v>
@@ -10239,16 +10257,16 @@
         <v>6818304</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D114" s="2">
         <v>45330.66666666666</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10257,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J114">
         <v>2.15</v>
@@ -10325,16 +10343,16 @@
         <v>6818313</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D115" s="2">
         <v>45332.35416666666</v>
       </c>
       <c r="E115" t="s">
+        <v>45</v>
+      </c>
+      <c r="F115" t="s">
         <v>39</v>
-      </c>
-      <c r="F115" t="s">
-        <v>33</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10343,7 +10361,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J115">
         <v>2.75</v>
@@ -10411,16 +10429,16 @@
         <v>6818314</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D116" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10429,7 +10447,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J116">
         <v>1.909</v>
@@ -10497,16 +10515,16 @@
         <v>6818310</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D117" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E117" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10515,7 +10533,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J117">
         <v>3.9</v>
@@ -10583,16 +10601,16 @@
         <v>6818315</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D118" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E118" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10601,7 +10619,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J118">
         <v>1.55</v>
@@ -10669,16 +10687,16 @@
         <v>6818311</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D119" s="2">
         <v>45333.44791666666</v>
       </c>
       <c r="E119" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10687,7 +10705,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J119">
         <v>1.7</v>
@@ -10755,16 +10773,16 @@
         <v>6818312</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D120" s="2">
         <v>45333.65625</v>
       </c>
       <c r="E120" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10773,7 +10791,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J120">
         <v>2</v>
@@ -10841,16 +10859,16 @@
         <v>6818321</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D121" s="2">
         <v>45338.66666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10859,7 +10877,7 @@
         <v>4</v>
       </c>
       <c r="I121" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J121">
         <v>1.55</v>
@@ -10927,16 +10945,16 @@
         <v>6818316</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D122" s="2">
         <v>45339.375</v>
       </c>
       <c r="E122" t="s">
+        <v>42</v>
+      </c>
+      <c r="F122" t="s">
         <v>36</v>
-      </c>
-      <c r="F122" t="s">
-        <v>30</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10945,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J122">
         <v>1.909</v>
@@ -11013,16 +11031,16 @@
         <v>6818320</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D123" s="2">
         <v>45339.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11031,7 +11049,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J123">
         <v>2.15</v>
@@ -11099,16 +11117,16 @@
         <v>6818318</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D124" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11117,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J124">
         <v>2.6</v>
@@ -11185,16 +11203,16 @@
         <v>6818319</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D125" s="2">
         <v>45340.5625</v>
       </c>
       <c r="E125" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F125" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G125">
         <v>6</v>
@@ -11203,7 +11221,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J125">
         <v>1.65</v>
@@ -11271,16 +11289,16 @@
         <v>6818324</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D126" s="2">
         <v>45345.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G126">
         <v>3</v>
@@ -11289,7 +11307,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J126">
         <v>1.8</v>
@@ -11357,16 +11375,16 @@
         <v>6818327</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D127" s="2">
         <v>45346.35416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11375,7 +11393,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J127">
         <v>2.4</v>
@@ -11443,16 +11461,16 @@
         <v>6818326</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D128" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11461,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J128">
         <v>2.25</v>
@@ -11529,16 +11547,16 @@
         <v>6818325</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D129" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E129" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11547,7 +11565,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J129">
         <v>2.25</v>
@@ -11615,16 +11633,16 @@
         <v>6818323</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D130" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11633,7 +11651,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J130">
         <v>3.5</v>
@@ -11701,16 +11719,16 @@
         <v>6818322</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D131" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E131" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11719,7 +11737,7 @@
         <v>5</v>
       </c>
       <c r="I131" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J131">
         <v>5.2</v>
@@ -11787,16 +11805,16 @@
         <v>6818331</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D132" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E132" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11805,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J132">
         <v>1.5</v>
@@ -11873,16 +11891,16 @@
         <v>6818333</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D133" s="2">
         <v>45353.4375</v>
       </c>
       <c r="E133" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11891,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J133">
         <v>2.25</v>
@@ -11959,16 +11977,16 @@
         <v>6818330</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D134" s="2">
         <v>45353.61458333334</v>
       </c>
       <c r="E134" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11977,7 +11995,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J134">
         <v>2.9</v>
@@ -12045,16 +12063,16 @@
         <v>6818332</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D135" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12063,7 +12081,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J135">
         <v>2.75</v>
@@ -12131,16 +12149,16 @@
         <v>6818328</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D136" s="2">
         <v>45354.52083333334</v>
       </c>
       <c r="E136" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12149,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J136">
         <v>1.25</v>
@@ -12217,16 +12235,16 @@
         <v>6818329</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D137" s="2">
         <v>45354.625</v>
       </c>
       <c r="E137" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12235,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J137">
         <v>2.3</v>
@@ -12303,16 +12321,16 @@
         <v>6818337</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D138" s="2">
         <v>45359.66666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -12321,7 +12339,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J138">
         <v>1.727</v>
@@ -12389,16 +12407,16 @@
         <v>6818336</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D139" s="2">
         <v>45360.36458333334</v>
       </c>
       <c r="E139" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F139" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12407,7 +12425,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J139">
         <v>2.9</v>
@@ -12475,16 +12493,16 @@
         <v>6818339</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D140" s="2">
         <v>45360.46875</v>
       </c>
       <c r="E140" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12493,7 +12511,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J140">
         <v>2.15</v>
@@ -12561,16 +12579,16 @@
         <v>6818335</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D141" s="2">
         <v>45361.375</v>
       </c>
       <c r="E141" t="s">
+        <v>44</v>
+      </c>
+      <c r="F141" t="s">
         <v>38</v>
-      </c>
-      <c r="F141" t="s">
-        <v>32</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12579,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12647,16 +12665,16 @@
         <v>6818338</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D142" s="2">
         <v>45361.47916666666</v>
       </c>
       <c r="E142" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12665,7 +12683,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J142">
         <v>5.25</v>
@@ -12733,16 +12751,16 @@
         <v>6818334</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D143" s="2">
         <v>45361.66666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F143" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12751,7 +12769,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J143">
         <v>2.2</v>
@@ -12819,16 +12837,16 @@
         <v>6818341</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D144" s="2">
         <v>45367.375</v>
       </c>
       <c r="E144" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12837,7 +12855,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J144">
         <v>1.833</v>
@@ -12905,16 +12923,16 @@
         <v>6818342</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D145" s="2">
         <v>45367.47916666666</v>
       </c>
       <c r="E145" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12923,7 +12941,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J145">
         <v>2.5</v>
@@ -12991,16 +13009,16 @@
         <v>6818345</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D146" s="2">
         <v>45367.57291666666</v>
       </c>
       <c r="E146" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13009,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J146">
         <v>1.909</v>
@@ -13077,16 +13095,16 @@
         <v>6818343</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D147" s="2">
         <v>45368.35416666666</v>
       </c>
       <c r="E147" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G147">
         <v>5</v>
@@ -13095,7 +13113,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J147">
         <v>1.727</v>
@@ -13163,16 +13181,16 @@
         <v>6818340</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D148" s="2">
         <v>45368.44791666666</v>
       </c>
       <c r="E148" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13181,7 +13199,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J148">
         <v>1.5</v>
@@ -13249,16 +13267,16 @@
         <v>6818344</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D149" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E149" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13267,7 +13285,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J149">
         <v>1.727</v>
@@ -13335,16 +13353,16 @@
         <v>6818351</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D150" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E150" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13353,7 +13371,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J150">
         <v>2.45</v>
@@ -13421,16 +13439,16 @@
         <v>6818347</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D151" s="2">
         <v>45381.4375</v>
       </c>
       <c r="E151" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13439,7 +13457,7 @@
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J151">
         <v>2.75</v>
@@ -13507,16 +13525,16 @@
         <v>6818346</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D152" s="2">
         <v>45381.54166666666</v>
       </c>
       <c r="E152" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13525,7 +13543,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J152">
         <v>2.3</v>
@@ -13593,16 +13611,16 @@
         <v>6818348</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D153" s="2">
         <v>45381.64583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G153">
         <v>5</v>
@@ -13611,7 +13629,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J153">
         <v>2.45</v>
@@ -13679,16 +13697,16 @@
         <v>6818349</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D154" s="2">
         <v>45382.4375</v>
       </c>
       <c r="E154" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13697,7 +13715,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J154">
         <v>1.666</v>
@@ -13765,16 +13783,16 @@
         <v>6818350</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D155" s="2">
         <v>45382.54166666666</v>
       </c>
       <c r="E155" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13783,7 +13801,7 @@
         <v>3</v>
       </c>
       <c r="I155" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J155">
         <v>7.5</v>
@@ -13851,16 +13869,16 @@
         <v>6818353</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D156" s="2">
         <v>45387.625</v>
       </c>
       <c r="E156" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13869,7 +13887,7 @@
         <v>5</v>
       </c>
       <c r="I156" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J156">
         <v>1.909</v>
@@ -13937,16 +13955,16 @@
         <v>6818356</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D157" s="2">
         <v>45388.38541666666</v>
       </c>
       <c r="E157" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G157">
         <v>5</v>
@@ -13955,7 +13973,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J157">
         <v>1.571</v>
@@ -14023,16 +14041,16 @@
         <v>6818354</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D158" s="2">
         <v>45388.47916666666</v>
       </c>
       <c r="E158" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14041,7 +14059,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J158">
         <v>1.727</v>
@@ -14109,16 +14127,16 @@
         <v>6818355</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D159" s="2">
         <v>45388.60416666666</v>
       </c>
       <c r="E159" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14127,7 +14145,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J159">
         <v>2</v>
@@ -14195,16 +14213,16 @@
         <v>6818352</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D160" s="2">
         <v>45389.40625</v>
       </c>
       <c r="E160" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14213,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J160">
         <v>1.444</v>
@@ -14281,16 +14299,16 @@
         <v>6818357</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D161" s="2">
         <v>45389.52083333334</v>
       </c>
       <c r="E161" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14299,7 +14317,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J161">
         <v>2.4</v>
@@ -14367,16 +14385,16 @@
         <v>8074943</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D162" s="2">
         <v>45391.53819444445</v>
       </c>
       <c r="E162" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14385,7 +14403,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J162">
         <v>8.5</v>
@@ -14453,16 +14471,16 @@
         <v>7939469</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D163" s="2">
         <v>45392.54166666666</v>
       </c>
       <c r="E163" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14471,7 +14489,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J163">
         <v>1.3</v>
@@ -14539,16 +14557,16 @@
         <v>6818359</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D164" s="2">
         <v>45395.39583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G164">
         <v>4</v>
@@ -14557,7 +14575,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J164">
         <v>2.6</v>
@@ -14625,16 +14643,16 @@
         <v>6818358</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D165" s="2">
         <v>45395.5</v>
       </c>
       <c r="E165" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14643,7 +14661,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J165">
         <v>1.666</v>
@@ -14711,16 +14729,16 @@
         <v>6818360</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D166" s="2">
         <v>45395.60416666666</v>
       </c>
       <c r="E166" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14729,7 +14747,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J166">
         <v>1.666</v>
@@ -14797,16 +14815,16 @@
         <v>6820520</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D167" s="2">
         <v>45396.375</v>
       </c>
       <c r="E167" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14815,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J167">
         <v>1.727</v>
@@ -14883,16 +14901,16 @@
         <v>6860904</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D168" s="2">
         <v>45396.47916666666</v>
       </c>
       <c r="E168" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14901,7 +14919,7 @@
         <v>3</v>
       </c>
       <c r="I168" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J168">
         <v>5.5</v>
@@ -14969,16 +14987,16 @@
         <v>6818361</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D169" s="2">
         <v>45396.57291666666</v>
       </c>
       <c r="E169" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F169" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -14987,7 +15005,7 @@
         <v>4</v>
       </c>
       <c r="I169" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J169">
         <v>5.5</v>
@@ -15055,16 +15073,16 @@
         <v>6818365</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D170" s="2">
         <v>45402.39583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G170">
         <v>5</v>
@@ -15073,7 +15091,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J170">
         <v>2</v>
@@ -15141,16 +15159,16 @@
         <v>6818362</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D171" s="2">
         <v>45402.5</v>
       </c>
       <c r="E171" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F171" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15159,7 +15177,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J171">
         <v>1.25</v>
@@ -15227,16 +15245,16 @@
         <v>6818364</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D172" s="2">
         <v>45402.60416666666</v>
       </c>
       <c r="E172" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G172">
         <v>5</v>
@@ -15245,7 +15263,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J172">
         <v>2.5</v>
@@ -15313,16 +15331,16 @@
         <v>6818367</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D173" s="2">
         <v>45403.37847222222</v>
       </c>
       <c r="E173" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15331,7 +15349,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J173">
         <v>1.727</v>
@@ -15399,16 +15417,16 @@
         <v>6818366</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D174" s="2">
         <v>45403.45833333334</v>
       </c>
       <c r="E174" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15417,7 +15435,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J174">
         <v>1.909</v>
@@ -15485,16 +15503,16 @@
         <v>6818363</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D175" s="2">
         <v>45403.5625</v>
       </c>
       <c r="E175" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F175" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15503,7 +15521,7 @@
         <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J175">
         <v>2</v>
@@ -15571,16 +15589,16 @@
         <v>6943666</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D176" s="2">
         <v>45408.625</v>
       </c>
       <c r="E176" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15589,7 +15607,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J176">
         <v>3.6</v>
@@ -15657,16 +15675,16 @@
         <v>6818371</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D177" s="2">
         <v>45409.39583333334</v>
       </c>
       <c r="E177" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15675,7 +15693,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J177">
         <v>1.4</v>
@@ -15743,16 +15761,16 @@
         <v>6818368</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D178" s="2">
         <v>45409.5</v>
       </c>
       <c r="E178" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -15761,7 +15779,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J178">
         <v>2</v>
@@ -15829,16 +15847,16 @@
         <v>6818369</v>
       </c>
       <c r="C179" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D179" s="2">
         <v>45409.60416666666</v>
       </c>
       <c r="E179" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15847,7 +15865,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J179">
         <v>1.75</v>
@@ -15915,16 +15933,16 @@
         <v>6818370</v>
       </c>
       <c r="C180" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D180" s="2">
         <v>45410.42708333334</v>
       </c>
       <c r="E180" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15933,7 +15951,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J180">
         <v>2.6</v>
@@ -16001,16 +16019,16 @@
         <v>6885578</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D181" s="2">
         <v>45410.53125</v>
       </c>
       <c r="E181" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16019,7 +16037,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J181">
         <v>4.333</v>
@@ -16087,16 +16105,16 @@
         <v>8156232</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D182" s="2">
         <v>45415.625</v>
       </c>
       <c r="E182" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F182" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G182">
         <v>4</v>
@@ -16105,7 +16123,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J182">
         <v>2</v>
@@ -16173,16 +16191,16 @@
         <v>7005341</v>
       </c>
       <c r="C183" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D183" s="2">
         <v>45416.33333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -16191,7 +16209,7 @@
         <v>2</v>
       </c>
       <c r="I183" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J183">
         <v>3.5</v>
@@ -16259,16 +16277,16 @@
         <v>6993966</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D184" s="2">
         <v>45416.4375</v>
       </c>
       <c r="E184" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G184">
         <v>4</v>
@@ -16277,7 +16295,7 @@
         <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J184">
         <v>1.55</v>
@@ -16345,16 +16363,16 @@
         <v>6994491</v>
       </c>
       <c r="C185" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D185" s="2">
         <v>45416.59375</v>
       </c>
       <c r="E185" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G185">
         <v>7</v>
@@ -16363,7 +16381,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J185">
         <v>2.5</v>
@@ -16431,16 +16449,16 @@
         <v>6990294</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D186" s="2">
         <v>45417.45833333334</v>
       </c>
       <c r="E186" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16449,7 +16467,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J186">
         <v>3.25</v>
@@ -16517,16 +16535,16 @@
         <v>7016849</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D187" s="2">
         <v>45417.5625</v>
       </c>
       <c r="E187" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G187">
         <v>5</v>
@@ -16535,7 +16553,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J187">
         <v>1.363</v>
@@ -16603,16 +16621,16 @@
         <v>7021685</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D188" s="2">
         <v>45422.63541666666</v>
       </c>
       <c r="E188" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -16621,7 +16639,7 @@
         <v>3</v>
       </c>
       <c r="I188" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J188">
         <v>2.2</v>
@@ -16689,16 +16707,16 @@
         <v>7021686</v>
       </c>
       <c r="C189" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D189" s="2">
         <v>45423.4375</v>
       </c>
       <c r="E189" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16707,7 +16725,7 @@
         <v>3</v>
       </c>
       <c r="I189" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J189">
         <v>3.6</v>
@@ -16775,16 +16793,16 @@
         <v>7028360</v>
       </c>
       <c r="C190" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D190" s="2">
         <v>45423.52083333334</v>
       </c>
       <c r="E190" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F190" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16793,7 +16811,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J190">
         <v>2.6</v>
@@ -16861,16 +16879,16 @@
         <v>7024477</v>
       </c>
       <c r="C191" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D191" s="2">
         <v>45423.60416666666</v>
       </c>
       <c r="E191" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F191" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G191">
         <v>2</v>
@@ -16879,7 +16897,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J191">
         <v>4.5</v>
@@ -16947,16 +16965,16 @@
         <v>7024498</v>
       </c>
       <c r="C192" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D192" s="2">
         <v>45424.38541666666</v>
       </c>
       <c r="E192" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G192">
         <v>4</v>
@@ -16965,7 +16983,7 @@
         <v>3</v>
       </c>
       <c r="I192" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J192">
         <v>1.95</v>
@@ -17033,16 +17051,16 @@
         <v>7028515</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D193" s="2">
         <v>45424.60416666666</v>
       </c>
       <c r="E193" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17051,7 +17069,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J193">
         <v>2.6</v>
@@ -17109,6 +17127,396 @@
       </c>
       <c r="AB193">
         <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>27</v>
+      </c>
+      <c r="C194" t="s">
+        <v>33</v>
+      </c>
+      <c r="D194" s="2">
+        <v>45430.41666666666</v>
+      </c>
+      <c r="E194" t="s">
+        <v>42</v>
+      </c>
+      <c r="F194" t="s">
+        <v>37</v>
+      </c>
+      <c r="J194">
+        <v>2.05</v>
+      </c>
+      <c r="K194">
+        <v>3.5</v>
+      </c>
+      <c r="L194">
+        <v>3.2</v>
+      </c>
+      <c r="M194">
+        <v>2.05</v>
+      </c>
+      <c r="N194">
+        <v>3.6</v>
+      </c>
+      <c r="O194">
+        <v>3.1</v>
+      </c>
+      <c r="P194">
+        <v>-0.25</v>
+      </c>
+      <c r="Q194">
+        <v>1.8</v>
+      </c>
+      <c r="R194">
+        <v>2.05</v>
+      </c>
+      <c r="S194">
+        <v>2.75</v>
+      </c>
+      <c r="T194">
+        <v>1.975</v>
+      </c>
+      <c r="U194">
+        <v>1.875</v>
+      </c>
+      <c r="V194">
+        <v>0</v>
+      </c>
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:28">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>28</v>
+      </c>
+      <c r="C195" t="s">
+        <v>33</v>
+      </c>
+      <c r="D195" s="2">
+        <v>45430.41666666666</v>
+      </c>
+      <c r="E195" t="s">
+        <v>41</v>
+      </c>
+      <c r="F195" t="s">
+        <v>35</v>
+      </c>
+      <c r="J195">
+        <v>1.571</v>
+      </c>
+      <c r="K195">
+        <v>4</v>
+      </c>
+      <c r="L195">
+        <v>5</v>
+      </c>
+      <c r="M195">
+        <v>1.666</v>
+      </c>
+      <c r="N195">
+        <v>3.9</v>
+      </c>
+      <c r="O195">
+        <v>4.333</v>
+      </c>
+      <c r="P195">
+        <v>-0.75</v>
+      </c>
+      <c r="Q195">
+        <v>1.875</v>
+      </c>
+      <c r="R195">
+        <v>1.975</v>
+      </c>
+      <c r="S195">
+        <v>3</v>
+      </c>
+      <c r="T195">
+        <v>1.875</v>
+      </c>
+      <c r="U195">
+        <v>1.975</v>
+      </c>
+      <c r="V195">
+        <v>0</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:28">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>29</v>
+      </c>
+      <c r="C196" t="s">
+        <v>33</v>
+      </c>
+      <c r="D196" s="2">
+        <v>45430.41666666666</v>
+      </c>
+      <c r="E196" t="s">
+        <v>40</v>
+      </c>
+      <c r="F196" t="s">
+        <v>34</v>
+      </c>
+      <c r="J196">
+        <v>3</v>
+      </c>
+      <c r="K196">
+        <v>3.6</v>
+      </c>
+      <c r="L196">
+        <v>2.1</v>
+      </c>
+      <c r="M196">
+        <v>3.5</v>
+      </c>
+      <c r="N196">
+        <v>3.6</v>
+      </c>
+      <c r="O196">
+        <v>1.909</v>
+      </c>
+      <c r="P196">
+        <v>0.5</v>
+      </c>
+      <c r="Q196">
+        <v>1.9</v>
+      </c>
+      <c r="R196">
+        <v>1.95</v>
+      </c>
+      <c r="S196">
+        <v>3</v>
+      </c>
+      <c r="T196">
+        <v>1.925</v>
+      </c>
+      <c r="U196">
+        <v>1.925</v>
+      </c>
+      <c r="V196">
+        <v>0</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:28">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>30</v>
+      </c>
+      <c r="C197" t="s">
+        <v>33</v>
+      </c>
+      <c r="D197" s="2">
+        <v>45430.41666666666</v>
+      </c>
+      <c r="E197" t="s">
+        <v>44</v>
+      </c>
+      <c r="F197" t="s">
+        <v>45</v>
+      </c>
+      <c r="J197">
+        <v>1.444</v>
+      </c>
+      <c r="K197">
+        <v>4.333</v>
+      </c>
+      <c r="L197">
+        <v>6</v>
+      </c>
+      <c r="M197">
+        <v>1.55</v>
+      </c>
+      <c r="N197">
+        <v>4.333</v>
+      </c>
+      <c r="O197">
+        <v>4.5</v>
+      </c>
+      <c r="P197">
+        <v>-1</v>
+      </c>
+      <c r="Q197">
+        <v>1.975</v>
+      </c>
+      <c r="R197">
+        <v>1.875</v>
+      </c>
+      <c r="S197">
+        <v>3</v>
+      </c>
+      <c r="T197">
+        <v>1.925</v>
+      </c>
+      <c r="U197">
+        <v>1.925</v>
+      </c>
+      <c r="V197">
+        <v>0</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:28">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>31</v>
+      </c>
+      <c r="C198" t="s">
+        <v>33</v>
+      </c>
+      <c r="D198" s="2">
+        <v>45430.41666666666</v>
+      </c>
+      <c r="E198" t="s">
+        <v>43</v>
+      </c>
+      <c r="F198" t="s">
+        <v>36</v>
+      </c>
+      <c r="J198">
+        <v>1.222</v>
+      </c>
+      <c r="K198">
+        <v>5.25</v>
+      </c>
+      <c r="L198">
+        <v>12</v>
+      </c>
+      <c r="M198">
+        <v>1.285</v>
+      </c>
+      <c r="N198">
+        <v>5</v>
+      </c>
+      <c r="O198">
+        <v>9.5</v>
+      </c>
+      <c r="P198">
+        <v>-1.5</v>
+      </c>
+      <c r="Q198">
+        <v>1.825</v>
+      </c>
+      <c r="R198">
+        <v>2.025</v>
+      </c>
+      <c r="S198">
+        <v>3</v>
+      </c>
+      <c r="T198">
+        <v>1.85</v>
+      </c>
+      <c r="U198">
+        <v>2</v>
+      </c>
+      <c r="V198">
+        <v>0</v>
+      </c>
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:28">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>32</v>
+      </c>
+      <c r="C199" t="s">
+        <v>33</v>
+      </c>
+      <c r="D199" s="2">
+        <v>45430.41666666666</v>
+      </c>
+      <c r="E199" t="s">
+        <v>39</v>
+      </c>
+      <c r="F199" t="s">
+        <v>38</v>
+      </c>
+      <c r="J199">
+        <v>1.7</v>
+      </c>
+      <c r="K199">
+        <v>3.6</v>
+      </c>
+      <c r="L199">
+        <v>4.5</v>
+      </c>
+      <c r="M199">
+        <v>1.727</v>
+      </c>
+      <c r="N199">
+        <v>3.6</v>
+      </c>
+      <c r="O199">
+        <v>4.333</v>
+      </c>
+      <c r="P199">
+        <v>-0.75</v>
+      </c>
+      <c r="Q199">
+        <v>1.975</v>
+      </c>
+      <c r="R199">
+        <v>1.875</v>
+      </c>
+      <c r="S199">
+        <v>2.75</v>
+      </c>
+      <c r="T199">
+        <v>1.825</v>
+      </c>
+      <c r="U199">
+        <v>2.025</v>
+      </c>
+      <c r="V199">
+        <v>0</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -97,22 +97,22 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8209694</t>
-  </si>
-  <si>
-    <t>8209693</t>
-  </si>
-  <si>
     <t>8209691</t>
   </si>
   <si>
     <t>8209690</t>
   </si>
   <si>
-    <t>8209689</t>
+    <t>8209692</t>
   </si>
   <si>
-    <t>8209692</t>
+    <t>8209693</t>
+  </si>
+  <si>
+    <t>8209694</t>
+  </si>
+  <si>
+    <t>8209689</t>
   </si>
   <si>
     <t>Hungary NB I</t>
@@ -17140,43 +17140,43 @@
         <v>33</v>
       </c>
       <c r="D194" s="2">
-        <v>45430.41666666666</v>
+        <v>45429.64583333334</v>
       </c>
       <c r="E194" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F194" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J194">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="K194">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L194">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="M194">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="N194">
         <v>3.6</v>
       </c>
       <c r="O194">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="P194">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q194">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R194">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S194">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T194">
         <v>1.975</v>
@@ -17208,46 +17208,46 @@
         <v>45430.41666666666</v>
       </c>
       <c r="E195" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F195" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J195">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="K195">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="L195">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M195">
-        <v>1.666</v>
+        <v>1.42</v>
       </c>
       <c r="N195">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="O195">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P195">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q195">
+        <v>1.975</v>
+      </c>
+      <c r="R195">
         <v>1.875</v>
-      </c>
-      <c r="R195">
-        <v>1.975</v>
       </c>
       <c r="S195">
         <v>3</v>
       </c>
       <c r="T195">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U195">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V195">
         <v>0</v>
@@ -17273,46 +17273,46 @@
         <v>45430.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J196">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="K196">
         <v>3.6</v>
       </c>
       <c r="L196">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="M196">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="N196">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O196">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="P196">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q196">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R196">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S196">
         <v>3</v>
       </c>
       <c r="T196">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U196">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V196">
         <v>0</v>
@@ -17338,46 +17338,46 @@
         <v>45430.41666666666</v>
       </c>
       <c r="E197" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F197" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J197">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="K197">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="L197">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M197">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="N197">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="O197">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P197">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q197">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="R197">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S197">
         <v>3</v>
       </c>
       <c r="T197">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U197">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V197">
         <v>0</v>
@@ -17400,49 +17400,49 @@
         <v>33</v>
       </c>
       <c r="D198" s="2">
-        <v>45430.41666666666</v>
+        <v>45431.51041666666</v>
       </c>
       <c r="E198" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J198">
-        <v>1.222</v>
+        <v>2.05</v>
       </c>
       <c r="K198">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="L198">
-        <v>12</v>
+        <v>3.2</v>
       </c>
       <c r="M198">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="N198">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="O198">
-        <v>9.5</v>
+        <v>3.4</v>
       </c>
       <c r="P198">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q198">
+        <v>2.025</v>
+      </c>
+      <c r="R198">
         <v>1.825</v>
       </c>
-      <c r="R198">
-        <v>2.025</v>
-      </c>
       <c r="S198">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T198">
+        <v>2</v>
+      </c>
+      <c r="U198">
         <v>1.85</v>
-      </c>
-      <c r="U198">
-        <v>2</v>
       </c>
       <c r="V198">
         <v>0</v>
@@ -17465,49 +17465,49 @@
         <v>33</v>
       </c>
       <c r="D199" s="2">
-        <v>45430.41666666666</v>
+        <v>45431.63541666666</v>
       </c>
       <c r="E199" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F199" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J199">
-        <v>1.7</v>
+        <v>1.222</v>
       </c>
       <c r="K199">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="L199">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="M199">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="N199">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O199">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="P199">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q199">
+        <v>1.875</v>
+      </c>
+      <c r="R199">
         <v>1.975</v>
       </c>
-      <c r="R199">
-        <v>1.875</v>
-      </c>
       <c r="S199">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T199">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U199">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V199">
         <v>0</v>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -95,18 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>8209691</t>
-  </si>
-  <si>
-    <t>8209690</t>
-  </si>
-  <si>
-    <t>8209692</t>
-  </si>
-  <si>
-    <t>8209693</t>
   </si>
   <si>
     <t>8209694</t>
@@ -528,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB199"/>
+  <dimension ref="A1:AB196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,25 +613,25 @@
         <v>6863238</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45135.625</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>44</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
       </c>
       <c r="J2">
         <v>2.625</v>
@@ -711,16 +699,16 @@
         <v>6863236</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45136.54166666666</v>
       </c>
       <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
         <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -729,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J3">
         <v>3.2</v>
@@ -797,16 +785,16 @@
         <v>6863235</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45136.63541666666</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -815,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J4">
         <v>2.375</v>
@@ -883,16 +871,16 @@
         <v>6818267</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45137.625</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -901,7 +889,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J5">
         <v>2.9</v>
@@ -969,16 +957,16 @@
         <v>6863237</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45138.625</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -987,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J6">
         <v>1.833</v>
@@ -1055,16 +1043,16 @@
         <v>6818205</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45142.625</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1073,7 +1061,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J7">
         <v>2.05</v>
@@ -1141,16 +1129,16 @@
         <v>6818204</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45143.53125</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1159,7 +1147,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J8">
         <v>1.666</v>
@@ -1227,16 +1215,16 @@
         <v>6818206</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45144.53125</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1245,7 +1233,7 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J9">
         <v>3.5</v>
@@ -1313,16 +1301,16 @@
         <v>6818202</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45144.625</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1331,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J10">
         <v>2.05</v>
@@ -1399,16 +1387,16 @@
         <v>6818207</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45145.625</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1417,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J11">
         <v>2.2</v>
@@ -1485,16 +1473,16 @@
         <v>6818212</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45149.625</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1503,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>2.7</v>
@@ -1571,17 +1559,17 @@
         <v>6818209</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45150.54166666666</v>
       </c>
       <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
         <v>36</v>
       </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
       <c r="G13">
         <v>1</v>
       </c>
@@ -1589,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <v>1.727</v>
@@ -1657,25 +1645,25 @@
         <v>6818210</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45150.63541666666</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
         <v>44</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>48</v>
       </c>
       <c r="J14">
         <v>2.55</v>
@@ -1743,16 +1731,16 @@
         <v>6818211</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45151.47916666666</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1761,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J15">
         <v>1.85</v>
@@ -1829,16 +1817,16 @@
         <v>6818208</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45151.57291666666</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1847,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J16">
         <v>1.5</v>
@@ -1915,16 +1903,16 @@
         <v>6818213</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45151.66666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1933,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J17">
         <v>2.05</v>
@@ -2001,16 +1989,16 @@
         <v>6818219</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2019,7 +2007,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>1.85</v>
@@ -2087,16 +2075,16 @@
         <v>6818216</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45156.63541666666</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2105,7 +2093,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J19">
         <v>2.15</v>
@@ -2173,16 +2161,16 @@
         <v>6818214</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45157.53125</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2191,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -2259,16 +2247,16 @@
         <v>6818217</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45157.625</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2277,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J21">
         <v>2.25</v>
@@ -2345,16 +2333,16 @@
         <v>6818215</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45159.63541666666</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -2363,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J22">
         <v>2.7</v>
@@ -2431,16 +2419,16 @@
         <v>6818225</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45164.4375</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -2449,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J23">
         <v>2.4</v>
@@ -2517,16 +2505,16 @@
         <v>6818222</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45164.53125</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2535,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J24">
         <v>2.3</v>
@@ -2603,16 +2591,16 @@
         <v>6818221</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45164.625</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2621,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -2689,16 +2677,16 @@
         <v>6818223</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45165.4375</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2707,7 +2695,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J26">
         <v>1.75</v>
@@ -2775,16 +2763,16 @@
         <v>6818220</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -2793,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J27">
         <v>1.4</v>
@@ -2861,16 +2849,16 @@
         <v>6818224</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>45165.60416666666</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2879,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J28">
         <v>1.95</v>
@@ -2947,16 +2935,16 @@
         <v>6818227</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45171.42708333334</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2965,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J29">
         <v>2.3</v>
@@ -3033,16 +3021,16 @@
         <v>6818230</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45171.60416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3051,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3119,16 +3107,16 @@
         <v>6818231</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45172.38541666666</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3137,7 +3125,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J31">
         <v>2.9</v>
@@ -3205,16 +3193,16 @@
         <v>6818229</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45172.51041666666</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3223,7 +3211,7 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J32">
         <v>5.25</v>
@@ -3291,16 +3279,16 @@
         <v>6818226</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45172.60416666666</v>
       </c>
       <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" t="s">
         <v>38</v>
-      </c>
-      <c r="F33" t="s">
-        <v>42</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3309,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J33">
         <v>2.25</v>
@@ -3377,16 +3365,16 @@
         <v>7197411</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45191.625</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3395,7 +3383,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J34">
         <v>1.8</v>
@@ -3463,16 +3451,16 @@
         <v>7197409</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
         <v>45192.39583333334</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3481,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J35">
         <v>1.9</v>
@@ -3549,16 +3537,16 @@
         <v>6818234</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
         <v>45192.5</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3567,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3635,16 +3623,16 @@
         <v>7197408</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45192.60416666666</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3653,7 +3641,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J37">
         <v>2.2</v>
@@ -3721,16 +3709,16 @@
         <v>7197410</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3739,7 +3727,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J38">
         <v>2.2</v>
@@ -3807,16 +3795,16 @@
         <v>7197407</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3825,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J39">
         <v>1.363</v>
@@ -3893,16 +3881,16 @@
         <v>7020194</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>45196.53125</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3911,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J40">
         <v>2.1</v>
@@ -3979,16 +3967,16 @@
         <v>6863234</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45196.625</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3997,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4065,16 +4053,16 @@
         <v>6818242</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45198.625</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4083,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J42">
         <v>3</v>
@@ -4151,16 +4139,16 @@
         <v>6818243</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45199.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4169,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J43">
         <v>1.615</v>
@@ -4237,16 +4225,16 @@
         <v>6818240</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
         <v>45199.5</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4255,7 +4243,7 @@
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J44">
         <v>4.75</v>
@@ -4323,16 +4311,16 @@
         <v>6818239</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>45199.60416666666</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4341,7 +4329,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J45">
         <v>1.8</v>
@@ -4409,16 +4397,16 @@
         <v>6818241</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" t="s">
         <v>41</v>
-      </c>
-      <c r="F46" t="s">
-        <v>45</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4427,7 +4415,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J46">
         <v>2.6</v>
@@ -4495,16 +4483,16 @@
         <v>6818238</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4513,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J47">
         <v>2.25</v>
@@ -4581,16 +4569,16 @@
         <v>6818247</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45205.64583333334</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4599,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J48">
         <v>1.8</v>
@@ -4667,16 +4655,16 @@
         <v>6818246</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>45206.32291666666</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4685,7 +4673,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J49">
         <v>2.25</v>
@@ -4753,16 +4741,16 @@
         <v>6818245</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>45206.46875</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4771,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J50">
         <v>2.4</v>
@@ -4839,25 +4827,25 @@
         <v>6818249</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
         <v>45206.64583333334</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
         <v>44</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51" t="s">
-        <v>48</v>
       </c>
       <c r="J51">
         <v>2.4</v>
@@ -4925,16 +4913,16 @@
         <v>6818248</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>45207.33333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4943,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J52">
         <v>2.5</v>
@@ -5011,16 +4999,16 @@
         <v>6818244</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45207.47916666666</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5029,7 +5017,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J53">
         <v>1.8</v>
@@ -5097,16 +5085,16 @@
         <v>6818254</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
         <v>45220.3125</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5115,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J54">
         <v>2.1</v>
@@ -5183,16 +5171,16 @@
         <v>6818255</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
         <v>45220.40625</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5201,7 +5189,7 @@
         <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J55">
         <v>2.5</v>
@@ -5269,16 +5257,16 @@
         <v>6818250</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45220.5</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G56">
         <v>5</v>
@@ -5287,7 +5275,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J56">
         <v>1.909</v>
@@ -5355,16 +5343,16 @@
         <v>6818253</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45221.34375</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5373,7 +5361,7 @@
         <v>5</v>
       </c>
       <c r="I57" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J57">
         <v>2.5</v>
@@ -5441,16 +5429,16 @@
         <v>6818252</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45221.4375</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5459,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J58">
         <v>1.909</v>
@@ -5527,16 +5515,16 @@
         <v>6818251</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45221.53125</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5545,7 +5533,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J59">
         <v>7.5</v>
@@ -5613,16 +5601,16 @@
         <v>6818261</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45227.3125</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -5631,7 +5619,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J60">
         <v>1.666</v>
@@ -5699,16 +5687,16 @@
         <v>6818260</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45227.40625</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G61">
         <v>4</v>
@@ -5717,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J61">
         <v>2.5</v>
@@ -5785,16 +5773,16 @@
         <v>6818259</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45227.5</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5803,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J62">
         <v>2.35</v>
@@ -5871,16 +5859,16 @@
         <v>6818258</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45228.38541666666</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5889,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J63">
         <v>2.7</v>
@@ -5957,16 +5945,16 @@
         <v>6818257</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -5975,7 +5963,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J64">
         <v>1.571</v>
@@ -6043,16 +6031,16 @@
         <v>6818256</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>45228.58333333334</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6061,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J65">
         <v>1.25</v>
@@ -6129,16 +6117,16 @@
         <v>6818265</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>45234.35416666666</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6147,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J66">
         <v>3.3</v>
@@ -6215,16 +6203,16 @@
         <v>6818264</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>45234.48958333334</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6233,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J67">
         <v>1.8</v>
@@ -6301,16 +6289,16 @@
         <v>6818263</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45234.58333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6319,7 +6307,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J68">
         <v>2.4</v>
@@ -6387,16 +6375,16 @@
         <v>6999361</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45235.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6405,7 +6393,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J69">
         <v>1.909</v>
@@ -6473,16 +6461,16 @@
         <v>6818262</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
         <v>45235.44791666666</v>
       </c>
       <c r="E70" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6491,7 +6479,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J70">
         <v>5.75</v>
@@ -6559,16 +6547,16 @@
         <v>6818266</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6577,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J71">
         <v>1.75</v>
@@ -6645,16 +6633,16 @@
         <v>6818268</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45240.66666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6663,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J72">
         <v>2.2</v>
@@ -6731,16 +6719,16 @@
         <v>6818270</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
         <v>45241.42708333334</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6749,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J73">
         <v>1.727</v>
@@ -6817,16 +6805,16 @@
         <v>6818271</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
         <v>45241.64583333334</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6835,7 +6823,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J74">
         <v>2.375</v>
@@ -6903,16 +6891,16 @@
         <v>6818273</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6921,7 +6909,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J75">
         <v>2.2</v>
@@ -6989,16 +6977,16 @@
         <v>6818272</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>45242.5</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7007,7 +6995,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J76">
         <v>1.333</v>
@@ -7075,16 +7063,16 @@
         <v>6818269</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
         <v>45242.60416666666</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F77" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7093,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J77">
         <v>2.25</v>
@@ -7161,16 +7149,16 @@
         <v>7448992</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45254.66666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G78">
         <v>4</v>
@@ -7179,7 +7167,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J78">
         <v>1.85</v>
@@ -7247,16 +7235,16 @@
         <v>7448994</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45255.44791666666</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7265,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7333,16 +7321,16 @@
         <v>7448993</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45255.54166666666</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7351,7 +7339,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7419,16 +7407,16 @@
         <v>7448991</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45255.64583333334</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G81">
         <v>4</v>
@@ -7437,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J81">
         <v>3.1</v>
@@ -7505,17 +7493,17 @@
         <v>7448990</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E82" t="s">
+        <v>35</v>
+      </c>
+      <c r="F82" t="s">
         <v>39</v>
       </c>
-      <c r="F82" t="s">
-        <v>43</v>
-      </c>
       <c r="G82">
         <v>1</v>
       </c>
@@ -7523,7 +7511,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J82">
         <v>3.75</v>
@@ -7591,16 +7579,16 @@
         <v>6818277</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45256.64583333334</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7609,7 +7597,7 @@
         <v>3</v>
       </c>
       <c r="I83" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J83">
         <v>2.3</v>
@@ -7677,16 +7665,16 @@
         <v>7473670</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45262.375</v>
       </c>
       <c r="E84" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7695,7 +7683,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J84">
         <v>2.3</v>
@@ -7763,16 +7751,16 @@
         <v>7473671</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -7781,7 +7769,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J85">
         <v>2.3</v>
@@ -7849,16 +7837,16 @@
         <v>6818281</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
         <v>45262.64583333334</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7867,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J86">
         <v>2.875</v>
@@ -7935,16 +7923,16 @@
         <v>7473672</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
         <v>45263.36458333334</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7953,7 +7941,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J87">
         <v>2.6</v>
@@ -8021,16 +8009,16 @@
         <v>7473673</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45263.46875</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8039,7 +8027,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J88">
         <v>1.833</v>
@@ -8107,16 +8095,16 @@
         <v>7473674</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45263.57291666666</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8125,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J89">
         <v>1.285</v>
@@ -8193,16 +8181,16 @@
         <v>7088570</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45266.64583333334</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8211,7 +8199,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J90">
         <v>6.5</v>
@@ -8279,16 +8267,16 @@
         <v>6818291</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45268.66666666666</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8297,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J91">
         <v>1.8</v>
@@ -8365,16 +8353,16 @@
         <v>6818289</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45269.38541666666</v>
       </c>
       <c r="E92" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" t="s">
         <v>34</v>
-      </c>
-      <c r="F92" t="s">
-        <v>38</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8383,7 +8371,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J92">
         <v>3.2</v>
@@ -8451,16 +8439,16 @@
         <v>6818287</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45269.48958333334</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8469,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J93">
         <v>2.45</v>
@@ -8537,16 +8525,16 @@
         <v>6818288</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2">
         <v>45270.375</v>
       </c>
       <c r="E94" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8555,7 +8543,7 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8623,16 +8611,16 @@
         <v>6818290</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>45270.47916666666</v>
       </c>
       <c r="E95" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8641,7 +8629,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J95">
         <v>3.6</v>
@@ -8709,16 +8697,16 @@
         <v>6818286</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2">
         <v>45270.58333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F96" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8727,7 +8715,7 @@
         <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J96">
         <v>3.2</v>
@@ -8795,16 +8783,16 @@
         <v>6818296</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>45276.35416666666</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8813,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J97">
         <v>2.1</v>
@@ -8881,16 +8869,16 @@
         <v>6818294</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8899,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J98">
         <v>2.25</v>
@@ -8967,16 +8955,16 @@
         <v>6818293</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2">
         <v>45276.5625</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8985,7 +8973,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J99">
         <v>2</v>
@@ -9053,16 +9041,16 @@
         <v>6818292</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2">
         <v>45277.39583333334</v>
       </c>
       <c r="E100" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9071,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J100">
         <v>2.375</v>
@@ -9139,16 +9127,16 @@
         <v>6818295</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D101" s="2">
         <v>45277.5</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9157,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J101">
         <v>1.2</v>
@@ -9225,16 +9213,16 @@
         <v>6818297</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2">
         <v>45277.58333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9243,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J102">
         <v>1.727</v>
@@ -9311,16 +9299,16 @@
         <v>7646444</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2">
         <v>45324.66666666666</v>
       </c>
       <c r="E103" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9329,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J103">
         <v>2.3</v>
@@ -9397,16 +9385,16 @@
         <v>7646447</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D104" s="2">
         <v>45325.35416666666</v>
       </c>
       <c r="E104" t="s">
+        <v>33</v>
+      </c>
+      <c r="F104" t="s">
         <v>37</v>
-      </c>
-      <c r="F104" t="s">
-        <v>41</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -9415,7 +9403,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J104">
         <v>3.2</v>
@@ -9483,16 +9471,16 @@
         <v>7646443</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2">
         <v>45325.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9501,7 +9489,7 @@
         <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J105">
         <v>7</v>
@@ -9569,16 +9557,16 @@
         <v>7646445</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D106" s="2">
         <v>45325.5625</v>
       </c>
       <c r="E106" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9587,7 +9575,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J106">
         <v>1.8</v>
@@ -9655,16 +9643,16 @@
         <v>7646448</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2">
         <v>45326.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9673,7 +9661,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9741,16 +9729,16 @@
         <v>7646446</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D108" s="2">
         <v>45326.5625</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9759,7 +9747,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J108">
         <v>2.1</v>
@@ -9827,16 +9815,16 @@
         <v>6818305</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2">
         <v>45328.57291666666</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9845,7 +9833,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J109">
         <v>2.8</v>
@@ -9913,16 +9901,16 @@
         <v>6818306</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2">
         <v>45328.66666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G110">
         <v>5</v>
@@ -9931,7 +9919,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J110">
         <v>1.333</v>
@@ -9999,16 +9987,16 @@
         <v>6818307</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D111" s="2">
         <v>45329.57291666666</v>
       </c>
       <c r="E111" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10017,7 +10005,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J111">
         <v>2.45</v>
@@ -10085,16 +10073,16 @@
         <v>6818308</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2">
         <v>45329.66666666666</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10103,7 +10091,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J112">
         <v>1.5</v>
@@ -10171,16 +10159,16 @@
         <v>6818309</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D113" s="2">
         <v>45330.5</v>
       </c>
       <c r="E113" t="s">
+        <v>36</v>
+      </c>
+      <c r="F113" t="s">
         <v>40</v>
-      </c>
-      <c r="F113" t="s">
-        <v>44</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10189,7 +10177,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J113">
         <v>3.75</v>
@@ -10257,16 +10245,16 @@
         <v>6818304</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2">
         <v>45330.66666666666</v>
       </c>
       <c r="E114" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10275,7 +10263,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J114">
         <v>2.15</v>
@@ -10343,16 +10331,16 @@
         <v>6818313</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2">
         <v>45332.35416666666</v>
       </c>
       <c r="E115" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10361,7 +10349,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J115">
         <v>2.75</v>
@@ -10429,16 +10417,16 @@
         <v>6818314</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D116" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10447,7 +10435,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J116">
         <v>1.909</v>
@@ -10515,16 +10503,16 @@
         <v>6818310</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D117" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E117" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10533,7 +10521,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J117">
         <v>3.9</v>
@@ -10601,16 +10589,16 @@
         <v>6818315</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10619,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J118">
         <v>1.55</v>
@@ -10687,16 +10675,16 @@
         <v>6818311</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D119" s="2">
         <v>45333.44791666666</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10705,7 +10693,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J119">
         <v>1.7</v>
@@ -10773,16 +10761,16 @@
         <v>6818312</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D120" s="2">
         <v>45333.65625</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10791,7 +10779,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J120">
         <v>2</v>
@@ -10859,16 +10847,16 @@
         <v>6818321</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D121" s="2">
         <v>45338.66666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10877,7 +10865,7 @@
         <v>4</v>
       </c>
       <c r="I121" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J121">
         <v>1.55</v>
@@ -10945,16 +10933,16 @@
         <v>6818316</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2">
         <v>45339.375</v>
       </c>
       <c r="E122" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10963,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J122">
         <v>1.909</v>
@@ -11031,16 +11019,16 @@
         <v>6818320</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D123" s="2">
         <v>45339.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F123" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11049,7 +11037,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J123">
         <v>2.15</v>
@@ -11117,16 +11105,16 @@
         <v>6818318</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11135,7 +11123,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J124">
         <v>2.6</v>
@@ -11203,16 +11191,16 @@
         <v>6818319</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D125" s="2">
         <v>45340.5625</v>
       </c>
       <c r="E125" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G125">
         <v>6</v>
@@ -11221,7 +11209,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J125">
         <v>1.65</v>
@@ -11289,16 +11277,16 @@
         <v>6818324</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D126" s="2">
         <v>45345.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G126">
         <v>3</v>
@@ -11307,7 +11295,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J126">
         <v>1.8</v>
@@ -11375,16 +11363,16 @@
         <v>6818327</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D127" s="2">
         <v>45346.35416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11393,7 +11381,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J127">
         <v>2.4</v>
@@ -11461,16 +11449,16 @@
         <v>6818326</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D128" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11479,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J128">
         <v>2.25</v>
@@ -11547,16 +11535,16 @@
         <v>6818325</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E129" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11565,7 +11553,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J129">
         <v>2.25</v>
@@ -11633,16 +11621,16 @@
         <v>6818323</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D130" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11651,7 +11639,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J130">
         <v>3.5</v>
@@ -11719,16 +11707,16 @@
         <v>6818322</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E131" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11737,7 +11725,7 @@
         <v>5</v>
       </c>
       <c r="I131" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J131">
         <v>5.2</v>
@@ -11805,16 +11793,16 @@
         <v>6818331</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D132" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E132" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11823,7 +11811,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J132">
         <v>1.5</v>
@@ -11891,16 +11879,16 @@
         <v>6818333</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D133" s="2">
         <v>45353.4375</v>
       </c>
       <c r="E133" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11909,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J133">
         <v>2.25</v>
@@ -11977,17 +11965,17 @@
         <v>6818330</v>
       </c>
       <c r="C134" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D134" s="2">
         <v>45353.61458333334</v>
       </c>
       <c r="E134" t="s">
+        <v>31</v>
+      </c>
+      <c r="F134" t="s">
         <v>35</v>
       </c>
-      <c r="F134" t="s">
-        <v>39</v>
-      </c>
       <c r="G134">
         <v>1</v>
       </c>
@@ -11995,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J134">
         <v>2.9</v>
@@ -12063,16 +12051,16 @@
         <v>6818332</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D135" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12081,7 +12069,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J135">
         <v>2.75</v>
@@ -12149,16 +12137,16 @@
         <v>6818328</v>
       </c>
       <c r="C136" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D136" s="2">
         <v>45354.52083333334</v>
       </c>
       <c r="E136" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12167,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J136">
         <v>1.25</v>
@@ -12235,16 +12223,16 @@
         <v>6818329</v>
       </c>
       <c r="C137" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D137" s="2">
         <v>45354.625</v>
       </c>
       <c r="E137" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12253,7 +12241,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J137">
         <v>2.3</v>
@@ -12321,16 +12309,16 @@
         <v>6818337</v>
       </c>
       <c r="C138" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D138" s="2">
         <v>45359.66666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -12339,7 +12327,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J138">
         <v>1.727</v>
@@ -12407,16 +12395,16 @@
         <v>6818336</v>
       </c>
       <c r="C139" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D139" s="2">
         <v>45360.36458333334</v>
       </c>
       <c r="E139" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12425,7 +12413,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J139">
         <v>2.9</v>
@@ -12493,16 +12481,16 @@
         <v>6818339</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D140" s="2">
         <v>45360.46875</v>
       </c>
       <c r="E140" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12511,7 +12499,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J140">
         <v>2.15</v>
@@ -12579,25 +12567,25 @@
         <v>6818335</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D141" s="2">
         <v>45361.375</v>
       </c>
       <c r="E141" t="s">
+        <v>40</v>
+      </c>
+      <c r="F141" t="s">
+        <v>34</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141" t="s">
         <v>44</v>
-      </c>
-      <c r="F141" t="s">
-        <v>38</v>
-      </c>
-      <c r="G141">
-        <v>1</v>
-      </c>
-      <c r="H141">
-        <v>1</v>
-      </c>
-      <c r="I141" t="s">
-        <v>48</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12665,16 +12653,16 @@
         <v>6818338</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D142" s="2">
         <v>45361.47916666666</v>
       </c>
       <c r="E142" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12683,7 +12671,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J142">
         <v>5.25</v>
@@ -12751,16 +12739,16 @@
         <v>6818334</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D143" s="2">
         <v>45361.66666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12769,7 +12757,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J143">
         <v>2.2</v>
@@ -12837,16 +12825,16 @@
         <v>6818341</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2">
         <v>45367.375</v>
       </c>
       <c r="E144" t="s">
+        <v>32</v>
+      </c>
+      <c r="F144" t="s">
         <v>36</v>
-      </c>
-      <c r="F144" t="s">
-        <v>40</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12855,7 +12843,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J144">
         <v>1.833</v>
@@ -12923,16 +12911,16 @@
         <v>6818342</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D145" s="2">
         <v>45367.47916666666</v>
       </c>
       <c r="E145" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F145" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12941,7 +12929,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J145">
         <v>2.5</v>
@@ -13009,16 +12997,16 @@
         <v>6818345</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D146" s="2">
         <v>45367.57291666666</v>
       </c>
       <c r="E146" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13027,7 +13015,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J146">
         <v>1.909</v>
@@ -13095,16 +13083,16 @@
         <v>6818343</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D147" s="2">
         <v>45368.35416666666</v>
       </c>
       <c r="E147" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G147">
         <v>5</v>
@@ -13113,7 +13101,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J147">
         <v>1.727</v>
@@ -13181,16 +13169,16 @@
         <v>6818340</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D148" s="2">
         <v>45368.44791666666</v>
       </c>
       <c r="E148" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13199,7 +13187,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J148">
         <v>1.5</v>
@@ -13267,16 +13255,16 @@
         <v>6818344</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D149" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13285,7 +13273,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J149">
         <v>1.727</v>
@@ -13353,16 +13341,16 @@
         <v>6818351</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D150" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E150" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13371,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J150">
         <v>2.45</v>
@@ -13439,16 +13427,16 @@
         <v>6818347</v>
       </c>
       <c r="C151" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D151" s="2">
         <v>45381.4375</v>
       </c>
       <c r="E151" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13457,7 +13445,7 @@
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J151">
         <v>2.75</v>
@@ -13525,16 +13513,16 @@
         <v>6818346</v>
       </c>
       <c r="C152" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D152" s="2">
         <v>45381.54166666666</v>
       </c>
       <c r="E152" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13543,7 +13531,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J152">
         <v>2.3</v>
@@ -13611,16 +13599,16 @@
         <v>6818348</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2">
         <v>45381.64583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G153">
         <v>5</v>
@@ -13629,7 +13617,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J153">
         <v>2.45</v>
@@ -13697,16 +13685,16 @@
         <v>6818349</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D154" s="2">
         <v>45382.4375</v>
       </c>
       <c r="E154" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13715,7 +13703,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J154">
         <v>1.666</v>
@@ -13783,16 +13771,16 @@
         <v>6818350</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D155" s="2">
         <v>45382.54166666666</v>
       </c>
       <c r="E155" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13801,7 +13789,7 @@
         <v>3</v>
       </c>
       <c r="I155" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J155">
         <v>7.5</v>
@@ -13869,16 +13857,16 @@
         <v>6818353</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D156" s="2">
         <v>45387.625</v>
       </c>
       <c r="E156" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13887,7 +13875,7 @@
         <v>5</v>
       </c>
       <c r="I156" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J156">
         <v>1.909</v>
@@ -13955,16 +13943,16 @@
         <v>6818356</v>
       </c>
       <c r="C157" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D157" s="2">
         <v>45388.38541666666</v>
       </c>
       <c r="E157" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G157">
         <v>5</v>
@@ -13973,7 +13961,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J157">
         <v>1.571</v>
@@ -14041,16 +14029,16 @@
         <v>6818354</v>
       </c>
       <c r="C158" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D158" s="2">
         <v>45388.47916666666</v>
       </c>
       <c r="E158" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14059,7 +14047,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J158">
         <v>1.727</v>
@@ -14127,16 +14115,16 @@
         <v>6818355</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D159" s="2">
         <v>45388.60416666666</v>
       </c>
       <c r="E159" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14145,7 +14133,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J159">
         <v>2</v>
@@ -14213,16 +14201,16 @@
         <v>6818352</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D160" s="2">
         <v>45389.40625</v>
       </c>
       <c r="E160" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F160" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14231,7 +14219,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J160">
         <v>1.444</v>
@@ -14299,16 +14287,16 @@
         <v>6818357</v>
       </c>
       <c r="C161" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D161" s="2">
         <v>45389.52083333334</v>
       </c>
       <c r="E161" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14317,7 +14305,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J161">
         <v>2.4</v>
@@ -14385,16 +14373,16 @@
         <v>8074943</v>
       </c>
       <c r="C162" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D162" s="2">
         <v>45391.53819444445</v>
       </c>
       <c r="E162" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F162" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14403,7 +14391,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J162">
         <v>8.5</v>
@@ -14471,16 +14459,16 @@
         <v>7939469</v>
       </c>
       <c r="C163" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D163" s="2">
         <v>45392.54166666666</v>
       </c>
       <c r="E163" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14489,7 +14477,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J163">
         <v>1.3</v>
@@ -14557,16 +14545,16 @@
         <v>6818359</v>
       </c>
       <c r="C164" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D164" s="2">
         <v>45395.39583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G164">
         <v>4</v>
@@ -14575,7 +14563,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J164">
         <v>2.6</v>
@@ -14643,16 +14631,16 @@
         <v>6818358</v>
       </c>
       <c r="C165" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D165" s="2">
         <v>45395.5</v>
       </c>
       <c r="E165" t="s">
+        <v>34</v>
+      </c>
+      <c r="F165" t="s">
         <v>38</v>
-      </c>
-      <c r="F165" t="s">
-        <v>42</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14661,7 +14649,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J165">
         <v>1.666</v>
@@ -14729,16 +14717,16 @@
         <v>6818360</v>
       </c>
       <c r="C166" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D166" s="2">
         <v>45395.60416666666</v>
       </c>
       <c r="E166" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14747,7 +14735,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J166">
         <v>1.666</v>
@@ -14815,16 +14803,16 @@
         <v>6820520</v>
       </c>
       <c r="C167" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D167" s="2">
         <v>45396.375</v>
       </c>
       <c r="E167" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14833,7 +14821,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J167">
         <v>1.727</v>
@@ -14901,16 +14889,16 @@
         <v>6860904</v>
       </c>
       <c r="C168" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D168" s="2">
         <v>45396.47916666666</v>
       </c>
       <c r="E168" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F168" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14919,7 +14907,7 @@
         <v>3</v>
       </c>
       <c r="I168" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J168">
         <v>5.5</v>
@@ -14987,16 +14975,16 @@
         <v>6818361</v>
       </c>
       <c r="C169" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D169" s="2">
         <v>45396.57291666666</v>
       </c>
       <c r="E169" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F169" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -15005,7 +14993,7 @@
         <v>4</v>
       </c>
       <c r="I169" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J169">
         <v>5.5</v>
@@ -15073,16 +15061,16 @@
         <v>6818365</v>
       </c>
       <c r="C170" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D170" s="2">
         <v>45402.39583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G170">
         <v>5</v>
@@ -15091,7 +15079,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J170">
         <v>2</v>
@@ -15159,16 +15147,16 @@
         <v>6818362</v>
       </c>
       <c r="C171" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D171" s="2">
         <v>45402.5</v>
       </c>
       <c r="E171" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F171" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15177,7 +15165,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J171">
         <v>1.25</v>
@@ -15245,16 +15233,16 @@
         <v>6818364</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D172" s="2">
         <v>45402.60416666666</v>
       </c>
       <c r="E172" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G172">
         <v>5</v>
@@ -15263,7 +15251,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J172">
         <v>2.5</v>
@@ -15331,16 +15319,16 @@
         <v>6818367</v>
       </c>
       <c r="C173" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D173" s="2">
         <v>45403.37847222222</v>
       </c>
       <c r="E173" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15349,7 +15337,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J173">
         <v>1.727</v>
@@ -15417,16 +15405,16 @@
         <v>6818366</v>
       </c>
       <c r="C174" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D174" s="2">
         <v>45403.45833333334</v>
       </c>
       <c r="E174" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15435,7 +15423,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J174">
         <v>1.909</v>
@@ -15503,16 +15491,16 @@
         <v>6818363</v>
       </c>
       <c r="C175" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D175" s="2">
         <v>45403.5625</v>
       </c>
       <c r="E175" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15521,7 +15509,7 @@
         <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J175">
         <v>2</v>
@@ -15589,16 +15577,16 @@
         <v>6943666</v>
       </c>
       <c r="C176" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D176" s="2">
         <v>45408.625</v>
       </c>
       <c r="E176" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15607,7 +15595,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J176">
         <v>3.6</v>
@@ -15675,16 +15663,16 @@
         <v>6818371</v>
       </c>
       <c r="C177" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D177" s="2">
         <v>45409.39583333334</v>
       </c>
       <c r="E177" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15693,7 +15681,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J177">
         <v>1.4</v>
@@ -15761,16 +15749,16 @@
         <v>6818368</v>
       </c>
       <c r="C178" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D178" s="2">
         <v>45409.5</v>
       </c>
       <c r="E178" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -15779,7 +15767,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J178">
         <v>2</v>
@@ -15847,16 +15835,16 @@
         <v>6818369</v>
       </c>
       <c r="C179" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D179" s="2">
         <v>45409.60416666666</v>
       </c>
       <c r="E179" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15865,7 +15853,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J179">
         <v>1.75</v>
@@ -15933,16 +15921,16 @@
         <v>6818370</v>
       </c>
       <c r="C180" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D180" s="2">
         <v>45410.42708333334</v>
       </c>
       <c r="E180" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15951,7 +15939,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J180">
         <v>2.6</v>
@@ -16019,16 +16007,16 @@
         <v>6885578</v>
       </c>
       <c r="C181" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D181" s="2">
         <v>45410.53125</v>
       </c>
       <c r="E181" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F181" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16037,7 +16025,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J181">
         <v>4.333</v>
@@ -16105,16 +16093,16 @@
         <v>8156232</v>
       </c>
       <c r="C182" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D182" s="2">
         <v>45415.625</v>
       </c>
       <c r="E182" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G182">
         <v>4</v>
@@ -16123,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J182">
         <v>2</v>
@@ -16191,16 +16179,16 @@
         <v>7005341</v>
       </c>
       <c r="C183" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D183" s="2">
         <v>45416.33333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -16209,7 +16197,7 @@
         <v>2</v>
       </c>
       <c r="I183" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J183">
         <v>3.5</v>
@@ -16277,16 +16265,16 @@
         <v>6993966</v>
       </c>
       <c r="C184" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D184" s="2">
         <v>45416.4375</v>
       </c>
       <c r="E184" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F184" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G184">
         <v>4</v>
@@ -16295,7 +16283,7 @@
         <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J184">
         <v>1.55</v>
@@ -16363,16 +16351,16 @@
         <v>6994491</v>
       </c>
       <c r="C185" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D185" s="2">
         <v>45416.59375</v>
       </c>
       <c r="E185" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G185">
         <v>7</v>
@@ -16381,7 +16369,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J185">
         <v>2.5</v>
@@ -16449,16 +16437,16 @@
         <v>6990294</v>
       </c>
       <c r="C186" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D186" s="2">
         <v>45417.45833333334</v>
       </c>
       <c r="E186" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F186" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16467,7 +16455,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J186">
         <v>3.25</v>
@@ -16535,16 +16523,16 @@
         <v>7016849</v>
       </c>
       <c r="C187" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D187" s="2">
         <v>45417.5625</v>
       </c>
       <c r="E187" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G187">
         <v>5</v>
@@ -16553,7 +16541,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J187">
         <v>1.363</v>
@@ -16621,16 +16609,16 @@
         <v>7021685</v>
       </c>
       <c r="C188" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D188" s="2">
         <v>45422.63541666666</v>
       </c>
       <c r="E188" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F188" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -16639,7 +16627,7 @@
         <v>3</v>
       </c>
       <c r="I188" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J188">
         <v>2.2</v>
@@ -16707,16 +16695,16 @@
         <v>7021686</v>
       </c>
       <c r="C189" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D189" s="2">
         <v>45423.4375</v>
       </c>
       <c r="E189" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F189" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16725,7 +16713,7 @@
         <v>3</v>
       </c>
       <c r="I189" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J189">
         <v>3.6</v>
@@ -16793,25 +16781,25 @@
         <v>7028360</v>
       </c>
       <c r="C190" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D190" s="2">
         <v>45423.52083333334</v>
       </c>
       <c r="E190" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F190" t="s">
+        <v>40</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190" t="s">
         <v>44</v>
-      </c>
-      <c r="G190">
-        <v>1</v>
-      </c>
-      <c r="H190">
-        <v>1</v>
-      </c>
-      <c r="I190" t="s">
-        <v>48</v>
       </c>
       <c r="J190">
         <v>2.6</v>
@@ -16879,16 +16867,16 @@
         <v>7024477</v>
       </c>
       <c r="C191" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D191" s="2">
         <v>45423.60416666666</v>
       </c>
       <c r="E191" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G191">
         <v>2</v>
@@ -16897,7 +16885,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J191">
         <v>4.5</v>
@@ -16965,16 +16953,16 @@
         <v>7024498</v>
       </c>
       <c r="C192" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D192" s="2">
         <v>45424.38541666666</v>
       </c>
       <c r="E192" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F192" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G192">
         <v>4</v>
@@ -16983,7 +16971,7 @@
         <v>3</v>
       </c>
       <c r="I192" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J192">
         <v>1.95</v>
@@ -17051,16 +17039,16 @@
         <v>7028515</v>
       </c>
       <c r="C193" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D193" s="2">
         <v>45424.60416666666</v>
       </c>
       <c r="E193" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17069,7 +17057,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J193">
         <v>2.6</v>
@@ -17133,20 +17121,29 @@
       <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="s">
-        <v>27</v>
+      <c r="B194">
+        <v>8209691</v>
       </c>
       <c r="C194" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D194" s="2">
         <v>45429.64583333334</v>
       </c>
       <c r="E194" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194" t="s">
+        <v>44</v>
       </c>
       <c r="J194">
         <v>3</v>
@@ -17158,40 +17155,52 @@
         <v>2.1</v>
       </c>
       <c r="M194">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N194">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O194">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P194">
         <v>0.25</v>
       </c>
       <c r="Q194">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R194">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S194">
         <v>3.25</v>
       </c>
       <c r="T194">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U194">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W194">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="X194">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y194">
+        <v>0.45</v>
+      </c>
+      <c r="Z194">
+        <v>-0.5</v>
+      </c>
+      <c r="AA194">
+        <v>-1</v>
+      </c>
+      <c r="AB194">
+        <v>0.95</v>
       </c>
     </row>
     <row r="195" spans="1:28">
@@ -17199,55 +17208,55 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C195" t="s">
+        <v>29</v>
+      </c>
+      <c r="D195" s="2">
+        <v>45431.51041666666</v>
+      </c>
+      <c r="E195" t="s">
+        <v>38</v>
+      </c>
+      <c r="F195" t="s">
         <v>33</v>
       </c>
-      <c r="D195" s="2">
-        <v>45430.41666666666</v>
-      </c>
-      <c r="E195" t="s">
-        <v>44</v>
-      </c>
-      <c r="F195" t="s">
-        <v>45</v>
-      </c>
       <c r="J195">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="K195">
+        <v>3.5</v>
+      </c>
+      <c r="L195">
+        <v>3.2</v>
+      </c>
+      <c r="M195">
+        <v>1.666</v>
+      </c>
+      <c r="N195">
+        <v>3.9</v>
+      </c>
+      <c r="O195">
         <v>4.333</v>
       </c>
-      <c r="L195">
-        <v>6</v>
-      </c>
-      <c r="M195">
-        <v>1.42</v>
-      </c>
-      <c r="N195">
-        <v>4.75</v>
-      </c>
-      <c r="O195">
-        <v>5.5</v>
-      </c>
       <c r="P195">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q195">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R195">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S195">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T195">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U195">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V195">
         <v>0</v>
@@ -17264,37 +17273,37 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C196" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D196" s="2">
-        <v>45430.41666666666</v>
+        <v>45431.63541666666</v>
       </c>
       <c r="E196" t="s">
         <v>39</v>
       </c>
       <c r="F196" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J196">
-        <v>1.7</v>
+        <v>1.222</v>
       </c>
       <c r="K196">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="L196">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="M196">
         <v>1.5</v>
       </c>
       <c r="N196">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O196">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P196">
         <v>-1</v>
@@ -17306,13 +17315,13 @@
         <v>2</v>
       </c>
       <c r="S196">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T196">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U196">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V196">
         <v>0</v>
@@ -17321,201 +17330,6 @@
         <v>0</v>
       </c>
       <c r="X196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:28">
-      <c r="A197" s="1">
-        <v>195</v>
-      </c>
-      <c r="B197" t="s">
-        <v>30</v>
-      </c>
-      <c r="C197" t="s">
-        <v>33</v>
-      </c>
-      <c r="D197" s="2">
-        <v>45430.41666666666</v>
-      </c>
-      <c r="E197" t="s">
-        <v>41</v>
-      </c>
-      <c r="F197" t="s">
-        <v>35</v>
-      </c>
-      <c r="J197">
-        <v>1.571</v>
-      </c>
-      <c r="K197">
-        <v>4</v>
-      </c>
-      <c r="L197">
-        <v>5</v>
-      </c>
-      <c r="M197">
-        <v>1.75</v>
-      </c>
-      <c r="N197">
-        <v>3.75</v>
-      </c>
-      <c r="O197">
-        <v>4</v>
-      </c>
-      <c r="P197">
-        <v>-0.75</v>
-      </c>
-      <c r="Q197">
-        <v>2.025</v>
-      </c>
-      <c r="R197">
-        <v>1.825</v>
-      </c>
-      <c r="S197">
-        <v>3</v>
-      </c>
-      <c r="T197">
-        <v>1.875</v>
-      </c>
-      <c r="U197">
-        <v>1.975</v>
-      </c>
-      <c r="V197">
-        <v>0</v>
-      </c>
-      <c r="W197">
-        <v>0</v>
-      </c>
-      <c r="X197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:28">
-      <c r="A198" s="1">
-        <v>196</v>
-      </c>
-      <c r="B198" t="s">
-        <v>31</v>
-      </c>
-      <c r="C198" t="s">
-        <v>33</v>
-      </c>
-      <c r="D198" s="2">
-        <v>45431.51041666666</v>
-      </c>
-      <c r="E198" t="s">
-        <v>42</v>
-      </c>
-      <c r="F198" t="s">
-        <v>37</v>
-      </c>
-      <c r="J198">
-        <v>2.05</v>
-      </c>
-      <c r="K198">
-        <v>3.5</v>
-      </c>
-      <c r="L198">
-        <v>3.2</v>
-      </c>
-      <c r="M198">
-        <v>1.95</v>
-      </c>
-      <c r="N198">
-        <v>3.7</v>
-      </c>
-      <c r="O198">
-        <v>3.4</v>
-      </c>
-      <c r="P198">
-        <v>-0.5</v>
-      </c>
-      <c r="Q198">
-        <v>2.025</v>
-      </c>
-      <c r="R198">
-        <v>1.825</v>
-      </c>
-      <c r="S198">
-        <v>2.75</v>
-      </c>
-      <c r="T198">
-        <v>2</v>
-      </c>
-      <c r="U198">
-        <v>1.85</v>
-      </c>
-      <c r="V198">
-        <v>0</v>
-      </c>
-      <c r="W198">
-        <v>0</v>
-      </c>
-      <c r="X198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:28">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
-      <c r="B199" t="s">
-        <v>32</v>
-      </c>
-      <c r="C199" t="s">
-        <v>33</v>
-      </c>
-      <c r="D199" s="2">
-        <v>45431.63541666666</v>
-      </c>
-      <c r="E199" t="s">
-        <v>43</v>
-      </c>
-      <c r="F199" t="s">
-        <v>36</v>
-      </c>
-      <c r="J199">
-        <v>1.222</v>
-      </c>
-      <c r="K199">
-        <v>5.25</v>
-      </c>
-      <c r="L199">
-        <v>12</v>
-      </c>
-      <c r="M199">
-        <v>1.3</v>
-      </c>
-      <c r="N199">
-        <v>4.75</v>
-      </c>
-      <c r="O199">
-        <v>9</v>
-      </c>
-      <c r="P199">
-        <v>-1.5</v>
-      </c>
-      <c r="Q199">
-        <v>1.875</v>
-      </c>
-      <c r="R199">
-        <v>1.975</v>
-      </c>
-      <c r="S199">
-        <v>3</v>
-      </c>
-      <c r="T199">
-        <v>1.925</v>
-      </c>
-      <c r="U199">
-        <v>1.925</v>
-      </c>
-      <c r="V199">
-        <v>0</v>
-      </c>
-      <c r="W199">
-        <v>0</v>
-      </c>
-      <c r="X199">
         <v>0</v>
       </c>
     </row>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -95,12 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>8209694</t>
-  </si>
-  <si>
-    <t>8209689</t>
   </si>
   <si>
     <t>Hungary NB I</t>
@@ -516,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB196"/>
+  <dimension ref="A1:AB199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,16 +607,16 @@
         <v>6863238</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45135.625</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -631,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>2.625</v>
@@ -699,16 +693,16 @@
         <v>6863236</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45136.54166666666</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -717,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J3">
         <v>3.2</v>
@@ -785,16 +779,16 @@
         <v>6863235</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45136.63541666666</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -803,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>2.375</v>
@@ -871,16 +865,16 @@
         <v>6818267</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45137.625</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -889,7 +883,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J5">
         <v>2.9</v>
@@ -957,16 +951,16 @@
         <v>6863237</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45138.625</v>
       </c>
       <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
         <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -975,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>1.833</v>
@@ -1043,16 +1037,16 @@
         <v>6818205</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45142.625</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1061,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>2.05</v>
@@ -1129,16 +1123,16 @@
         <v>6818204</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45143.53125</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1147,7 +1141,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J8">
         <v>1.666</v>
@@ -1215,16 +1209,16 @@
         <v>6818206</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45144.53125</v>
       </c>
       <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
         <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1233,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J9">
         <v>3.5</v>
@@ -1301,16 +1295,16 @@
         <v>6818202</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45144.625</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1319,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>2.05</v>
@@ -1387,16 +1381,16 @@
         <v>6818207</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45145.625</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1405,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>2.2</v>
@@ -1473,16 +1467,16 @@
         <v>6818212</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45149.625</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1491,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>2.7</v>
@@ -1559,16 +1553,16 @@
         <v>6818209</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45150.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1577,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>1.727</v>
@@ -1645,16 +1639,16 @@
         <v>6818210</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45150.63541666666</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1663,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>2.55</v>
@@ -1731,16 +1725,16 @@
         <v>6818211</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45151.47916666666</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1749,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J15">
         <v>1.85</v>
@@ -1817,16 +1811,16 @@
         <v>6818208</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45151.57291666666</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1835,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J16">
         <v>1.5</v>
@@ -1903,16 +1897,16 @@
         <v>6818213</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45151.66666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1921,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>2.05</v>
@@ -1989,16 +1983,16 @@
         <v>6818219</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>37</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2007,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>1.85</v>
@@ -2075,16 +2069,16 @@
         <v>6818216</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45156.63541666666</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2093,7 +2087,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J19">
         <v>2.15</v>
@@ -2161,16 +2155,16 @@
         <v>6818214</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45157.53125</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2179,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -2247,16 +2241,16 @@
         <v>6818217</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45157.625</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2265,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>2.25</v>
@@ -2333,16 +2327,16 @@
         <v>6818215</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45159.63541666666</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -2351,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>2.7</v>
@@ -2419,16 +2413,16 @@
         <v>6818225</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45164.4375</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -2437,7 +2431,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J23">
         <v>2.4</v>
@@ -2505,16 +2499,16 @@
         <v>6818222</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45164.53125</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2523,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <v>2.3</v>
@@ -2591,16 +2585,16 @@
         <v>6818221</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45164.625</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2609,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -2677,16 +2671,16 @@
         <v>6818223</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45165.4375</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2695,7 +2689,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J26">
         <v>1.75</v>
@@ -2763,16 +2757,16 @@
         <v>6818220</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -2781,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J27">
         <v>1.4</v>
@@ -2849,16 +2843,16 @@
         <v>6818224</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45165.60416666666</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2867,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J28">
         <v>1.95</v>
@@ -2935,16 +2929,16 @@
         <v>6818227</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45171.42708333334</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2953,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J29">
         <v>2.3</v>
@@ -3021,16 +3015,16 @@
         <v>6818230</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45171.60416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3039,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3107,16 +3101,16 @@
         <v>6818231</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45172.38541666666</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3125,7 +3119,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J31">
         <v>2.9</v>
@@ -3193,16 +3187,16 @@
         <v>6818229</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45172.51041666666</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3211,7 +3205,7 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J32">
         <v>5.25</v>
@@ -3279,16 +3273,16 @@
         <v>6818226</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45172.60416666666</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3297,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J33">
         <v>2.25</v>
@@ -3365,16 +3359,16 @@
         <v>7197411</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45191.625</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3383,7 +3377,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J34">
         <v>1.8</v>
@@ -3451,16 +3445,16 @@
         <v>7197409</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45192.39583333334</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3469,7 +3463,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J35">
         <v>1.9</v>
@@ -3537,16 +3531,16 @@
         <v>6818234</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45192.5</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3555,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J36">
         <v>2.5</v>
@@ -3623,16 +3617,16 @@
         <v>7197408</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45192.60416666666</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3641,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J37">
         <v>2.2</v>
@@ -3709,16 +3703,16 @@
         <v>7197410</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3727,7 +3721,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>2.2</v>
@@ -3795,16 +3789,16 @@
         <v>7197407</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s">
         <v>39</v>
-      </c>
-      <c r="F39" t="s">
-        <v>41</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3813,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J39">
         <v>1.363</v>
@@ -3881,16 +3875,16 @@
         <v>7020194</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45196.53125</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3899,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J40">
         <v>2.1</v>
@@ -3967,16 +3961,16 @@
         <v>6863234</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45196.625</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3985,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4053,17 +4047,17 @@
         <v>6818242</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45198.625</v>
       </c>
       <c r="E42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" t="s">
         <v>33</v>
       </c>
-      <c r="F42" t="s">
-        <v>35</v>
-      </c>
       <c r="G42">
         <v>1</v>
       </c>
@@ -4071,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>3</v>
@@ -4139,16 +4133,16 @@
         <v>6818243</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45199.39583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4157,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J43">
         <v>1.615</v>
@@ -4225,16 +4219,16 @@
         <v>6818240</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45199.5</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4243,7 +4237,7 @@
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J44">
         <v>4.75</v>
@@ -4311,16 +4305,16 @@
         <v>6818239</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45199.60416666666</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4329,7 +4323,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J45">
         <v>1.8</v>
@@ -4397,16 +4391,16 @@
         <v>6818241</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4415,7 +4409,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J46">
         <v>2.6</v>
@@ -4483,16 +4477,16 @@
         <v>6818238</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4501,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J47">
         <v>2.25</v>
@@ -4569,16 +4563,16 @@
         <v>6818247</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45205.64583333334</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4587,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J48">
         <v>1.8</v>
@@ -4655,16 +4649,16 @@
         <v>6818246</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45206.32291666666</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4673,7 +4667,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J49">
         <v>2.25</v>
@@ -4741,16 +4735,16 @@
         <v>6818245</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45206.46875</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4759,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J50">
         <v>2.4</v>
@@ -4827,17 +4821,17 @@
         <v>6818249</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45206.64583333334</v>
       </c>
       <c r="E51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" t="s">
         <v>38</v>
       </c>
-      <c r="F51" t="s">
-        <v>40</v>
-      </c>
       <c r="G51">
         <v>1</v>
       </c>
@@ -4845,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J51">
         <v>2.4</v>
@@ -4913,16 +4907,16 @@
         <v>6818248</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45207.33333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4931,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J52">
         <v>2.5</v>
@@ -4999,16 +4993,16 @@
         <v>6818244</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45207.47916666666</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5017,7 +5011,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J53">
         <v>1.8</v>
@@ -5085,16 +5079,16 @@
         <v>6818254</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45220.3125</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5103,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J54">
         <v>2.1</v>
@@ -5171,16 +5165,16 @@
         <v>6818255</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45220.40625</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5189,7 +5183,7 @@
         <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J55">
         <v>2.5</v>
@@ -5257,16 +5251,16 @@
         <v>6818250</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45220.5</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G56">
         <v>5</v>
@@ -5275,7 +5269,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J56">
         <v>1.909</v>
@@ -5343,16 +5337,16 @@
         <v>6818253</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45221.34375</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5361,7 +5355,7 @@
         <v>5</v>
       </c>
       <c r="I57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J57">
         <v>2.5</v>
@@ -5429,16 +5423,16 @@
         <v>6818252</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45221.4375</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5447,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J58">
         <v>1.909</v>
@@ -5515,16 +5509,16 @@
         <v>6818251</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45221.53125</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5533,7 +5527,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J59">
         <v>7.5</v>
@@ -5601,16 +5595,16 @@
         <v>6818261</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45227.3125</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -5619,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J60">
         <v>1.666</v>
@@ -5687,16 +5681,16 @@
         <v>6818260</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45227.40625</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G61">
         <v>4</v>
@@ -5705,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J61">
         <v>2.5</v>
@@ -5773,16 +5767,16 @@
         <v>6818259</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45227.5</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5791,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J62">
         <v>2.35</v>
@@ -5859,16 +5853,16 @@
         <v>6818258</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45228.38541666666</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5877,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J63">
         <v>2.7</v>
@@ -5945,16 +5939,16 @@
         <v>6818257</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -5963,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J64">
         <v>1.571</v>
@@ -6031,16 +6025,16 @@
         <v>6818256</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45228.58333333334</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6049,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J65">
         <v>1.25</v>
@@ -6117,16 +6111,16 @@
         <v>6818265</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45234.35416666666</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6135,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J66">
         <v>3.3</v>
@@ -6203,16 +6197,16 @@
         <v>6818264</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45234.48958333334</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6221,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J67">
         <v>1.8</v>
@@ -6289,16 +6283,16 @@
         <v>6818263</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45234.58333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6307,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J68">
         <v>2.4</v>
@@ -6375,16 +6369,16 @@
         <v>6999361</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45235.35416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6393,7 +6387,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J69">
         <v>1.909</v>
@@ -6461,16 +6455,16 @@
         <v>6818262</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45235.44791666666</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6479,7 +6473,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J70">
         <v>5.75</v>
@@ -6547,16 +6541,16 @@
         <v>6818266</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6565,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J71">
         <v>1.75</v>
@@ -6633,16 +6627,16 @@
         <v>6818268</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45240.66666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6651,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J72">
         <v>2.2</v>
@@ -6719,16 +6713,16 @@
         <v>6818270</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45241.42708333334</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6737,7 +6731,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J73">
         <v>1.727</v>
@@ -6805,16 +6799,16 @@
         <v>6818271</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45241.64583333334</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6823,7 +6817,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J74">
         <v>2.375</v>
@@ -6891,16 +6885,16 @@
         <v>6818273</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6909,7 +6903,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J75">
         <v>2.2</v>
@@ -6977,16 +6971,16 @@
         <v>6818272</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45242.5</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6995,7 +6989,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J76">
         <v>1.333</v>
@@ -7063,16 +7057,16 @@
         <v>6818269</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45242.60416666666</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7081,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J77">
         <v>2.25</v>
@@ -7149,16 +7143,16 @@
         <v>7448992</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45254.66666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G78">
         <v>4</v>
@@ -7167,7 +7161,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J78">
         <v>1.85</v>
@@ -7235,16 +7229,16 @@
         <v>7448994</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45255.44791666666</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7253,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7321,16 +7315,16 @@
         <v>7448993</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45255.54166666666</v>
       </c>
       <c r="E80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7339,7 +7333,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7407,16 +7401,16 @@
         <v>7448991</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45255.64583333334</v>
       </c>
       <c r="E81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G81">
         <v>4</v>
@@ -7425,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J81">
         <v>3.1</v>
@@ -7493,16 +7487,16 @@
         <v>7448990</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7511,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J82">
         <v>3.75</v>
@@ -7579,16 +7573,16 @@
         <v>6818277</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45256.64583333334</v>
       </c>
       <c r="E83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7597,7 +7591,7 @@
         <v>3</v>
       </c>
       <c r="I83" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J83">
         <v>2.3</v>
@@ -7665,16 +7659,16 @@
         <v>7473670</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45262.375</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7683,7 +7677,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J84">
         <v>2.3</v>
@@ -7751,16 +7745,16 @@
         <v>7473671</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -7769,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J85">
         <v>2.3</v>
@@ -7837,16 +7831,16 @@
         <v>6818281</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45262.64583333334</v>
       </c>
       <c r="E86" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7855,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J86">
         <v>2.875</v>
@@ -7923,16 +7917,16 @@
         <v>7473672</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45263.36458333334</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7941,7 +7935,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J87">
         <v>2.6</v>
@@ -8009,16 +8003,16 @@
         <v>7473673</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45263.46875</v>
       </c>
       <c r="E88" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" t="s">
         <v>31</v>
-      </c>
-      <c r="F88" t="s">
-        <v>33</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8027,7 +8021,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J88">
         <v>1.833</v>
@@ -8095,16 +8089,16 @@
         <v>7473674</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45263.57291666666</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8113,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J89">
         <v>1.285</v>
@@ -8181,16 +8175,16 @@
         <v>7088570</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45266.64583333334</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8199,7 +8193,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J90">
         <v>6.5</v>
@@ -8267,16 +8261,16 @@
         <v>6818291</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45268.66666666666</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8285,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J91">
         <v>1.8</v>
@@ -8353,16 +8347,16 @@
         <v>6818289</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45269.38541666666</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8371,7 +8365,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J92">
         <v>3.2</v>
@@ -8439,16 +8433,16 @@
         <v>6818287</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45269.48958333334</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8457,7 +8451,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J93">
         <v>2.45</v>
@@ -8525,16 +8519,16 @@
         <v>6818288</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45270.375</v>
       </c>
       <c r="E94" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8543,7 +8537,7 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8611,16 +8605,16 @@
         <v>6818290</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45270.47916666666</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8629,7 +8623,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J95">
         <v>3.6</v>
@@ -8697,16 +8691,16 @@
         <v>6818286</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45270.58333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8715,7 +8709,7 @@
         <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J96">
         <v>3.2</v>
@@ -8783,16 +8777,16 @@
         <v>6818296</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45276.35416666666</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8801,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J97">
         <v>2.1</v>
@@ -8869,16 +8863,16 @@
         <v>6818294</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8887,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J98">
         <v>2.25</v>
@@ -8955,16 +8949,16 @@
         <v>6818293</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45276.5625</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8973,7 +8967,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J99">
         <v>2</v>
@@ -9041,16 +9035,16 @@
         <v>6818292</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45277.39583333334</v>
       </c>
       <c r="E100" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9059,7 +9053,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J100">
         <v>2.375</v>
@@ -9127,16 +9121,16 @@
         <v>6818295</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45277.5</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9145,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J101">
         <v>1.2</v>
@@ -9213,16 +9207,16 @@
         <v>6818297</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45277.58333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9231,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J102">
         <v>1.727</v>
@@ -9299,16 +9293,16 @@
         <v>7646444</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45324.66666666666</v>
       </c>
       <c r="E103" t="s">
+        <v>28</v>
+      </c>
+      <c r="F103" t="s">
         <v>30</v>
-      </c>
-      <c r="F103" t="s">
-        <v>32</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9317,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J103">
         <v>2.3</v>
@@ -9385,16 +9379,16 @@
         <v>7646447</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45325.35416666666</v>
       </c>
       <c r="E104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -9403,7 +9397,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J104">
         <v>3.2</v>
@@ -9471,16 +9465,16 @@
         <v>7646443</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45325.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9489,7 +9483,7 @@
         <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J105">
         <v>7</v>
@@ -9557,16 +9551,16 @@
         <v>7646445</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45325.5625</v>
       </c>
       <c r="E106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9575,7 +9569,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J106">
         <v>1.8</v>
@@ -9643,16 +9637,16 @@
         <v>7646448</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45326.45833333334</v>
       </c>
       <c r="E107" t="s">
+        <v>34</v>
+      </c>
+      <c r="F107" t="s">
         <v>36</v>
-      </c>
-      <c r="F107" t="s">
-        <v>38</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9661,7 +9655,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9729,16 +9723,16 @@
         <v>7646446</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45326.5625</v>
       </c>
       <c r="E108" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9747,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J108">
         <v>2.1</v>
@@ -9815,16 +9809,16 @@
         <v>6818305</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45328.57291666666</v>
       </c>
       <c r="E109" t="s">
+        <v>30</v>
+      </c>
+      <c r="F109" t="s">
         <v>32</v>
-      </c>
-      <c r="F109" t="s">
-        <v>34</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9833,7 +9827,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J109">
         <v>2.8</v>
@@ -9901,16 +9895,16 @@
         <v>6818306</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45328.66666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G110">
         <v>5</v>
@@ -9919,7 +9913,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J110">
         <v>1.333</v>
@@ -9987,16 +9981,16 @@
         <v>6818307</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45329.57291666666</v>
       </c>
       <c r="E111" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10005,7 +9999,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J111">
         <v>2.45</v>
@@ -10073,16 +10067,16 @@
         <v>6818308</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45329.66666666666</v>
       </c>
       <c r="E112" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10091,7 +10085,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J112">
         <v>1.5</v>
@@ -10159,16 +10153,16 @@
         <v>6818309</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45330.5</v>
       </c>
       <c r="E113" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10177,7 +10171,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J113">
         <v>3.75</v>
@@ -10245,16 +10239,16 @@
         <v>6818304</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45330.66666666666</v>
       </c>
       <c r="E114" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10263,7 +10257,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J114">
         <v>2.15</v>
@@ -10331,16 +10325,16 @@
         <v>6818313</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45332.35416666666</v>
       </c>
       <c r="E115" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10349,7 +10343,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J115">
         <v>2.75</v>
@@ -10417,16 +10411,16 @@
         <v>6818314</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10435,7 +10429,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J116">
         <v>1.909</v>
@@ -10503,16 +10497,16 @@
         <v>6818310</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E117" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10521,7 +10515,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J117">
         <v>3.9</v>
@@ -10589,16 +10583,16 @@
         <v>6818315</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E118" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10607,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J118">
         <v>1.55</v>
@@ -10675,16 +10669,16 @@
         <v>6818311</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45333.44791666666</v>
       </c>
       <c r="E119" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10693,7 +10687,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J119">
         <v>1.7</v>
@@ -10761,16 +10755,16 @@
         <v>6818312</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45333.65625</v>
       </c>
       <c r="E120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10779,7 +10773,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J120">
         <v>2</v>
@@ -10847,16 +10841,16 @@
         <v>6818321</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45338.66666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10865,7 +10859,7 @@
         <v>4</v>
       </c>
       <c r="I121" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J121">
         <v>1.55</v>
@@ -10933,16 +10927,16 @@
         <v>6818316</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45339.375</v>
       </c>
       <c r="E122" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10951,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J122">
         <v>1.909</v>
@@ -11019,16 +11013,16 @@
         <v>6818320</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45339.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11037,7 +11031,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J123">
         <v>2.15</v>
@@ -11105,16 +11099,16 @@
         <v>6818318</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11123,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J124">
         <v>2.6</v>
@@ -11191,16 +11185,16 @@
         <v>6818319</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45340.5625</v>
       </c>
       <c r="E125" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G125">
         <v>6</v>
@@ -11209,7 +11203,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J125">
         <v>1.65</v>
@@ -11277,16 +11271,16 @@
         <v>6818324</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45345.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G126">
         <v>3</v>
@@ -11295,7 +11289,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J126">
         <v>1.8</v>
@@ -11363,16 +11357,16 @@
         <v>6818327</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45346.35416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11381,7 +11375,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J127">
         <v>2.4</v>
@@ -11449,16 +11443,16 @@
         <v>6818326</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11467,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J128">
         <v>2.25</v>
@@ -11535,16 +11529,16 @@
         <v>6818325</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E129" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11553,7 +11547,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J129">
         <v>2.25</v>
@@ -11621,16 +11615,16 @@
         <v>6818323</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11639,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J130">
         <v>3.5</v>
@@ -11707,16 +11701,16 @@
         <v>6818322</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E131" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11725,7 +11719,7 @@
         <v>5</v>
       </c>
       <c r="I131" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J131">
         <v>5.2</v>
@@ -11793,16 +11787,16 @@
         <v>6818331</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E132" t="s">
+        <v>32</v>
+      </c>
+      <c r="F132" t="s">
         <v>34</v>
-      </c>
-      <c r="F132" t="s">
-        <v>36</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11811,7 +11805,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J132">
         <v>1.5</v>
@@ -11879,16 +11873,16 @@
         <v>6818333</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45353.4375</v>
       </c>
       <c r="E133" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11897,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J133">
         <v>2.25</v>
@@ -11965,16 +11959,16 @@
         <v>6818330</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45353.61458333334</v>
       </c>
       <c r="E134" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11983,7 +11977,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J134">
         <v>2.9</v>
@@ -12051,16 +12045,16 @@
         <v>6818332</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45354.41666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F135" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12069,7 +12063,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J135">
         <v>2.75</v>
@@ -12137,16 +12131,16 @@
         <v>6818328</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45354.52083333334</v>
       </c>
       <c r="E136" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12155,7 +12149,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J136">
         <v>1.25</v>
@@ -12223,16 +12217,16 @@
         <v>6818329</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45354.625</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12241,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J137">
         <v>2.3</v>
@@ -12309,16 +12303,16 @@
         <v>6818337</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45359.66666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -12327,7 +12321,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J138">
         <v>1.727</v>
@@ -12395,16 +12389,16 @@
         <v>6818336</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45360.36458333334</v>
       </c>
       <c r="E139" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12413,7 +12407,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J139">
         <v>2.9</v>
@@ -12481,16 +12475,16 @@
         <v>6818339</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45360.46875</v>
       </c>
       <c r="E140" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12499,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J140">
         <v>2.15</v>
@@ -12567,16 +12561,16 @@
         <v>6818335</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45361.375</v>
       </c>
       <c r="E141" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12585,7 +12579,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12653,16 +12647,16 @@
         <v>6818338</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45361.47916666666</v>
       </c>
       <c r="E142" t="s">
+        <v>35</v>
+      </c>
+      <c r="F142" t="s">
         <v>37</v>
-      </c>
-      <c r="F142" t="s">
-        <v>39</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12671,7 +12665,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J142">
         <v>5.25</v>
@@ -12739,16 +12733,16 @@
         <v>6818334</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45361.66666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12757,7 +12751,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J143">
         <v>2.2</v>
@@ -12825,16 +12819,16 @@
         <v>6818341</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45367.375</v>
       </c>
       <c r="E144" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12843,7 +12837,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J144">
         <v>1.833</v>
@@ -12911,16 +12905,16 @@
         <v>6818342</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45367.47916666666</v>
       </c>
       <c r="E145" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12929,7 +12923,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J145">
         <v>2.5</v>
@@ -12997,16 +12991,16 @@
         <v>6818345</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45367.57291666666</v>
       </c>
       <c r="E146" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13015,7 +13009,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J146">
         <v>1.909</v>
@@ -13083,16 +13077,16 @@
         <v>6818343</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45368.35416666666</v>
       </c>
       <c r="E147" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G147">
         <v>5</v>
@@ -13101,7 +13095,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J147">
         <v>1.727</v>
@@ -13169,16 +13163,16 @@
         <v>6818340</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45368.44791666666</v>
       </c>
       <c r="E148" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13187,7 +13181,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J148">
         <v>1.5</v>
@@ -13255,16 +13249,16 @@
         <v>6818344</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E149" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13273,7 +13267,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J149">
         <v>1.727</v>
@@ -13341,16 +13335,16 @@
         <v>6818351</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45380.66666666666</v>
       </c>
       <c r="E150" t="s">
+        <v>33</v>
+      </c>
+      <c r="F150" t="s">
         <v>35</v>
-      </c>
-      <c r="F150" t="s">
-        <v>37</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13359,7 +13353,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J150">
         <v>2.45</v>
@@ -13427,16 +13421,16 @@
         <v>6818347</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45381.4375</v>
       </c>
       <c r="E151" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13445,7 +13439,7 @@
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J151">
         <v>2.75</v>
@@ -13513,16 +13507,16 @@
         <v>6818346</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45381.54166666666</v>
       </c>
       <c r="E152" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13531,7 +13525,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J152">
         <v>2.3</v>
@@ -13599,16 +13593,16 @@
         <v>6818348</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45381.64583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G153">
         <v>5</v>
@@ -13617,7 +13611,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J153">
         <v>2.45</v>
@@ -13685,16 +13679,16 @@
         <v>6818349</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45382.4375</v>
       </c>
       <c r="E154" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13703,7 +13697,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J154">
         <v>1.666</v>
@@ -13771,16 +13765,16 @@
         <v>6818350</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45382.54166666666</v>
       </c>
       <c r="E155" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13789,7 +13783,7 @@
         <v>3</v>
       </c>
       <c r="I155" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J155">
         <v>7.5</v>
@@ -13857,16 +13851,16 @@
         <v>6818353</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45387.625</v>
       </c>
       <c r="E156" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13875,7 +13869,7 @@
         <v>5</v>
       </c>
       <c r="I156" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J156">
         <v>1.909</v>
@@ -13943,16 +13937,16 @@
         <v>6818356</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45388.38541666666</v>
       </c>
       <c r="E157" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G157">
         <v>5</v>
@@ -13961,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J157">
         <v>1.571</v>
@@ -14029,16 +14023,16 @@
         <v>6818354</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45388.47916666666</v>
       </c>
       <c r="E158" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14047,7 +14041,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J158">
         <v>1.727</v>
@@ -14115,16 +14109,16 @@
         <v>6818355</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45388.60416666666</v>
       </c>
       <c r="E159" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14133,7 +14127,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J159">
         <v>2</v>
@@ -14201,16 +14195,16 @@
         <v>6818352</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45389.40625</v>
       </c>
       <c r="E160" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F160" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14219,7 +14213,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J160">
         <v>1.444</v>
@@ -14287,16 +14281,16 @@
         <v>6818357</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45389.52083333334</v>
       </c>
       <c r="E161" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14305,7 +14299,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J161">
         <v>2.4</v>
@@ -14373,16 +14367,16 @@
         <v>8074943</v>
       </c>
       <c r="C162" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45391.53819444445</v>
       </c>
       <c r="E162" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14391,7 +14385,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J162">
         <v>8.5</v>
@@ -14459,16 +14453,16 @@
         <v>7939469</v>
       </c>
       <c r="C163" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45392.54166666666</v>
       </c>
       <c r="E163" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14477,7 +14471,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J163">
         <v>1.3</v>
@@ -14545,16 +14539,16 @@
         <v>6818359</v>
       </c>
       <c r="C164" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45395.39583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G164">
         <v>4</v>
@@ -14563,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J164">
         <v>2.6</v>
@@ -14631,16 +14625,16 @@
         <v>6818358</v>
       </c>
       <c r="C165" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45395.5</v>
       </c>
       <c r="E165" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14649,7 +14643,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J165">
         <v>1.666</v>
@@ -14717,16 +14711,16 @@
         <v>6818360</v>
       </c>
       <c r="C166" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45395.60416666666</v>
       </c>
       <c r="E166" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14735,7 +14729,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J166">
         <v>1.666</v>
@@ -14803,16 +14797,16 @@
         <v>6820520</v>
       </c>
       <c r="C167" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45396.375</v>
       </c>
       <c r="E167" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14821,7 +14815,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J167">
         <v>1.727</v>
@@ -14889,16 +14883,16 @@
         <v>6860904</v>
       </c>
       <c r="C168" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45396.47916666666</v>
       </c>
       <c r="E168" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14907,7 +14901,7 @@
         <v>3</v>
       </c>
       <c r="I168" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J168">
         <v>5.5</v>
@@ -14975,16 +14969,16 @@
         <v>6818361</v>
       </c>
       <c r="C169" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
         <v>45396.57291666666</v>
       </c>
       <c r="E169" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -14993,7 +14987,7 @@
         <v>4</v>
       </c>
       <c r="I169" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J169">
         <v>5.5</v>
@@ -15061,16 +15055,16 @@
         <v>6818365</v>
       </c>
       <c r="C170" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D170" s="2">
         <v>45402.39583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F170" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G170">
         <v>5</v>
@@ -15079,7 +15073,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J170">
         <v>2</v>
@@ -15147,16 +15141,16 @@
         <v>6818362</v>
       </c>
       <c r="C171" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D171" s="2">
         <v>45402.5</v>
       </c>
       <c r="E171" t="s">
+        <v>37</v>
+      </c>
+      <c r="F171" t="s">
         <v>39</v>
-      </c>
-      <c r="F171" t="s">
-        <v>41</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15165,7 +15159,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J171">
         <v>1.25</v>
@@ -15233,16 +15227,16 @@
         <v>6818364</v>
       </c>
       <c r="C172" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D172" s="2">
         <v>45402.60416666666</v>
       </c>
       <c r="E172" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G172">
         <v>5</v>
@@ -15251,7 +15245,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J172">
         <v>2.5</v>
@@ -15319,16 +15313,16 @@
         <v>6818367</v>
       </c>
       <c r="C173" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D173" s="2">
         <v>45403.37847222222</v>
       </c>
       <c r="E173" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15337,7 +15331,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J173">
         <v>1.727</v>
@@ -15405,16 +15399,16 @@
         <v>6818366</v>
       </c>
       <c r="C174" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D174" s="2">
         <v>45403.45833333334</v>
       </c>
       <c r="E174" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15423,7 +15417,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J174">
         <v>1.909</v>
@@ -15491,16 +15485,16 @@
         <v>6818363</v>
       </c>
       <c r="C175" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D175" s="2">
         <v>45403.5625</v>
       </c>
       <c r="E175" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F175" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15509,7 +15503,7 @@
         <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J175">
         <v>2</v>
@@ -15577,16 +15571,16 @@
         <v>6943666</v>
       </c>
       <c r="C176" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D176" s="2">
         <v>45408.625</v>
       </c>
       <c r="E176" t="s">
+        <v>31</v>
+      </c>
+      <c r="F176" t="s">
         <v>33</v>
-      </c>
-      <c r="F176" t="s">
-        <v>35</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15595,7 +15589,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J176">
         <v>3.6</v>
@@ -15663,16 +15657,16 @@
         <v>6818371</v>
       </c>
       <c r="C177" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D177" s="2">
         <v>45409.39583333334</v>
       </c>
       <c r="E177" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15681,7 +15675,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J177">
         <v>1.4</v>
@@ -15749,16 +15743,16 @@
         <v>6818368</v>
       </c>
       <c r="C178" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D178" s="2">
         <v>45409.5</v>
       </c>
       <c r="E178" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -15767,7 +15761,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J178">
         <v>2</v>
@@ -15835,16 +15829,16 @@
         <v>6818369</v>
       </c>
       <c r="C179" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D179" s="2">
         <v>45409.60416666666</v>
       </c>
       <c r="E179" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15853,7 +15847,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J179">
         <v>1.75</v>
@@ -15921,16 +15915,16 @@
         <v>6818370</v>
       </c>
       <c r="C180" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D180" s="2">
         <v>45410.42708333334</v>
       </c>
       <c r="E180" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15939,7 +15933,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J180">
         <v>2.6</v>
@@ -16007,16 +16001,16 @@
         <v>6885578</v>
       </c>
       <c r="C181" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D181" s="2">
         <v>45410.53125</v>
       </c>
       <c r="E181" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16025,7 +16019,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J181">
         <v>4.333</v>
@@ -16093,16 +16087,16 @@
         <v>8156232</v>
       </c>
       <c r="C182" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D182" s="2">
         <v>45415.625</v>
       </c>
       <c r="E182" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G182">
         <v>4</v>
@@ -16111,7 +16105,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J182">
         <v>2</v>
@@ -16179,16 +16173,16 @@
         <v>7005341</v>
       </c>
       <c r="C183" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D183" s="2">
         <v>45416.33333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -16197,7 +16191,7 @@
         <v>2</v>
       </c>
       <c r="I183" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J183">
         <v>3.5</v>
@@ -16265,16 +16259,16 @@
         <v>6993966</v>
       </c>
       <c r="C184" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D184" s="2">
         <v>45416.4375</v>
       </c>
       <c r="E184" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F184" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G184">
         <v>4</v>
@@ -16283,7 +16277,7 @@
         <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J184">
         <v>1.55</v>
@@ -16351,16 +16345,16 @@
         <v>6994491</v>
       </c>
       <c r="C185" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D185" s="2">
         <v>45416.59375</v>
       </c>
       <c r="E185" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G185">
         <v>7</v>
@@ -16369,7 +16363,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J185">
         <v>2.5</v>
@@ -16437,16 +16431,16 @@
         <v>6990294</v>
       </c>
       <c r="C186" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D186" s="2">
         <v>45417.45833333334</v>
       </c>
       <c r="E186" t="s">
+        <v>36</v>
+      </c>
+      <c r="F186" t="s">
         <v>38</v>
-      </c>
-      <c r="F186" t="s">
-        <v>40</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16455,7 +16449,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J186">
         <v>3.25</v>
@@ -16523,16 +16517,16 @@
         <v>7016849</v>
       </c>
       <c r="C187" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D187" s="2">
         <v>45417.5625</v>
       </c>
       <c r="E187" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G187">
         <v>5</v>
@@ -16541,7 +16535,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J187">
         <v>1.363</v>
@@ -16609,16 +16603,16 @@
         <v>7021685</v>
       </c>
       <c r="C188" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D188" s="2">
         <v>45422.63541666666</v>
       </c>
       <c r="E188" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -16627,7 +16621,7 @@
         <v>3</v>
       </c>
       <c r="I188" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J188">
         <v>2.2</v>
@@ -16695,16 +16689,16 @@
         <v>7021686</v>
       </c>
       <c r="C189" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D189" s="2">
         <v>45423.4375</v>
       </c>
       <c r="E189" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16713,7 +16707,7 @@
         <v>3</v>
       </c>
       <c r="I189" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J189">
         <v>3.6</v>
@@ -16781,16 +16775,16 @@
         <v>7028360</v>
       </c>
       <c r="C190" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D190" s="2">
         <v>45423.52083333334</v>
       </c>
       <c r="E190" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16799,7 +16793,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J190">
         <v>2.6</v>
@@ -16867,16 +16861,16 @@
         <v>7024477</v>
       </c>
       <c r="C191" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D191" s="2">
         <v>45423.60416666666</v>
       </c>
       <c r="E191" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F191" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G191">
         <v>2</v>
@@ -16885,7 +16879,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J191">
         <v>4.5</v>
@@ -16953,16 +16947,16 @@
         <v>7024498</v>
       </c>
       <c r="C192" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D192" s="2">
         <v>45424.38541666666</v>
       </c>
       <c r="E192" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G192">
         <v>4</v>
@@ -16971,7 +16965,7 @@
         <v>3</v>
       </c>
       <c r="I192" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J192">
         <v>1.95</v>
@@ -17039,16 +17033,16 @@
         <v>7028515</v>
       </c>
       <c r="C193" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D193" s="2">
         <v>45424.60416666666</v>
       </c>
       <c r="E193" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F193" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17057,7 +17051,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J193">
         <v>2.6</v>
@@ -17125,16 +17119,16 @@
         <v>8209691</v>
       </c>
       <c r="C194" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D194" s="2">
         <v>45429.64583333334</v>
       </c>
       <c r="E194" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F194" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17143,7 +17137,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J194">
         <v>3</v>
@@ -17207,50 +17201,59 @@
       <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="s">
-        <v>27</v>
+      <c r="B195">
+        <v>8209690</v>
       </c>
       <c r="C195" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D195" s="2">
-        <v>45431.51041666666</v>
+        <v>45430.53125</v>
       </c>
       <c r="E195" t="s">
         <v>38</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="G195">
+        <v>2</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195" t="s">
+        <v>44</v>
       </c>
       <c r="J195">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="K195">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="L195">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M195">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="N195">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="O195">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P195">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q195">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="R195">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S195">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T195">
         <v>2</v>
@@ -17259,78 +17262,369 @@
         <v>1.85</v>
       </c>
       <c r="V195">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="W195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X195">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y195">
+        <v>-0.5</v>
+      </c>
+      <c r="Z195">
+        <v>0.4125</v>
+      </c>
+      <c r="AA195">
+        <v>-0.5</v>
+      </c>
+      <c r="AB195">
+        <v>0.425</v>
       </c>
     </row>
     <row r="196" spans="1:28">
       <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="s">
-        <v>28</v>
+      <c r="B196">
+        <v>8209693</v>
       </c>
       <c r="C196" t="s">
+        <v>27</v>
+      </c>
+      <c r="D196" s="2">
+        <v>45430.53125</v>
+      </c>
+      <c r="E196" t="s">
+        <v>35</v>
+      </c>
+      <c r="F196" t="s">
         <v>29</v>
       </c>
-      <c r="D196" s="2">
-        <v>45431.63541666666</v>
-      </c>
-      <c r="E196" t="s">
-        <v>39</v>
-      </c>
-      <c r="F196" t="s">
-        <v>32</v>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196" t="s">
+        <v>42</v>
       </c>
       <c r="J196">
-        <v>1.222</v>
+        <v>1.571</v>
       </c>
       <c r="K196">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="L196">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M196">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="N196">
         <v>3.9</v>
       </c>
       <c r="O196">
+        <v>4.75</v>
+      </c>
+      <c r="P196">
+        <v>-1</v>
+      </c>
+      <c r="Q196">
+        <v>2.025</v>
+      </c>
+      <c r="R196">
+        <v>1.825</v>
+      </c>
+      <c r="S196">
+        <v>3</v>
+      </c>
+      <c r="T196">
+        <v>1.925</v>
+      </c>
+      <c r="U196">
+        <v>1.925</v>
+      </c>
+      <c r="V196">
+        <v>-1</v>
+      </c>
+      <c r="W196">
+        <v>2.9</v>
+      </c>
+      <c r="X196">
+        <v>-1</v>
+      </c>
+      <c r="Y196">
+        <v>-1</v>
+      </c>
+      <c r="Z196">
+        <v>0.825</v>
+      </c>
+      <c r="AA196">
+        <v>-1</v>
+      </c>
+      <c r="AB196">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="197" spans="1:28">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>8209692</v>
+      </c>
+      <c r="C197" t="s">
+        <v>27</v>
+      </c>
+      <c r="D197" s="2">
+        <v>45430.53125</v>
+      </c>
+      <c r="E197" t="s">
+        <v>33</v>
+      </c>
+      <c r="F197" t="s">
+        <v>32</v>
+      </c>
+      <c r="G197">
+        <v>4</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197" t="s">
+        <v>44</v>
+      </c>
+      <c r="J197">
+        <v>1.7</v>
+      </c>
+      <c r="K197">
+        <v>3.6</v>
+      </c>
+      <c r="L197">
+        <v>4.5</v>
+      </c>
+      <c r="M197">
+        <v>1.333</v>
+      </c>
+      <c r="N197">
+        <v>4.5</v>
+      </c>
+      <c r="O197">
+        <v>8</v>
+      </c>
+      <c r="P197">
+        <v>-1.5</v>
+      </c>
+      <c r="Q197">
+        <v>2.025</v>
+      </c>
+      <c r="R197">
+        <v>1.825</v>
+      </c>
+      <c r="S197">
+        <v>3</v>
+      </c>
+      <c r="T197">
+        <v>1.875</v>
+      </c>
+      <c r="U197">
+        <v>1.975</v>
+      </c>
+      <c r="V197">
+        <v>0.333</v>
+      </c>
+      <c r="W197">
+        <v>-1</v>
+      </c>
+      <c r="X197">
+        <v>-1</v>
+      </c>
+      <c r="Y197">
+        <v>1.025</v>
+      </c>
+      <c r="Z197">
+        <v>-1</v>
+      </c>
+      <c r="AA197">
+        <v>0.875</v>
+      </c>
+      <c r="AB197">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:28">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>8209694</v>
+      </c>
+      <c r="C198" t="s">
+        <v>27</v>
+      </c>
+      <c r="D198" s="2">
+        <v>45431.51041666666</v>
+      </c>
+      <c r="E198" t="s">
+        <v>36</v>
+      </c>
+      <c r="F198" t="s">
+        <v>31</v>
+      </c>
+      <c r="G198">
+        <v>2</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198" t="s">
+        <v>44</v>
+      </c>
+      <c r="J198">
+        <v>2.05</v>
+      </c>
+      <c r="K198">
+        <v>3.5</v>
+      </c>
+      <c r="L198">
+        <v>3.2</v>
+      </c>
+      <c r="M198">
+        <v>1.833</v>
+      </c>
+      <c r="N198">
+        <v>3.9</v>
+      </c>
+      <c r="O198">
+        <v>3.5</v>
+      </c>
+      <c r="P198">
+        <v>-0.5</v>
+      </c>
+      <c r="Q198">
+        <v>1.875</v>
+      </c>
+      <c r="R198">
+        <v>1.975</v>
+      </c>
+      <c r="S198">
+        <v>3</v>
+      </c>
+      <c r="T198">
+        <v>1.9</v>
+      </c>
+      <c r="U198">
+        <v>1.95</v>
+      </c>
+      <c r="V198">
+        <v>0.833</v>
+      </c>
+      <c r="W198">
+        <v>-1</v>
+      </c>
+      <c r="X198">
+        <v>-1</v>
+      </c>
+      <c r="Y198">
+        <v>0.875</v>
+      </c>
+      <c r="Z198">
+        <v>-1</v>
+      </c>
+      <c r="AA198">
+        <v>0</v>
+      </c>
+      <c r="AB198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:28">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>8209689</v>
+      </c>
+      <c r="C199" t="s">
+        <v>27</v>
+      </c>
+      <c r="D199" s="2">
+        <v>45431.63541666666</v>
+      </c>
+      <c r="E199" t="s">
+        <v>37</v>
+      </c>
+      <c r="F199" t="s">
+        <v>30</v>
+      </c>
+      <c r="G199">
+        <v>2</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199" t="s">
+        <v>44</v>
+      </c>
+      <c r="J199">
+        <v>1.222</v>
+      </c>
+      <c r="K199">
+        <v>5.25</v>
+      </c>
+      <c r="L199">
+        <v>12</v>
+      </c>
+      <c r="M199">
+        <v>1.2</v>
+      </c>
+      <c r="N199">
         <v>6</v>
       </c>
-      <c r="P196">
-        <v>-1</v>
-      </c>
-      <c r="Q196">
+      <c r="O199">
+        <v>11</v>
+      </c>
+      <c r="P199">
+        <v>-2</v>
+      </c>
+      <c r="Q199">
+        <v>2</v>
+      </c>
+      <c r="R199">
         <v>1.85</v>
       </c>
-      <c r="R196">
-        <v>2</v>
-      </c>
-      <c r="S196">
-        <v>2.75</v>
-      </c>
-      <c r="T196">
+      <c r="S199">
+        <v>3.5</v>
+      </c>
+      <c r="T199">
+        <v>1.975</v>
+      </c>
+      <c r="U199">
         <v>1.875</v>
       </c>
-      <c r="U196">
-        <v>1.975</v>
-      </c>
-      <c r="V196">
+      <c r="V199">
+        <v>0.2</v>
+      </c>
+      <c r="W199">
+        <v>-1</v>
+      </c>
+      <c r="X199">
+        <v>-1</v>
+      </c>
+      <c r="Y199">
         <v>0</v>
       </c>
-      <c r="W196">
+      <c r="Z199">
         <v>0</v>
       </c>
-      <c r="X196">
-        <v>0</v>
+      <c r="AA199">
+        <v>-1</v>
+      </c>
+      <c r="AB199">
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -17202,7 +17202,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>8209690</v>
+        <v>8209692</v>
       </c>
       <c r="C195" t="s">
         <v>27</v>
@@ -17211,13 +17211,13 @@
         <v>45430.53125</v>
       </c>
       <c r="E195" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F195" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G195">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17226,25 +17226,25 @@
         <v>44</v>
       </c>
       <c r="J195">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="K195">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="L195">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M195">
-        <v>1.45</v>
+        <v>1.333</v>
       </c>
       <c r="N195">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O195">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P195">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q195">
         <v>2.025</v>
@@ -17253,16 +17253,16 @@
         <v>1.825</v>
       </c>
       <c r="S195">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T195">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U195">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V195">
-        <v>0.45</v>
+        <v>0.333</v>
       </c>
       <c r="W195">
         <v>-1</v>
@@ -17271,16 +17271,16 @@
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="Z195">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB195">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:28">
@@ -17374,7 +17374,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>8209692</v>
+        <v>8209690</v>
       </c>
       <c r="C197" t="s">
         <v>27</v>
@@ -17383,13 +17383,13 @@
         <v>45430.53125</v>
       </c>
       <c r="E197" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F197" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G197">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -17398,25 +17398,25 @@
         <v>44</v>
       </c>
       <c r="J197">
-        <v>1.7</v>
+        <v>1.444</v>
       </c>
       <c r="K197">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L197">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M197">
-        <v>1.333</v>
+        <v>1.45</v>
       </c>
       <c r="N197">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O197">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P197">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q197">
         <v>2.025</v>
@@ -17425,16 +17425,16 @@
         <v>1.825</v>
       </c>
       <c r="S197">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T197">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U197">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V197">
-        <v>0.333</v>
+        <v>0.45</v>
       </c>
       <c r="W197">
         <v>-1</v>
@@ -17443,16 +17443,16 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA197">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="198" spans="1:28">

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -18366,7 +18366,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>8209692</v>
+        <v>8209693</v>
       </c>
       <c r="C195" t="s">
         <v>29</v>
@@ -18375,46 +18375,46 @@
         <v>45430.53125</v>
       </c>
       <c r="E195" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195" t="s">
+        <v>44</v>
+      </c>
+      <c r="L195">
+        <v>1.571</v>
+      </c>
+      <c r="M195">
         <v>4</v>
       </c>
-      <c r="H195">
-        <v>1</v>
-      </c>
-      <c r="I195">
-        <v>2</v>
-      </c>
-      <c r="J195">
-        <v>1</v>
-      </c>
-      <c r="K195" t="s">
-        <v>46</v>
-      </c>
-      <c r="L195">
-        <v>1.7</v>
-      </c>
-      <c r="M195">
-        <v>3.6</v>
-      </c>
       <c r="N195">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O195">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="P195">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="Q195">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="R195">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="S195">
         <v>2.025</v>
@@ -18426,31 +18426,31 @@
         <v>3</v>
       </c>
       <c r="V195">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W195">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X195">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>2.9</v>
       </c>
       <c r="Z195">
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC195">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD195">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="196" spans="1:30">
@@ -18458,7 +18458,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>8209693</v>
+        <v>8209690</v>
       </c>
       <c r="C196" t="s">
         <v>29</v>
@@ -18467,46 +18467,46 @@
         <v>45430.53125</v>
       </c>
       <c r="E196" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F196" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196">
         <v>0</v>
       </c>
       <c r="K196" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L196">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="M196">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N196">
+        <v>6</v>
+      </c>
+      <c r="O196">
+        <v>1.45</v>
+      </c>
+      <c r="P196">
+        <v>4.75</v>
+      </c>
+      <c r="Q196">
         <v>5</v>
       </c>
-      <c r="O196">
-        <v>1.6</v>
-      </c>
-      <c r="P196">
-        <v>3.9</v>
-      </c>
-      <c r="Q196">
-        <v>4.75</v>
-      </c>
       <c r="R196">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="S196">
         <v>2.025</v>
@@ -18515,34 +18515,34 @@
         <v>1.825</v>
       </c>
       <c r="U196">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V196">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y196">
-        <v>2.9</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB196">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD196">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -18550,7 +18550,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>8209690</v>
+        <v>8209692</v>
       </c>
       <c r="C197" t="s">
         <v>29</v>
@@ -18559,46 +18559,46 @@
         <v>45430.53125</v>
       </c>
       <c r="E197" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G197">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H197">
         <v>1</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K197" t="s">
         <v>46</v>
       </c>
       <c r="L197">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="M197">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N197">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="O197">
-        <v>1.45</v>
+        <v>1.333</v>
       </c>
       <c r="P197">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q197">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R197">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S197">
         <v>2.025</v>
@@ -18607,16 +18607,16 @@
         <v>1.825</v>
       </c>
       <c r="U197">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V197">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W197">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X197">
-        <v>0.45</v>
+        <v>0.333</v>
       </c>
       <c r="Y197">
         <v>-1</v>
@@ -18625,16 +18625,16 @@
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB197">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AD197">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:30">

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -18366,7 +18366,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>8209693</v>
+        <v>8209690</v>
       </c>
       <c r="C195" t="s">
         <v>29</v>
@@ -18375,46 +18375,46 @@
         <v>45430.53125</v>
       </c>
       <c r="E195" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195">
         <v>0</v>
       </c>
       <c r="K195" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L195">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="M195">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N195">
+        <v>6</v>
+      </c>
+      <c r="O195">
+        <v>1.45</v>
+      </c>
+      <c r="P195">
+        <v>4.75</v>
+      </c>
+      <c r="Q195">
         <v>5</v>
       </c>
-      <c r="O195">
-        <v>1.6</v>
-      </c>
-      <c r="P195">
-        <v>3.9</v>
-      </c>
-      <c r="Q195">
-        <v>4.75</v>
-      </c>
       <c r="R195">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="S195">
         <v>2.025</v>
@@ -18423,34 +18423,34 @@
         <v>1.825</v>
       </c>
       <c r="U195">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V195">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X195">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y195">
-        <v>2.9</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB195">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD195">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="196" spans="1:30">
@@ -18458,7 +18458,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>8209690</v>
+        <v>8209692</v>
       </c>
       <c r="C196" t="s">
         <v>29</v>
@@ -18467,46 +18467,46 @@
         <v>45430.53125</v>
       </c>
       <c r="E196" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G196">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H196">
         <v>1</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K196" t="s">
         <v>46</v>
       </c>
       <c r="L196">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="M196">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N196">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="O196">
-        <v>1.45</v>
+        <v>1.333</v>
       </c>
       <c r="P196">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q196">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R196">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S196">
         <v>2.025</v>
@@ -18515,16 +18515,16 @@
         <v>1.825</v>
       </c>
       <c r="U196">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W196">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X196">
-        <v>0.45</v>
+        <v>0.333</v>
       </c>
       <c r="Y196">
         <v>-1</v>
@@ -18533,16 +18533,16 @@
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB196">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AD196">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -18550,7 +18550,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>8209692</v>
+        <v>8209693</v>
       </c>
       <c r="C197" t="s">
         <v>29</v>
@@ -18559,46 +18559,46 @@
         <v>45430.53125</v>
       </c>
       <c r="E197" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197" t="s">
+        <v>44</v>
+      </c>
+      <c r="L197">
+        <v>1.571</v>
+      </c>
+      <c r="M197">
         <v>4</v>
       </c>
-      <c r="H197">
-        <v>1</v>
-      </c>
-      <c r="I197">
-        <v>2</v>
-      </c>
-      <c r="J197">
-        <v>1</v>
-      </c>
-      <c r="K197" t="s">
-        <v>46</v>
-      </c>
-      <c r="L197">
-        <v>1.7</v>
-      </c>
-      <c r="M197">
-        <v>3.6</v>
-      </c>
       <c r="N197">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O197">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="P197">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="Q197">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="R197">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="S197">
         <v>2.025</v>
@@ -18610,31 +18610,31 @@
         <v>3</v>
       </c>
       <c r="V197">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W197">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X197">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>2.9</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC197">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD197">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="198" spans="1:30">

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -37,10 +37,10 @@
     <t>FTAG</t>
   </si>
   <si>
-    <t>ht_goals_h</t>
+    <t>HTHG</t>
   </si>
   <si>
-    <t>ht_goals_a</t>
+    <t>HTAG</t>
   </si>
   <si>
     <t>FTR</t>
@@ -18366,7 +18366,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>8209690</v>
+        <v>8209692</v>
       </c>
       <c r="C195" t="s">
         <v>29</v>
@@ -18375,46 +18375,46 @@
         <v>45430.53125</v>
       </c>
       <c r="E195" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G195">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H195">
         <v>1</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K195" t="s">
         <v>46</v>
       </c>
       <c r="L195">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="M195">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N195">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="O195">
-        <v>1.45</v>
+        <v>1.333</v>
       </c>
       <c r="P195">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q195">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R195">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S195">
         <v>2.025</v>
@@ -18423,16 +18423,16 @@
         <v>1.825</v>
       </c>
       <c r="U195">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W195">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X195">
-        <v>0.45</v>
+        <v>0.333</v>
       </c>
       <c r="Y195">
         <v>-1</v>
@@ -18441,16 +18441,16 @@
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB195">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AD195">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:30">
@@ -18458,7 +18458,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>8209692</v>
+        <v>8209693</v>
       </c>
       <c r="C196" t="s">
         <v>29</v>
@@ -18467,46 +18467,46 @@
         <v>45430.53125</v>
       </c>
       <c r="E196" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196" t="s">
+        <v>44</v>
+      </c>
+      <c r="L196">
+        <v>1.571</v>
+      </c>
+      <c r="M196">
         <v>4</v>
       </c>
-      <c r="H196">
-        <v>1</v>
-      </c>
-      <c r="I196">
-        <v>2</v>
-      </c>
-      <c r="J196">
-        <v>1</v>
-      </c>
-      <c r="K196" t="s">
-        <v>46</v>
-      </c>
-      <c r="L196">
-        <v>1.7</v>
-      </c>
-      <c r="M196">
-        <v>3.6</v>
-      </c>
       <c r="N196">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O196">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="P196">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="Q196">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="R196">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="S196">
         <v>2.025</v>
@@ -18518,31 +18518,31 @@
         <v>3</v>
       </c>
       <c r="V196">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W196">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X196">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>2.9</v>
       </c>
       <c r="Z196">
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC196">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD196">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -18550,7 +18550,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>8209693</v>
+        <v>8209690</v>
       </c>
       <c r="C197" t="s">
         <v>29</v>
@@ -18559,46 +18559,46 @@
         <v>45430.53125</v>
       </c>
       <c r="E197" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F197" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197">
         <v>0</v>
       </c>
       <c r="K197" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L197">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="M197">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N197">
+        <v>6</v>
+      </c>
+      <c r="O197">
+        <v>1.45</v>
+      </c>
+      <c r="P197">
+        <v>4.75</v>
+      </c>
+      <c r="Q197">
         <v>5</v>
       </c>
-      <c r="O197">
-        <v>1.6</v>
-      </c>
-      <c r="P197">
-        <v>3.9</v>
-      </c>
-      <c r="Q197">
-        <v>4.75</v>
-      </c>
       <c r="R197">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="S197">
         <v>2.025</v>
@@ -18607,34 +18607,34 @@
         <v>1.825</v>
       </c>
       <c r="U197">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V197">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W197">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X197">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y197">
-        <v>2.9</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB197">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD197">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="198" spans="1:30">

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -18366,7 +18366,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>8209692</v>
+        <v>8209690</v>
       </c>
       <c r="C195" t="s">
         <v>29</v>
@@ -18375,46 +18375,46 @@
         <v>45430.53125</v>
       </c>
       <c r="E195" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H195">
         <v>1</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K195" t="s">
         <v>46</v>
       </c>
       <c r="L195">
-        <v>1.7</v>
+        <v>1.444</v>
       </c>
       <c r="M195">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N195">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="O195">
-        <v>1.333</v>
+        <v>1.45</v>
       </c>
       <c r="P195">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q195">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R195">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S195">
         <v>2.025</v>
@@ -18423,16 +18423,16 @@
         <v>1.825</v>
       </c>
       <c r="U195">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V195">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X195">
-        <v>0.333</v>
+        <v>0.45</v>
       </c>
       <c r="Y195">
         <v>-1</v>
@@ -18441,16 +18441,16 @@
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC195">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AD195">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="196" spans="1:30">
@@ -18550,7 +18550,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>8209690</v>
+        <v>8209692</v>
       </c>
       <c r="C197" t="s">
         <v>29</v>
@@ -18559,46 +18559,46 @@
         <v>45430.53125</v>
       </c>
       <c r="E197" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G197">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H197">
         <v>1</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K197" t="s">
         <v>46</v>
       </c>
       <c r="L197">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="M197">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N197">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="O197">
-        <v>1.45</v>
+        <v>1.333</v>
       </c>
       <c r="P197">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q197">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R197">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S197">
         <v>2.025</v>
@@ -18607,16 +18607,16 @@
         <v>1.825</v>
       </c>
       <c r="U197">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V197">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W197">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X197">
-        <v>0.45</v>
+        <v>0.333</v>
       </c>
       <c r="Y197">
         <v>-1</v>
@@ -18625,16 +18625,16 @@
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB197">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AD197">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:30">

--- a/Hungary NB I/Hungary NB I.xlsx
+++ b/Hungary NB I/Hungary NB I.xlsx
@@ -18366,7 +18366,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>8209690</v>
+        <v>8209692</v>
       </c>
       <c r="C195" t="s">
         <v>29</v>
@@ -18375,46 +18375,46 @@
         <v>45430.53125</v>
       </c>
       <c r="E195" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G195">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H195">
         <v>1</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K195" t="s">
         <v>46</v>
       </c>
       <c r="L195">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="M195">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N195">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="O195">
-        <v>1.45</v>
+        <v>1.333</v>
       </c>
       <c r="P195">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q195">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R195">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S195">
         <v>2.025</v>
@@ -18423,16 +18423,16 @@
         <v>1.825</v>
       </c>
       <c r="U195">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W195">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X195">
-        <v>0.45</v>
+        <v>0.333</v>
       </c>
       <c r="Y195">
         <v>-1</v>
@@ -18441,16 +18441,16 @@
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB195">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AD195">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:30">
@@ -18550,7 +18550,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>8209692</v>
+        <v>8209690</v>
       </c>
       <c r="C197" t="s">
         <v>29</v>
@@ -18559,46 +18559,46 @@
         <v>45430.53125</v>
       </c>
       <c r="E197" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G197">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H197">
         <v>1</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K197" t="s">
         <v>46</v>
       </c>
       <c r="L197">
-        <v>1.7</v>
+        <v>1.444</v>
       </c>
       <c r="M197">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N197">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="O197">
-        <v>1.333</v>
+        <v>1.45</v>
       </c>
       <c r="P197">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q197">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R197">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S197">
         <v>2.025</v>
@@ -18607,16 +18607,16 @@
         <v>1.825</v>
       </c>
       <c r="U197">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V197">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W197">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X197">
-        <v>0.333</v>
+        <v>0.45</v>
       </c>
       <c r="Y197">
         <v>-1</v>
@@ -18625,16 +18625,16 @@
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC197">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AD197">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="198" spans="1:30">
